--- a/Översikt HULTSFRED.xlsx
+++ b/Översikt HULTSFRED.xlsx
@@ -572,7 +572,7 @@
         <v>43874</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>44894</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>44468</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
         <v>44175</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>43753</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1080,7 +1080,7 @@
         <v>43921</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44069</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>43438</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>43507</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>43845</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43916</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>43986</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43426</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43447</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43874</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>44258</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>44474</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>44551</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>44224</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>44641</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
         <v>44809</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44822</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>45026</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43343</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>43405</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43418</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>43419</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>43489</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43682</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>44060</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>44083</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44098</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>44235</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>44235</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>44278</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>44280</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         <v>44468</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>44559</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>44565</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>44909</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>45053</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>43438</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43493</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>43545</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>43591</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>43702</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>43889</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43902</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4901,7 +4901,7 @@
         <v>43920</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
         <v>43962</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>44053</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         <v>44124</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>44159</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>44180</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>44295</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>44341</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>44375</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>44417</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>44455</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v>44526</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>44876</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         <v>44928</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6110,7 +6110,7 @@
         <v>44980</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         <v>45016</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>45093</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>43328</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>43329</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>43336</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>43340</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>43340</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>43342</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43357</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>43364</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43364</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43364</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43364</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>43370</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>43371</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>43375</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         <v>43377</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7220,7 +7220,7 @@
         <v>43385</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
         <v>43388</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7334,7 +7334,7 @@
         <v>43390</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7391,7 +7391,7 @@
         <v>43392</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7448,7 +7448,7 @@
         <v>43395</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>43395</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>43396</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>43402</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         <v>43403</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7733,7 +7733,7 @@
         <v>43403</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         <v>43403</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         <v>43404</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>43405</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>43410</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>43411</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>43411</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>43411</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>43413</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43415</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>43416</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>43416</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>43417</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>43417</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>43418</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>43418</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>43419</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>43419</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43419</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>43420</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>43423</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>43425</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43425</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>43426</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>43426</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>43426</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43427</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>43430</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>43430</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>43430</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43431</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>43431</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43432</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>43432</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>43433</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>43433</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>43437</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>43438</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>43438</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>43438</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>43439</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>43439</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>43444</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>43444</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>43445</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>43446</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>43446</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>43448</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>43448</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>43454</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>43455</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>43466</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43467</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>43468</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>43468</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43469</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43469</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>43472</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>43472</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11116,7 +11116,7 @@
         <v>43472</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11173,7 +11173,7 @@
         <v>43472</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11230,7 +11230,7 @@
         <v>43473</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11287,7 +11287,7 @@
         <v>43473</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11344,7 +11344,7 @@
         <v>43474</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
         <v>43475</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>43475</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>43475</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>43475</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43475</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>43475</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11763,7 +11763,7 @@
         <v>43478</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11820,7 +11820,7 @@
         <v>43479</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11877,7 +11877,7 @@
         <v>43479</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11934,7 +11934,7 @@
         <v>43480</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11991,7 +11991,7 @@
         <v>43481</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12048,7 +12048,7 @@
         <v>43484</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12105,7 +12105,7 @@
         <v>43486</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12162,7 +12162,7 @@
         <v>43488</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12219,7 +12219,7 @@
         <v>43488</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12276,7 +12276,7 @@
         <v>43489</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12333,7 +12333,7 @@
         <v>43489</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>43490</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>43493</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12514,7 +12514,7 @@
         <v>43494</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12571,7 +12571,7 @@
         <v>43494</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12628,7 +12628,7 @@
         <v>43494</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12685,7 +12685,7 @@
         <v>43496</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>43497</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>43497</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         <v>43497</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>43497</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12975,7 +12975,7 @@
         <v>43500</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13032,7 +13032,7 @@
         <v>43504</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13089,7 +13089,7 @@
         <v>43511</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>43516</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>43516</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>43520</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>43522</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>43523</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>43524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>43525</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>43526</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>43528</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>43528</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>43528</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>43528</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13835,7 +13835,7 @@
         <v>43530</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13892,7 +13892,7 @@
         <v>43532</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13949,7 +13949,7 @@
         <v>43539</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14006,7 +14006,7 @@
         <v>43542</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14063,7 +14063,7 @@
         <v>43550</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14120,7 +14120,7 @@
         <v>43551</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14177,7 +14177,7 @@
         <v>43551</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>43551</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>43551</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14348,7 +14348,7 @@
         <v>43556</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>43557</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14462,7 +14462,7 @@
         <v>43558</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>43565</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>43570</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14638,7 +14638,7 @@
         <v>43571</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14695,7 +14695,7 @@
         <v>43572</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>43578</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>43579</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>43584</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>43584</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>43584</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>43584</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>43584</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>43585</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>43587</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>43587</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         <v>43593</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>43595</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>43605</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>43605</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>43627</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>43628</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>43628</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>43628</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>43633</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>43634</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>43634</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>43634</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>43635</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>43635</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>43640</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>43640</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>43641</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>43642</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>43643</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>43643</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>43643</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16534,7 +16534,7 @@
         <v>43644</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16591,7 +16591,7 @@
         <v>43647</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16648,7 +16648,7 @@
         <v>43654</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>43656</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>43658</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16819,7 +16819,7 @@
         <v>43661</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>43665</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16933,7 +16933,7 @@
         <v>43665</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16990,7 +16990,7 @@
         <v>43667</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17047,7 +17047,7 @@
         <v>43668</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17104,7 +17104,7 @@
         <v>43669</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17161,7 +17161,7 @@
         <v>43670</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17218,7 +17218,7 @@
         <v>43675</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17275,7 +17275,7 @@
         <v>43677</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17332,7 +17332,7 @@
         <v>43682</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>43682</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>43682</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>43683</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>43683</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>43683</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>43689</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>43690</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>43691</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17845,7 +17845,7 @@
         <v>43692</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>43696</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17959,7 +17959,7 @@
         <v>43696</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18016,7 +18016,7 @@
         <v>43697</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18073,7 +18073,7 @@
         <v>43697</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18130,7 +18130,7 @@
         <v>43698</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18187,7 +18187,7 @@
         <v>43699</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18244,7 +18244,7 @@
         <v>43700</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18301,7 +18301,7 @@
         <v>43702</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18358,7 +18358,7 @@
         <v>43703</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18415,7 +18415,7 @@
         <v>43703</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18472,7 +18472,7 @@
         <v>43703</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18529,7 +18529,7 @@
         <v>43705</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18586,7 +18586,7 @@
         <v>43707</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18643,7 +18643,7 @@
         <v>43707</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>43710</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18757,7 +18757,7 @@
         <v>43712</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18814,7 +18814,7 @@
         <v>43712</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>43713</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>43713</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>43713</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>43714</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19114,7 +19114,7 @@
         <v>43718</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         <v>43719</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19228,7 +19228,7 @@
         <v>43719</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19285,7 +19285,7 @@
         <v>43722</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19342,7 +19342,7 @@
         <v>43724</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19399,7 +19399,7 @@
         <v>43724</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19456,7 +19456,7 @@
         <v>43724</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19513,7 +19513,7 @@
         <v>43726</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19570,7 +19570,7 @@
         <v>43726</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19627,7 +19627,7 @@
         <v>43728</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>43732</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>43733</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>43734</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>43740</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>43740</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>43740</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>43742</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>43742</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>43742</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>43742</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>43742</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>43742</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>43745</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>43746</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>43746</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>43746</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>43747</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>43748</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>43751</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>43754</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>43756</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>43756</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>43756</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>43756</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21057,7 +21057,7 @@
         <v>43756</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21114,7 +21114,7 @@
         <v>43760</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
         <v>43762</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>43762</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>43764</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>43767</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21399,7 +21399,7 @@
         <v>43767</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>43767</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>43769</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>43769</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>43769</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>43769</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>43772</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         <v>43774</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>43776</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21927,7 +21927,7 @@
         <v>43776</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         <v>43776</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22046,7 +22046,7 @@
         <v>43776</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22108,7 +22108,7 @@
         <v>43776</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22170,7 +22170,7 @@
         <v>43776</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22232,7 +22232,7 @@
         <v>43776</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>43776</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>43777</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>43780</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>43780</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22522,7 +22522,7 @@
         <v>43780</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22579,7 +22579,7 @@
         <v>43782</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>43783</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22698,7 +22698,7 @@
         <v>43783</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22760,7 +22760,7 @@
         <v>43783</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22822,7 +22822,7 @@
         <v>43794</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22879,7 +22879,7 @@
         <v>43794</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22936,7 +22936,7 @@
         <v>43795</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22993,7 +22993,7 @@
         <v>43797</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23050,7 +23050,7 @@
         <v>43800</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23107,7 +23107,7 @@
         <v>43803</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23164,7 +23164,7 @@
         <v>43803</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23221,7 +23221,7 @@
         <v>43803</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23278,7 +23278,7 @@
         <v>43807</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23335,7 +23335,7 @@
         <v>43808</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23392,7 +23392,7 @@
         <v>43808</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
         <v>43808</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         <v>43808</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         <v>43810</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>43810</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23687,7 +23687,7 @@
         <v>43810</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23749,7 +23749,7 @@
         <v>43810</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23811,7 +23811,7 @@
         <v>43810</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23873,7 +23873,7 @@
         <v>43811</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         <v>43811</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>43811</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24044,7 +24044,7 @@
         <v>43815</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>43816</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24158,7 +24158,7 @@
         <v>43816</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>43817</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>43833</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>43833</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
         <v>43838</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>43842</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>43843</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24567,7 +24567,7 @@
         <v>43847</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>43847</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>43847</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24738,7 +24738,7 @@
         <v>43847</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24795,7 +24795,7 @@
         <v>43850</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24852,7 +24852,7 @@
         <v>43850</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24909,7 +24909,7 @@
         <v>43850</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24966,7 +24966,7 @@
         <v>43858</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25023,7 +25023,7 @@
         <v>43858</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25080,7 +25080,7 @@
         <v>43859</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25142,7 +25142,7 @@
         <v>43864</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25199,7 +25199,7 @@
         <v>43865</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25256,7 +25256,7 @@
         <v>43865</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>43867</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>43872</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25427,7 +25427,7 @@
         <v>43872</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25484,7 +25484,7 @@
         <v>43873</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25541,7 +25541,7 @@
         <v>43873</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25598,7 +25598,7 @@
         <v>43878</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25655,7 +25655,7 @@
         <v>43878</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25712,7 +25712,7 @@
         <v>43879</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25769,7 +25769,7 @@
         <v>43879</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25831,7 +25831,7 @@
         <v>43879</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25888,7 +25888,7 @@
         <v>43880</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25945,7 +25945,7 @@
         <v>43882</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26002,7 +26002,7 @@
         <v>43885</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26059,7 +26059,7 @@
         <v>43885</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>43886</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>43887</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>43889</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26292,7 +26292,7 @@
         <v>43889</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>43892</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26411,7 +26411,7 @@
         <v>43899</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26468,7 +26468,7 @@
         <v>43900</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26525,7 +26525,7 @@
         <v>43900</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26582,7 +26582,7 @@
         <v>43902</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26639,7 +26639,7 @@
         <v>43906</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26696,7 +26696,7 @@
         <v>43907</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26753,7 +26753,7 @@
         <v>43910</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26810,7 +26810,7 @@
         <v>43910</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26867,7 +26867,7 @@
         <v>43913</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         <v>43913</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26981,7 +26981,7 @@
         <v>43913</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27043,7 +27043,7 @@
         <v>43913</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27100,7 +27100,7 @@
         <v>43916</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27157,7 +27157,7 @@
         <v>43921</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27214,7 +27214,7 @@
         <v>43921</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27271,7 +27271,7 @@
         <v>43921</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27328,7 +27328,7 @@
         <v>43922</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27390,7 +27390,7 @@
         <v>43924</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27452,7 +27452,7 @@
         <v>43924</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27514,7 +27514,7 @@
         <v>43924</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27576,7 +27576,7 @@
         <v>43924</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27638,7 +27638,7 @@
         <v>43924</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27700,7 +27700,7 @@
         <v>43929</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27757,7 +27757,7 @@
         <v>43936</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27814,7 +27814,7 @@
         <v>43943</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27871,7 +27871,7 @@
         <v>43951</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27928,7 +27928,7 @@
         <v>43951</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27985,7 +27985,7 @@
         <v>43955</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28042,7 +28042,7 @@
         <v>43958</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         <v>43960</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28156,7 +28156,7 @@
         <v>43960</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28213,7 +28213,7 @@
         <v>43964</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28270,7 +28270,7 @@
         <v>43964</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28327,7 +28327,7 @@
         <v>43965</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28389,7 +28389,7 @@
         <v>43965</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28451,7 +28451,7 @@
         <v>43969</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28508,7 +28508,7 @@
         <v>43969</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28565,7 +28565,7 @@
         <v>43970</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28622,7 +28622,7 @@
         <v>43970</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28679,7 +28679,7 @@
         <v>43971</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28736,7 +28736,7 @@
         <v>43971</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28793,7 +28793,7 @@
         <v>43977</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28855,7 +28855,7 @@
         <v>43977</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         <v>43977</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28979,7 +28979,7 @@
         <v>43986</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29036,7 +29036,7 @@
         <v>43986</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29093,7 +29093,7 @@
         <v>43994</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29155,7 +29155,7 @@
         <v>44004</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29212,7 +29212,7 @@
         <v>44012</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29269,7 +29269,7 @@
         <v>44014</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29326,7 +29326,7 @@
         <v>44018</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29383,7 +29383,7 @@
         <v>44018</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29440,7 +29440,7 @@
         <v>44021</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29497,7 +29497,7 @@
         <v>44022</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29554,7 +29554,7 @@
         <v>44022</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         <v>44026</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>44027</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29725,7 +29725,7 @@
         <v>44028</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29782,7 +29782,7 @@
         <v>44033</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29839,7 +29839,7 @@
         <v>44034</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29896,7 +29896,7 @@
         <v>44036</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29953,7 +29953,7 @@
         <v>44040</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30010,7 +30010,7 @@
         <v>44042</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30067,7 +30067,7 @@
         <v>44047</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30124,7 +30124,7 @@
         <v>44047</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30181,7 +30181,7 @@
         <v>44047</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30238,7 +30238,7 @@
         <v>44048</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30295,7 +30295,7 @@
         <v>44050</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30352,7 +30352,7 @@
         <v>44053</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>44053</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         <v>44053</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30523,7 +30523,7 @@
         <v>44060</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30580,7 +30580,7 @@
         <v>44061</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30642,7 +30642,7 @@
         <v>44061</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30699,7 +30699,7 @@
         <v>44061</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30756,7 +30756,7 @@
         <v>44061</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30813,7 +30813,7 @@
         <v>44063</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30870,7 +30870,7 @@
         <v>44063</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30927,7 +30927,7 @@
         <v>44064</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30984,7 +30984,7 @@
         <v>44067</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31041,7 +31041,7 @@
         <v>44068</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31098,7 +31098,7 @@
         <v>44068</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31155,7 +31155,7 @@
         <v>44068</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31212,7 +31212,7 @@
         <v>44069</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31269,7 +31269,7 @@
         <v>44071</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31326,7 +31326,7 @@
         <v>44071</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>44075</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31440,7 +31440,7 @@
         <v>44075</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31497,7 +31497,7 @@
         <v>44076</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31559,7 +31559,7 @@
         <v>44076</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31621,7 +31621,7 @@
         <v>44081</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31678,7 +31678,7 @@
         <v>44083</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31735,7 +31735,7 @@
         <v>44084</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31792,7 +31792,7 @@
         <v>44084</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>44084</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         <v>44084</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31963,7 +31963,7 @@
         <v>44087</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>44087</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>44090</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>44090</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>44091</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>44092</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32305,7 +32305,7 @@
         <v>44097</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32362,7 +32362,7 @@
         <v>44097</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32424,7 +32424,7 @@
         <v>44099</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32481,7 +32481,7 @@
         <v>44106</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32543,7 +32543,7 @@
         <v>44110</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32605,7 +32605,7 @@
         <v>44110</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32662,7 +32662,7 @@
         <v>44113</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32724,7 +32724,7 @@
         <v>44118</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32781,7 +32781,7 @@
         <v>44124</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32838,7 +32838,7 @@
         <v>44126</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32895,7 +32895,7 @@
         <v>44126</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32952,7 +32952,7 @@
         <v>44134</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33009,7 +33009,7 @@
         <v>44137</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33071,7 +33071,7 @@
         <v>44146</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33128,7 +33128,7 @@
         <v>44146</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33185,7 +33185,7 @@
         <v>44151</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33242,7 +33242,7 @@
         <v>44151</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33299,7 +33299,7 @@
         <v>44151</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33356,7 +33356,7 @@
         <v>44154</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33413,7 +33413,7 @@
         <v>44159</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33470,7 +33470,7 @@
         <v>44162</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33527,7 +33527,7 @@
         <v>44162</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33584,7 +33584,7 @@
         <v>44172</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33641,7 +33641,7 @@
         <v>44179</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33698,7 +33698,7 @@
         <v>44182</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33755,7 +33755,7 @@
         <v>44186</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33812,7 +33812,7 @@
         <v>44186</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33869,7 +33869,7 @@
         <v>44186</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33926,7 +33926,7 @@
         <v>44186</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33983,7 +33983,7 @@
         <v>44188</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34040,7 +34040,7 @@
         <v>44193</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34097,7 +34097,7 @@
         <v>44193</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34154,7 +34154,7 @@
         <v>44193</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34216,7 +34216,7 @@
         <v>44193</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34273,7 +34273,7 @@
         <v>44195</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34330,7 +34330,7 @@
         <v>44201</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34387,7 +34387,7 @@
         <v>44203</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34444,7 +34444,7 @@
         <v>44215</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34501,7 +34501,7 @@
         <v>44216</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34558,7 +34558,7 @@
         <v>44218</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34615,7 +34615,7 @@
         <v>44223</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34672,7 +34672,7 @@
         <v>44223</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34729,7 +34729,7 @@
         <v>44223</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         <v>44229</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34843,7 +34843,7 @@
         <v>44236</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34905,7 +34905,7 @@
         <v>44243</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34962,7 +34962,7 @@
         <v>44250</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35019,7 +35019,7 @@
         <v>44250</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35076,7 +35076,7 @@
         <v>44252</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35138,7 +35138,7 @@
         <v>44252</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35200,7 +35200,7 @@
         <v>44258</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35257,7 +35257,7 @@
         <v>44259</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35314,7 +35314,7 @@
         <v>44260</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35376,7 +35376,7 @@
         <v>44263</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35433,7 +35433,7 @@
         <v>44274</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35490,7 +35490,7 @@
         <v>44274</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35547,7 +35547,7 @@
         <v>44278</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35604,7 +35604,7 @@
         <v>44295</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         <v>44300</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35723,7 +35723,7 @@
         <v>44308</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35780,7 +35780,7 @@
         <v>44314</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35837,7 +35837,7 @@
         <v>44319</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35894,7 +35894,7 @@
         <v>44320</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35951,7 +35951,7 @@
         <v>44326</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36008,7 +36008,7 @@
         <v>44334</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36065,7 +36065,7 @@
         <v>44337</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36122,7 +36122,7 @@
         <v>44349</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36184,7 +36184,7 @@
         <v>44353</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36241,7 +36241,7 @@
         <v>44354</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36303,7 +36303,7 @@
         <v>44373</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36360,7 +36360,7 @@
         <v>44375</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36417,7 +36417,7 @@
         <v>44375</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36474,7 +36474,7 @@
         <v>44375</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36531,7 +36531,7 @@
         <v>44375</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36588,7 +36588,7 @@
         <v>44375</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36645,7 +36645,7 @@
         <v>44382</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36702,7 +36702,7 @@
         <v>44386</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36759,7 +36759,7 @@
         <v>44411</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36816,7 +36816,7 @@
         <v>44419</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36873,7 +36873,7 @@
         <v>44420</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36930,7 +36930,7 @@
         <v>44420</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36987,7 +36987,7 @@
         <v>44420</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37044,7 +37044,7 @@
         <v>44426</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37101,7 +37101,7 @@
         <v>44432</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37158,7 +37158,7 @@
         <v>44433</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37220,7 +37220,7 @@
         <v>44434</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37277,7 +37277,7 @@
         <v>44438</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37334,7 +37334,7 @@
         <v>44438</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37391,7 +37391,7 @@
         <v>44439</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37448,7 +37448,7 @@
         <v>44441</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37505,7 +37505,7 @@
         <v>44447</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37562,7 +37562,7 @@
         <v>44447</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37624,7 +37624,7 @@
         <v>44449</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37681,7 +37681,7 @@
         <v>44456</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37738,7 +37738,7 @@
         <v>44468</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37800,7 +37800,7 @@
         <v>44468</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37862,7 +37862,7 @@
         <v>44470</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37919,7 +37919,7 @@
         <v>44473</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37976,7 +37976,7 @@
         <v>44473</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38033,7 +38033,7 @@
         <v>44473</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38090,7 +38090,7 @@
         <v>44477</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38147,7 +38147,7 @@
         <v>44480</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38204,7 +38204,7 @@
         <v>44482</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38261,7 +38261,7 @@
         <v>44484</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38323,7 +38323,7 @@
         <v>44484</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38380,7 +38380,7 @@
         <v>44488</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38437,7 +38437,7 @@
         <v>44490</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38494,7 +38494,7 @@
         <v>44496</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38551,7 +38551,7 @@
         <v>44502</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38608,7 +38608,7 @@
         <v>44511</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38665,7 +38665,7 @@
         <v>44516</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38722,7 +38722,7 @@
         <v>44526</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38779,7 +38779,7 @@
         <v>44526</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38836,7 +38836,7 @@
         <v>44529</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38893,7 +38893,7 @@
         <v>44530</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38950,7 +38950,7 @@
         <v>44532</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39007,7 +39007,7 @@
         <v>44532</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39064,7 +39064,7 @@
         <v>44536</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39121,7 +39121,7 @@
         <v>44549</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39178,7 +39178,7 @@
         <v>44552</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39235,7 +39235,7 @@
         <v>44564</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39292,7 +39292,7 @@
         <v>44564</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39349,7 +39349,7 @@
         <v>44565</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39406,7 +39406,7 @@
         <v>44582</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39463,7 +39463,7 @@
         <v>44582</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39525,7 +39525,7 @@
         <v>44587</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39582,7 +39582,7 @@
         <v>44592</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39639,7 +39639,7 @@
         <v>44593</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39696,7 +39696,7 @@
         <v>44593</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39753,7 +39753,7 @@
         <v>44594</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39810,7 +39810,7 @@
         <v>44594</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39867,7 +39867,7 @@
         <v>44599</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39924,7 +39924,7 @@
         <v>44608</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39981,7 +39981,7 @@
         <v>44610</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40043,7 +40043,7 @@
         <v>44612</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40105,7 +40105,7 @@
         <v>44614</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40162,7 +40162,7 @@
         <v>44623</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40219,7 +40219,7 @@
         <v>44624</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40276,7 +40276,7 @@
         <v>44624</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40333,7 +40333,7 @@
         <v>44643</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40390,7 +40390,7 @@
         <v>44645</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40447,7 +40447,7 @@
         <v>44651</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40504,7 +40504,7 @@
         <v>44651</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40566,7 +40566,7 @@
         <v>44655</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40623,7 +40623,7 @@
         <v>44673</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40680,7 +40680,7 @@
         <v>44676</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40737,7 +40737,7 @@
         <v>44683</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40794,7 +40794,7 @@
         <v>44686</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40856,7 +40856,7 @@
         <v>44694</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40913,7 +40913,7 @@
         <v>44705</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40970,7 +40970,7 @@
         <v>44712</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41027,7 +41027,7 @@
         <v>44713</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41084,7 +41084,7 @@
         <v>44714</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41141,7 +41141,7 @@
         <v>44719</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41198,7 +41198,7 @@
         <v>44725</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41255,7 +41255,7 @@
         <v>44725</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41312,7 +41312,7 @@
         <v>44741</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41369,7 +41369,7 @@
         <v>44749</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         <v>44755</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41483,7 +41483,7 @@
         <v>44794</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41540,7 +41540,7 @@
         <v>44794</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41597,7 +41597,7 @@
         <v>44811</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41654,7 +41654,7 @@
         <v>44811</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41711,7 +41711,7 @@
         <v>44819</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41768,7 +41768,7 @@
         <v>44824</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41825,7 +41825,7 @@
         <v>44826</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41882,7 +41882,7 @@
         <v>44827</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41939,7 +41939,7 @@
         <v>44827</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41996,7 +41996,7 @@
         <v>44827</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42053,7 +42053,7 @@
         <v>44827</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42110,7 +42110,7 @@
         <v>44827</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42167,7 +42167,7 @@
         <v>44827</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42224,7 +42224,7 @@
         <v>44831</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42281,7 +42281,7 @@
         <v>44831</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42338,7 +42338,7 @@
         <v>44831</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42395,7 +42395,7 @@
         <v>44833</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42452,7 +42452,7 @@
         <v>44833</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42509,7 +42509,7 @@
         <v>44834</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42566,7 +42566,7 @@
         <v>44846</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42623,7 +42623,7 @@
         <v>44862</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42685,7 +42685,7 @@
         <v>44875</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42742,7 +42742,7 @@
         <v>44876</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42799,7 +42799,7 @@
         <v>44880</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42856,7 +42856,7 @@
         <v>44882</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42913,7 +42913,7 @@
         <v>44893</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42975,7 +42975,7 @@
         <v>44894</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43032,7 +43032,7 @@
         <v>44895</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43094,7 +43094,7 @@
         <v>44901</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43156,7 +43156,7 @@
         <v>44910</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43213,7 +43213,7 @@
         <v>44917</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43270,7 +43270,7 @@
         <v>44928</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43332,7 +43332,7 @@
         <v>44928</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43389,7 +43389,7 @@
         <v>44935</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43446,7 +43446,7 @@
         <v>44938</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43503,7 +43503,7 @@
         <v>44939</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43560,7 +43560,7 @@
         <v>44939</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43617,7 +43617,7 @@
         <v>44942</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43674,7 +43674,7 @@
         <v>44942</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43731,7 +43731,7 @@
         <v>44943</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43788,7 +43788,7 @@
         <v>44952</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43845,7 +43845,7 @@
         <v>44960</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43907,7 +43907,7 @@
         <v>44963</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43964,7 +43964,7 @@
         <v>44966</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44021,7 +44021,7 @@
         <v>44970</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44078,7 +44078,7 @@
         <v>44971</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44135,7 +44135,7 @@
         <v>44971</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44192,7 +44192,7 @@
         <v>44977</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44249,7 +44249,7 @@
         <v>44988</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         <v>44988</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44363,7 +44363,7 @@
         <v>44991</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44420,7 +44420,7 @@
         <v>44994</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44477,7 +44477,7 @@
         <v>44995</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44534,7 +44534,7 @@
         <v>44999</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44591,7 +44591,7 @@
         <v>45007</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44648,7 +44648,7 @@
         <v>45013</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44705,7 +44705,7 @@
         <v>45013</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44762,7 +44762,7 @@
         <v>45016</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44819,7 +44819,7 @@
         <v>45016</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44876,7 +44876,7 @@
         <v>45016</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44933,7 +44933,7 @@
         <v>45026</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44990,7 +44990,7 @@
         <v>45028</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45047,7 +45047,7 @@
         <v>45030</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45109,7 +45109,7 @@
         <v>45030</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45171,7 +45171,7 @@
         <v>45033</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45228,7 +45228,7 @@
         <v>45047</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45285,7 +45285,7 @@
         <v>45048</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45342,7 +45342,7 @@
         <v>45049</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45399,7 +45399,7 @@
         <v>45054</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45456,7 +45456,7 @@
         <v>45054</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45513,7 +45513,7 @@
         <v>45054</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45570,7 +45570,7 @@
         <v>45054</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45627,7 +45627,7 @@
         <v>45055</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45684,7 +45684,7 @@
         <v>45061</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45746,7 +45746,7 @@
         <v>45061</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45803,7 +45803,7 @@
         <v>45063</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45860,7 +45860,7 @@
         <v>45070</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45917,7 +45917,7 @@
         <v>45071</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45974,7 +45974,7 @@
         <v>45071</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46031,7 +46031,7 @@
         <v>45071</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46088,7 +46088,7 @@
         <v>45077</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46145,7 +46145,7 @@
         <v>45079</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46202,7 +46202,7 @@
         <v>45079</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46259,7 +46259,7 @@
         <v>45079</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46316,7 +46316,7 @@
         <v>45081</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46373,7 +46373,7 @@
         <v>45085</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46430,7 +46430,7 @@
         <v>45092</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46487,7 +46487,7 @@
         <v>45093</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46564,7 +46564,7 @@
         <v>45099</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46621,7 +46621,7 @@
         <v>45099</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46678,7 +46678,7 @@
         <v>45099</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46735,7 +46735,7 @@
         <v>45099</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46792,7 +46792,7 @@
         <v>45099</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46849,7 +46849,7 @@
         <v>45099</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46906,7 +46906,7 @@
         <v>45099</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46963,7 +46963,7 @@
         <v>45099</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47020,7 +47020,7 @@
         <v>45099</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47077,7 +47077,7 @@
         <v>45099</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47134,7 +47134,7 @@
         <v>45099</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47191,7 +47191,7 @@
         <v>45099</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47248,7 +47248,7 @@
         <v>45103</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47305,7 +47305,7 @@
         <v>45104</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47362,7 +47362,7 @@
         <v>45105</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47419,7 +47419,7 @@
         <v>45113</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47476,7 +47476,7 @@
         <v>45113</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47533,7 +47533,7 @@
         <v>45127</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47590,7 +47590,7 @@
         <v>45127</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47647,7 +47647,7 @@
         <v>45148</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47704,7 +47704,7 @@
         <v>45149</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47761,7 +47761,7 @@
         <v>45153</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47818,7 +47818,7 @@
         <v>45160</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47875,7 +47875,7 @@
         <v>45161</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47932,7 +47932,7 @@
         <v>45168</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47994,7 +47994,7 @@
         <v>45168</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48051,7 +48051,7 @@
         <v>45168</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>

--- a/Översikt HULTSFRED.xlsx
+++ b/Översikt HULTSFRED.xlsx
@@ -572,7 +572,7 @@
         <v>43874</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>44894</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>44468</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
         <v>44175</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>43753</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1080,7 +1080,7 @@
         <v>43921</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44069</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>43438</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>43507</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>43845</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43916</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>43986</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43426</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43447</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43874</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>44258</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>44474</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>44551</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>44224</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>44641</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
         <v>44809</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44822</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>45026</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43343</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>43405</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43418</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>43419</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>43489</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43682</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>44060</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>44083</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44098</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>44235</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>44235</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>44278</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>44280</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         <v>44468</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>44559</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>44565</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>44909</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>45053</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>43438</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43493</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>43545</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>43591</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>43702</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>43889</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43902</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4901,7 +4901,7 @@
         <v>43920</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
         <v>43962</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>44053</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         <v>44124</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>44159</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>44180</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>44295</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>44341</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>44375</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>44417</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>44455</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v>44526</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>44876</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         <v>44928</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6110,7 +6110,7 @@
         <v>44980</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         <v>45016</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>45093</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>43328</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>43329</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>43336</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>43340</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>43340</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>43342</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43357</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>43364</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43364</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43364</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43364</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>43370</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>43371</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>43375</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         <v>43377</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7220,7 +7220,7 @@
         <v>43385</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
         <v>43388</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7334,7 +7334,7 @@
         <v>43390</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7391,7 +7391,7 @@
         <v>43392</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7448,7 +7448,7 @@
         <v>43395</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>43395</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>43396</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>43402</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         <v>43403</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7733,7 +7733,7 @@
         <v>43403</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         <v>43403</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         <v>43404</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>43405</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>43410</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>43411</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>43411</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>43411</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>43413</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43415</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>43416</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>43416</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>43417</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>43417</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>43418</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>43418</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>43419</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>43419</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43419</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>43420</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>43423</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>43425</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43425</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>43426</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>43426</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>43426</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43427</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>43430</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>43430</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>43430</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43431</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>43431</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43432</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>43432</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>43433</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>43433</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>43437</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>43438</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>43438</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>43438</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>43439</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>43439</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>43444</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>43444</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>43445</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>43446</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>43446</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>43448</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>43448</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>43454</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>43455</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>43466</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43467</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>43468</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>43468</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43469</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43469</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>43472</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>43472</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11116,7 +11116,7 @@
         <v>43472</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11173,7 +11173,7 @@
         <v>43472</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11230,7 +11230,7 @@
         <v>43473</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11287,7 +11287,7 @@
         <v>43473</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11344,7 +11344,7 @@
         <v>43474</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
         <v>43475</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>43475</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>43475</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>43475</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43475</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>43475</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11763,7 +11763,7 @@
         <v>43478</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11820,7 +11820,7 @@
         <v>43479</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11877,7 +11877,7 @@
         <v>43479</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11934,7 +11934,7 @@
         <v>43480</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11991,7 +11991,7 @@
         <v>43481</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12048,7 +12048,7 @@
         <v>43484</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12105,7 +12105,7 @@
         <v>43486</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12162,7 +12162,7 @@
         <v>43488</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12219,7 +12219,7 @@
         <v>43488</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12276,7 +12276,7 @@
         <v>43489</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12333,7 +12333,7 @@
         <v>43489</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>43490</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>43493</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12514,7 +12514,7 @@
         <v>43494</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12571,7 +12571,7 @@
         <v>43494</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12628,7 +12628,7 @@
         <v>43494</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12685,7 +12685,7 @@
         <v>43496</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>43497</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>43497</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         <v>43497</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>43497</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12975,7 +12975,7 @@
         <v>43500</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13032,7 +13032,7 @@
         <v>43504</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13089,7 +13089,7 @@
         <v>43511</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>43516</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>43516</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>43520</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>43522</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>43523</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>43524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>43525</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>43526</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>43528</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>43528</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>43528</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>43528</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13835,7 +13835,7 @@
         <v>43530</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13892,7 +13892,7 @@
         <v>43532</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13949,7 +13949,7 @@
         <v>43539</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14006,7 +14006,7 @@
         <v>43542</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14063,7 +14063,7 @@
         <v>43550</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14120,7 +14120,7 @@
         <v>43551</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14177,7 +14177,7 @@
         <v>43551</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>43551</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>43551</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14348,7 +14348,7 @@
         <v>43556</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>43557</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14462,7 +14462,7 @@
         <v>43558</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>43565</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>43570</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14638,7 +14638,7 @@
         <v>43571</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14695,7 +14695,7 @@
         <v>43572</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>43578</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>43579</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>43584</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>43584</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>43584</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>43584</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>43584</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>43585</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>43587</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>43587</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         <v>43593</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>43595</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>43605</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>43605</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>43627</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>43628</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>43628</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>43628</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>43633</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>43634</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>43634</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>43634</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>43635</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>43635</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>43640</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>43640</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>43641</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>43642</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>43643</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>43643</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>43643</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16534,7 +16534,7 @@
         <v>43644</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16591,7 +16591,7 @@
         <v>43647</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16648,7 +16648,7 @@
         <v>43654</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>43656</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>43658</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16819,7 +16819,7 @@
         <v>43661</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>43665</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16933,7 +16933,7 @@
         <v>43665</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16990,7 +16990,7 @@
         <v>43667</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17047,7 +17047,7 @@
         <v>43668</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17104,7 +17104,7 @@
         <v>43669</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17161,7 +17161,7 @@
         <v>43670</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17218,7 +17218,7 @@
         <v>43675</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17275,7 +17275,7 @@
         <v>43677</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17332,7 +17332,7 @@
         <v>43682</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>43682</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>43682</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>43683</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>43683</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>43683</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>43689</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>43690</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>43691</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17845,7 +17845,7 @@
         <v>43692</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>43696</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17959,7 +17959,7 @@
         <v>43696</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18016,7 +18016,7 @@
         <v>43697</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18073,7 +18073,7 @@
         <v>43697</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18130,7 +18130,7 @@
         <v>43698</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18187,7 +18187,7 @@
         <v>43699</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18244,7 +18244,7 @@
         <v>43700</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18301,7 +18301,7 @@
         <v>43702</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18358,7 +18358,7 @@
         <v>43703</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18415,7 +18415,7 @@
         <v>43703</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18472,7 +18472,7 @@
         <v>43703</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18529,7 +18529,7 @@
         <v>43705</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18586,7 +18586,7 @@
         <v>43707</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18643,7 +18643,7 @@
         <v>43707</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>43710</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18757,7 +18757,7 @@
         <v>43712</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18814,7 +18814,7 @@
         <v>43712</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>43713</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>43713</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>43713</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>43714</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19114,7 +19114,7 @@
         <v>43718</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         <v>43719</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19228,7 +19228,7 @@
         <v>43719</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19285,7 +19285,7 @@
         <v>43722</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19342,7 +19342,7 @@
         <v>43724</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19399,7 +19399,7 @@
         <v>43724</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19456,7 +19456,7 @@
         <v>43724</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19513,7 +19513,7 @@
         <v>43726</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19570,7 +19570,7 @@
         <v>43726</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19627,7 +19627,7 @@
         <v>43728</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>43732</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>43733</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>43734</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>43740</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>43740</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>43740</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>43742</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>43742</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>43742</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>43742</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>43742</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>43742</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>43745</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>43746</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>43746</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>43746</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>43747</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>43748</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>43751</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>43754</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>43756</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>43756</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>43756</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>43756</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21057,7 +21057,7 @@
         <v>43756</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21114,7 +21114,7 @@
         <v>43760</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
         <v>43762</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>43762</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>43764</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>43767</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21399,7 +21399,7 @@
         <v>43767</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>43767</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>43769</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>43769</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>43769</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>43769</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>43772</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         <v>43774</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>43776</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21927,7 +21927,7 @@
         <v>43776</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         <v>43776</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22046,7 +22046,7 @@
         <v>43776</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22108,7 +22108,7 @@
         <v>43776</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22170,7 +22170,7 @@
         <v>43776</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22232,7 +22232,7 @@
         <v>43776</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>43776</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>43777</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>43780</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>43780</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22522,7 +22522,7 @@
         <v>43780</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22579,7 +22579,7 @@
         <v>43782</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>43783</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22698,7 +22698,7 @@
         <v>43783</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22760,7 +22760,7 @@
         <v>43783</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22822,7 +22822,7 @@
         <v>43794</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22879,7 +22879,7 @@
         <v>43794</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22936,7 +22936,7 @@
         <v>43795</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22993,7 +22993,7 @@
         <v>43797</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23050,7 +23050,7 @@
         <v>43800</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23107,7 +23107,7 @@
         <v>43803</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23164,7 +23164,7 @@
         <v>43803</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23221,7 +23221,7 @@
         <v>43803</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23278,7 +23278,7 @@
         <v>43807</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23335,7 +23335,7 @@
         <v>43808</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23392,7 +23392,7 @@
         <v>43808</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
         <v>43808</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         <v>43808</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         <v>43810</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>43810</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23687,7 +23687,7 @@
         <v>43810</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23749,7 +23749,7 @@
         <v>43810</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23811,7 +23811,7 @@
         <v>43810</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23873,7 +23873,7 @@
         <v>43811</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         <v>43811</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>43811</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24044,7 +24044,7 @@
         <v>43815</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>43816</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24158,7 +24158,7 @@
         <v>43816</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>43817</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>43833</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>43833</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
         <v>43838</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>43842</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>43843</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24567,7 +24567,7 @@
         <v>43847</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>43847</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>43847</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24738,7 +24738,7 @@
         <v>43847</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24795,7 +24795,7 @@
         <v>43850</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24852,7 +24852,7 @@
         <v>43850</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24909,7 +24909,7 @@
         <v>43850</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24966,7 +24966,7 @@
         <v>43858</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25023,7 +25023,7 @@
         <v>43858</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25080,7 +25080,7 @@
         <v>43859</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25142,7 +25142,7 @@
         <v>43864</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25199,7 +25199,7 @@
         <v>43865</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25256,7 +25256,7 @@
         <v>43865</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>43867</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>43872</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25427,7 +25427,7 @@
         <v>43872</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25484,7 +25484,7 @@
         <v>43873</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25541,7 +25541,7 @@
         <v>43873</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25598,7 +25598,7 @@
         <v>43878</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25655,7 +25655,7 @@
         <v>43878</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25712,7 +25712,7 @@
         <v>43879</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25769,7 +25769,7 @@
         <v>43879</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25831,7 +25831,7 @@
         <v>43879</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25888,7 +25888,7 @@
         <v>43880</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25945,7 +25945,7 @@
         <v>43882</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26002,7 +26002,7 @@
         <v>43885</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26059,7 +26059,7 @@
         <v>43885</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>43886</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>43887</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>43889</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26292,7 +26292,7 @@
         <v>43889</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>43892</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26411,7 +26411,7 @@
         <v>43899</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26468,7 +26468,7 @@
         <v>43900</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26525,7 +26525,7 @@
         <v>43900</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26582,7 +26582,7 @@
         <v>43902</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26639,7 +26639,7 @@
         <v>43906</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26696,7 +26696,7 @@
         <v>43907</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26753,7 +26753,7 @@
         <v>43910</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26810,7 +26810,7 @@
         <v>43910</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26867,7 +26867,7 @@
         <v>43913</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         <v>43913</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26981,7 +26981,7 @@
         <v>43913</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27043,7 +27043,7 @@
         <v>43913</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27100,7 +27100,7 @@
         <v>43916</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27157,7 +27157,7 @@
         <v>43921</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27214,7 +27214,7 @@
         <v>43921</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27271,7 +27271,7 @@
         <v>43921</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27328,7 +27328,7 @@
         <v>43922</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27390,7 +27390,7 @@
         <v>43924</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27452,7 +27452,7 @@
         <v>43924</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27514,7 +27514,7 @@
         <v>43924</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27576,7 +27576,7 @@
         <v>43924</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27638,7 +27638,7 @@
         <v>43924</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27700,7 +27700,7 @@
         <v>43929</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27757,7 +27757,7 @@
         <v>43936</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27814,7 +27814,7 @@
         <v>43943</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27871,7 +27871,7 @@
         <v>43951</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27928,7 +27928,7 @@
         <v>43951</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27985,7 +27985,7 @@
         <v>43955</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28042,7 +28042,7 @@
         <v>43958</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         <v>43960</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28156,7 +28156,7 @@
         <v>43960</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28213,7 +28213,7 @@
         <v>43964</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28270,7 +28270,7 @@
         <v>43964</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28327,7 +28327,7 @@
         <v>43965</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28389,7 +28389,7 @@
         <v>43965</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28451,7 +28451,7 @@
         <v>43969</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28508,7 +28508,7 @@
         <v>43969</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28565,7 +28565,7 @@
         <v>43970</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28622,7 +28622,7 @@
         <v>43970</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28679,7 +28679,7 @@
         <v>43971</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28736,7 +28736,7 @@
         <v>43971</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28793,7 +28793,7 @@
         <v>43977</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28855,7 +28855,7 @@
         <v>43977</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         <v>43977</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28979,7 +28979,7 @@
         <v>43986</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29036,7 +29036,7 @@
         <v>43986</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29093,7 +29093,7 @@
         <v>43994</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29155,7 +29155,7 @@
         <v>44004</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29212,7 +29212,7 @@
         <v>44012</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29269,7 +29269,7 @@
         <v>44014</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29326,7 +29326,7 @@
         <v>44018</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29383,7 +29383,7 @@
         <v>44018</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29440,7 +29440,7 @@
         <v>44021</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29497,7 +29497,7 @@
         <v>44022</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29554,7 +29554,7 @@
         <v>44022</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         <v>44026</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>44027</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29725,7 +29725,7 @@
         <v>44028</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29782,7 +29782,7 @@
         <v>44033</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29839,7 +29839,7 @@
         <v>44034</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29896,7 +29896,7 @@
         <v>44036</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29953,7 +29953,7 @@
         <v>44040</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30010,7 +30010,7 @@
         <v>44042</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30067,7 +30067,7 @@
         <v>44047</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30124,7 +30124,7 @@
         <v>44047</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30181,7 +30181,7 @@
         <v>44047</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30238,7 +30238,7 @@
         <v>44048</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30295,7 +30295,7 @@
         <v>44050</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30352,7 +30352,7 @@
         <v>44053</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>44053</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         <v>44053</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30523,7 +30523,7 @@
         <v>44060</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30580,7 +30580,7 @@
         <v>44061</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30642,7 +30642,7 @@
         <v>44061</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30699,7 +30699,7 @@
         <v>44061</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30756,7 +30756,7 @@
         <v>44061</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30813,7 +30813,7 @@
         <v>44063</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30870,7 +30870,7 @@
         <v>44063</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30927,7 +30927,7 @@
         <v>44064</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30984,7 +30984,7 @@
         <v>44067</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31041,7 +31041,7 @@
         <v>44068</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31098,7 +31098,7 @@
         <v>44068</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31155,7 +31155,7 @@
         <v>44068</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31212,7 +31212,7 @@
         <v>44069</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31269,7 +31269,7 @@
         <v>44071</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31326,7 +31326,7 @@
         <v>44071</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>44075</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31440,7 +31440,7 @@
         <v>44075</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31497,7 +31497,7 @@
         <v>44076</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31559,7 +31559,7 @@
         <v>44076</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31621,7 +31621,7 @@
         <v>44081</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31678,7 +31678,7 @@
         <v>44083</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31735,7 +31735,7 @@
         <v>44084</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31792,7 +31792,7 @@
         <v>44084</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>44084</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         <v>44084</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31963,7 +31963,7 @@
         <v>44087</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>44087</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>44090</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>44090</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>44091</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>44092</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32305,7 +32305,7 @@
         <v>44097</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32362,7 +32362,7 @@
         <v>44097</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32424,7 +32424,7 @@
         <v>44099</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32481,7 +32481,7 @@
         <v>44106</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32543,7 +32543,7 @@
         <v>44110</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32605,7 +32605,7 @@
         <v>44110</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32662,7 +32662,7 @@
         <v>44113</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32724,7 +32724,7 @@
         <v>44118</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32781,7 +32781,7 @@
         <v>44124</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32838,7 +32838,7 @@
         <v>44126</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32895,7 +32895,7 @@
         <v>44126</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32952,7 +32952,7 @@
         <v>44134</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33009,7 +33009,7 @@
         <v>44137</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33071,7 +33071,7 @@
         <v>44146</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33128,7 +33128,7 @@
         <v>44146</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33185,7 +33185,7 @@
         <v>44151</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33242,7 +33242,7 @@
         <v>44151</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33299,7 +33299,7 @@
         <v>44151</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33356,7 +33356,7 @@
         <v>44154</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33413,7 +33413,7 @@
         <v>44159</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33470,7 +33470,7 @@
         <v>44162</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33527,7 +33527,7 @@
         <v>44162</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33584,7 +33584,7 @@
         <v>44172</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33641,7 +33641,7 @@
         <v>44179</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33698,7 +33698,7 @@
         <v>44182</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33755,7 +33755,7 @@
         <v>44186</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33812,7 +33812,7 @@
         <v>44186</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33869,7 +33869,7 @@
         <v>44186</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33926,7 +33926,7 @@
         <v>44186</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33983,7 +33983,7 @@
         <v>44188</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34040,7 +34040,7 @@
         <v>44193</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34097,7 +34097,7 @@
         <v>44193</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34154,7 +34154,7 @@
         <v>44193</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34216,7 +34216,7 @@
         <v>44193</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34273,7 +34273,7 @@
         <v>44195</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34330,7 +34330,7 @@
         <v>44201</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34387,7 +34387,7 @@
         <v>44203</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34444,7 +34444,7 @@
         <v>44215</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34501,7 +34501,7 @@
         <v>44216</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34558,7 +34558,7 @@
         <v>44218</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34615,7 +34615,7 @@
         <v>44223</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34672,7 +34672,7 @@
         <v>44223</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34729,7 +34729,7 @@
         <v>44223</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         <v>44229</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34843,7 +34843,7 @@
         <v>44236</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34905,7 +34905,7 @@
         <v>44243</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34962,7 +34962,7 @@
         <v>44250</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35019,7 +35019,7 @@
         <v>44250</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35076,7 +35076,7 @@
         <v>44252</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35138,7 +35138,7 @@
         <v>44252</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35200,7 +35200,7 @@
         <v>44258</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35257,7 +35257,7 @@
         <v>44259</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35314,7 +35314,7 @@
         <v>44260</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35376,7 +35376,7 @@
         <v>44263</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35433,7 +35433,7 @@
         <v>44274</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35490,7 +35490,7 @@
         <v>44274</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35547,7 +35547,7 @@
         <v>44278</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35604,7 +35604,7 @@
         <v>44295</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         <v>44300</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35723,7 +35723,7 @@
         <v>44308</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35780,7 +35780,7 @@
         <v>44314</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35837,7 +35837,7 @@
         <v>44319</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35894,7 +35894,7 @@
         <v>44320</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35951,7 +35951,7 @@
         <v>44326</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36008,7 +36008,7 @@
         <v>44334</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36065,7 +36065,7 @@
         <v>44337</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36122,7 +36122,7 @@
         <v>44349</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36184,7 +36184,7 @@
         <v>44353</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36241,7 +36241,7 @@
         <v>44354</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36303,7 +36303,7 @@
         <v>44373</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36360,7 +36360,7 @@
         <v>44375</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36417,7 +36417,7 @@
         <v>44375</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36474,7 +36474,7 @@
         <v>44375</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36531,7 +36531,7 @@
         <v>44375</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36588,7 +36588,7 @@
         <v>44375</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36645,7 +36645,7 @@
         <v>44382</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36702,7 +36702,7 @@
         <v>44386</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36759,7 +36759,7 @@
         <v>44411</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36816,7 +36816,7 @@
         <v>44419</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36873,7 +36873,7 @@
         <v>44420</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36930,7 +36930,7 @@
         <v>44420</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36987,7 +36987,7 @@
         <v>44420</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37044,7 +37044,7 @@
         <v>44426</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37101,7 +37101,7 @@
         <v>44432</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37158,7 +37158,7 @@
         <v>44433</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37220,7 +37220,7 @@
         <v>44434</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37277,7 +37277,7 @@
         <v>44438</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37334,7 +37334,7 @@
         <v>44438</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37391,7 +37391,7 @@
         <v>44439</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37448,7 +37448,7 @@
         <v>44441</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37505,7 +37505,7 @@
         <v>44447</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37562,7 +37562,7 @@
         <v>44447</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37624,7 +37624,7 @@
         <v>44449</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37681,7 +37681,7 @@
         <v>44456</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37738,7 +37738,7 @@
         <v>44468</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37800,7 +37800,7 @@
         <v>44468</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37862,7 +37862,7 @@
         <v>44470</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37919,7 +37919,7 @@
         <v>44473</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37976,7 +37976,7 @@
         <v>44473</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38033,7 +38033,7 @@
         <v>44473</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38090,7 +38090,7 @@
         <v>44477</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38147,7 +38147,7 @@
         <v>44480</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38204,7 +38204,7 @@
         <v>44482</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38261,7 +38261,7 @@
         <v>44484</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38323,7 +38323,7 @@
         <v>44484</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38380,7 +38380,7 @@
         <v>44488</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38437,7 +38437,7 @@
         <v>44490</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38494,7 +38494,7 @@
         <v>44496</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38551,7 +38551,7 @@
         <v>44502</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38608,7 +38608,7 @@
         <v>44511</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38665,7 +38665,7 @@
         <v>44516</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38722,7 +38722,7 @@
         <v>44526</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38779,7 +38779,7 @@
         <v>44526</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38836,7 +38836,7 @@
         <v>44529</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38893,7 +38893,7 @@
         <v>44530</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38950,7 +38950,7 @@
         <v>44532</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39007,7 +39007,7 @@
         <v>44532</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39064,7 +39064,7 @@
         <v>44536</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39121,7 +39121,7 @@
         <v>44549</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39178,7 +39178,7 @@
         <v>44552</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39235,7 +39235,7 @@
         <v>44564</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39292,7 +39292,7 @@
         <v>44564</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39349,7 +39349,7 @@
         <v>44565</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39406,7 +39406,7 @@
         <v>44582</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39463,7 +39463,7 @@
         <v>44582</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39525,7 +39525,7 @@
         <v>44587</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39582,7 +39582,7 @@
         <v>44592</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39639,7 +39639,7 @@
         <v>44593</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39696,7 +39696,7 @@
         <v>44593</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39753,7 +39753,7 @@
         <v>44594</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39810,7 +39810,7 @@
         <v>44594</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39867,7 +39867,7 @@
         <v>44599</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39924,7 +39924,7 @@
         <v>44608</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39981,7 +39981,7 @@
         <v>44610</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40043,7 +40043,7 @@
         <v>44612</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40105,7 +40105,7 @@
         <v>44614</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40162,7 +40162,7 @@
         <v>44623</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40219,7 +40219,7 @@
         <v>44624</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40276,7 +40276,7 @@
         <v>44624</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40333,7 +40333,7 @@
         <v>44643</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40390,7 +40390,7 @@
         <v>44645</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40447,7 +40447,7 @@
         <v>44651</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40504,7 +40504,7 @@
         <v>44651</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40566,7 +40566,7 @@
         <v>44655</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40623,7 +40623,7 @@
         <v>44673</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40680,7 +40680,7 @@
         <v>44676</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40737,7 +40737,7 @@
         <v>44683</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40794,7 +40794,7 @@
         <v>44686</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40856,7 +40856,7 @@
         <v>44694</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40913,7 +40913,7 @@
         <v>44705</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40970,7 +40970,7 @@
         <v>44712</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41027,7 +41027,7 @@
         <v>44713</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41084,7 +41084,7 @@
         <v>44714</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41141,7 +41141,7 @@
         <v>44719</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41198,7 +41198,7 @@
         <v>44725</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41255,7 +41255,7 @@
         <v>44725</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41312,7 +41312,7 @@
         <v>44741</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41369,7 +41369,7 @@
         <v>44749</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         <v>44755</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41483,7 +41483,7 @@
         <v>44794</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41540,7 +41540,7 @@
         <v>44794</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41597,7 +41597,7 @@
         <v>44811</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41654,7 +41654,7 @@
         <v>44811</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41711,7 +41711,7 @@
         <v>44819</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41768,7 +41768,7 @@
         <v>44824</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41825,7 +41825,7 @@
         <v>44826</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41882,7 +41882,7 @@
         <v>44827</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41939,7 +41939,7 @@
         <v>44827</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41996,7 +41996,7 @@
         <v>44827</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42053,7 +42053,7 @@
         <v>44827</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42110,7 +42110,7 @@
         <v>44827</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42167,7 +42167,7 @@
         <v>44827</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42224,7 +42224,7 @@
         <v>44831</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42281,7 +42281,7 @@
         <v>44831</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42338,7 +42338,7 @@
         <v>44831</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42395,7 +42395,7 @@
         <v>44833</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42452,7 +42452,7 @@
         <v>44833</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42509,7 +42509,7 @@
         <v>44834</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42566,7 +42566,7 @@
         <v>44846</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42623,7 +42623,7 @@
         <v>44862</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42685,7 +42685,7 @@
         <v>44875</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42742,7 +42742,7 @@
         <v>44876</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42799,7 +42799,7 @@
         <v>44880</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42856,7 +42856,7 @@
         <v>44882</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42913,7 +42913,7 @@
         <v>44893</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42975,7 +42975,7 @@
         <v>44894</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43032,7 +43032,7 @@
         <v>44895</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43094,7 +43094,7 @@
         <v>44901</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43156,7 +43156,7 @@
         <v>44910</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43213,7 +43213,7 @@
         <v>44917</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43270,7 +43270,7 @@
         <v>44928</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43332,7 +43332,7 @@
         <v>44928</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43389,7 +43389,7 @@
         <v>44935</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43446,7 +43446,7 @@
         <v>44938</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43503,7 +43503,7 @@
         <v>44939</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43560,7 +43560,7 @@
         <v>44939</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43617,7 +43617,7 @@
         <v>44942</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43674,7 +43674,7 @@
         <v>44942</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43731,7 +43731,7 @@
         <v>44943</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43788,7 +43788,7 @@
         <v>44952</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43845,7 +43845,7 @@
         <v>44960</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43907,7 +43907,7 @@
         <v>44963</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43964,7 +43964,7 @@
         <v>44966</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44021,7 +44021,7 @@
         <v>44970</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44078,7 +44078,7 @@
         <v>44971</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44135,7 +44135,7 @@
         <v>44971</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44192,7 +44192,7 @@
         <v>44977</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44249,7 +44249,7 @@
         <v>44988</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         <v>44988</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44363,7 +44363,7 @@
         <v>44991</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44420,7 +44420,7 @@
         <v>44994</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44477,7 +44477,7 @@
         <v>44995</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44534,7 +44534,7 @@
         <v>44999</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44591,7 +44591,7 @@
         <v>45007</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44648,7 +44648,7 @@
         <v>45013</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44705,7 +44705,7 @@
         <v>45013</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44762,7 +44762,7 @@
         <v>45016</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44819,7 +44819,7 @@
         <v>45016</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44876,7 +44876,7 @@
         <v>45016</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44933,7 +44933,7 @@
         <v>45026</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44990,7 +44990,7 @@
         <v>45028</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45047,7 +45047,7 @@
         <v>45030</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45109,7 +45109,7 @@
         <v>45030</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45171,7 +45171,7 @@
         <v>45033</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45228,7 +45228,7 @@
         <v>45047</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45285,7 +45285,7 @@
         <v>45048</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45342,7 +45342,7 @@
         <v>45049</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45399,7 +45399,7 @@
         <v>45054</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45456,7 +45456,7 @@
         <v>45054</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45513,7 +45513,7 @@
         <v>45054</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45570,7 +45570,7 @@
         <v>45054</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45627,7 +45627,7 @@
         <v>45055</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45684,7 +45684,7 @@
         <v>45061</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45746,7 +45746,7 @@
         <v>45061</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45803,7 +45803,7 @@
         <v>45063</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45860,7 +45860,7 @@
         <v>45070</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45917,7 +45917,7 @@
         <v>45071</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45974,7 +45974,7 @@
         <v>45071</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46031,7 +46031,7 @@
         <v>45071</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46088,7 +46088,7 @@
         <v>45077</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46145,7 +46145,7 @@
         <v>45079</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46202,7 +46202,7 @@
         <v>45079</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46259,7 +46259,7 @@
         <v>45079</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46316,7 +46316,7 @@
         <v>45081</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46373,7 +46373,7 @@
         <v>45085</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46430,7 +46430,7 @@
         <v>45092</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46487,7 +46487,7 @@
         <v>45093</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46564,7 +46564,7 @@
         <v>45099</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46621,7 +46621,7 @@
         <v>45099</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46678,7 +46678,7 @@
         <v>45099</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46735,7 +46735,7 @@
         <v>45099</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46792,7 +46792,7 @@
         <v>45099</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46849,7 +46849,7 @@
         <v>45099</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46906,7 +46906,7 @@
         <v>45099</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46963,7 +46963,7 @@
         <v>45099</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47020,7 +47020,7 @@
         <v>45099</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47077,7 +47077,7 @@
         <v>45099</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47134,7 +47134,7 @@
         <v>45099</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47191,7 +47191,7 @@
         <v>45099</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47248,7 +47248,7 @@
         <v>45103</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47305,7 +47305,7 @@
         <v>45104</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47362,7 +47362,7 @@
         <v>45105</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47419,7 +47419,7 @@
         <v>45113</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47476,7 +47476,7 @@
         <v>45113</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47533,7 +47533,7 @@
         <v>45127</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47590,7 +47590,7 @@
         <v>45127</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47647,7 +47647,7 @@
         <v>45148</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47704,7 +47704,7 @@
         <v>45149</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47761,7 +47761,7 @@
         <v>45153</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47818,7 +47818,7 @@
         <v>45160</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47875,7 +47875,7 @@
         <v>45161</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47932,7 +47932,7 @@
         <v>45168</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47994,7 +47994,7 @@
         <v>45168</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48051,7 +48051,7 @@
         <v>45168</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>

--- a/Översikt HULTSFRED.xlsx
+++ b/Översikt HULTSFRED.xlsx
@@ -572,7 +572,7 @@
         <v>43874</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>44894</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>44468</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
         <v>44175</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>43753</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1080,7 +1080,7 @@
         <v>43921</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44069</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>43438</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>43507</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>43845</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43916</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>43986</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43426</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43447</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43874</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>44258</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>44474</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>44551</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>44224</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>44641</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
         <v>44809</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44822</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>45026</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43343</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>43405</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43418</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>43419</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>43489</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43682</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>44060</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>44083</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44098</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>44235</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>44235</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>44278</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>44280</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         <v>44468</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>44559</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>44565</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>44909</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>45053</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>43438</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43493</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>43545</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>43591</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>43702</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>43889</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43902</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4901,7 +4901,7 @@
         <v>43920</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
         <v>43962</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>44053</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         <v>44124</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>44159</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>44180</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>44295</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>44341</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>44375</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>44417</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>44455</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v>44526</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>44876</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         <v>44928</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6110,7 +6110,7 @@
         <v>44980</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         <v>45016</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>45093</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>43328</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>43329</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>43336</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>43340</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>43340</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>43342</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43357</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>43364</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43364</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43364</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43364</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>43370</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>43371</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>43375</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         <v>43377</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7220,7 +7220,7 @@
         <v>43385</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
         <v>43388</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7334,7 +7334,7 @@
         <v>43390</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7391,7 +7391,7 @@
         <v>43392</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7448,7 +7448,7 @@
         <v>43395</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>43395</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>43396</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>43402</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         <v>43403</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7733,7 +7733,7 @@
         <v>43403</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         <v>43403</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         <v>43404</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>43405</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>43410</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>43411</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>43411</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>43411</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>43413</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43415</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>43416</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>43416</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>43417</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>43417</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>43418</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>43418</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>43419</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>43419</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43419</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>43420</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>43423</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>43425</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43425</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>43426</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>43426</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>43426</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43427</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>43430</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>43430</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>43430</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43431</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>43431</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43432</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>43432</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>43433</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>43433</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>43437</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>43438</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>43438</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>43438</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>43439</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>43439</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>43444</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>43444</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>43445</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>43446</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>43446</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>43448</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>43448</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>43454</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>43455</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>43466</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43467</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>43468</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>43468</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43469</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43469</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>43472</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>43472</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11116,7 +11116,7 @@
         <v>43472</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11173,7 +11173,7 @@
         <v>43472</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11230,7 +11230,7 @@
         <v>43473</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11287,7 +11287,7 @@
         <v>43473</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11344,7 +11344,7 @@
         <v>43474</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
         <v>43475</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>43475</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>43475</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>43475</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43475</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>43475</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11763,7 +11763,7 @@
         <v>43478</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11820,7 +11820,7 @@
         <v>43479</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11877,7 +11877,7 @@
         <v>43479</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11934,7 +11934,7 @@
         <v>43480</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11991,7 +11991,7 @@
         <v>43481</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12048,7 +12048,7 @@
         <v>43484</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12105,7 +12105,7 @@
         <v>43486</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12162,7 +12162,7 @@
         <v>43488</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12219,7 +12219,7 @@
         <v>43488</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12276,7 +12276,7 @@
         <v>43489</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12333,7 +12333,7 @@
         <v>43489</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>43490</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>43493</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12514,7 +12514,7 @@
         <v>43494</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12571,7 +12571,7 @@
         <v>43494</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12628,7 +12628,7 @@
         <v>43494</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12685,7 +12685,7 @@
         <v>43496</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>43497</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>43497</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         <v>43497</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>43497</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12975,7 +12975,7 @@
         <v>43500</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13032,7 +13032,7 @@
         <v>43504</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13089,7 +13089,7 @@
         <v>43511</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>43516</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>43516</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>43520</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>43522</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>43523</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>43524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>43525</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>43526</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>43528</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>43528</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>43528</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>43528</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13835,7 +13835,7 @@
         <v>43530</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13892,7 +13892,7 @@
         <v>43532</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13949,7 +13949,7 @@
         <v>43539</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14006,7 +14006,7 @@
         <v>43542</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14063,7 +14063,7 @@
         <v>43550</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14120,7 +14120,7 @@
         <v>43551</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14177,7 +14177,7 @@
         <v>43551</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>43551</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>43551</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14348,7 +14348,7 @@
         <v>43556</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>43557</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14462,7 +14462,7 @@
         <v>43558</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>43565</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>43570</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14638,7 +14638,7 @@
         <v>43571</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14695,7 +14695,7 @@
         <v>43572</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>43578</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>43579</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>43584</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>43584</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>43584</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>43584</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>43584</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>43585</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>43587</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>43587</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         <v>43593</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>43595</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>43605</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>43605</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>43627</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>43628</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>43628</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>43628</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>43633</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>43634</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>43634</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>43634</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>43635</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>43635</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>43640</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>43640</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>43641</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>43642</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>43643</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>43643</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>43643</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16534,7 +16534,7 @@
         <v>43644</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16591,7 +16591,7 @@
         <v>43647</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16648,7 +16648,7 @@
         <v>43654</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>43656</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>43658</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16819,7 +16819,7 @@
         <v>43661</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>43665</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16933,7 +16933,7 @@
         <v>43665</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16990,7 +16990,7 @@
         <v>43667</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17047,7 +17047,7 @@
         <v>43668</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17104,7 +17104,7 @@
         <v>43669</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17161,7 +17161,7 @@
         <v>43670</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17218,7 +17218,7 @@
         <v>43675</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17275,7 +17275,7 @@
         <v>43677</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17332,7 +17332,7 @@
         <v>43682</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>43682</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>43682</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>43683</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>43683</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>43683</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>43689</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>43690</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>43691</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17845,7 +17845,7 @@
         <v>43692</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>43696</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17959,7 +17959,7 @@
         <v>43696</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18016,7 +18016,7 @@
         <v>43697</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18073,7 +18073,7 @@
         <v>43697</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18130,7 +18130,7 @@
         <v>43698</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18187,7 +18187,7 @@
         <v>43699</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18244,7 +18244,7 @@
         <v>43700</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18301,7 +18301,7 @@
         <v>43702</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18358,7 +18358,7 @@
         <v>43703</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18415,7 +18415,7 @@
         <v>43703</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18472,7 +18472,7 @@
         <v>43703</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18529,7 +18529,7 @@
         <v>43705</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18586,7 +18586,7 @@
         <v>43707</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18643,7 +18643,7 @@
         <v>43707</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>43710</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18757,7 +18757,7 @@
         <v>43712</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18814,7 +18814,7 @@
         <v>43712</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>43713</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>43713</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>43713</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>43714</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19114,7 +19114,7 @@
         <v>43718</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         <v>43719</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19228,7 +19228,7 @@
         <v>43719</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19285,7 +19285,7 @@
         <v>43722</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19342,7 +19342,7 @@
         <v>43724</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19399,7 +19399,7 @@
         <v>43724</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19456,7 +19456,7 @@
         <v>43724</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19513,7 +19513,7 @@
         <v>43726</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19570,7 +19570,7 @@
         <v>43726</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19627,7 +19627,7 @@
         <v>43728</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>43732</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>43733</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>43734</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>43740</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>43740</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>43740</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>43742</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>43742</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>43742</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>43742</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>43742</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>43742</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>43745</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>43746</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>43746</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>43746</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>43747</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>43748</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>43751</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>43754</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>43756</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>43756</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>43756</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>43756</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21057,7 +21057,7 @@
         <v>43756</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21114,7 +21114,7 @@
         <v>43760</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
         <v>43762</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>43762</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>43764</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>43767</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21399,7 +21399,7 @@
         <v>43767</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>43767</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>43769</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>43769</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>43769</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>43769</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>43772</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         <v>43774</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>43776</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21927,7 +21927,7 @@
         <v>43776</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         <v>43776</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22046,7 +22046,7 @@
         <v>43776</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22108,7 +22108,7 @@
         <v>43776</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22170,7 +22170,7 @@
         <v>43776</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22232,7 +22232,7 @@
         <v>43776</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>43776</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>43777</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>43780</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>43780</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22522,7 +22522,7 @@
         <v>43780</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22579,7 +22579,7 @@
         <v>43782</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>43783</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22698,7 +22698,7 @@
         <v>43783</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22760,7 +22760,7 @@
         <v>43783</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22822,7 +22822,7 @@
         <v>43794</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22879,7 +22879,7 @@
         <v>43794</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22936,7 +22936,7 @@
         <v>43795</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22993,7 +22993,7 @@
         <v>43797</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23050,7 +23050,7 @@
         <v>43800</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23107,7 +23107,7 @@
         <v>43803</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23164,7 +23164,7 @@
         <v>43803</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23221,7 +23221,7 @@
         <v>43803</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23278,7 +23278,7 @@
         <v>43807</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23335,7 +23335,7 @@
         <v>43808</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23392,7 +23392,7 @@
         <v>43808</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
         <v>43808</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         <v>43808</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         <v>43810</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>43810</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23687,7 +23687,7 @@
         <v>43810</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23749,7 +23749,7 @@
         <v>43810</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23811,7 +23811,7 @@
         <v>43810</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23873,7 +23873,7 @@
         <v>43811</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         <v>43811</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>43811</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24044,7 +24044,7 @@
         <v>43815</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>43816</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24158,7 +24158,7 @@
         <v>43816</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>43817</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>43833</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>43833</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
         <v>43838</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>43842</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>43843</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24567,7 +24567,7 @@
         <v>43847</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>43847</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>43847</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24738,7 +24738,7 @@
         <v>43847</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24795,7 +24795,7 @@
         <v>43850</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24852,7 +24852,7 @@
         <v>43850</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24909,7 +24909,7 @@
         <v>43850</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24966,7 +24966,7 @@
         <v>43858</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25023,7 +25023,7 @@
         <v>43858</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25080,7 +25080,7 @@
         <v>43859</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25142,7 +25142,7 @@
         <v>43864</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25199,7 +25199,7 @@
         <v>43865</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25256,7 +25256,7 @@
         <v>43865</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>43867</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>43872</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25427,7 +25427,7 @@
         <v>43872</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25484,7 +25484,7 @@
         <v>43873</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25541,7 +25541,7 @@
         <v>43873</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25598,7 +25598,7 @@
         <v>43878</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25655,7 +25655,7 @@
         <v>43878</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25712,7 +25712,7 @@
         <v>43879</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25769,7 +25769,7 @@
         <v>43879</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25831,7 +25831,7 @@
         <v>43879</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25888,7 +25888,7 @@
         <v>43880</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25945,7 +25945,7 @@
         <v>43882</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26002,7 +26002,7 @@
         <v>43885</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26059,7 +26059,7 @@
         <v>43885</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>43886</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>43887</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>43889</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26292,7 +26292,7 @@
         <v>43889</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>43892</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26411,7 +26411,7 @@
         <v>43899</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26468,7 +26468,7 @@
         <v>43900</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26525,7 +26525,7 @@
         <v>43900</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26582,7 +26582,7 @@
         <v>43902</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26639,7 +26639,7 @@
         <v>43906</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26696,7 +26696,7 @@
         <v>43907</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26753,7 +26753,7 @@
         <v>43910</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26810,7 +26810,7 @@
         <v>43910</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26867,7 +26867,7 @@
         <v>43913</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         <v>43913</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26981,7 +26981,7 @@
         <v>43913</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27043,7 +27043,7 @@
         <v>43913</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27100,7 +27100,7 @@
         <v>43916</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27157,7 +27157,7 @@
         <v>43921</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27214,7 +27214,7 @@
         <v>43921</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27271,7 +27271,7 @@
         <v>43921</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27328,7 +27328,7 @@
         <v>43922</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27390,7 +27390,7 @@
         <v>43924</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27452,7 +27452,7 @@
         <v>43924</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27514,7 +27514,7 @@
         <v>43924</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27576,7 +27576,7 @@
         <v>43924</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27638,7 +27638,7 @@
         <v>43924</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27700,7 +27700,7 @@
         <v>43929</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27757,7 +27757,7 @@
         <v>43936</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27814,7 +27814,7 @@
         <v>43943</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27871,7 +27871,7 @@
         <v>43951</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27928,7 +27928,7 @@
         <v>43951</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27985,7 +27985,7 @@
         <v>43955</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28042,7 +28042,7 @@
         <v>43958</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         <v>43960</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28156,7 +28156,7 @@
         <v>43960</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28213,7 +28213,7 @@
         <v>43964</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28270,7 +28270,7 @@
         <v>43964</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28327,7 +28327,7 @@
         <v>43965</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28389,7 +28389,7 @@
         <v>43965</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28451,7 +28451,7 @@
         <v>43969</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28508,7 +28508,7 @@
         <v>43969</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28565,7 +28565,7 @@
         <v>43970</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28622,7 +28622,7 @@
         <v>43970</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28679,7 +28679,7 @@
         <v>43971</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28736,7 +28736,7 @@
         <v>43971</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28793,7 +28793,7 @@
         <v>43977</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28855,7 +28855,7 @@
         <v>43977</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         <v>43977</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28979,7 +28979,7 @@
         <v>43986</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29036,7 +29036,7 @@
         <v>43986</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29093,7 +29093,7 @@
         <v>43994</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29155,7 +29155,7 @@
         <v>44004</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29212,7 +29212,7 @@
         <v>44012</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29269,7 +29269,7 @@
         <v>44014</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29326,7 +29326,7 @@
         <v>44018</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29383,7 +29383,7 @@
         <v>44018</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29440,7 +29440,7 @@
         <v>44021</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29497,7 +29497,7 @@
         <v>44022</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29554,7 +29554,7 @@
         <v>44022</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         <v>44026</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>44027</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29725,7 +29725,7 @@
         <v>44028</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29782,7 +29782,7 @@
         <v>44033</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29839,7 +29839,7 @@
         <v>44034</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29896,7 +29896,7 @@
         <v>44036</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29953,7 +29953,7 @@
         <v>44040</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30010,7 +30010,7 @@
         <v>44042</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30067,7 +30067,7 @@
         <v>44047</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30124,7 +30124,7 @@
         <v>44047</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30181,7 +30181,7 @@
         <v>44047</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30238,7 +30238,7 @@
         <v>44048</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30295,7 +30295,7 @@
         <v>44050</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30352,7 +30352,7 @@
         <v>44053</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>44053</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         <v>44053</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30523,7 +30523,7 @@
         <v>44060</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30580,7 +30580,7 @@
         <v>44061</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30642,7 +30642,7 @@
         <v>44061</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30699,7 +30699,7 @@
         <v>44061</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30756,7 +30756,7 @@
         <v>44061</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30813,7 +30813,7 @@
         <v>44063</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30870,7 +30870,7 @@
         <v>44063</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30927,7 +30927,7 @@
         <v>44064</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30984,7 +30984,7 @@
         <v>44067</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31041,7 +31041,7 @@
         <v>44068</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31098,7 +31098,7 @@
         <v>44068</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31155,7 +31155,7 @@
         <v>44068</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31212,7 +31212,7 @@
         <v>44069</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31269,7 +31269,7 @@
         <v>44071</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31326,7 +31326,7 @@
         <v>44071</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>44075</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31440,7 +31440,7 @@
         <v>44075</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31497,7 +31497,7 @@
         <v>44076</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31559,7 +31559,7 @@
         <v>44076</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31621,7 +31621,7 @@
         <v>44081</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31678,7 +31678,7 @@
         <v>44083</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31735,7 +31735,7 @@
         <v>44084</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31792,7 +31792,7 @@
         <v>44084</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>44084</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         <v>44084</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31963,7 +31963,7 @@
         <v>44087</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>44087</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>44090</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>44090</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>44091</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>44092</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32305,7 +32305,7 @@
         <v>44097</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32362,7 +32362,7 @@
         <v>44097</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32424,7 +32424,7 @@
         <v>44099</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32481,7 +32481,7 @@
         <v>44106</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32543,7 +32543,7 @@
         <v>44110</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32605,7 +32605,7 @@
         <v>44110</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32662,7 +32662,7 @@
         <v>44113</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32724,7 +32724,7 @@
         <v>44118</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32781,7 +32781,7 @@
         <v>44124</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32838,7 +32838,7 @@
         <v>44126</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32895,7 +32895,7 @@
         <v>44126</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32952,7 +32952,7 @@
         <v>44134</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33009,7 +33009,7 @@
         <v>44137</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33071,7 +33071,7 @@
         <v>44146</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33128,7 +33128,7 @@
         <v>44146</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33185,7 +33185,7 @@
         <v>44151</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33242,7 +33242,7 @@
         <v>44151</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33299,7 +33299,7 @@
         <v>44151</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33356,7 +33356,7 @@
         <v>44154</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33413,7 +33413,7 @@
         <v>44159</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33470,7 +33470,7 @@
         <v>44162</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33527,7 +33527,7 @@
         <v>44162</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33584,7 +33584,7 @@
         <v>44172</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33641,7 +33641,7 @@
         <v>44179</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33698,7 +33698,7 @@
         <v>44182</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33755,7 +33755,7 @@
         <v>44186</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33812,7 +33812,7 @@
         <v>44186</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33869,7 +33869,7 @@
         <v>44186</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33926,7 +33926,7 @@
         <v>44186</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33983,7 +33983,7 @@
         <v>44188</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34040,7 +34040,7 @@
         <v>44193</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34097,7 +34097,7 @@
         <v>44193</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34154,7 +34154,7 @@
         <v>44193</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34216,7 +34216,7 @@
         <v>44193</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34273,7 +34273,7 @@
         <v>44195</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34330,7 +34330,7 @@
         <v>44201</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34387,7 +34387,7 @@
         <v>44203</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34444,7 +34444,7 @@
         <v>44215</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34501,7 +34501,7 @@
         <v>44216</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34558,7 +34558,7 @@
         <v>44218</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34615,7 +34615,7 @@
         <v>44223</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34672,7 +34672,7 @@
         <v>44223</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34729,7 +34729,7 @@
         <v>44223</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         <v>44229</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34843,7 +34843,7 @@
         <v>44236</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34905,7 +34905,7 @@
         <v>44243</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34962,7 +34962,7 @@
         <v>44250</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35019,7 +35019,7 @@
         <v>44250</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35076,7 +35076,7 @@
         <v>44252</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35138,7 +35138,7 @@
         <v>44252</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35200,7 +35200,7 @@
         <v>44258</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35257,7 +35257,7 @@
         <v>44259</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35314,7 +35314,7 @@
         <v>44260</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35376,7 +35376,7 @@
         <v>44263</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35433,7 +35433,7 @@
         <v>44274</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35490,7 +35490,7 @@
         <v>44274</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35547,7 +35547,7 @@
         <v>44278</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35604,7 +35604,7 @@
         <v>44295</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         <v>44300</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35723,7 +35723,7 @@
         <v>44308</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35780,7 +35780,7 @@
         <v>44314</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35837,7 +35837,7 @@
         <v>44319</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35894,7 +35894,7 @@
         <v>44320</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35951,7 +35951,7 @@
         <v>44326</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36008,7 +36008,7 @@
         <v>44334</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36065,7 +36065,7 @@
         <v>44337</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36122,7 +36122,7 @@
         <v>44349</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36184,7 +36184,7 @@
         <v>44353</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36241,7 +36241,7 @@
         <v>44354</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36303,7 +36303,7 @@
         <v>44373</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36360,7 +36360,7 @@
         <v>44375</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36417,7 +36417,7 @@
         <v>44375</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36474,7 +36474,7 @@
         <v>44375</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36531,7 +36531,7 @@
         <v>44375</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36588,7 +36588,7 @@
         <v>44375</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36645,7 +36645,7 @@
         <v>44382</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36702,7 +36702,7 @@
         <v>44386</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36759,7 +36759,7 @@
         <v>44411</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36816,7 +36816,7 @@
         <v>44419</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36873,7 +36873,7 @@
         <v>44420</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36930,7 +36930,7 @@
         <v>44420</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36987,7 +36987,7 @@
         <v>44420</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37044,7 +37044,7 @@
         <v>44426</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37101,7 +37101,7 @@
         <v>44432</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37158,7 +37158,7 @@
         <v>44433</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37220,7 +37220,7 @@
         <v>44434</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37277,7 +37277,7 @@
         <v>44438</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37334,7 +37334,7 @@
         <v>44438</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37391,7 +37391,7 @@
         <v>44439</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37448,7 +37448,7 @@
         <v>44441</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37505,7 +37505,7 @@
         <v>44447</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37562,7 +37562,7 @@
         <v>44447</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37624,7 +37624,7 @@
         <v>44449</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37681,7 +37681,7 @@
         <v>44456</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37738,7 +37738,7 @@
         <v>44468</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37800,7 +37800,7 @@
         <v>44468</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37862,7 +37862,7 @@
         <v>44470</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37919,7 +37919,7 @@
         <v>44473</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37976,7 +37976,7 @@
         <v>44473</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38033,7 +38033,7 @@
         <v>44473</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38090,7 +38090,7 @@
         <v>44477</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38147,7 +38147,7 @@
         <v>44480</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38204,7 +38204,7 @@
         <v>44482</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38261,7 +38261,7 @@
         <v>44484</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38323,7 +38323,7 @@
         <v>44484</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38380,7 +38380,7 @@
         <v>44488</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38437,7 +38437,7 @@
         <v>44490</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38494,7 +38494,7 @@
         <v>44496</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38551,7 +38551,7 @@
         <v>44502</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38608,7 +38608,7 @@
         <v>44511</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38665,7 +38665,7 @@
         <v>44516</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38722,7 +38722,7 @@
         <v>44526</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38779,7 +38779,7 @@
         <v>44526</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38836,7 +38836,7 @@
         <v>44529</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38893,7 +38893,7 @@
         <v>44530</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38950,7 +38950,7 @@
         <v>44532</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39007,7 +39007,7 @@
         <v>44532</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39064,7 +39064,7 @@
         <v>44536</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39121,7 +39121,7 @@
         <v>44549</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39178,7 +39178,7 @@
         <v>44552</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39235,7 +39235,7 @@
         <v>44564</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39292,7 +39292,7 @@
         <v>44564</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39349,7 +39349,7 @@
         <v>44565</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39406,7 +39406,7 @@
         <v>44582</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39463,7 +39463,7 @@
         <v>44582</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39525,7 +39525,7 @@
         <v>44587</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39582,7 +39582,7 @@
         <v>44592</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39639,7 +39639,7 @@
         <v>44593</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39696,7 +39696,7 @@
         <v>44593</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39753,7 +39753,7 @@
         <v>44594</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39810,7 +39810,7 @@
         <v>44594</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39867,7 +39867,7 @@
         <v>44599</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39924,7 +39924,7 @@
         <v>44608</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39981,7 +39981,7 @@
         <v>44610</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40043,7 +40043,7 @@
         <v>44612</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40105,7 +40105,7 @@
         <v>44614</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40162,7 +40162,7 @@
         <v>44623</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40219,7 +40219,7 @@
         <v>44624</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40276,7 +40276,7 @@
         <v>44624</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40333,7 +40333,7 @@
         <v>44643</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40390,7 +40390,7 @@
         <v>44645</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40447,7 +40447,7 @@
         <v>44651</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40504,7 +40504,7 @@
         <v>44651</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40566,7 +40566,7 @@
         <v>44655</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40623,7 +40623,7 @@
         <v>44673</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40680,7 +40680,7 @@
         <v>44676</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40737,7 +40737,7 @@
         <v>44683</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40794,7 +40794,7 @@
         <v>44686</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40856,7 +40856,7 @@
         <v>44694</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40913,7 +40913,7 @@
         <v>44705</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40970,7 +40970,7 @@
         <v>44712</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41027,7 +41027,7 @@
         <v>44713</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41084,7 +41084,7 @@
         <v>44714</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41141,7 +41141,7 @@
         <v>44719</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41198,7 +41198,7 @@
         <v>44725</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41255,7 +41255,7 @@
         <v>44725</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41312,7 +41312,7 @@
         <v>44741</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41369,7 +41369,7 @@
         <v>44749</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         <v>44755</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41483,7 +41483,7 @@
         <v>44794</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41540,7 +41540,7 @@
         <v>44794</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41597,7 +41597,7 @@
         <v>44811</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41654,7 +41654,7 @@
         <v>44811</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41711,7 +41711,7 @@
         <v>44819</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41768,7 +41768,7 @@
         <v>44824</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41825,7 +41825,7 @@
         <v>44826</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41882,7 +41882,7 @@
         <v>44827</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41939,7 +41939,7 @@
         <v>44827</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41996,7 +41996,7 @@
         <v>44827</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42053,7 +42053,7 @@
         <v>44827</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42110,7 +42110,7 @@
         <v>44827</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42167,7 +42167,7 @@
         <v>44827</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42224,7 +42224,7 @@
         <v>44831</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42281,7 +42281,7 @@
         <v>44831</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42338,7 +42338,7 @@
         <v>44831</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42395,7 +42395,7 @@
         <v>44833</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42452,7 +42452,7 @@
         <v>44833</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42509,7 +42509,7 @@
         <v>44834</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42566,7 +42566,7 @@
         <v>44846</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42623,7 +42623,7 @@
         <v>44862</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42685,7 +42685,7 @@
         <v>44875</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42742,7 +42742,7 @@
         <v>44876</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42799,7 +42799,7 @@
         <v>44880</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42856,7 +42856,7 @@
         <v>44882</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42913,7 +42913,7 @@
         <v>44893</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42975,7 +42975,7 @@
         <v>44894</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43032,7 +43032,7 @@
         <v>44895</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43094,7 +43094,7 @@
         <v>44901</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43156,7 +43156,7 @@
         <v>44910</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43213,7 +43213,7 @@
         <v>44917</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43270,7 +43270,7 @@
         <v>44928</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43332,7 +43332,7 @@
         <v>44928</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43389,7 +43389,7 @@
         <v>44935</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43446,7 +43446,7 @@
         <v>44938</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43503,7 +43503,7 @@
         <v>44939</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43560,7 +43560,7 @@
         <v>44939</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43617,7 +43617,7 @@
         <v>44942</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43674,7 +43674,7 @@
         <v>44942</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43731,7 +43731,7 @@
         <v>44943</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43788,7 +43788,7 @@
         <v>44952</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43845,7 +43845,7 @@
         <v>44960</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43907,7 +43907,7 @@
         <v>44963</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43964,7 +43964,7 @@
         <v>44966</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44021,7 +44021,7 @@
         <v>44970</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44078,7 +44078,7 @@
         <v>44971</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44135,7 +44135,7 @@
         <v>44971</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44192,7 +44192,7 @@
         <v>44977</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44249,7 +44249,7 @@
         <v>44988</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         <v>44988</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44363,7 +44363,7 @@
         <v>44991</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44420,7 +44420,7 @@
         <v>44994</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44477,7 +44477,7 @@
         <v>44995</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44534,7 +44534,7 @@
         <v>44999</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44591,7 +44591,7 @@
         <v>45007</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44648,7 +44648,7 @@
         <v>45013</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44705,7 +44705,7 @@
         <v>45013</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44762,7 +44762,7 @@
         <v>45016</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44819,7 +44819,7 @@
         <v>45016</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44876,7 +44876,7 @@
         <v>45016</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44933,7 +44933,7 @@
         <v>45026</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44990,7 +44990,7 @@
         <v>45028</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45047,7 +45047,7 @@
         <v>45030</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45109,7 +45109,7 @@
         <v>45030</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45171,7 +45171,7 @@
         <v>45033</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45228,7 +45228,7 @@
         <v>45047</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45285,7 +45285,7 @@
         <v>45048</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45342,7 +45342,7 @@
         <v>45049</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45399,7 +45399,7 @@
         <v>45054</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45456,7 +45456,7 @@
         <v>45054</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45513,7 +45513,7 @@
         <v>45054</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45570,7 +45570,7 @@
         <v>45054</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45627,7 +45627,7 @@
         <v>45055</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45684,7 +45684,7 @@
         <v>45061</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45746,7 +45746,7 @@
         <v>45061</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45803,7 +45803,7 @@
         <v>45063</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45860,7 +45860,7 @@
         <v>45070</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45917,7 +45917,7 @@
         <v>45071</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45974,7 +45974,7 @@
         <v>45071</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46031,7 +46031,7 @@
         <v>45071</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46088,7 +46088,7 @@
         <v>45077</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46145,7 +46145,7 @@
         <v>45079</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46202,7 +46202,7 @@
         <v>45079</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46259,7 +46259,7 @@
         <v>45079</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46316,7 +46316,7 @@
         <v>45081</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46373,7 +46373,7 @@
         <v>45085</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46430,7 +46430,7 @@
         <v>45092</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46487,7 +46487,7 @@
         <v>45093</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46564,7 +46564,7 @@
         <v>45099</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46621,7 +46621,7 @@
         <v>45099</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46678,7 +46678,7 @@
         <v>45099</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46735,7 +46735,7 @@
         <v>45099</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46792,7 +46792,7 @@
         <v>45099</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46849,7 +46849,7 @@
         <v>45099</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46906,7 +46906,7 @@
         <v>45099</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46963,7 +46963,7 @@
         <v>45099</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47020,7 +47020,7 @@
         <v>45099</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47077,7 +47077,7 @@
         <v>45099</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47134,7 +47134,7 @@
         <v>45099</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47191,7 +47191,7 @@
         <v>45099</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47248,7 +47248,7 @@
         <v>45103</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47305,7 +47305,7 @@
         <v>45104</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47362,7 +47362,7 @@
         <v>45105</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47419,7 +47419,7 @@
         <v>45113</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47476,7 +47476,7 @@
         <v>45113</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47533,7 +47533,7 @@
         <v>45127</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47590,7 +47590,7 @@
         <v>45127</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47647,7 +47647,7 @@
         <v>45148</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47704,7 +47704,7 @@
         <v>45149</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47761,7 +47761,7 @@
         <v>45153</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47818,7 +47818,7 @@
         <v>45160</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47875,7 +47875,7 @@
         <v>45161</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47932,7 +47932,7 @@
         <v>45168</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47994,7 +47994,7 @@
         <v>45168</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48051,7 +48051,7 @@
         <v>45168</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>

--- a/Översikt HULTSFRED.xlsx
+++ b/Översikt HULTSFRED.xlsx
@@ -572,7 +572,7 @@
         <v>43874</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>44894</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>44468</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
         <v>44175</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>43753</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1080,7 +1080,7 @@
         <v>43921</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44069</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>43438</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>43507</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>43845</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43916</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>43986</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43426</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43447</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43874</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>44258</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>44474</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>44551</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>44224</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>44641</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
         <v>44809</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44822</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>45026</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43343</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>43405</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43418</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>43419</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>43489</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43682</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>44060</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>44083</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44098</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>44235</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>44235</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>44278</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>44280</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         <v>44468</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>44559</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>44565</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>44909</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>45053</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>43438</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43493</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>43545</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>43591</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>43702</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>43889</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43902</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4901,7 +4901,7 @@
         <v>43920</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
         <v>43962</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>44053</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         <v>44124</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>44159</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>44180</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>44295</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>44341</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>44375</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>44417</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>44455</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v>44526</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>44876</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         <v>44928</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6110,7 +6110,7 @@
         <v>44980</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         <v>45016</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>45093</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>43328</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>43329</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>43336</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>43340</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>43340</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>43342</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43357</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>43364</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43364</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43364</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43364</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>43370</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>43371</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>43375</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         <v>43377</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7220,7 +7220,7 @@
         <v>43385</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
         <v>43388</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7334,7 +7334,7 @@
         <v>43390</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7391,7 +7391,7 @@
         <v>43392</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7448,7 +7448,7 @@
         <v>43395</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>43395</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>43396</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>43402</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         <v>43403</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7733,7 +7733,7 @@
         <v>43403</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         <v>43403</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         <v>43404</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>43405</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>43410</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>43411</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>43411</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>43411</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>43413</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43415</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>43416</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>43416</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>43417</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>43417</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>43418</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>43418</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>43419</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>43419</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43419</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>43420</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>43423</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>43425</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43425</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>43426</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>43426</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>43426</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43427</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>43430</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>43430</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>43430</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43431</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>43431</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43432</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>43432</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>43433</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>43433</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>43437</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>43438</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>43438</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>43438</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>43439</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>43439</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>43444</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>43444</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>43445</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>43446</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>43446</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>43448</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>43448</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>43454</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>43455</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>43466</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43467</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>43468</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>43468</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43469</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43469</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>43472</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>43472</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11116,7 +11116,7 @@
         <v>43472</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11173,7 +11173,7 @@
         <v>43472</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11230,7 +11230,7 @@
         <v>43473</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11287,7 +11287,7 @@
         <v>43473</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11344,7 +11344,7 @@
         <v>43474</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
         <v>43475</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>43475</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>43475</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>43475</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43475</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>43475</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11763,7 +11763,7 @@
         <v>43478</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11820,7 +11820,7 @@
         <v>43479</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11877,7 +11877,7 @@
         <v>43479</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11934,7 +11934,7 @@
         <v>43480</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11991,7 +11991,7 @@
         <v>43481</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12048,7 +12048,7 @@
         <v>43484</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12105,7 +12105,7 @@
         <v>43486</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12162,7 +12162,7 @@
         <v>43488</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12219,7 +12219,7 @@
         <v>43488</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12276,7 +12276,7 @@
         <v>43489</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12333,7 +12333,7 @@
         <v>43489</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>43490</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>43493</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12514,7 +12514,7 @@
         <v>43494</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12571,7 +12571,7 @@
         <v>43494</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12628,7 +12628,7 @@
         <v>43494</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12685,7 +12685,7 @@
         <v>43496</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>43497</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>43497</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         <v>43497</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>43497</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12975,7 +12975,7 @@
         <v>43500</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13032,7 +13032,7 @@
         <v>43504</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13089,7 +13089,7 @@
         <v>43511</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>43516</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>43516</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>43520</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>43522</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>43523</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>43524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>43525</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>43526</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>43528</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>43528</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>43528</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>43528</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13835,7 +13835,7 @@
         <v>43530</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13892,7 +13892,7 @@
         <v>43532</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13949,7 +13949,7 @@
         <v>43539</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14006,7 +14006,7 @@
         <v>43542</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14063,7 +14063,7 @@
         <v>43550</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14120,7 +14120,7 @@
         <v>43551</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14177,7 +14177,7 @@
         <v>43551</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>43551</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>43551</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14348,7 +14348,7 @@
         <v>43556</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>43557</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14462,7 +14462,7 @@
         <v>43558</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>43565</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>43570</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14638,7 +14638,7 @@
         <v>43571</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14695,7 +14695,7 @@
         <v>43572</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>43578</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>43579</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>43584</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>43584</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>43584</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>43584</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>43584</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>43585</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>43587</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>43587</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         <v>43593</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>43595</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>43605</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>43605</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>43627</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>43628</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>43628</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>43628</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>43633</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>43634</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>43634</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>43634</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>43635</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>43635</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>43640</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>43640</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>43641</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>43642</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>43643</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>43643</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>43643</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16534,7 +16534,7 @@
         <v>43644</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16591,7 +16591,7 @@
         <v>43647</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16648,7 +16648,7 @@
         <v>43654</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>43656</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>43658</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16819,7 +16819,7 @@
         <v>43661</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>43665</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16933,7 +16933,7 @@
         <v>43665</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16990,7 +16990,7 @@
         <v>43667</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17047,7 +17047,7 @@
         <v>43668</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17104,7 +17104,7 @@
         <v>43669</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17161,7 +17161,7 @@
         <v>43670</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17218,7 +17218,7 @@
         <v>43675</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17275,7 +17275,7 @@
         <v>43677</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17332,7 +17332,7 @@
         <v>43682</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>43682</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>43682</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>43683</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>43683</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>43683</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>43689</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>43690</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>43691</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17845,7 +17845,7 @@
         <v>43692</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>43696</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17959,7 +17959,7 @@
         <v>43696</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18016,7 +18016,7 @@
         <v>43697</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18073,7 +18073,7 @@
         <v>43697</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18130,7 +18130,7 @@
         <v>43698</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18187,7 +18187,7 @@
         <v>43699</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18244,7 +18244,7 @@
         <v>43700</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18301,7 +18301,7 @@
         <v>43702</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18358,7 +18358,7 @@
         <v>43703</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18415,7 +18415,7 @@
         <v>43703</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18472,7 +18472,7 @@
         <v>43703</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18529,7 +18529,7 @@
         <v>43705</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18586,7 +18586,7 @@
         <v>43707</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18643,7 +18643,7 @@
         <v>43707</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>43710</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18757,7 +18757,7 @@
         <v>43712</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18814,7 +18814,7 @@
         <v>43712</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>43713</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>43713</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>43713</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>43714</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19114,7 +19114,7 @@
         <v>43718</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         <v>43719</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19228,7 +19228,7 @@
         <v>43719</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19285,7 +19285,7 @@
         <v>43722</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19342,7 +19342,7 @@
         <v>43724</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19399,7 +19399,7 @@
         <v>43724</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19456,7 +19456,7 @@
         <v>43724</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19513,7 +19513,7 @@
         <v>43726</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19570,7 +19570,7 @@
         <v>43726</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19627,7 +19627,7 @@
         <v>43728</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>43732</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>43733</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>43734</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>43740</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>43740</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>43740</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>43742</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>43742</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>43742</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>43742</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>43742</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>43742</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>43745</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>43746</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>43746</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>43746</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>43747</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>43748</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>43751</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>43754</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>43756</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>43756</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>43756</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>43756</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21057,7 +21057,7 @@
         <v>43756</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21114,7 +21114,7 @@
         <v>43760</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
         <v>43762</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>43762</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>43764</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>43767</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21399,7 +21399,7 @@
         <v>43767</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>43767</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>43769</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>43769</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>43769</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>43769</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>43772</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         <v>43774</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>43776</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21927,7 +21927,7 @@
         <v>43776</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         <v>43776</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22046,7 +22046,7 @@
         <v>43776</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22108,7 +22108,7 @@
         <v>43776</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22170,7 +22170,7 @@
         <v>43776</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22232,7 +22232,7 @@
         <v>43776</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>43776</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>43777</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>43780</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>43780</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22522,7 +22522,7 @@
         <v>43780</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22579,7 +22579,7 @@
         <v>43782</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>43783</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22698,7 +22698,7 @@
         <v>43783</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22760,7 +22760,7 @@
         <v>43783</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22822,7 +22822,7 @@
         <v>43794</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22879,7 +22879,7 @@
         <v>43794</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22936,7 +22936,7 @@
         <v>43795</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22993,7 +22993,7 @@
         <v>43797</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23050,7 +23050,7 @@
         <v>43800</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23107,7 +23107,7 @@
         <v>43803</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23164,7 +23164,7 @@
         <v>43803</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23221,7 +23221,7 @@
         <v>43803</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23278,7 +23278,7 @@
         <v>43807</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23335,7 +23335,7 @@
         <v>43808</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23392,7 +23392,7 @@
         <v>43808</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
         <v>43808</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         <v>43808</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         <v>43810</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>43810</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23687,7 +23687,7 @@
         <v>43810</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23749,7 +23749,7 @@
         <v>43810</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23811,7 +23811,7 @@
         <v>43810</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23873,7 +23873,7 @@
         <v>43811</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         <v>43811</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>43811</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24044,7 +24044,7 @@
         <v>43815</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>43816</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24158,7 +24158,7 @@
         <v>43816</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>43817</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>43833</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>43833</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
         <v>43838</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>43842</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>43843</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24567,7 +24567,7 @@
         <v>43847</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>43847</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>43847</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24738,7 +24738,7 @@
         <v>43847</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24795,7 +24795,7 @@
         <v>43850</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24852,7 +24852,7 @@
         <v>43850</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24909,7 +24909,7 @@
         <v>43850</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24966,7 +24966,7 @@
         <v>43858</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25023,7 +25023,7 @@
         <v>43858</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25080,7 +25080,7 @@
         <v>43859</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25142,7 +25142,7 @@
         <v>43864</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25199,7 +25199,7 @@
         <v>43865</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25256,7 +25256,7 @@
         <v>43865</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>43867</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>43872</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25427,7 +25427,7 @@
         <v>43872</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25484,7 +25484,7 @@
         <v>43873</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25541,7 +25541,7 @@
         <v>43873</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25598,7 +25598,7 @@
         <v>43878</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25655,7 +25655,7 @@
         <v>43878</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25712,7 +25712,7 @@
         <v>43879</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25769,7 +25769,7 @@
         <v>43879</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25831,7 +25831,7 @@
         <v>43879</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25888,7 +25888,7 @@
         <v>43880</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25945,7 +25945,7 @@
         <v>43882</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26002,7 +26002,7 @@
         <v>43885</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26059,7 +26059,7 @@
         <v>43885</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>43886</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>43887</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>43889</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26292,7 +26292,7 @@
         <v>43889</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>43892</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26411,7 +26411,7 @@
         <v>43899</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26468,7 +26468,7 @@
         <v>43900</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26525,7 +26525,7 @@
         <v>43900</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26582,7 +26582,7 @@
         <v>43902</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26639,7 +26639,7 @@
         <v>43906</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26696,7 +26696,7 @@
         <v>43907</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26753,7 +26753,7 @@
         <v>43910</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26810,7 +26810,7 @@
         <v>43910</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26867,7 +26867,7 @@
         <v>43913</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         <v>43913</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26981,7 +26981,7 @@
         <v>43913</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27043,7 +27043,7 @@
         <v>43913</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27100,7 +27100,7 @@
         <v>43916</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27157,7 +27157,7 @@
         <v>43921</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27214,7 +27214,7 @@
         <v>43921</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27271,7 +27271,7 @@
         <v>43921</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27328,7 +27328,7 @@
         <v>43922</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27390,7 +27390,7 @@
         <v>43924</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27452,7 +27452,7 @@
         <v>43924</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27514,7 +27514,7 @@
         <v>43924</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27576,7 +27576,7 @@
         <v>43924</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27638,7 +27638,7 @@
         <v>43924</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27700,7 +27700,7 @@
         <v>43929</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27757,7 +27757,7 @@
         <v>43936</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27814,7 +27814,7 @@
         <v>43943</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27871,7 +27871,7 @@
         <v>43951</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27928,7 +27928,7 @@
         <v>43951</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27985,7 +27985,7 @@
         <v>43955</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28042,7 +28042,7 @@
         <v>43958</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         <v>43960</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28156,7 +28156,7 @@
         <v>43960</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28213,7 +28213,7 @@
         <v>43964</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28270,7 +28270,7 @@
         <v>43964</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28327,7 +28327,7 @@
         <v>43965</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28389,7 +28389,7 @@
         <v>43965</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28451,7 +28451,7 @@
         <v>43969</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28508,7 +28508,7 @@
         <v>43969</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28565,7 +28565,7 @@
         <v>43970</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28622,7 +28622,7 @@
         <v>43970</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28679,7 +28679,7 @@
         <v>43971</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28736,7 +28736,7 @@
         <v>43971</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28793,7 +28793,7 @@
         <v>43977</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28855,7 +28855,7 @@
         <v>43977</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         <v>43977</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28979,7 +28979,7 @@
         <v>43986</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29036,7 +29036,7 @@
         <v>43986</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29093,7 +29093,7 @@
         <v>43994</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29155,7 +29155,7 @@
         <v>44004</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29212,7 +29212,7 @@
         <v>44012</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29269,7 +29269,7 @@
         <v>44014</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29326,7 +29326,7 @@
         <v>44018</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29383,7 +29383,7 @@
         <v>44018</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29440,7 +29440,7 @@
         <v>44021</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29497,7 +29497,7 @@
         <v>44022</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29554,7 +29554,7 @@
         <v>44022</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         <v>44026</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>44027</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29725,7 +29725,7 @@
         <v>44028</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29782,7 +29782,7 @@
         <v>44033</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29839,7 +29839,7 @@
         <v>44034</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29896,7 +29896,7 @@
         <v>44036</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29953,7 +29953,7 @@
         <v>44040</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30010,7 +30010,7 @@
         <v>44042</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30067,7 +30067,7 @@
         <v>44047</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30124,7 +30124,7 @@
         <v>44047</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30181,7 +30181,7 @@
         <v>44047</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30238,7 +30238,7 @@
         <v>44048</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30295,7 +30295,7 @@
         <v>44050</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30352,7 +30352,7 @@
         <v>44053</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>44053</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         <v>44053</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30523,7 +30523,7 @@
         <v>44060</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30580,7 +30580,7 @@
         <v>44061</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30642,7 +30642,7 @@
         <v>44061</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30699,7 +30699,7 @@
         <v>44061</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30756,7 +30756,7 @@
         <v>44061</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30813,7 +30813,7 @@
         <v>44063</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30870,7 +30870,7 @@
         <v>44063</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30927,7 +30927,7 @@
         <v>44064</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30984,7 +30984,7 @@
         <v>44067</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31041,7 +31041,7 @@
         <v>44068</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31098,7 +31098,7 @@
         <v>44068</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31155,7 +31155,7 @@
         <v>44068</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31212,7 +31212,7 @@
         <v>44069</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31269,7 +31269,7 @@
         <v>44071</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31326,7 +31326,7 @@
         <v>44071</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>44075</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31440,7 +31440,7 @@
         <v>44075</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31497,7 +31497,7 @@
         <v>44076</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31559,7 +31559,7 @@
         <v>44076</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31621,7 +31621,7 @@
         <v>44081</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31678,7 +31678,7 @@
         <v>44083</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31735,7 +31735,7 @@
         <v>44084</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31792,7 +31792,7 @@
         <v>44084</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>44084</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         <v>44084</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31963,7 +31963,7 @@
         <v>44087</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>44087</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>44090</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>44090</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>44091</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>44092</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32305,7 +32305,7 @@
         <v>44097</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32362,7 +32362,7 @@
         <v>44097</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32424,7 +32424,7 @@
         <v>44099</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32481,7 +32481,7 @@
         <v>44106</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32543,7 +32543,7 @@
         <v>44110</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32605,7 +32605,7 @@
         <v>44110</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32662,7 +32662,7 @@
         <v>44113</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32724,7 +32724,7 @@
         <v>44118</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32781,7 +32781,7 @@
         <v>44124</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32838,7 +32838,7 @@
         <v>44126</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32895,7 +32895,7 @@
         <v>44126</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32952,7 +32952,7 @@
         <v>44134</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33009,7 +33009,7 @@
         <v>44137</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33071,7 +33071,7 @@
         <v>44146</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33128,7 +33128,7 @@
         <v>44146</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33185,7 +33185,7 @@
         <v>44151</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33242,7 +33242,7 @@
         <v>44151</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33299,7 +33299,7 @@
         <v>44151</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33356,7 +33356,7 @@
         <v>44154</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33413,7 +33413,7 @@
         <v>44159</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33470,7 +33470,7 @@
         <v>44162</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33527,7 +33527,7 @@
         <v>44162</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33584,7 +33584,7 @@
         <v>44172</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33641,7 +33641,7 @@
         <v>44179</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33698,7 +33698,7 @@
         <v>44182</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33755,7 +33755,7 @@
         <v>44186</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33812,7 +33812,7 @@
         <v>44186</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33869,7 +33869,7 @@
         <v>44186</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33926,7 +33926,7 @@
         <v>44186</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33983,7 +33983,7 @@
         <v>44188</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34040,7 +34040,7 @@
         <v>44193</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34097,7 +34097,7 @@
         <v>44193</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34154,7 +34154,7 @@
         <v>44193</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34216,7 +34216,7 @@
         <v>44193</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34273,7 +34273,7 @@
         <v>44195</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34330,7 +34330,7 @@
         <v>44201</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34387,7 +34387,7 @@
         <v>44203</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34444,7 +34444,7 @@
         <v>44215</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34501,7 +34501,7 @@
         <v>44216</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34558,7 +34558,7 @@
         <v>44218</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34615,7 +34615,7 @@
         <v>44223</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34672,7 +34672,7 @@
         <v>44223</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34729,7 +34729,7 @@
         <v>44223</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         <v>44229</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34843,7 +34843,7 @@
         <v>44236</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34905,7 +34905,7 @@
         <v>44243</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34962,7 +34962,7 @@
         <v>44250</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35019,7 +35019,7 @@
         <v>44250</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35076,7 +35076,7 @@
         <v>44252</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35138,7 +35138,7 @@
         <v>44252</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35200,7 +35200,7 @@
         <v>44258</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35257,7 +35257,7 @@
         <v>44259</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35314,7 +35314,7 @@
         <v>44260</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35376,7 +35376,7 @@
         <v>44263</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35433,7 +35433,7 @@
         <v>44274</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35490,7 +35490,7 @@
         <v>44274</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35547,7 +35547,7 @@
         <v>44278</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35604,7 +35604,7 @@
         <v>44295</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         <v>44300</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35723,7 +35723,7 @@
         <v>44308</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35780,7 +35780,7 @@
         <v>44314</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35837,7 +35837,7 @@
         <v>44319</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35894,7 +35894,7 @@
         <v>44320</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35951,7 +35951,7 @@
         <v>44326</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36008,7 +36008,7 @@
         <v>44334</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36065,7 +36065,7 @@
         <v>44337</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36122,7 +36122,7 @@
         <v>44349</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36184,7 +36184,7 @@
         <v>44353</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36241,7 +36241,7 @@
         <v>44354</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36303,7 +36303,7 @@
         <v>44373</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36360,7 +36360,7 @@
         <v>44375</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36417,7 +36417,7 @@
         <v>44375</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36474,7 +36474,7 @@
         <v>44375</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36531,7 +36531,7 @@
         <v>44375</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36588,7 +36588,7 @@
         <v>44375</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36645,7 +36645,7 @@
         <v>44382</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36702,7 +36702,7 @@
         <v>44386</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36759,7 +36759,7 @@
         <v>44411</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36816,7 +36816,7 @@
         <v>44419</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36873,7 +36873,7 @@
         <v>44420</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36930,7 +36930,7 @@
         <v>44420</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36987,7 +36987,7 @@
         <v>44420</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37044,7 +37044,7 @@
         <v>44426</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37101,7 +37101,7 @@
         <v>44432</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37158,7 +37158,7 @@
         <v>44433</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37220,7 +37220,7 @@
         <v>44434</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37277,7 +37277,7 @@
         <v>44438</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37334,7 +37334,7 @@
         <v>44438</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37391,7 +37391,7 @@
         <v>44439</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37448,7 +37448,7 @@
         <v>44441</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37505,7 +37505,7 @@
         <v>44447</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37562,7 +37562,7 @@
         <v>44447</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37624,7 +37624,7 @@
         <v>44449</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37681,7 +37681,7 @@
         <v>44456</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37738,7 +37738,7 @@
         <v>44468</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37800,7 +37800,7 @@
         <v>44468</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37862,7 +37862,7 @@
         <v>44470</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37919,7 +37919,7 @@
         <v>44473</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37976,7 +37976,7 @@
         <v>44473</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38033,7 +38033,7 @@
         <v>44473</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38090,7 +38090,7 @@
         <v>44477</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38147,7 +38147,7 @@
         <v>44480</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38204,7 +38204,7 @@
         <v>44482</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38261,7 +38261,7 @@
         <v>44484</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38323,7 +38323,7 @@
         <v>44484</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38380,7 +38380,7 @@
         <v>44488</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38437,7 +38437,7 @@
         <v>44490</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38494,7 +38494,7 @@
         <v>44496</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38551,7 +38551,7 @@
         <v>44502</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38608,7 +38608,7 @@
         <v>44511</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38665,7 +38665,7 @@
         <v>44516</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38722,7 +38722,7 @@
         <v>44526</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38779,7 +38779,7 @@
         <v>44526</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38836,7 +38836,7 @@
         <v>44529</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38893,7 +38893,7 @@
         <v>44530</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38950,7 +38950,7 @@
         <v>44532</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39007,7 +39007,7 @@
         <v>44532</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39064,7 +39064,7 @@
         <v>44536</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39121,7 +39121,7 @@
         <v>44549</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39178,7 +39178,7 @@
         <v>44552</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39235,7 +39235,7 @@
         <v>44564</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39292,7 +39292,7 @@
         <v>44564</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39349,7 +39349,7 @@
         <v>44565</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39406,7 +39406,7 @@
         <v>44582</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39463,7 +39463,7 @@
         <v>44582</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39525,7 +39525,7 @@
         <v>44587</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39582,7 +39582,7 @@
         <v>44592</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39639,7 +39639,7 @@
         <v>44593</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39696,7 +39696,7 @@
         <v>44593</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39753,7 +39753,7 @@
         <v>44594</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39810,7 +39810,7 @@
         <v>44594</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39867,7 +39867,7 @@
         <v>44599</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39924,7 +39924,7 @@
         <v>44608</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39981,7 +39981,7 @@
         <v>44610</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40043,7 +40043,7 @@
         <v>44612</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40105,7 +40105,7 @@
         <v>44614</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40162,7 +40162,7 @@
         <v>44623</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40219,7 +40219,7 @@
         <v>44624</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40276,7 +40276,7 @@
         <v>44624</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40333,7 +40333,7 @@
         <v>44643</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40390,7 +40390,7 @@
         <v>44645</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40447,7 +40447,7 @@
         <v>44651</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40504,7 +40504,7 @@
         <v>44651</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40566,7 +40566,7 @@
         <v>44655</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40623,7 +40623,7 @@
         <v>44673</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40680,7 +40680,7 @@
         <v>44676</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40737,7 +40737,7 @@
         <v>44683</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40794,7 +40794,7 @@
         <v>44686</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40856,7 +40856,7 @@
         <v>44694</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40913,7 +40913,7 @@
         <v>44705</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40970,7 +40970,7 @@
         <v>44712</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41027,7 +41027,7 @@
         <v>44713</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41084,7 +41084,7 @@
         <v>44714</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41141,7 +41141,7 @@
         <v>44719</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41198,7 +41198,7 @@
         <v>44725</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41255,7 +41255,7 @@
         <v>44725</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41312,7 +41312,7 @@
         <v>44741</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41369,7 +41369,7 @@
         <v>44749</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         <v>44755</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41483,7 +41483,7 @@
         <v>44794</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41540,7 +41540,7 @@
         <v>44794</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41597,7 +41597,7 @@
         <v>44811</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41654,7 +41654,7 @@
         <v>44811</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41711,7 +41711,7 @@
         <v>44819</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41768,7 +41768,7 @@
         <v>44824</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41825,7 +41825,7 @@
         <v>44826</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41882,7 +41882,7 @@
         <v>44827</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41939,7 +41939,7 @@
         <v>44827</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41996,7 +41996,7 @@
         <v>44827</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42053,7 +42053,7 @@
         <v>44827</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42110,7 +42110,7 @@
         <v>44827</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42167,7 +42167,7 @@
         <v>44827</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42224,7 +42224,7 @@
         <v>44831</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42281,7 +42281,7 @@
         <v>44831</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42338,7 +42338,7 @@
         <v>44831</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42395,7 +42395,7 @@
         <v>44833</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42452,7 +42452,7 @@
         <v>44833</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42509,7 +42509,7 @@
         <v>44834</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42566,7 +42566,7 @@
         <v>44846</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42623,7 +42623,7 @@
         <v>44862</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42685,7 +42685,7 @@
         <v>44875</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42742,7 +42742,7 @@
         <v>44876</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42799,7 +42799,7 @@
         <v>44880</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42856,7 +42856,7 @@
         <v>44882</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42913,7 +42913,7 @@
         <v>44893</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42975,7 +42975,7 @@
         <v>44894</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43032,7 +43032,7 @@
         <v>44895</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43094,7 +43094,7 @@
         <v>44901</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43156,7 +43156,7 @@
         <v>44910</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43213,7 +43213,7 @@
         <v>44917</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43270,7 +43270,7 @@
         <v>44928</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43332,7 +43332,7 @@
         <v>44928</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43389,7 +43389,7 @@
         <v>44935</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43446,7 +43446,7 @@
         <v>44938</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43503,7 +43503,7 @@
         <v>44939</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43560,7 +43560,7 @@
         <v>44939</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43617,7 +43617,7 @@
         <v>44942</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43674,7 +43674,7 @@
         <v>44942</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43731,7 +43731,7 @@
         <v>44943</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43788,7 +43788,7 @@
         <v>44952</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43845,7 +43845,7 @@
         <v>44960</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43907,7 +43907,7 @@
         <v>44963</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43964,7 +43964,7 @@
         <v>44966</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44021,7 +44021,7 @@
         <v>44970</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44078,7 +44078,7 @@
         <v>44971</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44135,7 +44135,7 @@
         <v>44971</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44192,7 +44192,7 @@
         <v>44977</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44249,7 +44249,7 @@
         <v>44988</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         <v>44988</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44363,7 +44363,7 @@
         <v>44991</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44420,7 +44420,7 @@
         <v>44994</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44477,7 +44477,7 @@
         <v>44995</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44534,7 +44534,7 @@
         <v>44999</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44591,7 +44591,7 @@
         <v>45007</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44648,7 +44648,7 @@
         <v>45013</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44705,7 +44705,7 @@
         <v>45013</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44762,7 +44762,7 @@
         <v>45016</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44819,7 +44819,7 @@
         <v>45016</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44876,7 +44876,7 @@
         <v>45016</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44933,7 +44933,7 @@
         <v>45026</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44990,7 +44990,7 @@
         <v>45028</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45047,7 +45047,7 @@
         <v>45030</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45109,7 +45109,7 @@
         <v>45030</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45171,7 +45171,7 @@
         <v>45033</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45228,7 +45228,7 @@
         <v>45047</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45285,7 +45285,7 @@
         <v>45048</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45342,7 +45342,7 @@
         <v>45049</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45399,7 +45399,7 @@
         <v>45054</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45456,7 +45456,7 @@
         <v>45054</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45513,7 +45513,7 @@
         <v>45054</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45570,7 +45570,7 @@
         <v>45054</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45627,7 +45627,7 @@
         <v>45055</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45684,7 +45684,7 @@
         <v>45061</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45746,7 +45746,7 @@
         <v>45061</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45803,7 +45803,7 @@
         <v>45063</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45860,7 +45860,7 @@
         <v>45070</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45917,7 +45917,7 @@
         <v>45071</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45974,7 +45974,7 @@
         <v>45071</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46031,7 +46031,7 @@
         <v>45071</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46088,7 +46088,7 @@
         <v>45077</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46145,7 +46145,7 @@
         <v>45079</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46202,7 +46202,7 @@
         <v>45079</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46259,7 +46259,7 @@
         <v>45079</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46316,7 +46316,7 @@
         <v>45081</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46373,7 +46373,7 @@
         <v>45085</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46430,7 +46430,7 @@
         <v>45092</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46487,7 +46487,7 @@
         <v>45093</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46564,7 +46564,7 @@
         <v>45099</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46621,7 +46621,7 @@
         <v>45099</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46678,7 +46678,7 @@
         <v>45099</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46735,7 +46735,7 @@
         <v>45099</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46792,7 +46792,7 @@
         <v>45099</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46849,7 +46849,7 @@
         <v>45099</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46906,7 +46906,7 @@
         <v>45099</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46963,7 +46963,7 @@
         <v>45099</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47020,7 +47020,7 @@
         <v>45099</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47077,7 +47077,7 @@
         <v>45099</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47134,7 +47134,7 @@
         <v>45099</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47191,7 +47191,7 @@
         <v>45099</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47248,7 +47248,7 @@
         <v>45103</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47305,7 +47305,7 @@
         <v>45104</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47362,7 +47362,7 @@
         <v>45105</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47419,7 +47419,7 @@
         <v>45113</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47476,7 +47476,7 @@
         <v>45113</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47533,7 +47533,7 @@
         <v>45127</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47590,7 +47590,7 @@
         <v>45127</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47647,7 +47647,7 @@
         <v>45148</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47704,7 +47704,7 @@
         <v>45149</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47761,7 +47761,7 @@
         <v>45153</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47818,7 +47818,7 @@
         <v>45160</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47875,7 +47875,7 @@
         <v>45161</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47932,7 +47932,7 @@
         <v>45168</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47994,7 +47994,7 @@
         <v>45168</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48051,7 +48051,7 @@
         <v>45168</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>

--- a/Översikt HULTSFRED.xlsx
+++ b/Översikt HULTSFRED.xlsx
@@ -572,7 +572,7 @@
         <v>43874</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>44894</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>44468</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
         <v>44175</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>43753</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1080,7 +1080,7 @@
         <v>43921</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44069</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>43438</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>43507</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>43845</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43916</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>43986</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43426</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43447</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43874</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>44258</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>44474</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>44551</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>44224</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>44641</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
         <v>44809</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44822</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>45026</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43343</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>43405</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43418</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>43419</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>43489</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43682</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>44060</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>44083</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44098</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>44235</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>44235</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>44278</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>44280</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         <v>44468</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>44559</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>44565</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>44909</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>45053</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>43438</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43493</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>43545</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>43591</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>43702</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>43889</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43902</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4901,7 +4901,7 @@
         <v>43920</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
         <v>43962</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>44053</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         <v>44124</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>44159</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>44180</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>44295</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>44341</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>44375</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>44417</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>44455</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v>44526</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>44876</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         <v>44928</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6110,7 +6110,7 @@
         <v>44980</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         <v>45016</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>45093</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>43328</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>43329</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>43336</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>43340</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>43340</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>43342</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43357</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>43364</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43364</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43364</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43364</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>43370</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>43371</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>43375</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         <v>43377</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7220,7 +7220,7 @@
         <v>43385</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
         <v>43388</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7334,7 +7334,7 @@
         <v>43390</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7391,7 +7391,7 @@
         <v>43392</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7448,7 +7448,7 @@
         <v>43395</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>43395</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>43396</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>43402</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         <v>43403</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7733,7 +7733,7 @@
         <v>43403</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         <v>43403</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         <v>43404</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>43405</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>43410</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>43411</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>43411</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>43411</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>43413</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43415</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>43416</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>43416</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>43417</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>43417</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>43418</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>43418</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>43419</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>43419</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43419</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>43420</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>43423</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>43425</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43425</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>43426</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>43426</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>43426</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43427</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>43430</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>43430</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>43430</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43431</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>43431</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43432</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>43432</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>43433</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>43433</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>43437</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>43438</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>43438</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>43438</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>43439</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>43439</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>43444</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>43444</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>43445</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>43446</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>43446</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>43448</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>43448</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>43454</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>43455</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>43466</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43467</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>43468</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>43468</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43469</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43469</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>43472</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>43472</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11116,7 +11116,7 @@
         <v>43472</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11173,7 +11173,7 @@
         <v>43472</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11230,7 +11230,7 @@
         <v>43473</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11287,7 +11287,7 @@
         <v>43473</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11344,7 +11344,7 @@
         <v>43474</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
         <v>43475</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>43475</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>43475</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>43475</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43475</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>43475</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11763,7 +11763,7 @@
         <v>43478</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11820,7 +11820,7 @@
         <v>43479</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11877,7 +11877,7 @@
         <v>43479</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11934,7 +11934,7 @@
         <v>43480</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11991,7 +11991,7 @@
         <v>43481</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12048,7 +12048,7 @@
         <v>43484</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12105,7 +12105,7 @@
         <v>43486</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12162,7 +12162,7 @@
         <v>43488</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12219,7 +12219,7 @@
         <v>43488</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12276,7 +12276,7 @@
         <v>43489</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12333,7 +12333,7 @@
         <v>43489</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>43490</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>43493</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12514,7 +12514,7 @@
         <v>43494</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12571,7 +12571,7 @@
         <v>43494</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12628,7 +12628,7 @@
         <v>43494</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12685,7 +12685,7 @@
         <v>43496</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>43497</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>43497</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         <v>43497</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>43497</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12975,7 +12975,7 @@
         <v>43500</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13032,7 +13032,7 @@
         <v>43504</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13089,7 +13089,7 @@
         <v>43511</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>43516</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>43516</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>43520</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>43522</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>43523</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>43524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>43525</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>43526</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>43528</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>43528</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>43528</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>43528</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13835,7 +13835,7 @@
         <v>43530</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13892,7 +13892,7 @@
         <v>43532</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13949,7 +13949,7 @@
         <v>43539</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14006,7 +14006,7 @@
         <v>43542</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14063,7 +14063,7 @@
         <v>43550</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14120,7 +14120,7 @@
         <v>43551</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14177,7 +14177,7 @@
         <v>43551</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>43551</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>43551</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14348,7 +14348,7 @@
         <v>43556</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>43557</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14462,7 +14462,7 @@
         <v>43558</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>43565</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>43570</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14638,7 +14638,7 @@
         <v>43571</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14695,7 +14695,7 @@
         <v>43572</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>43578</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>43579</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>43584</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>43584</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>43584</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>43584</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>43584</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>43585</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>43587</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>43587</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         <v>43593</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>43595</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>43605</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>43605</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>43627</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>43628</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>43628</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>43628</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>43633</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>43634</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>43634</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>43634</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>43635</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>43635</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>43640</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>43640</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>43641</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>43642</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>43643</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>43643</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>43643</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16534,7 +16534,7 @@
         <v>43644</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16591,7 +16591,7 @@
         <v>43647</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16648,7 +16648,7 @@
         <v>43654</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>43656</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>43658</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16819,7 +16819,7 @@
         <v>43661</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>43665</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16933,7 +16933,7 @@
         <v>43665</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16990,7 +16990,7 @@
         <v>43667</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17047,7 +17047,7 @@
         <v>43668</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17104,7 +17104,7 @@
         <v>43669</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17161,7 +17161,7 @@
         <v>43670</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17218,7 +17218,7 @@
         <v>43675</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17275,7 +17275,7 @@
         <v>43677</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17332,7 +17332,7 @@
         <v>43682</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>43682</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>43682</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>43683</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>43683</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>43683</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>43689</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>43690</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>43691</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17845,7 +17845,7 @@
         <v>43692</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>43696</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17959,7 +17959,7 @@
         <v>43696</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18016,7 +18016,7 @@
         <v>43697</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18073,7 +18073,7 @@
         <v>43697</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18130,7 +18130,7 @@
         <v>43698</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18187,7 +18187,7 @@
         <v>43699</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18244,7 +18244,7 @@
         <v>43700</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18301,7 +18301,7 @@
         <v>43702</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18358,7 +18358,7 @@
         <v>43703</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18415,7 +18415,7 @@
         <v>43703</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18472,7 +18472,7 @@
         <v>43703</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18529,7 +18529,7 @@
         <v>43705</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18586,7 +18586,7 @@
         <v>43707</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18643,7 +18643,7 @@
         <v>43707</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>43710</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18757,7 +18757,7 @@
         <v>43712</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18814,7 +18814,7 @@
         <v>43712</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>43713</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>43713</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>43713</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>43714</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19114,7 +19114,7 @@
         <v>43718</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         <v>43719</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19228,7 +19228,7 @@
         <v>43719</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19285,7 +19285,7 @@
         <v>43722</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19342,7 +19342,7 @@
         <v>43724</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19399,7 +19399,7 @@
         <v>43724</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19456,7 +19456,7 @@
         <v>43724</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19513,7 +19513,7 @@
         <v>43726</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19570,7 +19570,7 @@
         <v>43726</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19627,7 +19627,7 @@
         <v>43728</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>43732</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>43733</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>43734</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>43740</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>43740</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>43740</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>43742</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>43742</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>43742</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>43742</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>43742</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>43742</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>43745</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>43746</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>43746</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>43746</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>43747</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>43748</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>43751</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>43754</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>43756</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>43756</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>43756</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>43756</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21057,7 +21057,7 @@
         <v>43756</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21114,7 +21114,7 @@
         <v>43760</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
         <v>43762</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>43762</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>43764</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>43767</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21399,7 +21399,7 @@
         <v>43767</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>43767</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>43769</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>43769</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>43769</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>43769</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>43772</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         <v>43774</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>43776</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21927,7 +21927,7 @@
         <v>43776</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         <v>43776</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22046,7 +22046,7 @@
         <v>43776</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22108,7 +22108,7 @@
         <v>43776</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22170,7 +22170,7 @@
         <v>43776</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22232,7 +22232,7 @@
         <v>43776</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>43776</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>43777</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>43780</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>43780</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22522,7 +22522,7 @@
         <v>43780</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22579,7 +22579,7 @@
         <v>43782</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>43783</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22698,7 +22698,7 @@
         <v>43783</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22760,7 +22760,7 @@
         <v>43783</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22822,7 +22822,7 @@
         <v>43794</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22879,7 +22879,7 @@
         <v>43794</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22936,7 +22936,7 @@
         <v>43795</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22993,7 +22993,7 @@
         <v>43797</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23050,7 +23050,7 @@
         <v>43800</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23107,7 +23107,7 @@
         <v>43803</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23164,7 +23164,7 @@
         <v>43803</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23221,7 +23221,7 @@
         <v>43803</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23278,7 +23278,7 @@
         <v>43807</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23335,7 +23335,7 @@
         <v>43808</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23392,7 +23392,7 @@
         <v>43808</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
         <v>43808</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         <v>43808</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         <v>43810</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>43810</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23687,7 +23687,7 @@
         <v>43810</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23749,7 +23749,7 @@
         <v>43810</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23811,7 +23811,7 @@
         <v>43810</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23873,7 +23873,7 @@
         <v>43811</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         <v>43811</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>43811</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24044,7 +24044,7 @@
         <v>43815</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>43816</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24158,7 +24158,7 @@
         <v>43816</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>43817</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>43833</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>43833</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
         <v>43838</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>43842</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>43843</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24567,7 +24567,7 @@
         <v>43847</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>43847</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>43847</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24738,7 +24738,7 @@
         <v>43847</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24795,7 +24795,7 @@
         <v>43850</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24852,7 +24852,7 @@
         <v>43850</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24909,7 +24909,7 @@
         <v>43850</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24966,7 +24966,7 @@
         <v>43858</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25023,7 +25023,7 @@
         <v>43858</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25080,7 +25080,7 @@
         <v>43859</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25142,7 +25142,7 @@
         <v>43864</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25199,7 +25199,7 @@
         <v>43865</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25256,7 +25256,7 @@
         <v>43865</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>43867</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>43872</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25427,7 +25427,7 @@
         <v>43872</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25484,7 +25484,7 @@
         <v>43873</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25541,7 +25541,7 @@
         <v>43873</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25598,7 +25598,7 @@
         <v>43878</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25655,7 +25655,7 @@
         <v>43878</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25712,7 +25712,7 @@
         <v>43879</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25769,7 +25769,7 @@
         <v>43879</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25831,7 +25831,7 @@
         <v>43879</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25888,7 +25888,7 @@
         <v>43880</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25945,7 +25945,7 @@
         <v>43882</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26002,7 +26002,7 @@
         <v>43885</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26059,7 +26059,7 @@
         <v>43885</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>43886</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>43887</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>43889</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26292,7 +26292,7 @@
         <v>43889</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>43892</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26411,7 +26411,7 @@
         <v>43899</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26468,7 +26468,7 @@
         <v>43900</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26525,7 +26525,7 @@
         <v>43900</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26582,7 +26582,7 @@
         <v>43902</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26639,7 +26639,7 @@
         <v>43906</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26696,7 +26696,7 @@
         <v>43907</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26753,7 +26753,7 @@
         <v>43910</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26810,7 +26810,7 @@
         <v>43910</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26867,7 +26867,7 @@
         <v>43913</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         <v>43913</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26981,7 +26981,7 @@
         <v>43913</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27043,7 +27043,7 @@
         <v>43913</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27100,7 +27100,7 @@
         <v>43916</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27157,7 +27157,7 @@
         <v>43921</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27214,7 +27214,7 @@
         <v>43921</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27271,7 +27271,7 @@
         <v>43921</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27328,7 +27328,7 @@
         <v>43922</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27390,7 +27390,7 @@
         <v>43924</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27452,7 +27452,7 @@
         <v>43924</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27514,7 +27514,7 @@
         <v>43924</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27576,7 +27576,7 @@
         <v>43924</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27638,7 +27638,7 @@
         <v>43924</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27700,7 +27700,7 @@
         <v>43929</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27757,7 +27757,7 @@
         <v>43936</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27814,7 +27814,7 @@
         <v>43943</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27871,7 +27871,7 @@
         <v>43951</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27928,7 +27928,7 @@
         <v>43951</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27985,7 +27985,7 @@
         <v>43955</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28042,7 +28042,7 @@
         <v>43958</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         <v>43960</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28156,7 +28156,7 @@
         <v>43960</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28213,7 +28213,7 @@
         <v>43964</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28270,7 +28270,7 @@
         <v>43964</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28327,7 +28327,7 @@
         <v>43965</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28389,7 +28389,7 @@
         <v>43965</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28451,7 +28451,7 @@
         <v>43969</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28508,7 +28508,7 @@
         <v>43969</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28565,7 +28565,7 @@
         <v>43970</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28622,7 +28622,7 @@
         <v>43970</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28679,7 +28679,7 @@
         <v>43971</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28736,7 +28736,7 @@
         <v>43971</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28793,7 +28793,7 @@
         <v>43977</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28855,7 +28855,7 @@
         <v>43977</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         <v>43977</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28979,7 +28979,7 @@
         <v>43986</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29036,7 +29036,7 @@
         <v>43986</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29093,7 +29093,7 @@
         <v>43994</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29155,7 +29155,7 @@
         <v>44004</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29212,7 +29212,7 @@
         <v>44012</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29269,7 +29269,7 @@
         <v>44014</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29326,7 +29326,7 @@
         <v>44018</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29383,7 +29383,7 @@
         <v>44018</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29440,7 +29440,7 @@
         <v>44021</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29497,7 +29497,7 @@
         <v>44022</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29554,7 +29554,7 @@
         <v>44022</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         <v>44026</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>44027</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29725,7 +29725,7 @@
         <v>44028</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29782,7 +29782,7 @@
         <v>44033</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29839,7 +29839,7 @@
         <v>44034</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29896,7 +29896,7 @@
         <v>44036</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29953,7 +29953,7 @@
         <v>44040</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30010,7 +30010,7 @@
         <v>44042</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30067,7 +30067,7 @@
         <v>44047</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30124,7 +30124,7 @@
         <v>44047</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30181,7 +30181,7 @@
         <v>44047</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30238,7 +30238,7 @@
         <v>44048</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30295,7 +30295,7 @@
         <v>44050</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30352,7 +30352,7 @@
         <v>44053</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>44053</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         <v>44053</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30523,7 +30523,7 @@
         <v>44060</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30580,7 +30580,7 @@
         <v>44061</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30642,7 +30642,7 @@
         <v>44061</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30699,7 +30699,7 @@
         <v>44061</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30756,7 +30756,7 @@
         <v>44061</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30813,7 +30813,7 @@
         <v>44063</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30870,7 +30870,7 @@
         <v>44063</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30927,7 +30927,7 @@
         <v>44064</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30984,7 +30984,7 @@
         <v>44067</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31041,7 +31041,7 @@
         <v>44068</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31098,7 +31098,7 @@
         <v>44068</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31155,7 +31155,7 @@
         <v>44068</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31212,7 +31212,7 @@
         <v>44069</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31269,7 +31269,7 @@
         <v>44071</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31326,7 +31326,7 @@
         <v>44071</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>44075</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31440,7 +31440,7 @@
         <v>44075</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31497,7 +31497,7 @@
         <v>44076</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31559,7 +31559,7 @@
         <v>44076</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31621,7 +31621,7 @@
         <v>44081</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31678,7 +31678,7 @@
         <v>44083</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31735,7 +31735,7 @@
         <v>44084</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31792,7 +31792,7 @@
         <v>44084</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>44084</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         <v>44084</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31963,7 +31963,7 @@
         <v>44087</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>44087</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>44090</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>44090</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>44091</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>44092</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32305,7 +32305,7 @@
         <v>44097</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32362,7 +32362,7 @@
         <v>44097</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32424,7 +32424,7 @@
         <v>44099</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32481,7 +32481,7 @@
         <v>44106</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32543,7 +32543,7 @@
         <v>44110</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32605,7 +32605,7 @@
         <v>44110</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32662,7 +32662,7 @@
         <v>44113</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32724,7 +32724,7 @@
         <v>44118</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32781,7 +32781,7 @@
         <v>44124</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32838,7 +32838,7 @@
         <v>44126</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32895,7 +32895,7 @@
         <v>44126</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32952,7 +32952,7 @@
         <v>44134</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33009,7 +33009,7 @@
         <v>44137</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33071,7 +33071,7 @@
         <v>44146</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33128,7 +33128,7 @@
         <v>44146</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33185,7 +33185,7 @@
         <v>44151</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33242,7 +33242,7 @@
         <v>44151</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33299,7 +33299,7 @@
         <v>44151</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33356,7 +33356,7 @@
         <v>44154</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33413,7 +33413,7 @@
         <v>44159</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33470,7 +33470,7 @@
         <v>44162</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33527,7 +33527,7 @@
         <v>44162</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33584,7 +33584,7 @@
         <v>44172</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33641,7 +33641,7 @@
         <v>44179</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33698,7 +33698,7 @@
         <v>44182</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33755,7 +33755,7 @@
         <v>44186</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33812,7 +33812,7 @@
         <v>44186</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33869,7 +33869,7 @@
         <v>44186</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33926,7 +33926,7 @@
         <v>44186</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33983,7 +33983,7 @@
         <v>44188</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34040,7 +34040,7 @@
         <v>44193</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34097,7 +34097,7 @@
         <v>44193</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34154,7 +34154,7 @@
         <v>44193</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34216,7 +34216,7 @@
         <v>44193</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34273,7 +34273,7 @@
         <v>44195</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34330,7 +34330,7 @@
         <v>44201</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34387,7 +34387,7 @@
         <v>44203</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34444,7 +34444,7 @@
         <v>44215</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34501,7 +34501,7 @@
         <v>44216</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34558,7 +34558,7 @@
         <v>44218</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34615,7 +34615,7 @@
         <v>44223</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34672,7 +34672,7 @@
         <v>44223</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34729,7 +34729,7 @@
         <v>44223</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         <v>44229</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34843,7 +34843,7 @@
         <v>44236</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34905,7 +34905,7 @@
         <v>44243</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34962,7 +34962,7 @@
         <v>44250</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35019,7 +35019,7 @@
         <v>44250</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35076,7 +35076,7 @@
         <v>44252</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35138,7 +35138,7 @@
         <v>44252</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35200,7 +35200,7 @@
         <v>44258</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35257,7 +35257,7 @@
         <v>44259</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35314,7 +35314,7 @@
         <v>44260</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35376,7 +35376,7 @@
         <v>44263</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35433,7 +35433,7 @@
         <v>44274</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35490,7 +35490,7 @@
         <v>44274</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35547,7 +35547,7 @@
         <v>44278</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35604,7 +35604,7 @@
         <v>44295</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         <v>44300</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35723,7 +35723,7 @@
         <v>44308</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35780,7 +35780,7 @@
         <v>44314</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35837,7 +35837,7 @@
         <v>44319</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35894,7 +35894,7 @@
         <v>44320</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35951,7 +35951,7 @@
         <v>44326</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36008,7 +36008,7 @@
         <v>44334</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36065,7 +36065,7 @@
         <v>44337</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36122,7 +36122,7 @@
         <v>44349</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36184,7 +36184,7 @@
         <v>44353</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36241,7 +36241,7 @@
         <v>44354</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36303,7 +36303,7 @@
         <v>44373</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36360,7 +36360,7 @@
         <v>44375</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36417,7 +36417,7 @@
         <v>44375</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36474,7 +36474,7 @@
         <v>44375</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36531,7 +36531,7 @@
         <v>44375</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36588,7 +36588,7 @@
         <v>44375</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36645,7 +36645,7 @@
         <v>44382</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36702,7 +36702,7 @@
         <v>44386</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36759,7 +36759,7 @@
         <v>44411</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36816,7 +36816,7 @@
         <v>44419</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36873,7 +36873,7 @@
         <v>44420</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36930,7 +36930,7 @@
         <v>44420</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36987,7 +36987,7 @@
         <v>44420</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37044,7 +37044,7 @@
         <v>44426</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37101,7 +37101,7 @@
         <v>44432</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37158,7 +37158,7 @@
         <v>44433</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37220,7 +37220,7 @@
         <v>44434</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37277,7 +37277,7 @@
         <v>44438</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37334,7 +37334,7 @@
         <v>44438</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37391,7 +37391,7 @@
         <v>44439</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37448,7 +37448,7 @@
         <v>44441</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37505,7 +37505,7 @@
         <v>44447</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37562,7 +37562,7 @@
         <v>44447</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37624,7 +37624,7 @@
         <v>44449</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37681,7 +37681,7 @@
         <v>44456</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37738,7 +37738,7 @@
         <v>44468</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37800,7 +37800,7 @@
         <v>44468</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37862,7 +37862,7 @@
         <v>44470</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37919,7 +37919,7 @@
         <v>44473</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37976,7 +37976,7 @@
         <v>44473</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38033,7 +38033,7 @@
         <v>44473</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38090,7 +38090,7 @@
         <v>44477</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38147,7 +38147,7 @@
         <v>44480</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38204,7 +38204,7 @@
         <v>44482</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38261,7 +38261,7 @@
         <v>44484</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38323,7 +38323,7 @@
         <v>44484</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38380,7 +38380,7 @@
         <v>44488</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38437,7 +38437,7 @@
         <v>44490</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38494,7 +38494,7 @@
         <v>44496</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38551,7 +38551,7 @@
         <v>44502</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38608,7 +38608,7 @@
         <v>44511</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38665,7 +38665,7 @@
         <v>44516</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38722,7 +38722,7 @@
         <v>44526</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38779,7 +38779,7 @@
         <v>44526</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38836,7 +38836,7 @@
         <v>44529</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38893,7 +38893,7 @@
         <v>44530</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38950,7 +38950,7 @@
         <v>44532</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39007,7 +39007,7 @@
         <v>44532</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39064,7 +39064,7 @@
         <v>44536</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39121,7 +39121,7 @@
         <v>44549</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39178,7 +39178,7 @@
         <v>44552</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39235,7 +39235,7 @@
         <v>44564</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39292,7 +39292,7 @@
         <v>44564</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39349,7 +39349,7 @@
         <v>44565</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39406,7 +39406,7 @@
         <v>44582</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39463,7 +39463,7 @@
         <v>44582</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39525,7 +39525,7 @@
         <v>44587</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39582,7 +39582,7 @@
         <v>44592</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39639,7 +39639,7 @@
         <v>44593</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39696,7 +39696,7 @@
         <v>44593</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39753,7 +39753,7 @@
         <v>44594</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39810,7 +39810,7 @@
         <v>44594</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39867,7 +39867,7 @@
         <v>44599</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39924,7 +39924,7 @@
         <v>44608</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39981,7 +39981,7 @@
         <v>44610</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40043,7 +40043,7 @@
         <v>44612</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40105,7 +40105,7 @@
         <v>44614</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40162,7 +40162,7 @@
         <v>44623</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40219,7 +40219,7 @@
         <v>44624</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40276,7 +40276,7 @@
         <v>44624</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40333,7 +40333,7 @@
         <v>44643</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40390,7 +40390,7 @@
         <v>44645</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40447,7 +40447,7 @@
         <v>44651</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40504,7 +40504,7 @@
         <v>44651</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40566,7 +40566,7 @@
         <v>44655</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40623,7 +40623,7 @@
         <v>44673</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40680,7 +40680,7 @@
         <v>44676</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40737,7 +40737,7 @@
         <v>44683</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40794,7 +40794,7 @@
         <v>44686</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40856,7 +40856,7 @@
         <v>44694</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40913,7 +40913,7 @@
         <v>44705</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40970,7 +40970,7 @@
         <v>44712</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41027,7 +41027,7 @@
         <v>44713</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41084,7 +41084,7 @@
         <v>44714</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41141,7 +41141,7 @@
         <v>44719</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41198,7 +41198,7 @@
         <v>44725</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41255,7 +41255,7 @@
         <v>44725</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41312,7 +41312,7 @@
         <v>44741</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41369,7 +41369,7 @@
         <v>44749</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         <v>44755</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41483,7 +41483,7 @@
         <v>44794</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41540,7 +41540,7 @@
         <v>44794</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41597,7 +41597,7 @@
         <v>44811</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41654,7 +41654,7 @@
         <v>44811</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41711,7 +41711,7 @@
         <v>44819</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41768,7 +41768,7 @@
         <v>44824</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41825,7 +41825,7 @@
         <v>44826</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41882,7 +41882,7 @@
         <v>44827</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41939,7 +41939,7 @@
         <v>44827</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41996,7 +41996,7 @@
         <v>44827</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42053,7 +42053,7 @@
         <v>44827</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42110,7 +42110,7 @@
         <v>44827</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42167,7 +42167,7 @@
         <v>44827</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42224,7 +42224,7 @@
         <v>44831</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42281,7 +42281,7 @@
         <v>44831</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42338,7 +42338,7 @@
         <v>44831</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42395,7 +42395,7 @@
         <v>44833</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42452,7 +42452,7 @@
         <v>44833</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42509,7 +42509,7 @@
         <v>44834</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42566,7 +42566,7 @@
         <v>44846</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42623,7 +42623,7 @@
         <v>44862</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42685,7 +42685,7 @@
         <v>44875</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42742,7 +42742,7 @@
         <v>44876</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42799,7 +42799,7 @@
         <v>44880</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42856,7 +42856,7 @@
         <v>44882</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42913,7 +42913,7 @@
         <v>44893</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42975,7 +42975,7 @@
         <v>44894</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43032,7 +43032,7 @@
         <v>44895</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43094,7 +43094,7 @@
         <v>44901</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43156,7 +43156,7 @@
         <v>44910</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43213,7 +43213,7 @@
         <v>44917</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43270,7 +43270,7 @@
         <v>44928</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43332,7 +43332,7 @@
         <v>44928</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43389,7 +43389,7 @@
         <v>44935</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43446,7 +43446,7 @@
         <v>44938</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43503,7 +43503,7 @@
         <v>44939</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43560,7 +43560,7 @@
         <v>44939</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43617,7 +43617,7 @@
         <v>44942</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43674,7 +43674,7 @@
         <v>44942</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43731,7 +43731,7 @@
         <v>44943</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43788,7 +43788,7 @@
         <v>44952</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43845,7 +43845,7 @@
         <v>44960</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43907,7 +43907,7 @@
         <v>44963</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43964,7 +43964,7 @@
         <v>44966</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44021,7 +44021,7 @@
         <v>44970</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44078,7 +44078,7 @@
         <v>44971</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44135,7 +44135,7 @@
         <v>44971</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44192,7 +44192,7 @@
         <v>44977</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44249,7 +44249,7 @@
         <v>44988</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         <v>44988</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44363,7 +44363,7 @@
         <v>44991</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44420,7 +44420,7 @@
         <v>44994</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44477,7 +44477,7 @@
         <v>44995</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44534,7 +44534,7 @@
         <v>44999</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44591,7 +44591,7 @@
         <v>45007</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44648,7 +44648,7 @@
         <v>45013</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44705,7 +44705,7 @@
         <v>45013</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44762,7 +44762,7 @@
         <v>45016</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44819,7 +44819,7 @@
         <v>45016</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44876,7 +44876,7 @@
         <v>45016</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44933,7 +44933,7 @@
         <v>45026</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44990,7 +44990,7 @@
         <v>45028</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45047,7 +45047,7 @@
         <v>45030</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45109,7 +45109,7 @@
         <v>45030</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45171,7 +45171,7 @@
         <v>45033</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45228,7 +45228,7 @@
         <v>45047</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45285,7 +45285,7 @@
         <v>45048</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45342,7 +45342,7 @@
         <v>45049</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45399,7 +45399,7 @@
         <v>45054</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45456,7 +45456,7 @@
         <v>45054</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45513,7 +45513,7 @@
         <v>45054</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45570,7 +45570,7 @@
         <v>45054</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45627,7 +45627,7 @@
         <v>45055</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45684,7 +45684,7 @@
         <v>45061</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45746,7 +45746,7 @@
         <v>45061</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45803,7 +45803,7 @@
         <v>45063</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45860,7 +45860,7 @@
         <v>45070</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45917,7 +45917,7 @@
         <v>45071</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45974,7 +45974,7 @@
         <v>45071</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46031,7 +46031,7 @@
         <v>45071</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46088,7 +46088,7 @@
         <v>45077</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46145,7 +46145,7 @@
         <v>45079</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46202,7 +46202,7 @@
         <v>45079</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46259,7 +46259,7 @@
         <v>45079</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46316,7 +46316,7 @@
         <v>45081</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46373,7 +46373,7 @@
         <v>45085</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46430,7 +46430,7 @@
         <v>45092</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46487,7 +46487,7 @@
         <v>45093</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46564,7 +46564,7 @@
         <v>45099</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46621,7 +46621,7 @@
         <v>45099</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46678,7 +46678,7 @@
         <v>45099</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46735,7 +46735,7 @@
         <v>45099</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46792,7 +46792,7 @@
         <v>45099</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46849,7 +46849,7 @@
         <v>45099</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46906,7 +46906,7 @@
         <v>45099</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46963,7 +46963,7 @@
         <v>45099</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47020,7 +47020,7 @@
         <v>45099</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47077,7 +47077,7 @@
         <v>45099</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47134,7 +47134,7 @@
         <v>45099</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47191,7 +47191,7 @@
         <v>45099</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47248,7 +47248,7 @@
         <v>45103</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47305,7 +47305,7 @@
         <v>45104</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47362,7 +47362,7 @@
         <v>45105</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47419,7 +47419,7 @@
         <v>45113</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47476,7 +47476,7 @@
         <v>45113</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47533,7 +47533,7 @@
         <v>45127</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47590,7 +47590,7 @@
         <v>45127</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47647,7 +47647,7 @@
         <v>45148</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47704,7 +47704,7 @@
         <v>45149</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47761,7 +47761,7 @@
         <v>45153</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47818,7 +47818,7 @@
         <v>45160</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47875,7 +47875,7 @@
         <v>45161</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47932,7 +47932,7 @@
         <v>45168</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47994,7 +47994,7 @@
         <v>45168</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48051,7 +48051,7 @@
         <v>45168</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>

--- a/Översikt HULTSFRED.xlsx
+++ b/Översikt HULTSFRED.xlsx
@@ -572,7 +572,7 @@
         <v>43874</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>44894</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>44468</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
         <v>44175</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>43753</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1080,7 +1080,7 @@
         <v>43921</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44069</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>43438</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>43507</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>43845</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43916</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>43986</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43426</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43447</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43874</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>44258</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>44474</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>44551</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>44224</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>44641</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
         <v>44809</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44822</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>45026</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43343</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>43405</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43418</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>43419</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>43489</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43682</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>44060</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>44083</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44098</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>44235</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>44235</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>44278</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>44280</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         <v>44468</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>44559</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>44565</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>44909</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>45053</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>43438</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43493</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>43545</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>43591</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>43702</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>43889</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43902</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4901,7 +4901,7 @@
         <v>43920</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
         <v>43962</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>44053</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         <v>44124</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>44159</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>44180</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>44295</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>44341</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>44375</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>44417</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>44455</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v>44526</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>44876</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         <v>44928</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6110,7 +6110,7 @@
         <v>44980</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         <v>45016</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>45093</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>43328</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>43329</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>43336</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>43340</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>43340</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>43342</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43357</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>43364</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43364</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43364</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43364</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>43370</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>43371</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>43375</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         <v>43377</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7220,7 +7220,7 @@
         <v>43385</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
         <v>43388</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7334,7 +7334,7 @@
         <v>43390</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7391,7 +7391,7 @@
         <v>43392</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7448,7 +7448,7 @@
         <v>43395</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>43395</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>43396</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>43402</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         <v>43403</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7733,7 +7733,7 @@
         <v>43403</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         <v>43403</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         <v>43404</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>43405</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>43410</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>43411</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>43411</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>43411</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>43413</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43415</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>43416</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>43416</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>43417</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>43417</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>43418</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>43418</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>43419</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>43419</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43419</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>43420</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>43423</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>43425</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43425</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>43426</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>43426</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>43426</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43427</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>43430</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>43430</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>43430</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43431</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>43431</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43432</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>43432</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>43433</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>43433</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>43437</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>43438</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>43438</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>43438</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>43439</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>43439</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>43444</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>43444</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>43445</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>43446</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>43446</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>43448</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>43448</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>43454</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>43455</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>43466</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43467</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>43468</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>43468</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43469</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43469</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>43472</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>43472</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11116,7 +11116,7 @@
         <v>43472</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11173,7 +11173,7 @@
         <v>43472</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11230,7 +11230,7 @@
         <v>43473</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11287,7 +11287,7 @@
         <v>43473</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11344,7 +11344,7 @@
         <v>43474</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
         <v>43475</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>43475</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>43475</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>43475</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43475</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>43475</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11763,7 +11763,7 @@
         <v>43478</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11820,7 +11820,7 @@
         <v>43479</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11877,7 +11877,7 @@
         <v>43479</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11934,7 +11934,7 @@
         <v>43480</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11991,7 +11991,7 @@
         <v>43481</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12048,7 +12048,7 @@
         <v>43484</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12105,7 +12105,7 @@
         <v>43486</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12162,7 +12162,7 @@
         <v>43488</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12219,7 +12219,7 @@
         <v>43488</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12276,7 +12276,7 @@
         <v>43489</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12333,7 +12333,7 @@
         <v>43489</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>43490</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>43493</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12514,7 +12514,7 @@
         <v>43494</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12571,7 +12571,7 @@
         <v>43494</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12628,7 +12628,7 @@
         <v>43494</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12685,7 +12685,7 @@
         <v>43496</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>43497</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>43497</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         <v>43497</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>43497</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12975,7 +12975,7 @@
         <v>43500</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13032,7 +13032,7 @@
         <v>43504</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13089,7 +13089,7 @@
         <v>43511</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>43516</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>43516</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>43520</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>43522</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>43523</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>43524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>43525</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>43526</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>43528</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>43528</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>43528</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>43528</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13835,7 +13835,7 @@
         <v>43530</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13892,7 +13892,7 @@
         <v>43532</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13949,7 +13949,7 @@
         <v>43539</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14006,7 +14006,7 @@
         <v>43542</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14063,7 +14063,7 @@
         <v>43550</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14120,7 +14120,7 @@
         <v>43551</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14177,7 +14177,7 @@
         <v>43551</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>43551</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>43551</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14348,7 +14348,7 @@
         <v>43556</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>43557</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14462,7 +14462,7 @@
         <v>43558</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>43565</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>43570</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14638,7 +14638,7 @@
         <v>43571</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14695,7 +14695,7 @@
         <v>43572</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>43578</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>43579</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>43584</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>43584</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>43584</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>43584</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>43584</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>43585</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>43587</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>43587</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         <v>43593</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>43595</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>43605</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>43605</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>43627</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>43628</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>43628</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>43628</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>43633</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>43634</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>43634</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>43634</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>43635</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>43635</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>43640</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>43640</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>43641</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>43642</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>43643</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>43643</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>43643</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16534,7 +16534,7 @@
         <v>43644</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16591,7 +16591,7 @@
         <v>43647</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16648,7 +16648,7 @@
         <v>43654</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>43656</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>43658</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16819,7 +16819,7 @@
         <v>43661</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>43665</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16933,7 +16933,7 @@
         <v>43665</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16990,7 +16990,7 @@
         <v>43667</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17047,7 +17047,7 @@
         <v>43668</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17104,7 +17104,7 @@
         <v>43669</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17161,7 +17161,7 @@
         <v>43670</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17218,7 +17218,7 @@
         <v>43675</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17275,7 +17275,7 @@
         <v>43677</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17332,7 +17332,7 @@
         <v>43682</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>43682</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>43682</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>43683</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>43683</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>43683</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>43689</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>43690</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>43691</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17845,7 +17845,7 @@
         <v>43692</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>43696</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17959,7 +17959,7 @@
         <v>43696</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18016,7 +18016,7 @@
         <v>43697</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18073,7 +18073,7 @@
         <v>43697</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18130,7 +18130,7 @@
         <v>43698</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18187,7 +18187,7 @@
         <v>43699</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18244,7 +18244,7 @@
         <v>43700</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18301,7 +18301,7 @@
         <v>43702</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18358,7 +18358,7 @@
         <v>43703</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18415,7 +18415,7 @@
         <v>43703</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18472,7 +18472,7 @@
         <v>43703</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18529,7 +18529,7 @@
         <v>43705</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18586,7 +18586,7 @@
         <v>43707</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18643,7 +18643,7 @@
         <v>43707</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>43710</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18757,7 +18757,7 @@
         <v>43712</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18814,7 +18814,7 @@
         <v>43712</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>43713</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>43713</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>43713</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>43714</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19114,7 +19114,7 @@
         <v>43718</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         <v>43719</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19228,7 +19228,7 @@
         <v>43719</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19285,7 +19285,7 @@
         <v>43722</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19342,7 +19342,7 @@
         <v>43724</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19399,7 +19399,7 @@
         <v>43724</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19456,7 +19456,7 @@
         <v>43724</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19513,7 +19513,7 @@
         <v>43726</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19570,7 +19570,7 @@
         <v>43726</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19627,7 +19627,7 @@
         <v>43728</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>43732</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>43733</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>43734</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>43740</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>43740</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>43740</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>43742</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>43742</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>43742</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>43742</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>43742</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>43742</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>43745</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>43746</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>43746</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>43746</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>43747</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>43748</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>43751</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>43754</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>43756</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>43756</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>43756</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>43756</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21057,7 +21057,7 @@
         <v>43756</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21114,7 +21114,7 @@
         <v>43760</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
         <v>43762</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>43762</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>43764</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>43767</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21399,7 +21399,7 @@
         <v>43767</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>43767</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>43769</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>43769</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>43769</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>43769</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>43772</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         <v>43774</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>43776</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21927,7 +21927,7 @@
         <v>43776</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         <v>43776</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22046,7 +22046,7 @@
         <v>43776</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22108,7 +22108,7 @@
         <v>43776</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22170,7 +22170,7 @@
         <v>43776</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22232,7 +22232,7 @@
         <v>43776</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>43776</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>43777</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>43780</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>43780</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22522,7 +22522,7 @@
         <v>43780</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22579,7 +22579,7 @@
         <v>43782</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>43783</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22698,7 +22698,7 @@
         <v>43783</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22760,7 +22760,7 @@
         <v>43783</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22822,7 +22822,7 @@
         <v>43794</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22879,7 +22879,7 @@
         <v>43794</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22936,7 +22936,7 @@
         <v>43795</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22993,7 +22993,7 @@
         <v>43797</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23050,7 +23050,7 @@
         <v>43800</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23107,7 +23107,7 @@
         <v>43803</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23164,7 +23164,7 @@
         <v>43803</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23221,7 +23221,7 @@
         <v>43803</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23278,7 +23278,7 @@
         <v>43807</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23335,7 +23335,7 @@
         <v>43808</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23392,7 +23392,7 @@
         <v>43808</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
         <v>43808</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         <v>43808</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         <v>43810</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>43810</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23687,7 +23687,7 @@
         <v>43810</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23749,7 +23749,7 @@
         <v>43810</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23811,7 +23811,7 @@
         <v>43810</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23873,7 +23873,7 @@
         <v>43811</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         <v>43811</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>43811</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24044,7 +24044,7 @@
         <v>43815</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>43816</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24158,7 +24158,7 @@
         <v>43816</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>43817</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>43833</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>43833</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
         <v>43838</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>43842</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>43843</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24567,7 +24567,7 @@
         <v>43847</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>43847</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>43847</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24738,7 +24738,7 @@
         <v>43847</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24795,7 +24795,7 @@
         <v>43850</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24852,7 +24852,7 @@
         <v>43850</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24909,7 +24909,7 @@
         <v>43850</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24966,7 +24966,7 @@
         <v>43858</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25023,7 +25023,7 @@
         <v>43858</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25080,7 +25080,7 @@
         <v>43859</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25142,7 +25142,7 @@
         <v>43864</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25199,7 +25199,7 @@
         <v>43865</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25256,7 +25256,7 @@
         <v>43865</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>43867</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>43872</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25427,7 +25427,7 @@
         <v>43872</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25484,7 +25484,7 @@
         <v>43873</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25541,7 +25541,7 @@
         <v>43873</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25598,7 +25598,7 @@
         <v>43878</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25655,7 +25655,7 @@
         <v>43878</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25712,7 +25712,7 @@
         <v>43879</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25769,7 +25769,7 @@
         <v>43879</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25831,7 +25831,7 @@
         <v>43879</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25888,7 +25888,7 @@
         <v>43880</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25945,7 +25945,7 @@
         <v>43882</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26002,7 +26002,7 @@
         <v>43885</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26059,7 +26059,7 @@
         <v>43885</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>43886</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>43887</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>43889</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26292,7 +26292,7 @@
         <v>43889</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>43892</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26411,7 +26411,7 @@
         <v>43899</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26468,7 +26468,7 @@
         <v>43900</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26525,7 +26525,7 @@
         <v>43900</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26582,7 +26582,7 @@
         <v>43902</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26639,7 +26639,7 @@
         <v>43906</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26696,7 +26696,7 @@
         <v>43907</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26753,7 +26753,7 @@
         <v>43910</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26810,7 +26810,7 @@
         <v>43910</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26867,7 +26867,7 @@
         <v>43913</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         <v>43913</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26981,7 +26981,7 @@
         <v>43913</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27043,7 +27043,7 @@
         <v>43913</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27100,7 +27100,7 @@
         <v>43916</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27157,7 +27157,7 @@
         <v>43921</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27214,7 +27214,7 @@
         <v>43921</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27271,7 +27271,7 @@
         <v>43921</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27328,7 +27328,7 @@
         <v>43922</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27390,7 +27390,7 @@
         <v>43924</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27452,7 +27452,7 @@
         <v>43924</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27514,7 +27514,7 @@
         <v>43924</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27576,7 +27576,7 @@
         <v>43924</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27638,7 +27638,7 @@
         <v>43924</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27700,7 +27700,7 @@
         <v>43929</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27757,7 +27757,7 @@
         <v>43936</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27814,7 +27814,7 @@
         <v>43943</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27871,7 +27871,7 @@
         <v>43951</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27928,7 +27928,7 @@
         <v>43951</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27985,7 +27985,7 @@
         <v>43955</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28042,7 +28042,7 @@
         <v>43958</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         <v>43960</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28156,7 +28156,7 @@
         <v>43960</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28213,7 +28213,7 @@
         <v>43964</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28270,7 +28270,7 @@
         <v>43964</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28327,7 +28327,7 @@
         <v>43965</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28389,7 +28389,7 @@
         <v>43965</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28451,7 +28451,7 @@
         <v>43969</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28508,7 +28508,7 @@
         <v>43969</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28565,7 +28565,7 @@
         <v>43970</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28622,7 +28622,7 @@
         <v>43970</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28679,7 +28679,7 @@
         <v>43971</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28736,7 +28736,7 @@
         <v>43971</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28793,7 +28793,7 @@
         <v>43977</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28855,7 +28855,7 @@
         <v>43977</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         <v>43977</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28979,7 +28979,7 @@
         <v>43986</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29036,7 +29036,7 @@
         <v>43986</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29093,7 +29093,7 @@
         <v>43994</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29155,7 +29155,7 @@
         <v>44004</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29212,7 +29212,7 @@
         <v>44012</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29269,7 +29269,7 @@
         <v>44014</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29326,7 +29326,7 @@
         <v>44018</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29383,7 +29383,7 @@
         <v>44018</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29440,7 +29440,7 @@
         <v>44021</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29497,7 +29497,7 @@
         <v>44022</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29554,7 +29554,7 @@
         <v>44022</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         <v>44026</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>44027</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29725,7 +29725,7 @@
         <v>44028</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29782,7 +29782,7 @@
         <v>44033</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29839,7 +29839,7 @@
         <v>44034</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29896,7 +29896,7 @@
         <v>44036</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29953,7 +29953,7 @@
         <v>44040</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30010,7 +30010,7 @@
         <v>44042</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30067,7 +30067,7 @@
         <v>44047</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30124,7 +30124,7 @@
         <v>44047</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30181,7 +30181,7 @@
         <v>44047</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30238,7 +30238,7 @@
         <v>44048</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30295,7 +30295,7 @@
         <v>44050</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30352,7 +30352,7 @@
         <v>44053</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>44053</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         <v>44053</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30523,7 +30523,7 @@
         <v>44060</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30580,7 +30580,7 @@
         <v>44061</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30642,7 +30642,7 @@
         <v>44061</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30699,7 +30699,7 @@
         <v>44061</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30756,7 +30756,7 @@
         <v>44061</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30813,7 +30813,7 @@
         <v>44063</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30870,7 +30870,7 @@
         <v>44063</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30927,7 +30927,7 @@
         <v>44064</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30984,7 +30984,7 @@
         <v>44067</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31041,7 +31041,7 @@
         <v>44068</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31098,7 +31098,7 @@
         <v>44068</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31155,7 +31155,7 @@
         <v>44068</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31212,7 +31212,7 @@
         <v>44069</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31269,7 +31269,7 @@
         <v>44071</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31326,7 +31326,7 @@
         <v>44071</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>44075</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31440,7 +31440,7 @@
         <v>44075</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31497,7 +31497,7 @@
         <v>44076</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31559,7 +31559,7 @@
         <v>44076</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31621,7 +31621,7 @@
         <v>44081</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31678,7 +31678,7 @@
         <v>44083</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31735,7 +31735,7 @@
         <v>44084</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31792,7 +31792,7 @@
         <v>44084</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>44084</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         <v>44084</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31963,7 +31963,7 @@
         <v>44087</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>44087</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>44090</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>44090</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>44091</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>44092</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32305,7 +32305,7 @@
         <v>44097</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32362,7 +32362,7 @@
         <v>44097</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32424,7 +32424,7 @@
         <v>44099</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32481,7 +32481,7 @@
         <v>44106</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32543,7 +32543,7 @@
         <v>44110</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32605,7 +32605,7 @@
         <v>44110</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32662,7 +32662,7 @@
         <v>44113</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32724,7 +32724,7 @@
         <v>44118</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32781,7 +32781,7 @@
         <v>44124</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32838,7 +32838,7 @@
         <v>44126</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32895,7 +32895,7 @@
         <v>44126</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32952,7 +32952,7 @@
         <v>44134</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33009,7 +33009,7 @@
         <v>44137</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33071,7 +33071,7 @@
         <v>44146</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33128,7 +33128,7 @@
         <v>44146</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33185,7 +33185,7 @@
         <v>44151</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33242,7 +33242,7 @@
         <v>44151</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33299,7 +33299,7 @@
         <v>44151</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33356,7 +33356,7 @@
         <v>44154</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33413,7 +33413,7 @@
         <v>44159</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33470,7 +33470,7 @@
         <v>44162</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33527,7 +33527,7 @@
         <v>44162</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33584,7 +33584,7 @@
         <v>44172</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33641,7 +33641,7 @@
         <v>44179</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33698,7 +33698,7 @@
         <v>44182</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33755,7 +33755,7 @@
         <v>44186</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33812,7 +33812,7 @@
         <v>44186</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33869,7 +33869,7 @@
         <v>44186</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33926,7 +33926,7 @@
         <v>44186</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33983,7 +33983,7 @@
         <v>44188</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34040,7 +34040,7 @@
         <v>44193</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34097,7 +34097,7 @@
         <v>44193</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34154,7 +34154,7 @@
         <v>44193</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34216,7 +34216,7 @@
         <v>44193</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34273,7 +34273,7 @@
         <v>44195</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34330,7 +34330,7 @@
         <v>44201</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34387,7 +34387,7 @@
         <v>44203</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34444,7 +34444,7 @@
         <v>44215</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34501,7 +34501,7 @@
         <v>44216</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34558,7 +34558,7 @@
         <v>44218</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34615,7 +34615,7 @@
         <v>44223</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34672,7 +34672,7 @@
         <v>44223</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34729,7 +34729,7 @@
         <v>44223</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         <v>44229</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34843,7 +34843,7 @@
         <v>44236</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34905,7 +34905,7 @@
         <v>44243</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34962,7 +34962,7 @@
         <v>44250</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35019,7 +35019,7 @@
         <v>44250</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35076,7 +35076,7 @@
         <v>44252</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35138,7 +35138,7 @@
         <v>44252</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35200,7 +35200,7 @@
         <v>44258</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35257,7 +35257,7 @@
         <v>44259</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35314,7 +35314,7 @@
         <v>44260</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35376,7 +35376,7 @@
         <v>44263</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35433,7 +35433,7 @@
         <v>44274</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35490,7 +35490,7 @@
         <v>44274</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35547,7 +35547,7 @@
         <v>44278</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35604,7 +35604,7 @@
         <v>44295</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         <v>44300</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35723,7 +35723,7 @@
         <v>44308</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35780,7 +35780,7 @@
         <v>44314</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35837,7 +35837,7 @@
         <v>44319</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35894,7 +35894,7 @@
         <v>44320</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35951,7 +35951,7 @@
         <v>44326</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36008,7 +36008,7 @@
         <v>44334</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36065,7 +36065,7 @@
         <v>44337</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36122,7 +36122,7 @@
         <v>44349</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36184,7 +36184,7 @@
         <v>44353</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36241,7 +36241,7 @@
         <v>44354</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36303,7 +36303,7 @@
         <v>44373</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36360,7 +36360,7 @@
         <v>44375</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36417,7 +36417,7 @@
         <v>44375</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36474,7 +36474,7 @@
         <v>44375</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36531,7 +36531,7 @@
         <v>44375</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36588,7 +36588,7 @@
         <v>44375</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36645,7 +36645,7 @@
         <v>44382</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36702,7 +36702,7 @@
         <v>44386</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36759,7 +36759,7 @@
         <v>44411</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36816,7 +36816,7 @@
         <v>44419</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36873,7 +36873,7 @@
         <v>44420</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36930,7 +36930,7 @@
         <v>44420</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36987,7 +36987,7 @@
         <v>44420</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37044,7 +37044,7 @@
         <v>44426</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37101,7 +37101,7 @@
         <v>44432</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37158,7 +37158,7 @@
         <v>44433</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37220,7 +37220,7 @@
         <v>44434</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37277,7 +37277,7 @@
         <v>44438</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37334,7 +37334,7 @@
         <v>44438</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37391,7 +37391,7 @@
         <v>44439</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37448,7 +37448,7 @@
         <v>44441</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37505,7 +37505,7 @@
         <v>44447</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37562,7 +37562,7 @@
         <v>44447</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37624,7 +37624,7 @@
         <v>44449</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37681,7 +37681,7 @@
         <v>44456</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37738,7 +37738,7 @@
         <v>44468</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37800,7 +37800,7 @@
         <v>44468</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37862,7 +37862,7 @@
         <v>44470</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37919,7 +37919,7 @@
         <v>44473</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37976,7 +37976,7 @@
         <v>44473</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38033,7 +38033,7 @@
         <v>44473</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38090,7 +38090,7 @@
         <v>44477</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38147,7 +38147,7 @@
         <v>44480</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38204,7 +38204,7 @@
         <v>44482</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38261,7 +38261,7 @@
         <v>44484</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38323,7 +38323,7 @@
         <v>44484</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38380,7 +38380,7 @@
         <v>44488</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38437,7 +38437,7 @@
         <v>44490</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38494,7 +38494,7 @@
         <v>44496</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38551,7 +38551,7 @@
         <v>44502</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38608,7 +38608,7 @@
         <v>44511</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38665,7 +38665,7 @@
         <v>44516</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38722,7 +38722,7 @@
         <v>44526</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38779,7 +38779,7 @@
         <v>44526</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38836,7 +38836,7 @@
         <v>44529</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38893,7 +38893,7 @@
         <v>44530</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38950,7 +38950,7 @@
         <v>44532</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39007,7 +39007,7 @@
         <v>44532</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39064,7 +39064,7 @@
         <v>44536</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39121,7 +39121,7 @@
         <v>44549</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39178,7 +39178,7 @@
         <v>44552</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39235,7 +39235,7 @@
         <v>44564</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39292,7 +39292,7 @@
         <v>44564</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39349,7 +39349,7 @@
         <v>44565</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39406,7 +39406,7 @@
         <v>44582</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39463,7 +39463,7 @@
         <v>44582</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39525,7 +39525,7 @@
         <v>44587</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39582,7 +39582,7 @@
         <v>44592</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39639,7 +39639,7 @@
         <v>44593</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39696,7 +39696,7 @@
         <v>44593</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39753,7 +39753,7 @@
         <v>44594</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39810,7 +39810,7 @@
         <v>44594</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39867,7 +39867,7 @@
         <v>44599</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39924,7 +39924,7 @@
         <v>44608</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39981,7 +39981,7 @@
         <v>44610</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40043,7 +40043,7 @@
         <v>44612</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40105,7 +40105,7 @@
         <v>44614</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40162,7 +40162,7 @@
         <v>44623</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40219,7 +40219,7 @@
         <v>44624</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40276,7 +40276,7 @@
         <v>44624</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40333,7 +40333,7 @@
         <v>44643</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40390,7 +40390,7 @@
         <v>44645</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40447,7 +40447,7 @@
         <v>44651</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40504,7 +40504,7 @@
         <v>44651</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40566,7 +40566,7 @@
         <v>44655</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40623,7 +40623,7 @@
         <v>44673</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40680,7 +40680,7 @@
         <v>44676</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40737,7 +40737,7 @@
         <v>44683</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40794,7 +40794,7 @@
         <v>44686</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40856,7 +40856,7 @@
         <v>44694</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40913,7 +40913,7 @@
         <v>44705</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40970,7 +40970,7 @@
         <v>44712</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41027,7 +41027,7 @@
         <v>44713</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41084,7 +41084,7 @@
         <v>44714</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41141,7 +41141,7 @@
         <v>44719</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41198,7 +41198,7 @@
         <v>44725</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41255,7 +41255,7 @@
         <v>44725</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41312,7 +41312,7 @@
         <v>44741</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41369,7 +41369,7 @@
         <v>44749</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         <v>44755</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41483,7 +41483,7 @@
         <v>44794</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41540,7 +41540,7 @@
         <v>44794</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41597,7 +41597,7 @@
         <v>44811</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41654,7 +41654,7 @@
         <v>44811</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41711,7 +41711,7 @@
         <v>44819</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41768,7 +41768,7 @@
         <v>44824</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41825,7 +41825,7 @@
         <v>44826</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41882,7 +41882,7 @@
         <v>44827</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41939,7 +41939,7 @@
         <v>44827</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41996,7 +41996,7 @@
         <v>44827</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42053,7 +42053,7 @@
         <v>44827</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42110,7 +42110,7 @@
         <v>44827</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42167,7 +42167,7 @@
         <v>44827</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42224,7 +42224,7 @@
         <v>44831</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42281,7 +42281,7 @@
         <v>44831</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42338,7 +42338,7 @@
         <v>44831</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42395,7 +42395,7 @@
         <v>44833</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42452,7 +42452,7 @@
         <v>44833</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42509,7 +42509,7 @@
         <v>44834</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42566,7 +42566,7 @@
         <v>44846</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42623,7 +42623,7 @@
         <v>44862</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42685,7 +42685,7 @@
         <v>44875</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42742,7 +42742,7 @@
         <v>44876</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42799,7 +42799,7 @@
         <v>44880</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42856,7 +42856,7 @@
         <v>44882</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42913,7 +42913,7 @@
         <v>44893</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42975,7 +42975,7 @@
         <v>44894</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43032,7 +43032,7 @@
         <v>44895</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43094,7 +43094,7 @@
         <v>44901</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43156,7 +43156,7 @@
         <v>44910</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43213,7 +43213,7 @@
         <v>44917</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43270,7 +43270,7 @@
         <v>44928</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43332,7 +43332,7 @@
         <v>44928</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43389,7 +43389,7 @@
         <v>44935</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43446,7 +43446,7 @@
         <v>44938</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43503,7 +43503,7 @@
         <v>44939</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43560,7 +43560,7 @@
         <v>44939</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43617,7 +43617,7 @@
         <v>44942</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43674,7 +43674,7 @@
         <v>44942</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43731,7 +43731,7 @@
         <v>44943</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43788,7 +43788,7 @@
         <v>44952</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43845,7 +43845,7 @@
         <v>44960</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43907,7 +43907,7 @@
         <v>44963</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43964,7 +43964,7 @@
         <v>44966</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44021,7 +44021,7 @@
         <v>44970</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44078,7 +44078,7 @@
         <v>44971</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44135,7 +44135,7 @@
         <v>44971</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44192,7 +44192,7 @@
         <v>44977</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44249,7 +44249,7 @@
         <v>44988</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         <v>44988</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44363,7 +44363,7 @@
         <v>44991</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44420,7 +44420,7 @@
         <v>44994</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44477,7 +44477,7 @@
         <v>44995</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44534,7 +44534,7 @@
         <v>44999</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44591,7 +44591,7 @@
         <v>45007</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44648,7 +44648,7 @@
         <v>45013</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44705,7 +44705,7 @@
         <v>45013</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44762,7 +44762,7 @@
         <v>45016</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44819,7 +44819,7 @@
         <v>45016</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44876,7 +44876,7 @@
         <v>45016</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44933,7 +44933,7 @@
         <v>45026</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44990,7 +44990,7 @@
         <v>45028</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45047,7 +45047,7 @@
         <v>45030</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45109,7 +45109,7 @@
         <v>45030</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45171,7 +45171,7 @@
         <v>45033</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45228,7 +45228,7 @@
         <v>45047</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45285,7 +45285,7 @@
         <v>45048</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45342,7 +45342,7 @@
         <v>45049</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45399,7 +45399,7 @@
         <v>45054</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45456,7 +45456,7 @@
         <v>45054</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45513,7 +45513,7 @@
         <v>45054</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45570,7 +45570,7 @@
         <v>45054</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45627,7 +45627,7 @@
         <v>45055</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45684,7 +45684,7 @@
         <v>45061</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45746,7 +45746,7 @@
         <v>45061</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45803,7 +45803,7 @@
         <v>45063</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45860,7 +45860,7 @@
         <v>45070</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45917,7 +45917,7 @@
         <v>45071</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45974,7 +45974,7 @@
         <v>45071</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46031,7 +46031,7 @@
         <v>45071</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46088,7 +46088,7 @@
         <v>45077</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46145,7 +46145,7 @@
         <v>45079</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46202,7 +46202,7 @@
         <v>45079</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46259,7 +46259,7 @@
         <v>45079</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46316,7 +46316,7 @@
         <v>45081</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46373,7 +46373,7 @@
         <v>45085</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46430,7 +46430,7 @@
         <v>45092</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46487,7 +46487,7 @@
         <v>45093</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46564,7 +46564,7 @@
         <v>45099</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46621,7 +46621,7 @@
         <v>45099</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46678,7 +46678,7 @@
         <v>45099</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46735,7 +46735,7 @@
         <v>45099</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46792,7 +46792,7 @@
         <v>45099</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46849,7 +46849,7 @@
         <v>45099</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46906,7 +46906,7 @@
         <v>45099</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46963,7 +46963,7 @@
         <v>45099</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47020,7 +47020,7 @@
         <v>45099</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47077,7 +47077,7 @@
         <v>45099</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47134,7 +47134,7 @@
         <v>45099</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47191,7 +47191,7 @@
         <v>45099</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47248,7 +47248,7 @@
         <v>45103</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47305,7 +47305,7 @@
         <v>45104</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47362,7 +47362,7 @@
         <v>45105</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47419,7 +47419,7 @@
         <v>45113</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47476,7 +47476,7 @@
         <v>45113</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47533,7 +47533,7 @@
         <v>45127</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47590,7 +47590,7 @@
         <v>45127</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47647,7 +47647,7 @@
         <v>45148</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47704,7 +47704,7 @@
         <v>45149</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47761,7 +47761,7 @@
         <v>45153</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47818,7 +47818,7 @@
         <v>45160</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47875,7 +47875,7 @@
         <v>45161</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47932,7 +47932,7 @@
         <v>45168</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47994,7 +47994,7 @@
         <v>45168</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48051,7 +48051,7 @@
         <v>45168</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>

--- a/Översikt HULTSFRED.xlsx
+++ b/Översikt HULTSFRED.xlsx
@@ -572,7 +572,7 @@
         <v>43874</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>44894</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>44468</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
         <v>44175</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>43753</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1080,7 +1080,7 @@
         <v>43921</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44069</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>43438</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>43507</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>43845</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43916</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>43986</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43426</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43447</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43874</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>44258</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>44474</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>44551</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>44224</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>44641</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
         <v>44809</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44822</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>45026</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43343</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>43405</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43418</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>43419</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>43489</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43682</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>44060</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>44083</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44098</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>44235</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>44235</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>44278</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>44280</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         <v>44468</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>44559</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>44565</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>44909</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>45053</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>43438</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43493</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>43545</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>43591</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>43702</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>43889</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43902</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4901,7 +4901,7 @@
         <v>43920</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
         <v>43962</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>44053</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         <v>44124</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>44159</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>44180</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>44295</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>44341</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>44375</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>44417</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>44455</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v>44526</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>44876</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         <v>44928</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6110,7 +6110,7 @@
         <v>44980</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         <v>45016</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>45093</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>43328</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>43329</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>43336</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>43340</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>43340</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>43342</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43357</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>43364</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43364</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43364</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43364</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>43370</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>43371</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>43375</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         <v>43377</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7220,7 +7220,7 @@
         <v>43385</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
         <v>43388</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7334,7 +7334,7 @@
         <v>43390</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7391,7 +7391,7 @@
         <v>43392</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7448,7 +7448,7 @@
         <v>43395</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>43395</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>43396</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>43402</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         <v>43403</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7733,7 +7733,7 @@
         <v>43403</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         <v>43403</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         <v>43404</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>43405</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>43410</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>43411</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>43411</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>43411</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>43413</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43415</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>43416</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>43416</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>43417</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>43417</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>43418</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>43418</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>43419</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>43419</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43419</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>43420</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>43423</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>43425</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43425</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>43426</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>43426</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>43426</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43427</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>43430</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>43430</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>43430</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43431</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>43431</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43432</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>43432</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>43433</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>43433</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>43437</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>43438</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>43438</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>43438</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>43439</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>43439</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>43444</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>43444</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>43445</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>43446</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>43446</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>43448</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>43448</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>43454</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>43455</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>43466</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43467</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>43468</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>43468</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43469</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43469</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>43472</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>43472</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11116,7 +11116,7 @@
         <v>43472</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11173,7 +11173,7 @@
         <v>43472</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11230,7 +11230,7 @@
         <v>43473</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11287,7 +11287,7 @@
         <v>43473</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11344,7 +11344,7 @@
         <v>43474</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
         <v>43475</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>43475</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>43475</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>43475</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43475</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>43475</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11763,7 +11763,7 @@
         <v>43478</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11820,7 +11820,7 @@
         <v>43479</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11877,7 +11877,7 @@
         <v>43479</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11934,7 +11934,7 @@
         <v>43480</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11991,7 +11991,7 @@
         <v>43481</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12048,7 +12048,7 @@
         <v>43484</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12105,7 +12105,7 @@
         <v>43486</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12162,7 +12162,7 @@
         <v>43488</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12219,7 +12219,7 @@
         <v>43488</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12276,7 +12276,7 @@
         <v>43489</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12333,7 +12333,7 @@
         <v>43489</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>43490</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>43493</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12514,7 +12514,7 @@
         <v>43494</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12571,7 +12571,7 @@
         <v>43494</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12628,7 +12628,7 @@
         <v>43494</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12685,7 +12685,7 @@
         <v>43496</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>43497</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>43497</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         <v>43497</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>43497</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12975,7 +12975,7 @@
         <v>43500</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13032,7 +13032,7 @@
         <v>43504</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13089,7 +13089,7 @@
         <v>43511</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>43516</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>43516</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>43520</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>43522</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>43523</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>43524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>43525</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>43526</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>43528</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>43528</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>43528</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>43528</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13835,7 +13835,7 @@
         <v>43530</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13892,7 +13892,7 @@
         <v>43532</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13949,7 +13949,7 @@
         <v>43539</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14006,7 +14006,7 @@
         <v>43542</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14063,7 +14063,7 @@
         <v>43550</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14120,7 +14120,7 @@
         <v>43551</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14177,7 +14177,7 @@
         <v>43551</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>43551</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>43551</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14348,7 +14348,7 @@
         <v>43556</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>43557</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14462,7 +14462,7 @@
         <v>43558</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>43565</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>43570</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14638,7 +14638,7 @@
         <v>43571</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14695,7 +14695,7 @@
         <v>43572</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>43578</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>43579</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>43584</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>43584</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>43584</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>43584</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>43584</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>43585</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>43587</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>43587</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         <v>43593</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>43595</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>43605</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>43605</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>43627</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>43628</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>43628</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>43628</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>43633</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>43634</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>43634</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>43634</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>43635</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>43635</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>43640</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>43640</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>43641</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>43642</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>43643</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>43643</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>43643</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16534,7 +16534,7 @@
         <v>43644</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16591,7 +16591,7 @@
         <v>43647</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16648,7 +16648,7 @@
         <v>43654</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>43656</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>43658</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16819,7 +16819,7 @@
         <v>43661</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>43665</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16933,7 +16933,7 @@
         <v>43665</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16990,7 +16990,7 @@
         <v>43667</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17047,7 +17047,7 @@
         <v>43668</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17104,7 +17104,7 @@
         <v>43669</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17161,7 +17161,7 @@
         <v>43670</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17218,7 +17218,7 @@
         <v>43675</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17275,7 +17275,7 @@
         <v>43677</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17332,7 +17332,7 @@
         <v>43682</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>43682</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>43682</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>43683</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>43683</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>43683</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>43689</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>43690</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>43691</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17845,7 +17845,7 @@
         <v>43692</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>43696</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17959,7 +17959,7 @@
         <v>43696</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18016,7 +18016,7 @@
         <v>43697</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18073,7 +18073,7 @@
         <v>43697</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18130,7 +18130,7 @@
         <v>43698</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18187,7 +18187,7 @@
         <v>43699</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18244,7 +18244,7 @@
         <v>43700</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18301,7 +18301,7 @@
         <v>43702</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18358,7 +18358,7 @@
         <v>43703</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18415,7 +18415,7 @@
         <v>43703</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18472,7 +18472,7 @@
         <v>43703</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18529,7 +18529,7 @@
         <v>43705</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18586,7 +18586,7 @@
         <v>43707</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18643,7 +18643,7 @@
         <v>43707</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>43710</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18757,7 +18757,7 @@
         <v>43712</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18814,7 +18814,7 @@
         <v>43712</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>43713</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>43713</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>43713</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>43714</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19114,7 +19114,7 @@
         <v>43718</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         <v>43719</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19228,7 +19228,7 @@
         <v>43719</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19285,7 +19285,7 @@
         <v>43722</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19342,7 +19342,7 @@
         <v>43724</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19399,7 +19399,7 @@
         <v>43724</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19456,7 +19456,7 @@
         <v>43724</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19513,7 +19513,7 @@
         <v>43726</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19570,7 +19570,7 @@
         <v>43726</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19627,7 +19627,7 @@
         <v>43728</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>43732</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>43733</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>43734</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>43740</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>43740</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>43740</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>43742</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>43742</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>43742</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>43742</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>43742</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>43742</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>43745</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>43746</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>43746</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>43746</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>43747</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>43748</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>43751</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>43754</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>43756</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>43756</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>43756</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>43756</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21057,7 +21057,7 @@
         <v>43756</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21114,7 +21114,7 @@
         <v>43760</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
         <v>43762</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>43762</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>43764</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>43767</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21399,7 +21399,7 @@
         <v>43767</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>43767</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>43769</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>43769</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>43769</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>43769</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>43772</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         <v>43774</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>43776</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21927,7 +21927,7 @@
         <v>43776</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         <v>43776</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22046,7 +22046,7 @@
         <v>43776</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22108,7 +22108,7 @@
         <v>43776</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22170,7 +22170,7 @@
         <v>43776</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22232,7 +22232,7 @@
         <v>43776</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>43776</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>43777</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>43780</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>43780</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22522,7 +22522,7 @@
         <v>43780</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22579,7 +22579,7 @@
         <v>43782</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>43783</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22698,7 +22698,7 @@
         <v>43783</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22760,7 +22760,7 @@
         <v>43783</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22822,7 +22822,7 @@
         <v>43794</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22879,7 +22879,7 @@
         <v>43794</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22936,7 +22936,7 @@
         <v>43795</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22993,7 +22993,7 @@
         <v>43797</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23050,7 +23050,7 @@
         <v>43800</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23107,7 +23107,7 @@
         <v>43803</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23164,7 +23164,7 @@
         <v>43803</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23221,7 +23221,7 @@
         <v>43803</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23278,7 +23278,7 @@
         <v>43807</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23335,7 +23335,7 @@
         <v>43808</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23392,7 +23392,7 @@
         <v>43808</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
         <v>43808</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         <v>43808</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         <v>43810</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>43810</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23687,7 +23687,7 @@
         <v>43810</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23749,7 +23749,7 @@
         <v>43810</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23811,7 +23811,7 @@
         <v>43810</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23873,7 +23873,7 @@
         <v>43811</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         <v>43811</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>43811</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24044,7 +24044,7 @@
         <v>43815</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>43816</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24158,7 +24158,7 @@
         <v>43816</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>43817</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>43833</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>43833</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
         <v>43838</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>43842</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>43843</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24567,7 +24567,7 @@
         <v>43847</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>43847</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>43847</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24738,7 +24738,7 @@
         <v>43847</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24795,7 +24795,7 @@
         <v>43850</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24852,7 +24852,7 @@
         <v>43850</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24909,7 +24909,7 @@
         <v>43850</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24966,7 +24966,7 @@
         <v>43858</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25023,7 +25023,7 @@
         <v>43858</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25080,7 +25080,7 @@
         <v>43859</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25142,7 +25142,7 @@
         <v>43864</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25199,7 +25199,7 @@
         <v>43865</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25256,7 +25256,7 @@
         <v>43865</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>43867</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>43872</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25427,7 +25427,7 @@
         <v>43872</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25484,7 +25484,7 @@
         <v>43873</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25541,7 +25541,7 @@
         <v>43873</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25598,7 +25598,7 @@
         <v>43878</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25655,7 +25655,7 @@
         <v>43878</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25712,7 +25712,7 @@
         <v>43879</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25769,7 +25769,7 @@
         <v>43879</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25831,7 +25831,7 @@
         <v>43879</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25888,7 +25888,7 @@
         <v>43880</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25945,7 +25945,7 @@
         <v>43882</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26002,7 +26002,7 @@
         <v>43885</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26059,7 +26059,7 @@
         <v>43885</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>43886</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>43887</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>43889</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26292,7 +26292,7 @@
         <v>43889</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>43892</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26411,7 +26411,7 @@
         <v>43899</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26468,7 +26468,7 @@
         <v>43900</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26525,7 +26525,7 @@
         <v>43900</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26582,7 +26582,7 @@
         <v>43902</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26639,7 +26639,7 @@
         <v>43906</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26696,7 +26696,7 @@
         <v>43907</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26753,7 +26753,7 @@
         <v>43910</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26810,7 +26810,7 @@
         <v>43910</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26867,7 +26867,7 @@
         <v>43913</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         <v>43913</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26981,7 +26981,7 @@
         <v>43913</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27043,7 +27043,7 @@
         <v>43913</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27100,7 +27100,7 @@
         <v>43916</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27157,7 +27157,7 @@
         <v>43921</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27214,7 +27214,7 @@
         <v>43921</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27271,7 +27271,7 @@
         <v>43921</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27328,7 +27328,7 @@
         <v>43922</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27390,7 +27390,7 @@
         <v>43924</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27452,7 +27452,7 @@
         <v>43924</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27514,7 +27514,7 @@
         <v>43924</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27576,7 +27576,7 @@
         <v>43924</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27638,7 +27638,7 @@
         <v>43924</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27700,7 +27700,7 @@
         <v>43929</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27757,7 +27757,7 @@
         <v>43936</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27814,7 +27814,7 @@
         <v>43943</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27871,7 +27871,7 @@
         <v>43951</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27928,7 +27928,7 @@
         <v>43951</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27985,7 +27985,7 @@
         <v>43955</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28042,7 +28042,7 @@
         <v>43958</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         <v>43960</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28156,7 +28156,7 @@
         <v>43960</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28213,7 +28213,7 @@
         <v>43964</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28270,7 +28270,7 @@
         <v>43964</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28327,7 +28327,7 @@
         <v>43965</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28389,7 +28389,7 @@
         <v>43965</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28451,7 +28451,7 @@
         <v>43969</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28508,7 +28508,7 @@
         <v>43969</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28565,7 +28565,7 @@
         <v>43970</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28622,7 +28622,7 @@
         <v>43970</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28679,7 +28679,7 @@
         <v>43971</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28736,7 +28736,7 @@
         <v>43971</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28793,7 +28793,7 @@
         <v>43977</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28855,7 +28855,7 @@
         <v>43977</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         <v>43977</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28979,7 +28979,7 @@
         <v>43986</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29036,7 +29036,7 @@
         <v>43986</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29093,7 +29093,7 @@
         <v>43994</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29155,7 +29155,7 @@
         <v>44004</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29212,7 +29212,7 @@
         <v>44012</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29269,7 +29269,7 @@
         <v>44014</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29326,7 +29326,7 @@
         <v>44018</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29383,7 +29383,7 @@
         <v>44018</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29440,7 +29440,7 @@
         <v>44021</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29497,7 +29497,7 @@
         <v>44022</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29554,7 +29554,7 @@
         <v>44022</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         <v>44026</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>44027</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29725,7 +29725,7 @@
         <v>44028</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29782,7 +29782,7 @@
         <v>44033</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29839,7 +29839,7 @@
         <v>44034</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29896,7 +29896,7 @@
         <v>44036</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29953,7 +29953,7 @@
         <v>44040</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30010,7 +30010,7 @@
         <v>44042</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30067,7 +30067,7 @@
         <v>44047</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30124,7 +30124,7 @@
         <v>44047</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30181,7 +30181,7 @@
         <v>44047</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30238,7 +30238,7 @@
         <v>44048</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30295,7 +30295,7 @@
         <v>44050</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30352,7 +30352,7 @@
         <v>44053</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>44053</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         <v>44053</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30523,7 +30523,7 @@
         <v>44060</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30580,7 +30580,7 @@
         <v>44061</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30642,7 +30642,7 @@
         <v>44061</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30699,7 +30699,7 @@
         <v>44061</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30756,7 +30756,7 @@
         <v>44061</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30813,7 +30813,7 @@
         <v>44063</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30870,7 +30870,7 @@
         <v>44063</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30927,7 +30927,7 @@
         <v>44064</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30984,7 +30984,7 @@
         <v>44067</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31041,7 +31041,7 @@
         <v>44068</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31098,7 +31098,7 @@
         <v>44068</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31155,7 +31155,7 @@
         <v>44068</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31212,7 +31212,7 @@
         <v>44069</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31269,7 +31269,7 @@
         <v>44071</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31326,7 +31326,7 @@
         <v>44071</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>44075</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31440,7 +31440,7 @@
         <v>44075</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31497,7 +31497,7 @@
         <v>44076</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31559,7 +31559,7 @@
         <v>44076</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31621,7 +31621,7 @@
         <v>44081</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31678,7 +31678,7 @@
         <v>44083</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31735,7 +31735,7 @@
         <v>44084</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31792,7 +31792,7 @@
         <v>44084</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>44084</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         <v>44084</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31963,7 +31963,7 @@
         <v>44087</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>44087</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>44090</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>44090</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>44091</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>44092</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32305,7 +32305,7 @@
         <v>44097</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32362,7 +32362,7 @@
         <v>44097</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32424,7 +32424,7 @@
         <v>44099</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32481,7 +32481,7 @@
         <v>44106</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32543,7 +32543,7 @@
         <v>44110</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32605,7 +32605,7 @@
         <v>44110</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32662,7 +32662,7 @@
         <v>44113</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32724,7 +32724,7 @@
         <v>44118</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32781,7 +32781,7 @@
         <v>44124</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32838,7 +32838,7 @@
         <v>44126</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32895,7 +32895,7 @@
         <v>44126</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32952,7 +32952,7 @@
         <v>44134</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33009,7 +33009,7 @@
         <v>44137</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33071,7 +33071,7 @@
         <v>44146</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33128,7 +33128,7 @@
         <v>44146</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33185,7 +33185,7 @@
         <v>44151</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33242,7 +33242,7 @@
         <v>44151</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33299,7 +33299,7 @@
         <v>44151</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33356,7 +33356,7 @@
         <v>44154</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33413,7 +33413,7 @@
         <v>44159</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33470,7 +33470,7 @@
         <v>44162</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33527,7 +33527,7 @@
         <v>44162</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33584,7 +33584,7 @@
         <v>44172</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33641,7 +33641,7 @@
         <v>44179</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33698,7 +33698,7 @@
         <v>44182</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33755,7 +33755,7 @@
         <v>44186</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33812,7 +33812,7 @@
         <v>44186</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33869,7 +33869,7 @@
         <v>44186</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33926,7 +33926,7 @@
         <v>44186</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33983,7 +33983,7 @@
         <v>44188</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34040,7 +34040,7 @@
         <v>44193</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34097,7 +34097,7 @@
         <v>44193</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34154,7 +34154,7 @@
         <v>44193</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34216,7 +34216,7 @@
         <v>44193</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34273,7 +34273,7 @@
         <v>44195</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34330,7 +34330,7 @@
         <v>44201</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34387,7 +34387,7 @@
         <v>44203</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34444,7 +34444,7 @@
         <v>44215</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34501,7 +34501,7 @@
         <v>44216</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34558,7 +34558,7 @@
         <v>44218</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34615,7 +34615,7 @@
         <v>44223</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34672,7 +34672,7 @@
         <v>44223</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34729,7 +34729,7 @@
         <v>44223</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         <v>44229</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34843,7 +34843,7 @@
         <v>44236</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34905,7 +34905,7 @@
         <v>44243</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34962,7 +34962,7 @@
         <v>44250</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35019,7 +35019,7 @@
         <v>44250</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35076,7 +35076,7 @@
         <v>44252</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35138,7 +35138,7 @@
         <v>44252</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35200,7 +35200,7 @@
         <v>44258</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35257,7 +35257,7 @@
         <v>44259</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35314,7 +35314,7 @@
         <v>44260</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35376,7 +35376,7 @@
         <v>44263</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35433,7 +35433,7 @@
         <v>44274</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35490,7 +35490,7 @@
         <v>44274</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35547,7 +35547,7 @@
         <v>44278</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35604,7 +35604,7 @@
         <v>44295</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         <v>44300</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35723,7 +35723,7 @@
         <v>44308</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35780,7 +35780,7 @@
         <v>44314</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35837,7 +35837,7 @@
         <v>44319</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35894,7 +35894,7 @@
         <v>44320</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35951,7 +35951,7 @@
         <v>44326</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36008,7 +36008,7 @@
         <v>44334</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36065,7 +36065,7 @@
         <v>44337</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36122,7 +36122,7 @@
         <v>44349</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36184,7 +36184,7 @@
         <v>44353</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36241,7 +36241,7 @@
         <v>44354</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36303,7 +36303,7 @@
         <v>44373</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36360,7 +36360,7 @@
         <v>44375</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36417,7 +36417,7 @@
         <v>44375</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36474,7 +36474,7 @@
         <v>44375</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36531,7 +36531,7 @@
         <v>44375</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36588,7 +36588,7 @@
         <v>44375</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36645,7 +36645,7 @@
         <v>44382</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36702,7 +36702,7 @@
         <v>44386</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36759,7 +36759,7 @@
         <v>44411</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36816,7 +36816,7 @@
         <v>44419</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36873,7 +36873,7 @@
         <v>44420</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36930,7 +36930,7 @@
         <v>44420</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36987,7 +36987,7 @@
         <v>44420</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37044,7 +37044,7 @@
         <v>44426</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37101,7 +37101,7 @@
         <v>44432</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37158,7 +37158,7 @@
         <v>44433</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37220,7 +37220,7 @@
         <v>44434</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37277,7 +37277,7 @@
         <v>44438</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37334,7 +37334,7 @@
         <v>44438</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37391,7 +37391,7 @@
         <v>44439</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37448,7 +37448,7 @@
         <v>44441</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37505,7 +37505,7 @@
         <v>44447</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37562,7 +37562,7 @@
         <v>44447</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37624,7 +37624,7 @@
         <v>44449</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37681,7 +37681,7 @@
         <v>44456</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37738,7 +37738,7 @@
         <v>44468</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37800,7 +37800,7 @@
         <v>44468</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37862,7 +37862,7 @@
         <v>44470</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37919,7 +37919,7 @@
         <v>44473</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37976,7 +37976,7 @@
         <v>44473</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38033,7 +38033,7 @@
         <v>44473</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38090,7 +38090,7 @@
         <v>44477</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38147,7 +38147,7 @@
         <v>44480</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38204,7 +38204,7 @@
         <v>44482</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38261,7 +38261,7 @@
         <v>44484</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38323,7 +38323,7 @@
         <v>44484</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38380,7 +38380,7 @@
         <v>44488</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38437,7 +38437,7 @@
         <v>44490</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38494,7 +38494,7 @@
         <v>44496</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38551,7 +38551,7 @@
         <v>44502</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38608,7 +38608,7 @@
         <v>44511</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38665,7 +38665,7 @@
         <v>44516</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38722,7 +38722,7 @@
         <v>44526</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38779,7 +38779,7 @@
         <v>44526</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38836,7 +38836,7 @@
         <v>44529</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38893,7 +38893,7 @@
         <v>44530</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38950,7 +38950,7 @@
         <v>44532</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39007,7 +39007,7 @@
         <v>44532</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39064,7 +39064,7 @@
         <v>44536</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39121,7 +39121,7 @@
         <v>44549</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39178,7 +39178,7 @@
         <v>44552</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39235,7 +39235,7 @@
         <v>44564</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39292,7 +39292,7 @@
         <v>44564</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39349,7 +39349,7 @@
         <v>44565</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39406,7 +39406,7 @@
         <v>44582</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39463,7 +39463,7 @@
         <v>44582</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39525,7 +39525,7 @@
         <v>44587</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39582,7 +39582,7 @@
         <v>44592</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39639,7 +39639,7 @@
         <v>44593</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39696,7 +39696,7 @@
         <v>44593</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39753,7 +39753,7 @@
         <v>44594</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39810,7 +39810,7 @@
         <v>44594</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39867,7 +39867,7 @@
         <v>44599</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39924,7 +39924,7 @@
         <v>44608</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39981,7 +39981,7 @@
         <v>44610</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40043,7 +40043,7 @@
         <v>44612</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40105,7 +40105,7 @@
         <v>44614</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40162,7 +40162,7 @@
         <v>44623</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40219,7 +40219,7 @@
         <v>44624</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40276,7 +40276,7 @@
         <v>44624</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40333,7 +40333,7 @@
         <v>44643</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40390,7 +40390,7 @@
         <v>44645</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40447,7 +40447,7 @@
         <v>44651</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40504,7 +40504,7 @@
         <v>44651</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40566,7 +40566,7 @@
         <v>44655</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40623,7 +40623,7 @@
         <v>44673</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40680,7 +40680,7 @@
         <v>44676</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40737,7 +40737,7 @@
         <v>44683</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40794,7 +40794,7 @@
         <v>44686</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40856,7 +40856,7 @@
         <v>44694</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40913,7 +40913,7 @@
         <v>44705</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40970,7 +40970,7 @@
         <v>44712</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41027,7 +41027,7 @@
         <v>44713</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41084,7 +41084,7 @@
         <v>44714</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41141,7 +41141,7 @@
         <v>44719</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41198,7 +41198,7 @@
         <v>44725</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41255,7 +41255,7 @@
         <v>44725</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41312,7 +41312,7 @@
         <v>44741</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41369,7 +41369,7 @@
         <v>44749</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         <v>44755</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41483,7 +41483,7 @@
         <v>44794</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41540,7 +41540,7 @@
         <v>44794</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41597,7 +41597,7 @@
         <v>44811</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41654,7 +41654,7 @@
         <v>44811</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41711,7 +41711,7 @@
         <v>44819</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41768,7 +41768,7 @@
         <v>44824</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41825,7 +41825,7 @@
         <v>44826</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41882,7 +41882,7 @@
         <v>44827</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41939,7 +41939,7 @@
         <v>44827</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41996,7 +41996,7 @@
         <v>44827</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42053,7 +42053,7 @@
         <v>44827</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42110,7 +42110,7 @@
         <v>44827</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42167,7 +42167,7 @@
         <v>44827</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42224,7 +42224,7 @@
         <v>44831</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42281,7 +42281,7 @@
         <v>44831</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42338,7 +42338,7 @@
         <v>44831</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42395,7 +42395,7 @@
         <v>44833</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42452,7 +42452,7 @@
         <v>44833</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42509,7 +42509,7 @@
         <v>44834</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42566,7 +42566,7 @@
         <v>44846</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42623,7 +42623,7 @@
         <v>44862</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42685,7 +42685,7 @@
         <v>44875</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42742,7 +42742,7 @@
         <v>44876</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42799,7 +42799,7 @@
         <v>44880</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42856,7 +42856,7 @@
         <v>44882</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42913,7 +42913,7 @@
         <v>44893</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42975,7 +42975,7 @@
         <v>44894</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43032,7 +43032,7 @@
         <v>44895</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43094,7 +43094,7 @@
         <v>44901</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43156,7 +43156,7 @@
         <v>44910</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43213,7 +43213,7 @@
         <v>44917</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43270,7 +43270,7 @@
         <v>44928</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43332,7 +43332,7 @@
         <v>44928</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43389,7 +43389,7 @@
         <v>44935</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43446,7 +43446,7 @@
         <v>44938</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43503,7 +43503,7 @@
         <v>44939</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43560,7 +43560,7 @@
         <v>44939</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43617,7 +43617,7 @@
         <v>44942</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43674,7 +43674,7 @@
         <v>44942</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43731,7 +43731,7 @@
         <v>44943</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43788,7 +43788,7 @@
         <v>44952</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43845,7 +43845,7 @@
         <v>44960</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43907,7 +43907,7 @@
         <v>44963</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43964,7 +43964,7 @@
         <v>44966</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44021,7 +44021,7 @@
         <v>44970</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44078,7 +44078,7 @@
         <v>44971</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44135,7 +44135,7 @@
         <v>44971</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44192,7 +44192,7 @@
         <v>44977</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44249,7 +44249,7 @@
         <v>44988</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         <v>44988</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44363,7 +44363,7 @@
         <v>44991</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44420,7 +44420,7 @@
         <v>44994</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44477,7 +44477,7 @@
         <v>44995</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44534,7 +44534,7 @@
         <v>44999</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44591,7 +44591,7 @@
         <v>45007</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44648,7 +44648,7 @@
         <v>45013</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44705,7 +44705,7 @@
         <v>45013</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44762,7 +44762,7 @@
         <v>45016</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44819,7 +44819,7 @@
         <v>45016</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44876,7 +44876,7 @@
         <v>45016</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44933,7 +44933,7 @@
         <v>45026</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44990,7 +44990,7 @@
         <v>45028</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45047,7 +45047,7 @@
         <v>45030</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45109,7 +45109,7 @@
         <v>45030</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45171,7 +45171,7 @@
         <v>45033</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45228,7 +45228,7 @@
         <v>45047</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45285,7 +45285,7 @@
         <v>45048</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45342,7 +45342,7 @@
         <v>45049</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45399,7 +45399,7 @@
         <v>45054</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45456,7 +45456,7 @@
         <v>45054</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45513,7 +45513,7 @@
         <v>45054</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45570,7 +45570,7 @@
         <v>45054</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45627,7 +45627,7 @@
         <v>45055</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45684,7 +45684,7 @@
         <v>45061</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45746,7 +45746,7 @@
         <v>45061</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45803,7 +45803,7 @@
         <v>45063</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45860,7 +45860,7 @@
         <v>45070</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45917,7 +45917,7 @@
         <v>45071</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45974,7 +45974,7 @@
         <v>45071</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46031,7 +46031,7 @@
         <v>45071</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46088,7 +46088,7 @@
         <v>45077</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46145,7 +46145,7 @@
         <v>45079</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46202,7 +46202,7 @@
         <v>45079</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46259,7 +46259,7 @@
         <v>45079</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46316,7 +46316,7 @@
         <v>45081</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46373,7 +46373,7 @@
         <v>45085</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46430,7 +46430,7 @@
         <v>45092</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46487,7 +46487,7 @@
         <v>45093</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46564,7 +46564,7 @@
         <v>45099</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46621,7 +46621,7 @@
         <v>45099</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46678,7 +46678,7 @@
         <v>45099</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46735,7 +46735,7 @@
         <v>45099</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46792,7 +46792,7 @@
         <v>45099</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46849,7 +46849,7 @@
         <v>45099</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46906,7 +46906,7 @@
         <v>45099</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46963,7 +46963,7 @@
         <v>45099</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47020,7 +47020,7 @@
         <v>45099</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47077,7 +47077,7 @@
         <v>45099</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47134,7 +47134,7 @@
         <v>45099</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47191,7 +47191,7 @@
         <v>45099</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47248,7 +47248,7 @@
         <v>45103</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47305,7 +47305,7 @@
         <v>45104</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47362,7 +47362,7 @@
         <v>45105</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47419,7 +47419,7 @@
         <v>45113</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47476,7 +47476,7 @@
         <v>45113</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47533,7 +47533,7 @@
         <v>45127</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47590,7 +47590,7 @@
         <v>45127</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47647,7 +47647,7 @@
         <v>45148</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47704,7 +47704,7 @@
         <v>45149</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47761,7 +47761,7 @@
         <v>45153</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47818,7 +47818,7 @@
         <v>45160</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47875,7 +47875,7 @@
         <v>45161</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47932,7 +47932,7 @@
         <v>45168</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47994,7 +47994,7 @@
         <v>45168</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48051,7 +48051,7 @@
         <v>45168</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>

--- a/Översikt HULTSFRED.xlsx
+++ b/Översikt HULTSFRED.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y790"/>
+  <dimension ref="A1:Y791"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43874</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>44894</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>44468</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
         <v>44175</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>43753</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1080,7 +1080,7 @@
         <v>43921</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44069</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>43438</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>43507</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>43845</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43916</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>43986</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43426</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43447</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43874</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>44258</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>44474</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>44551</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>44224</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>44641</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
         <v>44809</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44822</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>45026</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43343</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>43405</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43418</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>43419</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>43489</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43682</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>44060</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>44083</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44098</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>44235</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>44235</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>44278</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>44280</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         <v>44468</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>44559</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>44565</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>44909</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>45053</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>43438</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43493</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>43545</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>43591</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>43702</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>43889</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43902</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4901,7 +4901,7 @@
         <v>43920</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
         <v>43962</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>44053</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         <v>44124</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>44159</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>44180</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>44295</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>44341</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>44375</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>44417</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>44455</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v>44526</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>44876</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         <v>44928</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6110,7 +6110,7 @@
         <v>44980</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         <v>45016</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>45093</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>43328</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>43329</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>43336</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>43340</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>43340</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>43342</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43357</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>43364</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43364</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43364</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43364</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>43370</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>43371</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>43375</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         <v>43377</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7220,7 +7220,7 @@
         <v>43385</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
         <v>43388</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7334,7 +7334,7 @@
         <v>43390</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7391,7 +7391,7 @@
         <v>43392</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7448,7 +7448,7 @@
         <v>43395</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>43395</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>43396</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>43402</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         <v>43403</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7733,7 +7733,7 @@
         <v>43403</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         <v>43403</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         <v>43404</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>43405</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>43410</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>43411</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>43411</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>43411</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>43413</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43415</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>43416</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>43416</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>43417</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>43417</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>43418</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>43418</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>43419</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>43419</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43419</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>43420</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>43423</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>43425</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43425</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>43426</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>43426</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>43426</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43427</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>43430</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>43430</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>43430</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43431</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>43431</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43432</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>43432</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>43433</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>43433</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>43437</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>43438</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>43438</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>43438</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>43439</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>43439</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>43444</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>43444</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>43445</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>43446</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>43446</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>43448</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>43448</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>43454</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>43455</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>43466</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43467</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>43468</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>43468</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43469</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43469</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>43472</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>43472</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11116,7 +11116,7 @@
         <v>43472</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11173,7 +11173,7 @@
         <v>43472</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11230,7 +11230,7 @@
         <v>43473</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11287,7 +11287,7 @@
         <v>43473</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11344,7 +11344,7 @@
         <v>43474</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
         <v>43475</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>43475</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>43475</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>43475</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43475</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>43475</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11763,7 +11763,7 @@
         <v>43478</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11820,7 +11820,7 @@
         <v>43479</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11877,7 +11877,7 @@
         <v>43479</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11934,7 +11934,7 @@
         <v>43480</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11991,7 +11991,7 @@
         <v>43481</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12048,7 +12048,7 @@
         <v>43484</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12105,7 +12105,7 @@
         <v>43486</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12162,7 +12162,7 @@
         <v>43488</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12219,7 +12219,7 @@
         <v>43488</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12276,7 +12276,7 @@
         <v>43489</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12333,7 +12333,7 @@
         <v>43489</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>43490</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>43493</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12514,7 +12514,7 @@
         <v>43494</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12571,7 +12571,7 @@
         <v>43494</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12628,7 +12628,7 @@
         <v>43494</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12685,7 +12685,7 @@
         <v>43496</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>43497</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>43497</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         <v>43497</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>43497</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12975,7 +12975,7 @@
         <v>43500</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13032,7 +13032,7 @@
         <v>43504</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13089,7 +13089,7 @@
         <v>43511</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>43516</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>43516</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>43520</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>43522</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>43523</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>43524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>43525</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>43526</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>43528</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>43528</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>43528</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>43528</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13835,7 +13835,7 @@
         <v>43530</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13892,7 +13892,7 @@
         <v>43532</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13949,7 +13949,7 @@
         <v>43539</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14006,7 +14006,7 @@
         <v>43542</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14063,7 +14063,7 @@
         <v>43550</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14120,7 +14120,7 @@
         <v>43551</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14177,7 +14177,7 @@
         <v>43551</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>43551</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>43551</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14348,7 +14348,7 @@
         <v>43556</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>43557</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14462,7 +14462,7 @@
         <v>43558</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>43565</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>43570</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14638,7 +14638,7 @@
         <v>43571</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14695,7 +14695,7 @@
         <v>43572</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>43578</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>43579</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>43584</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>43584</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>43584</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>43584</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>43584</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>43585</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>43587</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>43587</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         <v>43593</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>43595</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>43605</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>43605</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>43627</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>43628</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>43628</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>43628</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>43633</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>43634</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>43634</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>43634</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>43635</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>43635</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>43640</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>43640</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>43641</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>43642</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>43643</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>43643</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>43643</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16534,7 +16534,7 @@
         <v>43644</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16591,7 +16591,7 @@
         <v>43647</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16648,7 +16648,7 @@
         <v>43654</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>43656</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>43658</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16819,7 +16819,7 @@
         <v>43661</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>43665</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16933,7 +16933,7 @@
         <v>43665</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16990,7 +16990,7 @@
         <v>43667</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17047,7 +17047,7 @@
         <v>43668</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17104,7 +17104,7 @@
         <v>43669</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17161,7 +17161,7 @@
         <v>43670</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17218,7 +17218,7 @@
         <v>43675</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17275,7 +17275,7 @@
         <v>43677</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17332,7 +17332,7 @@
         <v>43682</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>43682</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>43682</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>43683</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>43683</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>43683</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>43689</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>43690</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>43691</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17845,7 +17845,7 @@
         <v>43692</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>43696</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17959,7 +17959,7 @@
         <v>43696</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18016,7 +18016,7 @@
         <v>43697</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18073,7 +18073,7 @@
         <v>43697</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18130,7 +18130,7 @@
         <v>43698</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18187,7 +18187,7 @@
         <v>43699</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18244,7 +18244,7 @@
         <v>43700</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18301,7 +18301,7 @@
         <v>43702</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18358,7 +18358,7 @@
         <v>43703</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18415,7 +18415,7 @@
         <v>43703</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18472,7 +18472,7 @@
         <v>43703</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18529,7 +18529,7 @@
         <v>43705</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18586,7 +18586,7 @@
         <v>43707</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18643,7 +18643,7 @@
         <v>43707</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>43710</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18757,7 +18757,7 @@
         <v>43712</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18814,7 +18814,7 @@
         <v>43712</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>43713</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>43713</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>43713</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>43714</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19114,7 +19114,7 @@
         <v>43718</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         <v>43719</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19228,7 +19228,7 @@
         <v>43719</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19285,7 +19285,7 @@
         <v>43722</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19342,7 +19342,7 @@
         <v>43724</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19399,7 +19399,7 @@
         <v>43724</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19456,7 +19456,7 @@
         <v>43724</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19513,7 +19513,7 @@
         <v>43726</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19570,7 +19570,7 @@
         <v>43726</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19627,7 +19627,7 @@
         <v>43728</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>43732</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>43733</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>43734</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>43740</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>43740</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>43740</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>43742</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>43742</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>43742</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>43742</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>43742</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>43742</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>43745</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>43746</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>43746</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>43746</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>43747</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>43748</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>43751</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>43754</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>43756</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>43756</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>43756</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>43756</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21057,7 +21057,7 @@
         <v>43756</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21114,7 +21114,7 @@
         <v>43760</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
         <v>43762</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>43762</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>43764</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>43767</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21399,7 +21399,7 @@
         <v>43767</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>43767</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>43769</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>43769</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>43769</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>43769</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>43772</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         <v>43774</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>43776</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21927,7 +21927,7 @@
         <v>43776</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         <v>43776</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22046,7 +22046,7 @@
         <v>43776</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22108,7 +22108,7 @@
         <v>43776</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22170,7 +22170,7 @@
         <v>43776</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22232,7 +22232,7 @@
         <v>43776</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>43776</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>43777</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>43780</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>43780</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22522,7 +22522,7 @@
         <v>43780</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22579,7 +22579,7 @@
         <v>43782</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>43783</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22698,7 +22698,7 @@
         <v>43783</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22760,7 +22760,7 @@
         <v>43783</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22822,7 +22822,7 @@
         <v>43794</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22879,7 +22879,7 @@
         <v>43794</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22936,7 +22936,7 @@
         <v>43795</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22993,7 +22993,7 @@
         <v>43797</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23050,7 +23050,7 @@
         <v>43800</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23107,7 +23107,7 @@
         <v>43803</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23164,7 +23164,7 @@
         <v>43803</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23221,7 +23221,7 @@
         <v>43803</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23278,7 +23278,7 @@
         <v>43807</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23335,7 +23335,7 @@
         <v>43808</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23392,7 +23392,7 @@
         <v>43808</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
         <v>43808</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         <v>43808</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         <v>43810</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>43810</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23687,7 +23687,7 @@
         <v>43810</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23749,7 +23749,7 @@
         <v>43810</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23811,7 +23811,7 @@
         <v>43810</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23873,7 +23873,7 @@
         <v>43811</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         <v>43811</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>43811</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24044,7 +24044,7 @@
         <v>43815</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>43816</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24158,7 +24158,7 @@
         <v>43816</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>43817</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>43833</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>43833</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
         <v>43838</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>43842</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>43843</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24567,7 +24567,7 @@
         <v>43847</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>43847</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>43847</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24738,7 +24738,7 @@
         <v>43847</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24795,7 +24795,7 @@
         <v>43850</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24852,7 +24852,7 @@
         <v>43850</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24909,7 +24909,7 @@
         <v>43850</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24966,7 +24966,7 @@
         <v>43858</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25023,7 +25023,7 @@
         <v>43858</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25080,7 +25080,7 @@
         <v>43859</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25142,7 +25142,7 @@
         <v>43864</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25199,7 +25199,7 @@
         <v>43865</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25256,7 +25256,7 @@
         <v>43865</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>43867</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>43872</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25427,7 +25427,7 @@
         <v>43872</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25484,7 +25484,7 @@
         <v>43873</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25541,7 +25541,7 @@
         <v>43873</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25598,7 +25598,7 @@
         <v>43878</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25655,7 +25655,7 @@
         <v>43878</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25712,7 +25712,7 @@
         <v>43879</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25769,7 +25769,7 @@
         <v>43879</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25831,7 +25831,7 @@
         <v>43879</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25888,7 +25888,7 @@
         <v>43880</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25945,7 +25945,7 @@
         <v>43882</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26002,7 +26002,7 @@
         <v>43885</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26059,7 +26059,7 @@
         <v>43885</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>43886</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>43887</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>43889</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26292,7 +26292,7 @@
         <v>43889</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>43892</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26411,7 +26411,7 @@
         <v>43899</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26468,7 +26468,7 @@
         <v>43900</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26525,7 +26525,7 @@
         <v>43900</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26582,7 +26582,7 @@
         <v>43902</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26639,7 +26639,7 @@
         <v>43906</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26696,7 +26696,7 @@
         <v>43907</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26753,7 +26753,7 @@
         <v>43910</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26810,7 +26810,7 @@
         <v>43910</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26867,7 +26867,7 @@
         <v>43913</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         <v>43913</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26981,7 +26981,7 @@
         <v>43913</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27043,7 +27043,7 @@
         <v>43913</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27100,7 +27100,7 @@
         <v>43916</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27157,7 +27157,7 @@
         <v>43921</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27214,7 +27214,7 @@
         <v>43921</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27271,7 +27271,7 @@
         <v>43921</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27328,7 +27328,7 @@
         <v>43922</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27390,7 +27390,7 @@
         <v>43924</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27452,7 +27452,7 @@
         <v>43924</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27514,7 +27514,7 @@
         <v>43924</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27576,7 +27576,7 @@
         <v>43924</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27638,7 +27638,7 @@
         <v>43924</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27700,7 +27700,7 @@
         <v>43929</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27757,7 +27757,7 @@
         <v>43936</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27814,7 +27814,7 @@
         <v>43943</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27871,7 +27871,7 @@
         <v>43951</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27928,7 +27928,7 @@
         <v>43951</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27985,7 +27985,7 @@
         <v>43955</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28042,7 +28042,7 @@
         <v>43958</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         <v>43960</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28156,7 +28156,7 @@
         <v>43960</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28213,7 +28213,7 @@
         <v>43964</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28270,7 +28270,7 @@
         <v>43964</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28327,7 +28327,7 @@
         <v>43965</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28389,7 +28389,7 @@
         <v>43965</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28451,7 +28451,7 @@
         <v>43969</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28508,7 +28508,7 @@
         <v>43969</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28565,7 +28565,7 @@
         <v>43970</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28622,7 +28622,7 @@
         <v>43970</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28679,7 +28679,7 @@
         <v>43971</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28736,7 +28736,7 @@
         <v>43971</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28793,7 +28793,7 @@
         <v>43977</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28855,7 +28855,7 @@
         <v>43977</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         <v>43977</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28979,7 +28979,7 @@
         <v>43986</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29036,7 +29036,7 @@
         <v>43986</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29093,7 +29093,7 @@
         <v>43994</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29155,7 +29155,7 @@
         <v>44004</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29212,7 +29212,7 @@
         <v>44012</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29269,7 +29269,7 @@
         <v>44014</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29326,7 +29326,7 @@
         <v>44018</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29383,7 +29383,7 @@
         <v>44018</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29440,7 +29440,7 @@
         <v>44021</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29497,7 +29497,7 @@
         <v>44022</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29554,7 +29554,7 @@
         <v>44022</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         <v>44026</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>44027</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29725,7 +29725,7 @@
         <v>44028</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29782,7 +29782,7 @@
         <v>44033</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29839,7 +29839,7 @@
         <v>44034</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29896,7 +29896,7 @@
         <v>44036</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29953,7 +29953,7 @@
         <v>44040</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30010,7 +30010,7 @@
         <v>44042</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30067,7 +30067,7 @@
         <v>44047</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30124,7 +30124,7 @@
         <v>44047</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30181,7 +30181,7 @@
         <v>44047</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30238,7 +30238,7 @@
         <v>44048</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30295,7 +30295,7 @@
         <v>44050</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30352,7 +30352,7 @@
         <v>44053</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>44053</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         <v>44053</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30523,7 +30523,7 @@
         <v>44060</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30580,7 +30580,7 @@
         <v>44061</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30642,7 +30642,7 @@
         <v>44061</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30699,7 +30699,7 @@
         <v>44061</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30756,7 +30756,7 @@
         <v>44061</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30813,7 +30813,7 @@
         <v>44063</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30870,7 +30870,7 @@
         <v>44063</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30927,7 +30927,7 @@
         <v>44064</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30984,7 +30984,7 @@
         <v>44067</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31041,7 +31041,7 @@
         <v>44068</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31098,7 +31098,7 @@
         <v>44068</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31155,7 +31155,7 @@
         <v>44068</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31212,7 +31212,7 @@
         <v>44069</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31269,7 +31269,7 @@
         <v>44071</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31326,7 +31326,7 @@
         <v>44071</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>44075</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31440,7 +31440,7 @@
         <v>44075</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31497,7 +31497,7 @@
         <v>44076</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31559,7 +31559,7 @@
         <v>44076</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31621,7 +31621,7 @@
         <v>44081</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31678,7 +31678,7 @@
         <v>44083</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31735,7 +31735,7 @@
         <v>44084</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31792,7 +31792,7 @@
         <v>44084</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>44084</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         <v>44084</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31963,7 +31963,7 @@
         <v>44087</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>44087</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>44090</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>44090</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>44091</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>44092</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32305,7 +32305,7 @@
         <v>44097</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32362,7 +32362,7 @@
         <v>44097</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32424,7 +32424,7 @@
         <v>44099</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32481,7 +32481,7 @@
         <v>44106</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32543,7 +32543,7 @@
         <v>44110</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32605,7 +32605,7 @@
         <v>44110</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32662,7 +32662,7 @@
         <v>44113</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32724,7 +32724,7 @@
         <v>44118</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32781,7 +32781,7 @@
         <v>44124</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32838,7 +32838,7 @@
         <v>44126</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32895,7 +32895,7 @@
         <v>44126</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32952,7 +32952,7 @@
         <v>44134</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33009,7 +33009,7 @@
         <v>44137</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33071,7 +33071,7 @@
         <v>44146</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33128,7 +33128,7 @@
         <v>44146</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33185,7 +33185,7 @@
         <v>44151</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33242,7 +33242,7 @@
         <v>44151</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33299,7 +33299,7 @@
         <v>44151</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33356,7 +33356,7 @@
         <v>44154</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33413,7 +33413,7 @@
         <v>44159</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33470,7 +33470,7 @@
         <v>44162</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33527,7 +33527,7 @@
         <v>44162</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33584,7 +33584,7 @@
         <v>44172</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33641,7 +33641,7 @@
         <v>44179</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33698,7 +33698,7 @@
         <v>44182</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33755,7 +33755,7 @@
         <v>44186</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33812,7 +33812,7 @@
         <v>44186</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33869,7 +33869,7 @@
         <v>44186</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33926,7 +33926,7 @@
         <v>44186</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33983,7 +33983,7 @@
         <v>44188</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34040,7 +34040,7 @@
         <v>44193</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34097,7 +34097,7 @@
         <v>44193</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34154,7 +34154,7 @@
         <v>44193</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34216,7 +34216,7 @@
         <v>44193</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34273,7 +34273,7 @@
         <v>44195</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34330,7 +34330,7 @@
         <v>44201</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34387,7 +34387,7 @@
         <v>44203</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34444,7 +34444,7 @@
         <v>44215</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34501,7 +34501,7 @@
         <v>44216</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34558,7 +34558,7 @@
         <v>44218</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34615,7 +34615,7 @@
         <v>44223</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34672,7 +34672,7 @@
         <v>44223</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34729,7 +34729,7 @@
         <v>44223</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         <v>44229</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34843,7 +34843,7 @@
         <v>44236</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34905,7 +34905,7 @@
         <v>44243</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34962,7 +34962,7 @@
         <v>44250</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35019,7 +35019,7 @@
         <v>44250</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35076,7 +35076,7 @@
         <v>44252</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35138,7 +35138,7 @@
         <v>44252</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35200,7 +35200,7 @@
         <v>44258</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35257,7 +35257,7 @@
         <v>44259</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35314,7 +35314,7 @@
         <v>44260</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35376,7 +35376,7 @@
         <v>44263</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35433,7 +35433,7 @@
         <v>44274</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35490,7 +35490,7 @@
         <v>44274</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35547,7 +35547,7 @@
         <v>44278</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35604,7 +35604,7 @@
         <v>44295</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         <v>44300</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35723,7 +35723,7 @@
         <v>44308</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35780,7 +35780,7 @@
         <v>44314</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35837,7 +35837,7 @@
         <v>44319</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35894,7 +35894,7 @@
         <v>44320</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35951,7 +35951,7 @@
         <v>44326</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36008,7 +36008,7 @@
         <v>44334</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36065,7 +36065,7 @@
         <v>44337</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36122,7 +36122,7 @@
         <v>44349</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36184,7 +36184,7 @@
         <v>44353</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36241,7 +36241,7 @@
         <v>44354</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36303,7 +36303,7 @@
         <v>44373</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36360,7 +36360,7 @@
         <v>44375</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36417,7 +36417,7 @@
         <v>44375</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36474,7 +36474,7 @@
         <v>44375</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36531,7 +36531,7 @@
         <v>44375</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36588,7 +36588,7 @@
         <v>44375</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36645,7 +36645,7 @@
         <v>44382</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36702,7 +36702,7 @@
         <v>44386</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36759,7 +36759,7 @@
         <v>44411</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36816,7 +36816,7 @@
         <v>44419</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36873,7 +36873,7 @@
         <v>44420</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36930,7 +36930,7 @@
         <v>44420</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36987,7 +36987,7 @@
         <v>44420</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37044,7 +37044,7 @@
         <v>44426</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37101,7 +37101,7 @@
         <v>44432</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37158,7 +37158,7 @@
         <v>44433</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37220,7 +37220,7 @@
         <v>44434</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37277,7 +37277,7 @@
         <v>44438</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37334,7 +37334,7 @@
         <v>44438</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37391,7 +37391,7 @@
         <v>44439</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37448,7 +37448,7 @@
         <v>44441</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37505,7 +37505,7 @@
         <v>44447</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37562,7 +37562,7 @@
         <v>44447</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37624,7 +37624,7 @@
         <v>44449</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37681,7 +37681,7 @@
         <v>44456</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37738,7 +37738,7 @@
         <v>44468</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37800,7 +37800,7 @@
         <v>44468</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37862,7 +37862,7 @@
         <v>44470</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37919,7 +37919,7 @@
         <v>44473</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37976,7 +37976,7 @@
         <v>44473</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38033,7 +38033,7 @@
         <v>44473</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38090,7 +38090,7 @@
         <v>44477</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38147,7 +38147,7 @@
         <v>44480</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38204,7 +38204,7 @@
         <v>44482</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38261,7 +38261,7 @@
         <v>44484</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38323,7 +38323,7 @@
         <v>44484</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38380,7 +38380,7 @@
         <v>44488</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38437,7 +38437,7 @@
         <v>44490</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38494,7 +38494,7 @@
         <v>44496</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38551,7 +38551,7 @@
         <v>44502</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38608,7 +38608,7 @@
         <v>44511</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38665,7 +38665,7 @@
         <v>44516</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38722,7 +38722,7 @@
         <v>44526</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38779,7 +38779,7 @@
         <v>44526</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38836,7 +38836,7 @@
         <v>44529</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38893,7 +38893,7 @@
         <v>44530</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38950,7 +38950,7 @@
         <v>44532</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39007,7 +39007,7 @@
         <v>44532</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39064,7 +39064,7 @@
         <v>44536</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39121,7 +39121,7 @@
         <v>44549</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39178,7 +39178,7 @@
         <v>44552</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39235,7 +39235,7 @@
         <v>44564</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39292,7 +39292,7 @@
         <v>44564</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39349,7 +39349,7 @@
         <v>44565</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39406,7 +39406,7 @@
         <v>44582</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39463,7 +39463,7 @@
         <v>44582</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39525,7 +39525,7 @@
         <v>44587</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39582,7 +39582,7 @@
         <v>44592</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39639,7 +39639,7 @@
         <v>44593</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39696,7 +39696,7 @@
         <v>44593</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39753,7 +39753,7 @@
         <v>44594</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39810,7 +39810,7 @@
         <v>44594</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39867,7 +39867,7 @@
         <v>44599</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39924,7 +39924,7 @@
         <v>44608</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39981,7 +39981,7 @@
         <v>44610</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40043,7 +40043,7 @@
         <v>44612</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40105,7 +40105,7 @@
         <v>44614</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40162,7 +40162,7 @@
         <v>44623</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40219,7 +40219,7 @@
         <v>44624</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40276,7 +40276,7 @@
         <v>44624</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40333,7 +40333,7 @@
         <v>44643</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40390,7 +40390,7 @@
         <v>44645</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40447,7 +40447,7 @@
         <v>44651</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40504,7 +40504,7 @@
         <v>44651</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40566,7 +40566,7 @@
         <v>44655</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40623,7 +40623,7 @@
         <v>44673</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40680,7 +40680,7 @@
         <v>44676</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40737,7 +40737,7 @@
         <v>44683</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40794,7 +40794,7 @@
         <v>44686</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40856,7 +40856,7 @@
         <v>44694</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40913,7 +40913,7 @@
         <v>44705</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40970,7 +40970,7 @@
         <v>44712</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41027,7 +41027,7 @@
         <v>44713</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41084,7 +41084,7 @@
         <v>44714</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41141,7 +41141,7 @@
         <v>44719</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41198,7 +41198,7 @@
         <v>44725</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41255,7 +41255,7 @@
         <v>44725</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41312,7 +41312,7 @@
         <v>44741</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41369,7 +41369,7 @@
         <v>44749</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         <v>44755</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41483,7 +41483,7 @@
         <v>44794</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41540,7 +41540,7 @@
         <v>44794</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41597,7 +41597,7 @@
         <v>44811</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41654,7 +41654,7 @@
         <v>44811</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41711,7 +41711,7 @@
         <v>44819</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41768,7 +41768,7 @@
         <v>44824</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41825,7 +41825,7 @@
         <v>44826</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41882,7 +41882,7 @@
         <v>44827</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41939,7 +41939,7 @@
         <v>44827</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41996,7 +41996,7 @@
         <v>44827</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42053,7 +42053,7 @@
         <v>44827</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42110,7 +42110,7 @@
         <v>44827</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42167,7 +42167,7 @@
         <v>44827</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42224,7 +42224,7 @@
         <v>44831</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42281,7 +42281,7 @@
         <v>44831</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42338,7 +42338,7 @@
         <v>44831</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42395,7 +42395,7 @@
         <v>44833</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42452,7 +42452,7 @@
         <v>44833</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42509,7 +42509,7 @@
         <v>44834</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42566,7 +42566,7 @@
         <v>44846</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42623,7 +42623,7 @@
         <v>44862</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42685,7 +42685,7 @@
         <v>44875</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42742,7 +42742,7 @@
         <v>44876</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42799,7 +42799,7 @@
         <v>44880</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42856,7 +42856,7 @@
         <v>44882</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42913,7 +42913,7 @@
         <v>44893</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42975,7 +42975,7 @@
         <v>44894</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43032,7 +43032,7 @@
         <v>44895</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43094,7 +43094,7 @@
         <v>44901</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43156,7 +43156,7 @@
         <v>44910</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43213,7 +43213,7 @@
         <v>44917</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43270,7 +43270,7 @@
         <v>44928</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43332,7 +43332,7 @@
         <v>44928</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43389,7 +43389,7 @@
         <v>44935</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43446,7 +43446,7 @@
         <v>44938</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43503,7 +43503,7 @@
         <v>44939</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43560,7 +43560,7 @@
         <v>44939</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43617,7 +43617,7 @@
         <v>44942</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43674,7 +43674,7 @@
         <v>44942</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43731,7 +43731,7 @@
         <v>44943</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43788,7 +43788,7 @@
         <v>44952</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43845,7 +43845,7 @@
         <v>44960</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43907,7 +43907,7 @@
         <v>44963</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43964,7 +43964,7 @@
         <v>44966</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44021,7 +44021,7 @@
         <v>44970</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44078,7 +44078,7 @@
         <v>44971</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44135,7 +44135,7 @@
         <v>44971</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44192,7 +44192,7 @@
         <v>44977</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44249,7 +44249,7 @@
         <v>44988</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         <v>44988</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44363,7 +44363,7 @@
         <v>44991</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44420,7 +44420,7 @@
         <v>44994</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44477,7 +44477,7 @@
         <v>44995</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44534,7 +44534,7 @@
         <v>44999</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44591,7 +44591,7 @@
         <v>45007</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44648,7 +44648,7 @@
         <v>45013</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44705,7 +44705,7 @@
         <v>45013</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44762,7 +44762,7 @@
         <v>45016</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44819,7 +44819,7 @@
         <v>45016</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44876,7 +44876,7 @@
         <v>45016</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44933,7 +44933,7 @@
         <v>45026</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44990,7 +44990,7 @@
         <v>45028</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45047,7 +45047,7 @@
         <v>45030</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45109,7 +45109,7 @@
         <v>45030</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45171,7 +45171,7 @@
         <v>45033</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45228,7 +45228,7 @@
         <v>45047</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45285,7 +45285,7 @@
         <v>45048</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45342,7 +45342,7 @@
         <v>45049</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45399,7 +45399,7 @@
         <v>45054</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45456,7 +45456,7 @@
         <v>45054</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45513,7 +45513,7 @@
         <v>45054</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45570,7 +45570,7 @@
         <v>45054</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45627,7 +45627,7 @@
         <v>45055</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45684,7 +45684,7 @@
         <v>45061</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45746,7 +45746,7 @@
         <v>45061</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45803,7 +45803,7 @@
         <v>45063</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45860,7 +45860,7 @@
         <v>45070</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45917,7 +45917,7 @@
         <v>45071</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45974,7 +45974,7 @@
         <v>45071</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46031,7 +46031,7 @@
         <v>45071</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46088,7 +46088,7 @@
         <v>45077</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46145,7 +46145,7 @@
         <v>45079</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46202,7 +46202,7 @@
         <v>45079</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46259,7 +46259,7 @@
         <v>45079</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46316,7 +46316,7 @@
         <v>45081</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46373,7 +46373,7 @@
         <v>45085</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46430,7 +46430,7 @@
         <v>45092</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46487,7 +46487,7 @@
         <v>45093</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46564,7 +46564,7 @@
         <v>45099</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46621,7 +46621,7 @@
         <v>45099</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46678,7 +46678,7 @@
         <v>45099</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46735,7 +46735,7 @@
         <v>45099</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46792,7 +46792,7 @@
         <v>45099</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46849,7 +46849,7 @@
         <v>45099</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46906,7 +46906,7 @@
         <v>45099</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46963,7 +46963,7 @@
         <v>45099</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47020,7 +47020,7 @@
         <v>45099</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47077,7 +47077,7 @@
         <v>45099</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47134,7 +47134,7 @@
         <v>45099</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47191,7 +47191,7 @@
         <v>45099</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47248,7 +47248,7 @@
         <v>45103</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47305,7 +47305,7 @@
         <v>45104</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47362,7 +47362,7 @@
         <v>45105</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47419,7 +47419,7 @@
         <v>45113</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47476,7 +47476,7 @@
         <v>45113</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47533,7 +47533,7 @@
         <v>45127</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47590,7 +47590,7 @@
         <v>45127</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47647,7 +47647,7 @@
         <v>45148</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47704,7 +47704,7 @@
         <v>45149</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47761,7 +47761,7 @@
         <v>45153</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47818,7 +47818,7 @@
         <v>45160</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47875,7 +47875,7 @@
         <v>45161</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47932,7 +47932,7 @@
         <v>45168</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47994,7 +47994,7 @@
         <v>45168</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48041,7 +48041,7 @@
       </c>
       <c r="R789" s="2" t="inlineStr"/>
     </row>
-    <row r="790">
+    <row r="790" ht="15" customHeight="1">
       <c r="A790" t="inlineStr">
         <is>
           <t>A 40006-2023</t>
@@ -48051,7 +48051,7 @@
         <v>45168</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48102,6 +48102,63 @@
         <v>0</v>
       </c>
       <c r="R790" s="2" t="inlineStr"/>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>A 42229-2023</t>
+        </is>
+      </c>
+      <c r="B791" s="1" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C791" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D791" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E791" t="inlineStr">
+        <is>
+          <t>HULTSFRED</t>
+        </is>
+      </c>
+      <c r="G791" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H791" t="n">
+        <v>0</v>
+      </c>
+      <c r="I791" t="n">
+        <v>0</v>
+      </c>
+      <c r="J791" t="n">
+        <v>0</v>
+      </c>
+      <c r="K791" t="n">
+        <v>0</v>
+      </c>
+      <c r="L791" t="n">
+        <v>0</v>
+      </c>
+      <c r="M791" t="n">
+        <v>0</v>
+      </c>
+      <c r="N791" t="n">
+        <v>0</v>
+      </c>
+      <c r="O791" t="n">
+        <v>0</v>
+      </c>
+      <c r="P791" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q791" t="n">
+        <v>0</v>
+      </c>
+      <c r="R791" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt HULTSFRED.xlsx
+++ b/Översikt HULTSFRED.xlsx
@@ -572,7 +572,7 @@
         <v>43874</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>44894</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>44468</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
         <v>44175</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>43753</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1080,7 +1080,7 @@
         <v>43921</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44069</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>43438</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>43507</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>43845</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43916</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>43986</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43426</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43447</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43874</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>44258</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>44474</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>44551</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>44224</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>44641</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
         <v>44809</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44822</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>45026</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43343</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>43405</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43418</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>43419</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>43489</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43682</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>44060</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>44083</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44098</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>44235</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>44235</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>44278</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>44280</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         <v>44468</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>44559</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>44565</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>44909</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>45053</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>43438</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43493</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>43545</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>43591</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>43702</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>43889</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43902</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4901,7 +4901,7 @@
         <v>43920</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
         <v>43962</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>44053</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         <v>44124</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>44159</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>44180</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>44295</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>44341</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>44375</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>44417</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>44455</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v>44526</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>44876</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         <v>44928</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6110,7 +6110,7 @@
         <v>44980</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         <v>45016</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>45093</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>43328</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>43329</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>43336</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>43340</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>43340</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>43342</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43357</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>43364</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43364</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43364</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43364</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>43370</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>43371</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>43375</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         <v>43377</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7220,7 +7220,7 @@
         <v>43385</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
         <v>43388</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7334,7 +7334,7 @@
         <v>43390</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7391,7 +7391,7 @@
         <v>43392</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7448,7 +7448,7 @@
         <v>43395</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>43395</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>43396</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>43402</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         <v>43403</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7733,7 +7733,7 @@
         <v>43403</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         <v>43403</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         <v>43404</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>43405</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>43410</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>43411</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>43411</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>43411</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>43413</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43415</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>43416</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>43416</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>43417</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>43417</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>43418</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>43418</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>43419</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>43419</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43419</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>43420</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>43423</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>43425</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43425</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>43426</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>43426</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>43426</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43427</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>43430</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>43430</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>43430</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43431</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>43431</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43432</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>43432</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>43433</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>43433</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>43437</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>43438</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>43438</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>43438</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>43439</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>43439</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>43444</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>43444</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>43445</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>43446</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>43446</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>43448</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>43448</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>43454</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>43455</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>43466</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43467</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>43468</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>43468</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43469</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43469</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>43472</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>43472</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11116,7 +11116,7 @@
         <v>43472</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11173,7 +11173,7 @@
         <v>43472</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11230,7 +11230,7 @@
         <v>43473</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11287,7 +11287,7 @@
         <v>43473</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11344,7 +11344,7 @@
         <v>43474</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
         <v>43475</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>43475</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>43475</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>43475</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43475</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>43475</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11763,7 +11763,7 @@
         <v>43478</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11820,7 +11820,7 @@
         <v>43479</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11877,7 +11877,7 @@
         <v>43479</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11934,7 +11934,7 @@
         <v>43480</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11991,7 +11991,7 @@
         <v>43481</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12048,7 +12048,7 @@
         <v>43484</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12105,7 +12105,7 @@
         <v>43486</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12162,7 +12162,7 @@
         <v>43488</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12219,7 +12219,7 @@
         <v>43488</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12276,7 +12276,7 @@
         <v>43489</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12333,7 +12333,7 @@
         <v>43489</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>43490</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>43493</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12514,7 +12514,7 @@
         <v>43494</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12571,7 +12571,7 @@
         <v>43494</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12628,7 +12628,7 @@
         <v>43494</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12685,7 +12685,7 @@
         <v>43496</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>43497</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>43497</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         <v>43497</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>43497</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12975,7 +12975,7 @@
         <v>43500</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13032,7 +13032,7 @@
         <v>43504</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13089,7 +13089,7 @@
         <v>43511</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>43516</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>43516</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>43520</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>43522</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>43523</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>43524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>43525</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>43526</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>43528</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>43528</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>43528</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>43528</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13835,7 +13835,7 @@
         <v>43530</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13892,7 +13892,7 @@
         <v>43532</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13949,7 +13949,7 @@
         <v>43539</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14006,7 +14006,7 @@
         <v>43542</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14063,7 +14063,7 @@
         <v>43550</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14120,7 +14120,7 @@
         <v>43551</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14177,7 +14177,7 @@
         <v>43551</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>43551</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>43551</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14348,7 +14348,7 @@
         <v>43556</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>43557</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14462,7 +14462,7 @@
         <v>43558</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>43565</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>43570</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14638,7 +14638,7 @@
         <v>43571</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14695,7 +14695,7 @@
         <v>43572</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>43578</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>43579</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>43584</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>43584</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>43584</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>43584</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>43584</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>43585</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>43587</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>43587</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         <v>43593</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>43595</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>43605</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>43605</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>43627</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>43628</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>43628</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>43628</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>43633</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>43634</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>43634</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>43634</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>43635</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>43635</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>43640</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>43640</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>43641</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>43642</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>43643</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>43643</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>43643</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16534,7 +16534,7 @@
         <v>43644</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16591,7 +16591,7 @@
         <v>43647</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16648,7 +16648,7 @@
         <v>43654</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>43656</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>43658</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16819,7 +16819,7 @@
         <v>43661</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>43665</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16933,7 +16933,7 @@
         <v>43665</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16990,7 +16990,7 @@
         <v>43667</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17047,7 +17047,7 @@
         <v>43668</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17104,7 +17104,7 @@
         <v>43669</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17161,7 +17161,7 @@
         <v>43670</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17218,7 +17218,7 @@
         <v>43675</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17275,7 +17275,7 @@
         <v>43677</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17332,7 +17332,7 @@
         <v>43682</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>43682</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>43682</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>43683</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>43683</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>43683</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>43689</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>43690</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>43691</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17845,7 +17845,7 @@
         <v>43692</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>43696</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17959,7 +17959,7 @@
         <v>43696</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18016,7 +18016,7 @@
         <v>43697</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18073,7 +18073,7 @@
         <v>43697</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18130,7 +18130,7 @@
         <v>43698</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18187,7 +18187,7 @@
         <v>43699</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18244,7 +18244,7 @@
         <v>43700</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18301,7 +18301,7 @@
         <v>43702</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18358,7 +18358,7 @@
         <v>43703</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18415,7 +18415,7 @@
         <v>43703</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18472,7 +18472,7 @@
         <v>43703</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18529,7 +18529,7 @@
         <v>43705</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18586,7 +18586,7 @@
         <v>43707</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18643,7 +18643,7 @@
         <v>43707</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>43710</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18757,7 +18757,7 @@
         <v>43712</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18814,7 +18814,7 @@
         <v>43712</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>43713</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>43713</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>43713</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>43714</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19114,7 +19114,7 @@
         <v>43718</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         <v>43719</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19228,7 +19228,7 @@
         <v>43719</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19285,7 +19285,7 @@
         <v>43722</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19342,7 +19342,7 @@
         <v>43724</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19399,7 +19399,7 @@
         <v>43724</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19456,7 +19456,7 @@
         <v>43724</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19513,7 +19513,7 @@
         <v>43726</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19570,7 +19570,7 @@
         <v>43726</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19627,7 +19627,7 @@
         <v>43728</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>43732</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>43733</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>43734</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>43740</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>43740</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>43740</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>43742</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>43742</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>43742</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>43742</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>43742</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>43742</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>43745</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>43746</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>43746</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>43746</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>43747</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>43748</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>43751</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>43754</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>43756</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>43756</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>43756</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>43756</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21057,7 +21057,7 @@
         <v>43756</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21114,7 +21114,7 @@
         <v>43760</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
         <v>43762</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>43762</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>43764</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>43767</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21399,7 +21399,7 @@
         <v>43767</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>43767</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>43769</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>43769</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>43769</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>43769</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>43772</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         <v>43774</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>43776</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21927,7 +21927,7 @@
         <v>43776</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         <v>43776</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22046,7 +22046,7 @@
         <v>43776</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22108,7 +22108,7 @@
         <v>43776</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22170,7 +22170,7 @@
         <v>43776</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22232,7 +22232,7 @@
         <v>43776</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>43776</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>43777</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>43780</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>43780</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22522,7 +22522,7 @@
         <v>43780</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22579,7 +22579,7 @@
         <v>43782</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>43783</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22698,7 +22698,7 @@
         <v>43783</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22760,7 +22760,7 @@
         <v>43783</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22822,7 +22822,7 @@
         <v>43794</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22879,7 +22879,7 @@
         <v>43794</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22936,7 +22936,7 @@
         <v>43795</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22993,7 +22993,7 @@
         <v>43797</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23050,7 +23050,7 @@
         <v>43800</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23107,7 +23107,7 @@
         <v>43803</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23164,7 +23164,7 @@
         <v>43803</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23221,7 +23221,7 @@
         <v>43803</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23278,7 +23278,7 @@
         <v>43807</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23335,7 +23335,7 @@
         <v>43808</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23392,7 +23392,7 @@
         <v>43808</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
         <v>43808</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         <v>43808</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         <v>43810</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>43810</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23687,7 +23687,7 @@
         <v>43810</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23749,7 +23749,7 @@
         <v>43810</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23811,7 +23811,7 @@
         <v>43810</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23873,7 +23873,7 @@
         <v>43811</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         <v>43811</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>43811</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24044,7 +24044,7 @@
         <v>43815</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>43816</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24158,7 +24158,7 @@
         <v>43816</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>43817</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>43833</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>43833</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
         <v>43838</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>43842</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>43843</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24567,7 +24567,7 @@
         <v>43847</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>43847</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>43847</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24738,7 +24738,7 @@
         <v>43847</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24795,7 +24795,7 @@
         <v>43850</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24852,7 +24852,7 @@
         <v>43850</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24909,7 +24909,7 @@
         <v>43850</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24966,7 +24966,7 @@
         <v>43858</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25023,7 +25023,7 @@
         <v>43858</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25080,7 +25080,7 @@
         <v>43859</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25142,7 +25142,7 @@
         <v>43864</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25199,7 +25199,7 @@
         <v>43865</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25256,7 +25256,7 @@
         <v>43865</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>43867</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>43872</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25427,7 +25427,7 @@
         <v>43872</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25484,7 +25484,7 @@
         <v>43873</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25541,7 +25541,7 @@
         <v>43873</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25598,7 +25598,7 @@
         <v>43878</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25655,7 +25655,7 @@
         <v>43878</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25712,7 +25712,7 @@
         <v>43879</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25769,7 +25769,7 @@
         <v>43879</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25831,7 +25831,7 @@
         <v>43879</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25888,7 +25888,7 @@
         <v>43880</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25945,7 +25945,7 @@
         <v>43882</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26002,7 +26002,7 @@
         <v>43885</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26059,7 +26059,7 @@
         <v>43885</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>43886</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>43887</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>43889</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26292,7 +26292,7 @@
         <v>43889</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>43892</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26411,7 +26411,7 @@
         <v>43899</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26468,7 +26468,7 @@
         <v>43900</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26525,7 +26525,7 @@
         <v>43900</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26582,7 +26582,7 @@
         <v>43902</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26639,7 +26639,7 @@
         <v>43906</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26696,7 +26696,7 @@
         <v>43907</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26753,7 +26753,7 @@
         <v>43910</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26810,7 +26810,7 @@
         <v>43910</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26867,7 +26867,7 @@
         <v>43913</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         <v>43913</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26981,7 +26981,7 @@
         <v>43913</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27043,7 +27043,7 @@
         <v>43913</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27100,7 +27100,7 @@
         <v>43916</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27157,7 +27157,7 @@
         <v>43921</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27214,7 +27214,7 @@
         <v>43921</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27271,7 +27271,7 @@
         <v>43921</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27328,7 +27328,7 @@
         <v>43922</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27390,7 +27390,7 @@
         <v>43924</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27452,7 +27452,7 @@
         <v>43924</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27514,7 +27514,7 @@
         <v>43924</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27576,7 +27576,7 @@
         <v>43924</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27638,7 +27638,7 @@
         <v>43924</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27700,7 +27700,7 @@
         <v>43929</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27757,7 +27757,7 @@
         <v>43936</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27814,7 +27814,7 @@
         <v>43943</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27871,7 +27871,7 @@
         <v>43951</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27928,7 +27928,7 @@
         <v>43951</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27985,7 +27985,7 @@
         <v>43955</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28042,7 +28042,7 @@
         <v>43958</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         <v>43960</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28156,7 +28156,7 @@
         <v>43960</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28213,7 +28213,7 @@
         <v>43964</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28270,7 +28270,7 @@
         <v>43964</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28327,7 +28327,7 @@
         <v>43965</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28389,7 +28389,7 @@
         <v>43965</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28451,7 +28451,7 @@
         <v>43969</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28508,7 +28508,7 @@
         <v>43969</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28565,7 +28565,7 @@
         <v>43970</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28622,7 +28622,7 @@
         <v>43970</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28679,7 +28679,7 @@
         <v>43971</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28736,7 +28736,7 @@
         <v>43971</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28793,7 +28793,7 @@
         <v>43977</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28855,7 +28855,7 @@
         <v>43977</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         <v>43977</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28979,7 +28979,7 @@
         <v>43986</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29036,7 +29036,7 @@
         <v>43986</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29093,7 +29093,7 @@
         <v>43994</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29155,7 +29155,7 @@
         <v>44004</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29212,7 +29212,7 @@
         <v>44012</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29269,7 +29269,7 @@
         <v>44014</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29326,7 +29326,7 @@
         <v>44018</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29383,7 +29383,7 @@
         <v>44018</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29440,7 +29440,7 @@
         <v>44021</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29497,7 +29497,7 @@
         <v>44022</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29554,7 +29554,7 @@
         <v>44022</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         <v>44026</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>44027</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29725,7 +29725,7 @@
         <v>44028</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29782,7 +29782,7 @@
         <v>44033</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29839,7 +29839,7 @@
         <v>44034</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29896,7 +29896,7 @@
         <v>44036</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29953,7 +29953,7 @@
         <v>44040</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30010,7 +30010,7 @@
         <v>44042</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30067,7 +30067,7 @@
         <v>44047</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30124,7 +30124,7 @@
         <v>44047</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30181,7 +30181,7 @@
         <v>44047</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30238,7 +30238,7 @@
         <v>44048</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30295,7 +30295,7 @@
         <v>44050</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30352,7 +30352,7 @@
         <v>44053</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>44053</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         <v>44053</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30523,7 +30523,7 @@
         <v>44060</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30580,7 +30580,7 @@
         <v>44061</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30642,7 +30642,7 @@
         <v>44061</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30699,7 +30699,7 @@
         <v>44061</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30756,7 +30756,7 @@
         <v>44061</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30813,7 +30813,7 @@
         <v>44063</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30870,7 +30870,7 @@
         <v>44063</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30927,7 +30927,7 @@
         <v>44064</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30984,7 +30984,7 @@
         <v>44067</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31041,7 +31041,7 @@
         <v>44068</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31098,7 +31098,7 @@
         <v>44068</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31155,7 +31155,7 @@
         <v>44068</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31212,7 +31212,7 @@
         <v>44069</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31269,7 +31269,7 @@
         <v>44071</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31326,7 +31326,7 @@
         <v>44071</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>44075</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31440,7 +31440,7 @@
         <v>44075</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31497,7 +31497,7 @@
         <v>44076</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31559,7 +31559,7 @@
         <v>44076</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31621,7 +31621,7 @@
         <v>44081</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31678,7 +31678,7 @@
         <v>44083</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31735,7 +31735,7 @@
         <v>44084</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31792,7 +31792,7 @@
         <v>44084</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>44084</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         <v>44084</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31963,7 +31963,7 @@
         <v>44087</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>44087</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>44090</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>44090</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>44091</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>44092</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32305,7 +32305,7 @@
         <v>44097</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32362,7 +32362,7 @@
         <v>44097</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32424,7 +32424,7 @@
         <v>44099</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32481,7 +32481,7 @@
         <v>44106</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32543,7 +32543,7 @@
         <v>44110</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32605,7 +32605,7 @@
         <v>44110</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32662,7 +32662,7 @@
         <v>44113</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32724,7 +32724,7 @@
         <v>44118</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32781,7 +32781,7 @@
         <v>44124</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32838,7 +32838,7 @@
         <v>44126</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32895,7 +32895,7 @@
         <v>44126</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32952,7 +32952,7 @@
         <v>44134</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33009,7 +33009,7 @@
         <v>44137</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33071,7 +33071,7 @@
         <v>44146</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33128,7 +33128,7 @@
         <v>44146</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33185,7 +33185,7 @@
         <v>44151</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33242,7 +33242,7 @@
         <v>44151</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33299,7 +33299,7 @@
         <v>44151</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33356,7 +33356,7 @@
         <v>44154</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33413,7 +33413,7 @@
         <v>44159</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33470,7 +33470,7 @@
         <v>44162</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33527,7 +33527,7 @@
         <v>44162</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33584,7 +33584,7 @@
         <v>44172</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33641,7 +33641,7 @@
         <v>44179</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33698,7 +33698,7 @@
         <v>44182</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33755,7 +33755,7 @@
         <v>44186</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33812,7 +33812,7 @@
         <v>44186</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33869,7 +33869,7 @@
         <v>44186</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33926,7 +33926,7 @@
         <v>44186</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33983,7 +33983,7 @@
         <v>44188</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34040,7 +34040,7 @@
         <v>44193</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34097,7 +34097,7 @@
         <v>44193</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34154,7 +34154,7 @@
         <v>44193</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34216,7 +34216,7 @@
         <v>44193</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34273,7 +34273,7 @@
         <v>44195</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34330,7 +34330,7 @@
         <v>44201</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34387,7 +34387,7 @@
         <v>44203</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34444,7 +34444,7 @@
         <v>44215</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34501,7 +34501,7 @@
         <v>44216</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34558,7 +34558,7 @@
         <v>44218</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34615,7 +34615,7 @@
         <v>44223</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34672,7 +34672,7 @@
         <v>44223</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34729,7 +34729,7 @@
         <v>44223</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         <v>44229</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34843,7 +34843,7 @@
         <v>44236</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34905,7 +34905,7 @@
         <v>44243</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34962,7 +34962,7 @@
         <v>44250</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35019,7 +35019,7 @@
         <v>44250</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35076,7 +35076,7 @@
         <v>44252</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35138,7 +35138,7 @@
         <v>44252</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35200,7 +35200,7 @@
         <v>44258</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35257,7 +35257,7 @@
         <v>44259</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35314,7 +35314,7 @@
         <v>44260</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35376,7 +35376,7 @@
         <v>44263</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35433,7 +35433,7 @@
         <v>44274</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35490,7 +35490,7 @@
         <v>44274</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35547,7 +35547,7 @@
         <v>44278</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35604,7 +35604,7 @@
         <v>44295</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         <v>44300</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35723,7 +35723,7 @@
         <v>44308</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35780,7 +35780,7 @@
         <v>44314</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35837,7 +35837,7 @@
         <v>44319</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35894,7 +35894,7 @@
         <v>44320</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35951,7 +35951,7 @@
         <v>44326</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36008,7 +36008,7 @@
         <v>44334</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36065,7 +36065,7 @@
         <v>44337</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36122,7 +36122,7 @@
         <v>44349</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36184,7 +36184,7 @@
         <v>44353</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36241,7 +36241,7 @@
         <v>44354</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36303,7 +36303,7 @@
         <v>44373</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36360,7 +36360,7 @@
         <v>44375</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36417,7 +36417,7 @@
         <v>44375</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36474,7 +36474,7 @@
         <v>44375</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36531,7 +36531,7 @@
         <v>44375</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36588,7 +36588,7 @@
         <v>44375</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36645,7 +36645,7 @@
         <v>44382</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36702,7 +36702,7 @@
         <v>44386</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36759,7 +36759,7 @@
         <v>44411</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36816,7 +36816,7 @@
         <v>44419</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36873,7 +36873,7 @@
         <v>44420</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36930,7 +36930,7 @@
         <v>44420</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36987,7 +36987,7 @@
         <v>44420</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37044,7 +37044,7 @@
         <v>44426</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37101,7 +37101,7 @@
         <v>44432</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37158,7 +37158,7 @@
         <v>44433</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37220,7 +37220,7 @@
         <v>44434</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37277,7 +37277,7 @@
         <v>44438</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37334,7 +37334,7 @@
         <v>44438</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37391,7 +37391,7 @@
         <v>44439</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37448,7 +37448,7 @@
         <v>44441</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37505,7 +37505,7 @@
         <v>44447</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37562,7 +37562,7 @@
         <v>44447</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37624,7 +37624,7 @@
         <v>44449</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37681,7 +37681,7 @@
         <v>44456</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37738,7 +37738,7 @@
         <v>44468</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37800,7 +37800,7 @@
         <v>44468</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37862,7 +37862,7 @@
         <v>44470</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37919,7 +37919,7 @@
         <v>44473</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37976,7 +37976,7 @@
         <v>44473</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38033,7 +38033,7 @@
         <v>44473</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38090,7 +38090,7 @@
         <v>44477</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38147,7 +38147,7 @@
         <v>44480</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38204,7 +38204,7 @@
         <v>44482</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38261,7 +38261,7 @@
         <v>44484</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38323,7 +38323,7 @@
         <v>44484</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38380,7 +38380,7 @@
         <v>44488</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38437,7 +38437,7 @@
         <v>44490</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38494,7 +38494,7 @@
         <v>44496</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38551,7 +38551,7 @@
         <v>44502</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38608,7 +38608,7 @@
         <v>44511</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38665,7 +38665,7 @@
         <v>44516</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38722,7 +38722,7 @@
         <v>44526</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38779,7 +38779,7 @@
         <v>44526</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38836,7 +38836,7 @@
         <v>44529</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38893,7 +38893,7 @@
         <v>44530</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38950,7 +38950,7 @@
         <v>44532</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39007,7 +39007,7 @@
         <v>44532</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39064,7 +39064,7 @@
         <v>44536</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39121,7 +39121,7 @@
         <v>44549</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39178,7 +39178,7 @@
         <v>44552</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39235,7 +39235,7 @@
         <v>44564</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39292,7 +39292,7 @@
         <v>44564</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39349,7 +39349,7 @@
         <v>44565</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39406,7 +39406,7 @@
         <v>44582</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39463,7 +39463,7 @@
         <v>44582</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39525,7 +39525,7 @@
         <v>44587</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39582,7 +39582,7 @@
         <v>44592</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39639,7 +39639,7 @@
         <v>44593</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39696,7 +39696,7 @@
         <v>44593</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39753,7 +39753,7 @@
         <v>44594</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39810,7 +39810,7 @@
         <v>44594</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39867,7 +39867,7 @@
         <v>44599</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39924,7 +39924,7 @@
         <v>44608</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39981,7 +39981,7 @@
         <v>44610</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40043,7 +40043,7 @@
         <v>44612</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40105,7 +40105,7 @@
         <v>44614</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40162,7 +40162,7 @@
         <v>44623</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40219,7 +40219,7 @@
         <v>44624</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40276,7 +40276,7 @@
         <v>44624</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40333,7 +40333,7 @@
         <v>44643</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40390,7 +40390,7 @@
         <v>44645</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40447,7 +40447,7 @@
         <v>44651</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40504,7 +40504,7 @@
         <v>44651</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40566,7 +40566,7 @@
         <v>44655</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40623,7 +40623,7 @@
         <v>44673</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40680,7 +40680,7 @@
         <v>44676</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40737,7 +40737,7 @@
         <v>44683</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40794,7 +40794,7 @@
         <v>44686</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40856,7 +40856,7 @@
         <v>44694</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40913,7 +40913,7 @@
         <v>44705</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40970,7 +40970,7 @@
         <v>44712</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41027,7 +41027,7 @@
         <v>44713</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41084,7 +41084,7 @@
         <v>44714</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41141,7 +41141,7 @@
         <v>44719</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41198,7 +41198,7 @@
         <v>44725</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41255,7 +41255,7 @@
         <v>44725</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41312,7 +41312,7 @@
         <v>44741</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41369,7 +41369,7 @@
         <v>44749</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         <v>44755</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41483,7 +41483,7 @@
         <v>44794</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41540,7 +41540,7 @@
         <v>44794</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41597,7 +41597,7 @@
         <v>44811</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41654,7 +41654,7 @@
         <v>44811</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41711,7 +41711,7 @@
         <v>44819</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41768,7 +41768,7 @@
         <v>44824</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41825,7 +41825,7 @@
         <v>44826</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41882,7 +41882,7 @@
         <v>44827</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41939,7 +41939,7 @@
         <v>44827</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41996,7 +41996,7 @@
         <v>44827</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42053,7 +42053,7 @@
         <v>44827</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42110,7 +42110,7 @@
         <v>44827</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42167,7 +42167,7 @@
         <v>44827</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42224,7 +42224,7 @@
         <v>44831</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42281,7 +42281,7 @@
         <v>44831</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42338,7 +42338,7 @@
         <v>44831</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42395,7 +42395,7 @@
         <v>44833</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42452,7 +42452,7 @@
         <v>44833</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42509,7 +42509,7 @@
         <v>44834</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42566,7 +42566,7 @@
         <v>44846</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42623,7 +42623,7 @@
         <v>44862</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42685,7 +42685,7 @@
         <v>44875</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42742,7 +42742,7 @@
         <v>44876</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42799,7 +42799,7 @@
         <v>44880</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42856,7 +42856,7 @@
         <v>44882</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42913,7 +42913,7 @@
         <v>44893</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42975,7 +42975,7 @@
         <v>44894</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43032,7 +43032,7 @@
         <v>44895</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43094,7 +43094,7 @@
         <v>44901</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43156,7 +43156,7 @@
         <v>44910</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43213,7 +43213,7 @@
         <v>44917</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43270,7 +43270,7 @@
         <v>44928</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43332,7 +43332,7 @@
         <v>44928</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43389,7 +43389,7 @@
         <v>44935</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43446,7 +43446,7 @@
         <v>44938</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43503,7 +43503,7 @@
         <v>44939</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43560,7 +43560,7 @@
         <v>44939</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43617,7 +43617,7 @@
         <v>44942</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43674,7 +43674,7 @@
         <v>44942</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43731,7 +43731,7 @@
         <v>44943</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43788,7 +43788,7 @@
         <v>44952</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43845,7 +43845,7 @@
         <v>44960</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43907,7 +43907,7 @@
         <v>44963</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43964,7 +43964,7 @@
         <v>44966</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44021,7 +44021,7 @@
         <v>44970</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44078,7 +44078,7 @@
         <v>44971</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44135,7 +44135,7 @@
         <v>44971</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44192,7 +44192,7 @@
         <v>44977</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44249,7 +44249,7 @@
         <v>44988</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         <v>44988</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44363,7 +44363,7 @@
         <v>44991</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44420,7 +44420,7 @@
         <v>44994</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44477,7 +44477,7 @@
         <v>44995</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44534,7 +44534,7 @@
         <v>44999</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44591,7 +44591,7 @@
         <v>45007</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44648,7 +44648,7 @@
         <v>45013</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44705,7 +44705,7 @@
         <v>45013</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44762,7 +44762,7 @@
         <v>45016</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44819,7 +44819,7 @@
         <v>45016</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44876,7 +44876,7 @@
         <v>45016</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44933,7 +44933,7 @@
         <v>45026</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44990,7 +44990,7 @@
         <v>45028</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45047,7 +45047,7 @@
         <v>45030</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45109,7 +45109,7 @@
         <v>45030</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45171,7 +45171,7 @@
         <v>45033</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45228,7 +45228,7 @@
         <v>45047</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45285,7 +45285,7 @@
         <v>45048</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45342,7 +45342,7 @@
         <v>45049</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45399,7 +45399,7 @@
         <v>45054</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45456,7 +45456,7 @@
         <v>45054</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45513,7 +45513,7 @@
         <v>45054</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45570,7 +45570,7 @@
         <v>45054</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45627,7 +45627,7 @@
         <v>45055</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45684,7 +45684,7 @@
         <v>45061</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45746,7 +45746,7 @@
         <v>45061</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45803,7 +45803,7 @@
         <v>45063</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45860,7 +45860,7 @@
         <v>45070</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45917,7 +45917,7 @@
         <v>45071</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45974,7 +45974,7 @@
         <v>45071</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46031,7 +46031,7 @@
         <v>45071</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46088,7 +46088,7 @@
         <v>45077</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46145,7 +46145,7 @@
         <v>45079</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46202,7 +46202,7 @@
         <v>45079</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46259,7 +46259,7 @@
         <v>45079</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46316,7 +46316,7 @@
         <v>45081</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46373,7 +46373,7 @@
         <v>45085</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46430,7 +46430,7 @@
         <v>45092</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46487,7 +46487,7 @@
         <v>45093</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46564,7 +46564,7 @@
         <v>45099</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46621,7 +46621,7 @@
         <v>45099</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46678,7 +46678,7 @@
         <v>45099</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46735,7 +46735,7 @@
         <v>45099</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46792,7 +46792,7 @@
         <v>45099</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46849,7 +46849,7 @@
         <v>45099</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46906,7 +46906,7 @@
         <v>45099</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46963,7 +46963,7 @@
         <v>45099</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47020,7 +47020,7 @@
         <v>45099</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47077,7 +47077,7 @@
         <v>45099</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47134,7 +47134,7 @@
         <v>45099</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47191,7 +47191,7 @@
         <v>45099</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47248,7 +47248,7 @@
         <v>45103</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47305,7 +47305,7 @@
         <v>45104</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47362,7 +47362,7 @@
         <v>45105</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47419,7 +47419,7 @@
         <v>45113</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47476,7 +47476,7 @@
         <v>45113</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47533,7 +47533,7 @@
         <v>45127</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47590,7 +47590,7 @@
         <v>45127</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47647,7 +47647,7 @@
         <v>45148</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47704,7 +47704,7 @@
         <v>45149</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47761,7 +47761,7 @@
         <v>45153</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47818,7 +47818,7 @@
         <v>45160</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47875,7 +47875,7 @@
         <v>45161</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47932,7 +47932,7 @@
         <v>45168</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47994,7 +47994,7 @@
         <v>45168</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48051,7 +48051,7 @@
         <v>45168</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48113,7 +48113,7 @@
         <v>45180</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>

--- a/Översikt HULTSFRED.xlsx
+++ b/Översikt HULTSFRED.xlsx
@@ -572,7 +572,7 @@
         <v>43874</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -646,31 +646,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 8231-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 8231-2020.xlsx", "A 8231-2020")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 8231-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 8231-2020.png", "A 8231-2020")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/knärot/A 8231-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/knärot/A 8231-2020.png", "A 8231-2020")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 8231-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 8231-2020.docx", "A 8231-2020")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 8231-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 8231-2020.docx", "A 8231-2020")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 8231-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 8231-2020.docx", "A 8231-2020")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 8231-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 8231-2020.docx", "A 8231-2020")</f>
         <v/>
       </c>
     </row>
@@ -684,7 +684,7 @@
         <v>44894</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,31 +749,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 56955-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 56955-2022.xlsx", "A 56955-2022")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 56955-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 56955-2022.png", "A 56955-2022")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/knärot/A 56955-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/knärot/A 56955-2022.png", "A 56955-2022")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 56955-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 56955-2022.docx", "A 56955-2022")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 56955-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 56955-2022.docx", "A 56955-2022")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 56955-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 56955-2022.docx", "A 56955-2022")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 56955-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 56955-2022.docx", "A 56955-2022")</f>
         <v/>
       </c>
     </row>
@@ -787,7 +787,7 @@
         <v>44468</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,27 +855,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 53293-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 53293-2021.xlsx", "A 53293-2021")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 53293-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 53293-2021.png", "A 53293-2021")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 53293-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 53293-2021.docx", "A 53293-2021")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 53293-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 53293-2021.docx", "A 53293-2021")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 53293-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 53293-2021.docx", "A 53293-2021")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 53293-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 53293-2021.docx", "A 53293-2021")</f>
         <v/>
       </c>
     </row>
@@ -889,7 +889,7 @@
         <v>44175</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,31 +950,31 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 66612-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 66612-2020.xlsx", "A 66612-2020")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 66612-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 66612-2020.png", "A 66612-2020")</f>
         <v/>
       </c>
       <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/knärot/A 66612-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/knärot/A 66612-2020.png", "A 66612-2020")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 66612-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 66612-2020.docx", "A 66612-2020")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 66612-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 66612-2020.docx", "A 66612-2020")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 66612-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 66612-2020.docx", "A 66612-2020")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 66612-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 66612-2020.docx", "A 66612-2020")</f>
         <v/>
       </c>
     </row>
@@ -988,7 +988,7 @@
         <v>43753</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1046,27 +1046,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 54156-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 54156-2019.xlsx", "A 54156-2019")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 54156-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 54156-2019.png", "A 54156-2019")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 54156-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 54156-2019.docx", "A 54156-2019")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 54156-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 54156-2019.docx", "A 54156-2019")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 54156-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 54156-2019.docx", "A 54156-2019")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 54156-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 54156-2019.docx", "A 54156-2019")</f>
         <v/>
       </c>
     </row>
@@ -1080,7 +1080,7 @@
         <v>43921</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1137,31 +1137,31 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 17061-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 17061-2020.xlsx", "A 17061-2020")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 17061-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 17061-2020.png", "A 17061-2020")</f>
         <v/>
       </c>
       <c r="U7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/knärot/A 17061-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/knärot/A 17061-2020.png", "A 17061-2020")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 17061-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 17061-2020.docx", "A 17061-2020")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 17061-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 17061-2020.docx", "A 17061-2020")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 17061-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 17061-2020.docx", "A 17061-2020")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 17061-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 17061-2020.docx", "A 17061-2020")</f>
         <v/>
       </c>
     </row>
@@ -1175,7 +1175,7 @@
         <v>44069</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1231,27 +1231,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 40640-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 40640-2020.xlsx", "A 40640-2020")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 40640-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 40640-2020.png", "A 40640-2020")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 40640-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 40640-2020.docx", "A 40640-2020")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 40640-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 40640-2020.docx", "A 40640-2020")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 40640-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 40640-2020.docx", "A 40640-2020")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 40640-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 40640-2020.docx", "A 40640-2020")</f>
         <v/>
       </c>
     </row>
@@ -1265,7 +1265,7 @@
         <v>43438</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,27 +1320,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 68401-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 68401-2018.xlsx", "A 68401-2018")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 68401-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 68401-2018.png", "A 68401-2018")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 68401-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 68401-2018.docx", "A 68401-2018")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 68401-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 68401-2018.docx", "A 68401-2018")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 68401-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 68401-2018.docx", "A 68401-2018")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 68401-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 68401-2018.docx", "A 68401-2018")</f>
         <v/>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
         <v>43507</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1409,27 +1409,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 9408-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 9408-2019.xlsx", "A 9408-2019")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 9408-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 9408-2019.png", "A 9408-2019")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 9408-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 9408-2019.docx", "A 9408-2019")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 9408-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 9408-2019.docx", "A 9408-2019")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 9408-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 9408-2019.docx", "A 9408-2019")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 9408-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 9408-2019.docx", "A 9408-2019")</f>
         <v/>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
         <v>43845</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1503,31 +1503,31 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 2085-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 2085-2020.xlsx", "A 2085-2020")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 2085-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 2085-2020.png", "A 2085-2020")</f>
         <v/>
       </c>
       <c r="U11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/knärot/A 2085-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/knärot/A 2085-2020.png", "A 2085-2020")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 2085-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 2085-2020.docx", "A 2085-2020")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 2085-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 2085-2020.docx", "A 2085-2020")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 2085-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 2085-2020.docx", "A 2085-2020")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 2085-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 2085-2020.docx", "A 2085-2020")</f>
         <v/>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
         <v>43916</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1596,27 +1596,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 16102-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 16102-2020.xlsx", "A 16102-2020")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 16102-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 16102-2020.png", "A 16102-2020")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 16102-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 16102-2020.docx", "A 16102-2020")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 16102-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 16102-2020.docx", "A 16102-2020")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 16102-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 16102-2020.docx", "A 16102-2020")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 16102-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 16102-2020.docx", "A 16102-2020")</f>
         <v/>
       </c>
     </row>
@@ -1630,7 +1630,7 @@
         <v>43986</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1690,27 +1690,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 26222-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 26222-2020.xlsx", "A 26222-2020")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 26222-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 26222-2020.png", "A 26222-2020")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 26222-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 26222-2020.docx", "A 26222-2020")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 26222-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 26222-2020.docx", "A 26222-2020")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 26222-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 26222-2020.docx", "A 26222-2020")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 26222-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 26222-2020.docx", "A 26222-2020")</f>
         <v/>
       </c>
     </row>
@@ -1724,7 +1724,7 @@
         <v>43426</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1778,27 +1778,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 63237-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 63237-2018.xlsx", "A 63237-2018")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 63237-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 63237-2018.png", "A 63237-2018")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 63237-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 63237-2018.docx", "A 63237-2018")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 63237-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 63237-2018.docx", "A 63237-2018")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 63237-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 63237-2018.docx", "A 63237-2018")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 63237-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 63237-2018.docx", "A 63237-2018")</f>
         <v/>
       </c>
     </row>
@@ -1812,7 +1812,7 @@
         <v>43447</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1871,31 +1871,31 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 70687-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 70687-2018.xlsx", "A 70687-2018")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 70687-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 70687-2018.png", "A 70687-2018")</f>
         <v/>
       </c>
       <c r="U15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/knärot/A 70687-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/knärot/A 70687-2018.png", "A 70687-2018")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 70687-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 70687-2018.docx", "A 70687-2018")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 70687-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 70687-2018.docx", "A 70687-2018")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 70687-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 70687-2018.docx", "A 70687-2018")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 70687-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 70687-2018.docx", "A 70687-2018")</f>
         <v/>
       </c>
     </row>
@@ -1909,7 +1909,7 @@
         <v>43874</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1968,31 +1968,31 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 8226-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 8226-2020.xlsx", "A 8226-2020")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 8226-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 8226-2020.png", "A 8226-2020")</f>
         <v/>
       </c>
       <c r="U16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/knärot/A 8226-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/knärot/A 8226-2020.png", "A 8226-2020")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 8226-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 8226-2020.docx", "A 8226-2020")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 8226-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 8226-2020.docx", "A 8226-2020")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 8226-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 8226-2020.docx", "A 8226-2020")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 8226-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 8226-2020.docx", "A 8226-2020")</f>
         <v/>
       </c>
     </row>
@@ -2006,7 +2006,7 @@
         <v>44258</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2060,31 +2060,31 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 10511-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 10511-2021.xlsx", "A 10511-2021")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 10511-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 10511-2021.png", "A 10511-2021")</f>
         <v/>
       </c>
       <c r="U17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/knärot/A 10511-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/knärot/A 10511-2021.png", "A 10511-2021")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 10511-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 10511-2021.docx", "A 10511-2021")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 10511-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 10511-2021.docx", "A 10511-2021")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 10511-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 10511-2021.docx", "A 10511-2021")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 10511-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 10511-2021.docx", "A 10511-2021")</f>
         <v/>
       </c>
     </row>
@@ -2098,7 +2098,7 @@
         <v>44474</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2152,31 +2152,31 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 55135-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 55135-2021.xlsx", "A 55135-2021")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 55135-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 55135-2021.png", "A 55135-2021")</f>
         <v/>
       </c>
       <c r="U18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/knärot/A 55135-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/knärot/A 55135-2021.png", "A 55135-2021")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 55135-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 55135-2021.docx", "A 55135-2021")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 55135-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 55135-2021.docx", "A 55135-2021")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 55135-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 55135-2021.docx", "A 55135-2021")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 55135-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 55135-2021.docx", "A 55135-2021")</f>
         <v/>
       </c>
     </row>
@@ -2190,7 +2190,7 @@
         <v>44551</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2244,31 +2244,31 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 73465-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 73465-2021.xlsx", "A 73465-2021")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 73465-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 73465-2021.png", "A 73465-2021")</f>
         <v/>
       </c>
       <c r="U19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/knärot/A 73465-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/knärot/A 73465-2021.png", "A 73465-2021")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 73465-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 73465-2021.docx", "A 73465-2021")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 73465-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 73465-2021.docx", "A 73465-2021")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 73465-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 73465-2021.docx", "A 73465-2021")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 73465-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 73465-2021.docx", "A 73465-2021")</f>
         <v/>
       </c>
     </row>
@@ -2282,7 +2282,7 @@
         <v>44224</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2335,27 +2335,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 4574-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 4574-2021.xlsx", "A 4574-2021")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 4574-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 4574-2021.png", "A 4574-2021")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 4574-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 4574-2021.docx", "A 4574-2021")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 4574-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 4574-2021.docx", "A 4574-2021")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 4574-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 4574-2021.docx", "A 4574-2021")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 4574-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 4574-2021.docx", "A 4574-2021")</f>
         <v/>
       </c>
     </row>
@@ -2369,7 +2369,7 @@
         <v>44641</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2427,27 +2427,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 12711-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 12711-2022.xlsx", "A 12711-2022")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 12711-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 12711-2022.png", "A 12711-2022")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 12711-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 12711-2022.docx", "A 12711-2022")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 12711-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 12711-2022.docx", "A 12711-2022")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 12711-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 12711-2022.docx", "A 12711-2022")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 12711-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 12711-2022.docx", "A 12711-2022")</f>
         <v/>
       </c>
     </row>
@@ -2461,7 +2461,7 @@
         <v>44809</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2514,27 +2514,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 37603-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 37603-2022.xlsx", "A 37603-2022")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 37603-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 37603-2022.png", "A 37603-2022")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 37603-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 37603-2022.docx", "A 37603-2022")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 37603-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 37603-2022.docx", "A 37603-2022")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 37603-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 37603-2022.docx", "A 37603-2022")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 37603-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 37603-2022.docx", "A 37603-2022")</f>
         <v/>
       </c>
     </row>
@@ -2548,7 +2548,7 @@
         <v>44822</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2601,27 +2601,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 40302-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 40302-2022.xlsx", "A 40302-2022")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 40302-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 40302-2022.png", "A 40302-2022")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 40302-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 40302-2022.docx", "A 40302-2022")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 40302-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 40302-2022.docx", "A 40302-2022")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 40302-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 40302-2022.docx", "A 40302-2022")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 40302-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 40302-2022.docx", "A 40302-2022")</f>
         <v/>
       </c>
     </row>
@@ -2635,7 +2635,7 @@
         <v>45026</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2688,27 +2688,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 16469-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 16469-2023.xlsx", "A 16469-2023")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 16469-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 16469-2023.png", "A 16469-2023")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 16469-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 16469-2023.docx", "A 16469-2023")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 16469-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 16469-2023.docx", "A 16469-2023")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 16469-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 16469-2023.docx", "A 16469-2023")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 16469-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 16469-2023.docx", "A 16469-2023")</f>
         <v/>
       </c>
     </row>
@@ -2722,7 +2722,7 @@
         <v>43343</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2774,27 +2774,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 40087-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 40087-2018.xlsx", "A 40087-2018")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 40087-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 40087-2018.png", "A 40087-2018")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 40087-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 40087-2018.docx", "A 40087-2018")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 40087-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 40087-2018.docx", "A 40087-2018")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 40087-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 40087-2018.docx", "A 40087-2018")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 40087-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 40087-2018.docx", "A 40087-2018")</f>
         <v/>
       </c>
     </row>
@@ -2808,7 +2808,7 @@
         <v>43405</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2860,27 +2860,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 60296-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 60296-2018.xlsx", "A 60296-2018")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 60296-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 60296-2018.png", "A 60296-2018")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 60296-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 60296-2018.docx", "A 60296-2018")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 60296-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 60296-2018.docx", "A 60296-2018")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 60296-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 60296-2018.docx", "A 60296-2018")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 60296-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 60296-2018.docx", "A 60296-2018")</f>
         <v/>
       </c>
     </row>
@@ -2894,7 +2894,7 @@
         <v>43418</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2946,27 +2946,27 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 63122-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 63122-2018.xlsx", "A 63122-2018")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 63122-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 63122-2018.png", "A 63122-2018")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 63122-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 63122-2018.docx", "A 63122-2018")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 63122-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 63122-2018.docx", "A 63122-2018")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 63122-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 63122-2018.docx", "A 63122-2018")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 63122-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 63122-2018.docx", "A 63122-2018")</f>
         <v/>
       </c>
     </row>
@@ -2980,7 +2980,7 @@
         <v>43419</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3032,27 +3032,27 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 59943-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 59943-2018.xlsx", "A 59943-2018")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 59943-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 59943-2018.png", "A 59943-2018")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 59943-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 59943-2018.docx", "A 59943-2018")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 59943-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 59943-2018.docx", "A 59943-2018")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 59943-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 59943-2018.docx", "A 59943-2018")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 59943-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 59943-2018.docx", "A 59943-2018")</f>
         <v/>
       </c>
     </row>
@@ -3066,7 +3066,7 @@
         <v>43489</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3118,27 +3118,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 5642-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 5642-2019.xlsx", "A 5642-2019")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 5642-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 5642-2019.png", "A 5642-2019")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 5642-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 5642-2019.docx", "A 5642-2019")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 5642-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 5642-2019.docx", "A 5642-2019")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 5642-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 5642-2019.docx", "A 5642-2019")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 5642-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 5642-2019.docx", "A 5642-2019")</f>
         <v/>
       </c>
     </row>
@@ -3152,7 +3152,7 @@
         <v>43682</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3204,27 +3204,27 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 37778-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 37778-2019.xlsx", "A 37778-2019")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 37778-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 37778-2019.png", "A 37778-2019")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 37778-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 37778-2019.docx", "A 37778-2019")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 37778-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 37778-2019.docx", "A 37778-2019")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 37778-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 37778-2019.docx", "A 37778-2019")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 37778-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 37778-2019.docx", "A 37778-2019")</f>
         <v/>
       </c>
     </row>
@@ -3238,7 +3238,7 @@
         <v>44060</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3290,27 +3290,27 @@
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 38434-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 38434-2020.xlsx", "A 38434-2020")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 38434-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 38434-2020.png", "A 38434-2020")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 38434-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 38434-2020.docx", "A 38434-2020")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 38434-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 38434-2020.docx", "A 38434-2020")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 38434-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 38434-2020.docx", "A 38434-2020")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 38434-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 38434-2020.docx", "A 38434-2020")</f>
         <v/>
       </c>
     </row>
@@ -3324,7 +3324,7 @@
         <v>44083</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3376,27 +3376,27 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 43921-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 43921-2020.xlsx", "A 43921-2020")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 43921-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 43921-2020.png", "A 43921-2020")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 43921-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 43921-2020.docx", "A 43921-2020")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 43921-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 43921-2020.docx", "A 43921-2020")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 43921-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 43921-2020.docx", "A 43921-2020")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 43921-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 43921-2020.docx", "A 43921-2020")</f>
         <v/>
       </c>
     </row>
@@ -3410,7 +3410,7 @@
         <v>44098</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3462,31 +3462,31 @@
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 47493-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 47493-2020.xlsx", "A 47493-2020")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 47493-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 47493-2020.png", "A 47493-2020")</f>
         <v/>
       </c>
       <c r="U33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/knärot/A 47493-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/knärot/A 47493-2020.png", "A 47493-2020")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 47493-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 47493-2020.docx", "A 47493-2020")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 47493-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 47493-2020.docx", "A 47493-2020")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 47493-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 47493-2020.docx", "A 47493-2020")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 47493-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 47493-2020.docx", "A 47493-2020")</f>
         <v/>
       </c>
     </row>
@@ -3500,7 +3500,7 @@
         <v>44235</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3552,27 +3552,27 @@
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 6384-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 6384-2021.xlsx", "A 6384-2021")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 6384-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 6384-2021.png", "A 6384-2021")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 6384-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 6384-2021.docx", "A 6384-2021")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 6384-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 6384-2021.docx", "A 6384-2021")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 6384-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 6384-2021.docx", "A 6384-2021")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 6384-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 6384-2021.docx", "A 6384-2021")</f>
         <v/>
       </c>
     </row>
@@ -3586,7 +3586,7 @@
         <v>44235</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3638,27 +3638,27 @@
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 6396-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 6396-2021.xlsx", "A 6396-2021")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 6396-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 6396-2021.png", "A 6396-2021")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 6396-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 6396-2021.docx", "A 6396-2021")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 6396-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 6396-2021.docx", "A 6396-2021")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 6396-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 6396-2021.docx", "A 6396-2021")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 6396-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 6396-2021.docx", "A 6396-2021")</f>
         <v/>
       </c>
     </row>
@@ -3672,7 +3672,7 @@
         <v>44278</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3724,27 +3724,27 @@
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 14246-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 14246-2021.xlsx", "A 14246-2021")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 14246-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 14246-2021.png", "A 14246-2021")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 14246-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 14246-2021.docx", "A 14246-2021")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 14246-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 14246-2021.docx", "A 14246-2021")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 14246-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 14246-2021.docx", "A 14246-2021")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 14246-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 14246-2021.docx", "A 14246-2021")</f>
         <v/>
       </c>
     </row>
@@ -3758,7 +3758,7 @@
         <v>44280</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3810,27 +3810,27 @@
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 14626-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 14626-2021.xlsx", "A 14626-2021")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 14626-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 14626-2021.png", "A 14626-2021")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 14626-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 14626-2021.docx", "A 14626-2021")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 14626-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 14626-2021.docx", "A 14626-2021")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 14626-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 14626-2021.docx", "A 14626-2021")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 14626-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 14626-2021.docx", "A 14626-2021")</f>
         <v/>
       </c>
     </row>
@@ -3844,7 +3844,7 @@
         <v>44468</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3901,27 +3901,27 @@
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 53295-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 53295-2021.xlsx", "A 53295-2021")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 53295-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 53295-2021.png", "A 53295-2021")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 53295-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 53295-2021.docx", "A 53295-2021")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 53295-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 53295-2021.docx", "A 53295-2021")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 53295-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 53295-2021.docx", "A 53295-2021")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 53295-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 53295-2021.docx", "A 53295-2021")</f>
         <v/>
       </c>
     </row>
@@ -3935,7 +3935,7 @@
         <v>44559</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3987,27 +3987,27 @@
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 74390-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 74390-2021.xlsx", "A 74390-2021")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 74390-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 74390-2021.png", "A 74390-2021")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 74390-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 74390-2021.docx", "A 74390-2021")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 74390-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 74390-2021.docx", "A 74390-2021")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 74390-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 74390-2021.docx", "A 74390-2021")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 74390-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 74390-2021.docx", "A 74390-2021")</f>
         <v/>
       </c>
     </row>
@@ -4021,7 +4021,7 @@
         <v>44565</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4073,27 +4073,27 @@
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 251-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 251-2022.xlsx", "A 251-2022")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 251-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 251-2022.png", "A 251-2022")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 251-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 251-2022.docx", "A 251-2022")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 251-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 251-2022.docx", "A 251-2022")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 251-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 251-2022.docx", "A 251-2022")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 251-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 251-2022.docx", "A 251-2022")</f>
         <v/>
       </c>
     </row>
@@ -4107,7 +4107,7 @@
         <v>44909</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4164,27 +4164,27 @@
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 61429-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 61429-2022.xlsx", "A 61429-2022")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 61429-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 61429-2022.png", "A 61429-2022")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 61429-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 61429-2022.docx", "A 61429-2022")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 61429-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 61429-2022.docx", "A 61429-2022")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 61429-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 61429-2022.docx", "A 61429-2022")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 61429-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 61429-2022.docx", "A 61429-2022")</f>
         <v/>
       </c>
     </row>
@@ -4198,7 +4198,7 @@
         <v>45053</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4250,31 +4250,31 @@
         </is>
       </c>
       <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 19845-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 19845-2023.xlsx", "A 19845-2023")</f>
         <v/>
       </c>
       <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 19845-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 19845-2023.png", "A 19845-2023")</f>
         <v/>
       </c>
       <c r="U42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/knärot/A 19845-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/knärot/A 19845-2023.png", "A 19845-2023")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 19845-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 19845-2023.docx", "A 19845-2023")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 19845-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 19845-2023.docx", "A 19845-2023")</f>
         <v/>
       </c>
       <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 19845-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 19845-2023.docx", "A 19845-2023")</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 19845-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 19845-2023.docx", "A 19845-2023")</f>
         <v/>
       </c>
     </row>
@@ -4288,7 +4288,7 @@
         <v>43438</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4339,27 +4339,27 @@
         </is>
       </c>
       <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 66856-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 66856-2018.xlsx", "A 66856-2018")</f>
         <v/>
       </c>
       <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 66856-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 66856-2018.png", "A 66856-2018")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 66856-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 66856-2018.docx", "A 66856-2018")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 66856-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 66856-2018.docx", "A 66856-2018")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 66856-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 66856-2018.docx", "A 66856-2018")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 66856-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 66856-2018.docx", "A 66856-2018")</f>
         <v/>
       </c>
     </row>
@@ -4373,7 +4373,7 @@
         <v>43493</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4429,27 +4429,27 @@
         </is>
       </c>
       <c r="S44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 6325-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 6325-2019.xlsx", "A 6325-2019")</f>
         <v/>
       </c>
       <c r="T44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 6325-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 6325-2019.png", "A 6325-2019")</f>
         <v/>
       </c>
       <c r="V44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 6325-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 6325-2019.docx", "A 6325-2019")</f>
         <v/>
       </c>
       <c r="W44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 6325-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 6325-2019.docx", "A 6325-2019")</f>
         <v/>
       </c>
       <c r="X44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 6325-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 6325-2019.docx", "A 6325-2019")</f>
         <v/>
       </c>
       <c r="Y44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 6325-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 6325-2019.docx", "A 6325-2019")</f>
         <v/>
       </c>
     </row>
@@ -4463,7 +4463,7 @@
         <v>43545</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4514,27 +4514,27 @@
         </is>
       </c>
       <c r="S45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 16332-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 16332-2019.xlsx", "A 16332-2019")</f>
         <v/>
       </c>
       <c r="T45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 16332-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 16332-2019.png", "A 16332-2019")</f>
         <v/>
       </c>
       <c r="V45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 16332-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 16332-2019.docx", "A 16332-2019")</f>
         <v/>
       </c>
       <c r="W45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 16332-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 16332-2019.docx", "A 16332-2019")</f>
         <v/>
       </c>
       <c r="X45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 16332-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 16332-2019.docx", "A 16332-2019")</f>
         <v/>
       </c>
       <c r="Y45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 16332-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 16332-2019.docx", "A 16332-2019")</f>
         <v/>
       </c>
     </row>
@@ -4548,7 +4548,7 @@
         <v>43591</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4599,31 +4599,31 @@
         </is>
       </c>
       <c r="S46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 22903-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 22903-2019.xlsx", "A 22903-2019")</f>
         <v/>
       </c>
       <c r="T46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 22903-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 22903-2019.png", "A 22903-2019")</f>
         <v/>
       </c>
       <c r="U46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/knärot/A 22903-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/knärot/A 22903-2019.png", "A 22903-2019")</f>
         <v/>
       </c>
       <c r="V46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 22903-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 22903-2019.docx", "A 22903-2019")</f>
         <v/>
       </c>
       <c r="W46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 22903-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 22903-2019.docx", "A 22903-2019")</f>
         <v/>
       </c>
       <c r="X46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 22903-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 22903-2019.docx", "A 22903-2019")</f>
         <v/>
       </c>
       <c r="Y46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 22903-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 22903-2019.docx", "A 22903-2019")</f>
         <v/>
       </c>
     </row>
@@ -4637,7 +4637,7 @@
         <v>43702</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4688,27 +4688,27 @@
         </is>
       </c>
       <c r="S47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 42104-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 42104-2019.xlsx", "A 42104-2019")</f>
         <v/>
       </c>
       <c r="T47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 42104-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 42104-2019.png", "A 42104-2019")</f>
         <v/>
       </c>
       <c r="V47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 42104-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 42104-2019.docx", "A 42104-2019")</f>
         <v/>
       </c>
       <c r="W47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 42104-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 42104-2019.docx", "A 42104-2019")</f>
         <v/>
       </c>
       <c r="X47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 42104-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 42104-2019.docx", "A 42104-2019")</f>
         <v/>
       </c>
       <c r="Y47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 42104-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 42104-2019.docx", "A 42104-2019")</f>
         <v/>
       </c>
     </row>
@@ -4722,7 +4722,7 @@
         <v>43889</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4778,27 +4778,27 @@
         </is>
       </c>
       <c r="S48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 10864-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 10864-2020.xlsx", "A 10864-2020")</f>
         <v/>
       </c>
       <c r="T48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 10864-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 10864-2020.png", "A 10864-2020")</f>
         <v/>
       </c>
       <c r="V48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 10864-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 10864-2020.docx", "A 10864-2020")</f>
         <v/>
       </c>
       <c r="W48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 10864-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 10864-2020.docx", "A 10864-2020")</f>
         <v/>
       </c>
       <c r="X48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 10864-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 10864-2020.docx", "A 10864-2020")</f>
         <v/>
       </c>
       <c r="Y48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 10864-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 10864-2020.docx", "A 10864-2020")</f>
         <v/>
       </c>
     </row>
@@ -4812,7 +4812,7 @@
         <v>43902</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4863,31 +4863,31 @@
         </is>
       </c>
       <c r="S49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 13471-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 13471-2020.xlsx", "A 13471-2020")</f>
         <v/>
       </c>
       <c r="T49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 13471-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 13471-2020.png", "A 13471-2020")</f>
         <v/>
       </c>
       <c r="U49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/knärot/A 13471-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/knärot/A 13471-2020.png", "A 13471-2020")</f>
         <v/>
       </c>
       <c r="V49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 13471-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 13471-2020.docx", "A 13471-2020")</f>
         <v/>
       </c>
       <c r="W49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 13471-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 13471-2020.docx", "A 13471-2020")</f>
         <v/>
       </c>
       <c r="X49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 13471-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 13471-2020.docx", "A 13471-2020")</f>
         <v/>
       </c>
       <c r="Y49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 13471-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 13471-2020.docx", "A 13471-2020")</f>
         <v/>
       </c>
     </row>
@@ -4901,7 +4901,7 @@
         <v>43920</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4952,27 +4952,27 @@
         </is>
       </c>
       <c r="S50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 17491-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 17491-2020.xlsx", "A 17491-2020")</f>
         <v/>
       </c>
       <c r="T50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 17491-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 17491-2020.png", "A 17491-2020")</f>
         <v/>
       </c>
       <c r="V50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 17491-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 17491-2020.docx", "A 17491-2020")</f>
         <v/>
       </c>
       <c r="W50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 17491-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 17491-2020.docx", "A 17491-2020")</f>
         <v/>
       </c>
       <c r="X50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 17491-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 17491-2020.docx", "A 17491-2020")</f>
         <v/>
       </c>
       <c r="Y50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 17491-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 17491-2020.docx", "A 17491-2020")</f>
         <v/>
       </c>
     </row>
@@ -4986,7 +4986,7 @@
         <v>43962</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5037,27 +5037,27 @@
         </is>
       </c>
       <c r="S51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 22391-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 22391-2020.xlsx", "A 22391-2020")</f>
         <v/>
       </c>
       <c r="T51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 22391-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 22391-2020.png", "A 22391-2020")</f>
         <v/>
       </c>
       <c r="V51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 22391-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 22391-2020.docx", "A 22391-2020")</f>
         <v/>
       </c>
       <c r="W51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 22391-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 22391-2020.docx", "A 22391-2020")</f>
         <v/>
       </c>
       <c r="X51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 22391-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 22391-2020.docx", "A 22391-2020")</f>
         <v/>
       </c>
       <c r="Y51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 22391-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 22391-2020.docx", "A 22391-2020")</f>
         <v/>
       </c>
     </row>
@@ -5071,7 +5071,7 @@
         <v>44053</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5127,27 +5127,27 @@
         </is>
       </c>
       <c r="S52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 36717-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 36717-2020.xlsx", "A 36717-2020")</f>
         <v/>
       </c>
       <c r="T52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 36717-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 36717-2020.png", "A 36717-2020")</f>
         <v/>
       </c>
       <c r="V52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 36717-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 36717-2020.docx", "A 36717-2020")</f>
         <v/>
       </c>
       <c r="W52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 36717-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 36717-2020.docx", "A 36717-2020")</f>
         <v/>
       </c>
       <c r="X52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 36717-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 36717-2020.docx", "A 36717-2020")</f>
         <v/>
       </c>
       <c r="Y52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 36717-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 36717-2020.docx", "A 36717-2020")</f>
         <v/>
       </c>
     </row>
@@ -5161,7 +5161,7 @@
         <v>44124</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5212,27 +5212,27 @@
         </is>
       </c>
       <c r="S53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 53706-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 53706-2020.xlsx", "A 53706-2020")</f>
         <v/>
       </c>
       <c r="T53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 53706-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 53706-2020.png", "A 53706-2020")</f>
         <v/>
       </c>
       <c r="V53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 53706-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 53706-2020.docx", "A 53706-2020")</f>
         <v/>
       </c>
       <c r="W53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 53706-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 53706-2020.docx", "A 53706-2020")</f>
         <v/>
       </c>
       <c r="X53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 53706-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 53706-2020.docx", "A 53706-2020")</f>
         <v/>
       </c>
       <c r="Y53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 53706-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 53706-2020.docx", "A 53706-2020")</f>
         <v/>
       </c>
     </row>
@@ -5246,7 +5246,7 @@
         <v>44159</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5297,27 +5297,27 @@
         </is>
       </c>
       <c r="S54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 62137-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 62137-2020.xlsx", "A 62137-2020")</f>
         <v/>
       </c>
       <c r="T54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 62137-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 62137-2020.png", "A 62137-2020")</f>
         <v/>
       </c>
       <c r="V54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 62137-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 62137-2020.docx", "A 62137-2020")</f>
         <v/>
       </c>
       <c r="W54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 62137-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 62137-2020.docx", "A 62137-2020")</f>
         <v/>
       </c>
       <c r="X54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 62137-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 62137-2020.docx", "A 62137-2020")</f>
         <v/>
       </c>
       <c r="Y54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 62137-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 62137-2020.docx", "A 62137-2020")</f>
         <v/>
       </c>
     </row>
@@ -5331,7 +5331,7 @@
         <v>44180</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5382,27 +5382,27 @@
         </is>
       </c>
       <c r="S55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 67114-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 67114-2020.xlsx", "A 67114-2020")</f>
         <v/>
       </c>
       <c r="T55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 67114-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 67114-2020.png", "A 67114-2020")</f>
         <v/>
       </c>
       <c r="V55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 67114-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 67114-2020.docx", "A 67114-2020")</f>
         <v/>
       </c>
       <c r="W55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 67114-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 67114-2020.docx", "A 67114-2020")</f>
         <v/>
       </c>
       <c r="X55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 67114-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 67114-2020.docx", "A 67114-2020")</f>
         <v/>
       </c>
       <c r="Y55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 67114-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 67114-2020.docx", "A 67114-2020")</f>
         <v/>
       </c>
     </row>
@@ -5416,7 +5416,7 @@
         <v>44295</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5467,27 +5467,27 @@
         </is>
       </c>
       <c r="S56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 16824-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 16824-2021.xlsx", "A 16824-2021")</f>
         <v/>
       </c>
       <c r="T56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 16824-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 16824-2021.png", "A 16824-2021")</f>
         <v/>
       </c>
       <c r="V56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 16824-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 16824-2021.docx", "A 16824-2021")</f>
         <v/>
       </c>
       <c r="W56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 16824-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 16824-2021.docx", "A 16824-2021")</f>
         <v/>
       </c>
       <c r="X56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 16824-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 16824-2021.docx", "A 16824-2021")</f>
         <v/>
       </c>
       <c r="Y56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 16824-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 16824-2021.docx", "A 16824-2021")</f>
         <v/>
       </c>
     </row>
@@ -5501,7 +5501,7 @@
         <v>44341</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5552,27 +5552,27 @@
         </is>
       </c>
       <c r="S57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 24939-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 24939-2021.xlsx", "A 24939-2021")</f>
         <v/>
       </c>
       <c r="T57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 24939-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 24939-2021.png", "A 24939-2021")</f>
         <v/>
       </c>
       <c r="V57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 24939-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 24939-2021.docx", "A 24939-2021")</f>
         <v/>
       </c>
       <c r="W57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 24939-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 24939-2021.docx", "A 24939-2021")</f>
         <v/>
       </c>
       <c r="X57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 24939-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 24939-2021.docx", "A 24939-2021")</f>
         <v/>
       </c>
       <c r="Y57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 24939-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 24939-2021.docx", "A 24939-2021")</f>
         <v/>
       </c>
     </row>
@@ -5586,7 +5586,7 @@
         <v>44375</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5637,27 +5637,27 @@
         </is>
       </c>
       <c r="S58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 32768-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 32768-2021.xlsx", "A 32768-2021")</f>
         <v/>
       </c>
       <c r="T58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 32768-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 32768-2021.png", "A 32768-2021")</f>
         <v/>
       </c>
       <c r="V58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 32768-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 32768-2021.docx", "A 32768-2021")</f>
         <v/>
       </c>
       <c r="W58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 32768-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 32768-2021.docx", "A 32768-2021")</f>
         <v/>
       </c>
       <c r="X58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 32768-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 32768-2021.docx", "A 32768-2021")</f>
         <v/>
       </c>
       <c r="Y58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 32768-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 32768-2021.docx", "A 32768-2021")</f>
         <v/>
       </c>
     </row>
@@ -5671,7 +5671,7 @@
         <v>44417</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5722,27 +5722,27 @@
         </is>
       </c>
       <c r="S59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 39875-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 39875-2021.xlsx", "A 39875-2021")</f>
         <v/>
       </c>
       <c r="T59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 39875-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 39875-2021.png", "A 39875-2021")</f>
         <v/>
       </c>
       <c r="V59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 39875-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 39875-2021.docx", "A 39875-2021")</f>
         <v/>
       </c>
       <c r="W59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 39875-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 39875-2021.docx", "A 39875-2021")</f>
         <v/>
       </c>
       <c r="X59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 39875-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 39875-2021.docx", "A 39875-2021")</f>
         <v/>
       </c>
       <c r="Y59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 39875-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 39875-2021.docx", "A 39875-2021")</f>
         <v/>
       </c>
     </row>
@@ -5756,7 +5756,7 @@
         <v>44455</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5807,27 +5807,27 @@
         </is>
       </c>
       <c r="S60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 49919-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 49919-2021.xlsx", "A 49919-2021")</f>
         <v/>
       </c>
       <c r="T60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 49919-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 49919-2021.png", "A 49919-2021")</f>
         <v/>
       </c>
       <c r="V60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 49919-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 49919-2021.docx", "A 49919-2021")</f>
         <v/>
       </c>
       <c r="W60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 49919-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 49919-2021.docx", "A 49919-2021")</f>
         <v/>
       </c>
       <c r="X60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 49919-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 49919-2021.docx", "A 49919-2021")</f>
         <v/>
       </c>
       <c r="Y60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 49919-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 49919-2021.docx", "A 49919-2021")</f>
         <v/>
       </c>
     </row>
@@ -5841,7 +5841,7 @@
         <v>44526</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5892,31 +5892,31 @@
         </is>
       </c>
       <c r="S61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 68096-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 68096-2021.xlsx", "A 68096-2021")</f>
         <v/>
       </c>
       <c r="T61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 68096-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 68096-2021.png", "A 68096-2021")</f>
         <v/>
       </c>
       <c r="U61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/knärot/A 68096-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/knärot/A 68096-2021.png", "A 68096-2021")</f>
         <v/>
       </c>
       <c r="V61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 68096-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 68096-2021.docx", "A 68096-2021")</f>
         <v/>
       </c>
       <c r="W61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 68096-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 68096-2021.docx", "A 68096-2021")</f>
         <v/>
       </c>
       <c r="X61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 68096-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 68096-2021.docx", "A 68096-2021")</f>
         <v/>
       </c>
       <c r="Y61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 68096-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 68096-2021.docx", "A 68096-2021")</f>
         <v/>
       </c>
     </row>
@@ -5930,7 +5930,7 @@
         <v>44876</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5986,27 +5986,27 @@
         </is>
       </c>
       <c r="S62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 53862-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 53862-2022.xlsx", "A 53862-2022")</f>
         <v/>
       </c>
       <c r="T62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 53862-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 53862-2022.png", "A 53862-2022")</f>
         <v/>
       </c>
       <c r="V62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 53862-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 53862-2022.docx", "A 53862-2022")</f>
         <v/>
       </c>
       <c r="W62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 53862-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 53862-2022.docx", "A 53862-2022")</f>
         <v/>
       </c>
       <c r="X62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 53862-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 53862-2022.docx", "A 53862-2022")</f>
         <v/>
       </c>
       <c r="Y62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 53862-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 53862-2022.docx", "A 53862-2022")</f>
         <v/>
       </c>
     </row>
@@ -6020,7 +6020,7 @@
         <v>44928</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6076,27 +6076,27 @@
         </is>
       </c>
       <c r="S63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 141-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 141-2023.xlsx", "A 141-2023")</f>
         <v/>
       </c>
       <c r="T63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 141-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 141-2023.png", "A 141-2023")</f>
         <v/>
       </c>
       <c r="V63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 141-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 141-2023.docx", "A 141-2023")</f>
         <v/>
       </c>
       <c r="W63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 141-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 141-2023.docx", "A 141-2023")</f>
         <v/>
       </c>
       <c r="X63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 141-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 141-2023.docx", "A 141-2023")</f>
         <v/>
       </c>
       <c r="Y63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 141-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 141-2023.docx", "A 141-2023")</f>
         <v/>
       </c>
     </row>
@@ -6110,7 +6110,7 @@
         <v>44980</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6161,27 +6161,27 @@
         </is>
       </c>
       <c r="S64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 10333-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 10333-2023.xlsx", "A 10333-2023")</f>
         <v/>
       </c>
       <c r="T64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 10333-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 10333-2023.png", "A 10333-2023")</f>
         <v/>
       </c>
       <c r="V64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 10333-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 10333-2023.docx", "A 10333-2023")</f>
         <v/>
       </c>
       <c r="W64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 10333-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 10333-2023.docx", "A 10333-2023")</f>
         <v/>
       </c>
       <c r="X64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 10333-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 10333-2023.docx", "A 10333-2023")</f>
         <v/>
       </c>
       <c r="Y64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 10333-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 10333-2023.docx", "A 10333-2023")</f>
         <v/>
       </c>
     </row>
@@ -6195,7 +6195,7 @@
         <v>45016</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6246,27 +6246,27 @@
         </is>
       </c>
       <c r="S65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 15440-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 15440-2023.xlsx", "A 15440-2023")</f>
         <v/>
       </c>
       <c r="T65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 15440-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 15440-2023.png", "A 15440-2023")</f>
         <v/>
       </c>
       <c r="V65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 15440-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 15440-2023.docx", "A 15440-2023")</f>
         <v/>
       </c>
       <c r="W65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 15440-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 15440-2023.docx", "A 15440-2023")</f>
         <v/>
       </c>
       <c r="X65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 15440-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 15440-2023.docx", "A 15440-2023")</f>
         <v/>
       </c>
       <c r="Y65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 15440-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 15440-2023.docx", "A 15440-2023")</f>
         <v/>
       </c>
     </row>
@@ -6280,7 +6280,7 @@
         <v>45093</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6331,27 +6331,27 @@
         </is>
       </c>
       <c r="S66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 26685-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/artfynd/A 26685-2023.xlsx", "A 26685-2023")</f>
         <v/>
       </c>
       <c r="T66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 26685-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/kartor/A 26685-2023.png", "A 26685-2023")</f>
         <v/>
       </c>
       <c r="V66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 26685-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 26685-2023.docx", "A 26685-2023")</f>
         <v/>
       </c>
       <c r="W66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 26685-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 26685-2023.docx", "A 26685-2023")</f>
         <v/>
       </c>
       <c r="X66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 26685-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 26685-2023.docx", "A 26685-2023")</f>
         <v/>
       </c>
       <c r="Y66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 26685-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 26685-2023.docx", "A 26685-2023")</f>
         <v/>
       </c>
     </row>
@@ -6365,7 +6365,7 @@
         <v>43328</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>43329</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>43336</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>43340</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>43340</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>43342</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43357</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>43364</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43364</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43364</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43364</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>43370</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>43371</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>43375</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         <v>43377</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7220,7 +7220,7 @@
         <v>43385</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
         <v>43388</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7334,7 +7334,7 @@
         <v>43390</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7391,7 +7391,7 @@
         <v>43392</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7448,7 +7448,7 @@
         <v>43395</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>43395</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>43396</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>43402</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         <v>43403</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7733,7 +7733,7 @@
         <v>43403</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         <v>43403</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         <v>43404</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>43405</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>43410</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>43411</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>43411</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>43411</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>43413</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43415</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>43416</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>43416</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>43417</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>43417</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>43418</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>43418</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>43419</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>43419</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43419</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>43420</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>43423</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>43425</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43425</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>43426</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>43426</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>43426</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43427</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>43430</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>43430</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>43430</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43431</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>43431</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43432</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>43432</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>43433</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>43433</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>43437</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>43438</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>43438</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>43438</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>43439</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>43439</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>43444</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>43444</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>43445</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>43446</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>43446</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>43448</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>43448</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>43454</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>43455</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>43466</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43467</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>43468</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>43468</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43469</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43469</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>43472</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>43472</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11116,7 +11116,7 @@
         <v>43472</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11173,7 +11173,7 @@
         <v>43472</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11230,7 +11230,7 @@
         <v>43473</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11287,7 +11287,7 @@
         <v>43473</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11344,7 +11344,7 @@
         <v>43474</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
         <v>43475</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>43475</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>43475</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>43475</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43475</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>43475</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11763,7 +11763,7 @@
         <v>43478</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11820,7 +11820,7 @@
         <v>43479</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11877,7 +11877,7 @@
         <v>43479</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11934,7 +11934,7 @@
         <v>43480</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11991,7 +11991,7 @@
         <v>43481</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12048,7 +12048,7 @@
         <v>43484</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12105,7 +12105,7 @@
         <v>43486</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12162,7 +12162,7 @@
         <v>43488</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12219,7 +12219,7 @@
         <v>43488</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12276,7 +12276,7 @@
         <v>43489</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12333,7 +12333,7 @@
         <v>43489</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>43490</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>43493</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12514,7 +12514,7 @@
         <v>43494</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12571,7 +12571,7 @@
         <v>43494</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12628,7 +12628,7 @@
         <v>43494</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12685,7 +12685,7 @@
         <v>43496</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>43497</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>43497</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         <v>43497</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>43497</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12975,7 +12975,7 @@
         <v>43500</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13032,7 +13032,7 @@
         <v>43504</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13089,7 +13089,7 @@
         <v>43511</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>43516</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>43516</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>43520</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>43522</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>43523</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>43524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>43525</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>43526</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>43528</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>43528</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>43528</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>43528</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13835,7 +13835,7 @@
         <v>43530</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13892,7 +13892,7 @@
         <v>43532</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13949,7 +13949,7 @@
         <v>43539</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14006,7 +14006,7 @@
         <v>43542</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14063,7 +14063,7 @@
         <v>43550</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14120,7 +14120,7 @@
         <v>43551</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14177,7 +14177,7 @@
         <v>43551</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>43551</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>43551</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14348,7 +14348,7 @@
         <v>43556</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>43557</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14462,7 +14462,7 @@
         <v>43558</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>43565</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>43570</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14638,7 +14638,7 @@
         <v>43571</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14695,7 +14695,7 @@
         <v>43572</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>43578</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>43579</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>43584</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>43584</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>43584</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>43584</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>43584</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>43585</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>43587</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>43587</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         <v>43593</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>43595</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>43605</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>43605</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>43627</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>43628</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>43628</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>43628</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>43633</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>43634</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>43634</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>43634</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>43635</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>43635</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>43640</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>43640</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>43641</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>43642</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>43643</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>43643</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>43643</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16534,7 +16534,7 @@
         <v>43644</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16591,7 +16591,7 @@
         <v>43647</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16648,7 +16648,7 @@
         <v>43654</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>43656</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>43658</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16819,7 +16819,7 @@
         <v>43661</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>43665</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16933,7 +16933,7 @@
         <v>43665</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16990,7 +16990,7 @@
         <v>43667</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17047,7 +17047,7 @@
         <v>43668</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17104,7 +17104,7 @@
         <v>43669</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17161,7 +17161,7 @@
         <v>43670</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17218,7 +17218,7 @@
         <v>43675</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17275,7 +17275,7 @@
         <v>43677</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17332,7 +17332,7 @@
         <v>43682</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>43682</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>43682</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>43683</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>43683</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>43683</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>43689</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>43690</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>43691</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17845,7 +17845,7 @@
         <v>43692</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>43696</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17959,7 +17959,7 @@
         <v>43696</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18016,7 +18016,7 @@
         <v>43697</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18073,7 +18073,7 @@
         <v>43697</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18130,7 +18130,7 @@
         <v>43698</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18187,7 +18187,7 @@
         <v>43699</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18244,7 +18244,7 @@
         <v>43700</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18301,7 +18301,7 @@
         <v>43702</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18358,7 +18358,7 @@
         <v>43703</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18415,7 +18415,7 @@
         <v>43703</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18472,7 +18472,7 @@
         <v>43703</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18529,7 +18529,7 @@
         <v>43705</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18586,7 +18586,7 @@
         <v>43707</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18643,7 +18643,7 @@
         <v>43707</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>43710</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18757,7 +18757,7 @@
         <v>43712</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18814,7 +18814,7 @@
         <v>43712</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>43713</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>43713</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>43713</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>43714</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19114,7 +19114,7 @@
         <v>43718</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         <v>43719</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19228,7 +19228,7 @@
         <v>43719</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19285,7 +19285,7 @@
         <v>43722</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19342,7 +19342,7 @@
         <v>43724</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19399,7 +19399,7 @@
         <v>43724</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19456,7 +19456,7 @@
         <v>43724</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19513,7 +19513,7 @@
         <v>43726</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19570,7 +19570,7 @@
         <v>43726</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19627,7 +19627,7 @@
         <v>43728</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>43732</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>43733</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>43734</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>43740</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>43740</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>43740</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>43742</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>43742</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>43742</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>43742</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>43742</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>43742</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>43745</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>43746</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>43746</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>43746</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>43747</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>43748</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>43751</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>43754</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>43756</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>43756</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>43756</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>43756</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21057,7 +21057,7 @@
         <v>43756</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21114,7 +21114,7 @@
         <v>43760</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
         <v>43762</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>43762</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>43764</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>43767</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21399,7 +21399,7 @@
         <v>43767</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>43767</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>43769</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>43769</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>43769</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>43769</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>43772</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         <v>43774</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>43776</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21927,7 +21927,7 @@
         <v>43776</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         <v>43776</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22046,7 +22046,7 @@
         <v>43776</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22108,7 +22108,7 @@
         <v>43776</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22170,7 +22170,7 @@
         <v>43776</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22232,7 +22232,7 @@
         <v>43776</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>43776</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>43777</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>43780</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>43780</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22522,7 +22522,7 @@
         <v>43780</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22579,7 +22579,7 @@
         <v>43782</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>43783</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22698,7 +22698,7 @@
         <v>43783</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22760,7 +22760,7 @@
         <v>43783</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22822,7 +22822,7 @@
         <v>43794</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22879,7 +22879,7 @@
         <v>43794</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22936,7 +22936,7 @@
         <v>43795</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22993,7 +22993,7 @@
         <v>43797</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23050,7 +23050,7 @@
         <v>43800</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23107,7 +23107,7 @@
         <v>43803</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23164,7 +23164,7 @@
         <v>43803</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23221,7 +23221,7 @@
         <v>43803</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23278,7 +23278,7 @@
         <v>43807</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23335,7 +23335,7 @@
         <v>43808</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23392,7 +23392,7 @@
         <v>43808</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
         <v>43808</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         <v>43808</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         <v>43810</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>43810</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23687,7 +23687,7 @@
         <v>43810</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23749,7 +23749,7 @@
         <v>43810</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23811,7 +23811,7 @@
         <v>43810</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23873,7 +23873,7 @@
         <v>43811</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         <v>43811</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>43811</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24044,7 +24044,7 @@
         <v>43815</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>43816</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24158,7 +24158,7 @@
         <v>43816</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>43817</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>43833</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>43833</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
         <v>43838</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>43842</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>43843</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24567,7 +24567,7 @@
         <v>43847</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>43847</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>43847</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24738,7 +24738,7 @@
         <v>43847</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24795,7 +24795,7 @@
         <v>43850</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24852,7 +24852,7 @@
         <v>43850</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24909,7 +24909,7 @@
         <v>43850</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24966,7 +24966,7 @@
         <v>43858</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25023,7 +25023,7 @@
         <v>43858</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25080,7 +25080,7 @@
         <v>43859</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25142,7 +25142,7 @@
         <v>43864</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25199,7 +25199,7 @@
         <v>43865</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25256,7 +25256,7 @@
         <v>43865</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>43867</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>43872</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25427,7 +25427,7 @@
         <v>43872</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25484,7 +25484,7 @@
         <v>43873</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25541,7 +25541,7 @@
         <v>43873</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25598,7 +25598,7 @@
         <v>43878</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25655,7 +25655,7 @@
         <v>43878</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25712,7 +25712,7 @@
         <v>43879</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25769,7 +25769,7 @@
         <v>43879</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25831,7 +25831,7 @@
         <v>43879</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25888,7 +25888,7 @@
         <v>43880</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25945,7 +25945,7 @@
         <v>43882</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26002,7 +26002,7 @@
         <v>43885</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26059,7 +26059,7 @@
         <v>43885</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>43886</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>43887</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>43889</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26292,7 +26292,7 @@
         <v>43889</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>43892</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26411,7 +26411,7 @@
         <v>43899</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26468,7 +26468,7 @@
         <v>43900</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26525,7 +26525,7 @@
         <v>43900</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26582,7 +26582,7 @@
         <v>43902</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26639,7 +26639,7 @@
         <v>43906</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26696,7 +26696,7 @@
         <v>43907</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26753,7 +26753,7 @@
         <v>43910</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26810,7 +26810,7 @@
         <v>43910</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26867,7 +26867,7 @@
         <v>43913</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         <v>43913</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26981,7 +26981,7 @@
         <v>43913</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27043,7 +27043,7 @@
         <v>43913</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27100,7 +27100,7 @@
         <v>43916</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27157,7 +27157,7 @@
         <v>43921</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27214,7 +27214,7 @@
         <v>43921</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27271,7 +27271,7 @@
         <v>43921</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27328,7 +27328,7 @@
         <v>43922</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27390,7 +27390,7 @@
         <v>43924</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27452,7 +27452,7 @@
         <v>43924</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27514,7 +27514,7 @@
         <v>43924</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27576,7 +27576,7 @@
         <v>43924</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27638,7 +27638,7 @@
         <v>43924</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27700,7 +27700,7 @@
         <v>43929</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27757,7 +27757,7 @@
         <v>43936</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27814,7 +27814,7 @@
         <v>43943</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27871,7 +27871,7 @@
         <v>43951</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27928,7 +27928,7 @@
         <v>43951</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27985,7 +27985,7 @@
         <v>43955</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28042,7 +28042,7 @@
         <v>43958</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         <v>43960</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28156,7 +28156,7 @@
         <v>43960</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28213,7 +28213,7 @@
         <v>43964</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28270,7 +28270,7 @@
         <v>43964</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28327,7 +28327,7 @@
         <v>43965</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28389,7 +28389,7 @@
         <v>43965</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28451,7 +28451,7 @@
         <v>43969</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28508,7 +28508,7 @@
         <v>43969</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28565,7 +28565,7 @@
         <v>43970</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28622,7 +28622,7 @@
         <v>43970</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28679,7 +28679,7 @@
         <v>43971</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28736,7 +28736,7 @@
         <v>43971</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28793,7 +28793,7 @@
         <v>43977</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28855,7 +28855,7 @@
         <v>43977</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         <v>43977</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28979,7 +28979,7 @@
         <v>43986</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29036,7 +29036,7 @@
         <v>43986</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29093,7 +29093,7 @@
         <v>43994</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29155,7 +29155,7 @@
         <v>44004</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29212,7 +29212,7 @@
         <v>44012</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29269,7 +29269,7 @@
         <v>44014</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29326,7 +29326,7 @@
         <v>44018</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29383,7 +29383,7 @@
         <v>44018</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29440,7 +29440,7 @@
         <v>44021</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29497,7 +29497,7 @@
         <v>44022</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29554,7 +29554,7 @@
         <v>44022</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         <v>44026</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>44027</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29725,7 +29725,7 @@
         <v>44028</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29782,7 +29782,7 @@
         <v>44033</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29839,7 +29839,7 @@
         <v>44034</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29896,7 +29896,7 @@
         <v>44036</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29953,7 +29953,7 @@
         <v>44040</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30010,7 +30010,7 @@
         <v>44042</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30067,7 +30067,7 @@
         <v>44047</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30124,7 +30124,7 @@
         <v>44047</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30181,7 +30181,7 @@
         <v>44047</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30238,7 +30238,7 @@
         <v>44048</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30295,7 +30295,7 @@
         <v>44050</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30352,7 +30352,7 @@
         <v>44053</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>44053</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         <v>44053</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30523,7 +30523,7 @@
         <v>44060</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30580,7 +30580,7 @@
         <v>44061</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30642,7 +30642,7 @@
         <v>44061</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30699,7 +30699,7 @@
         <v>44061</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30756,7 +30756,7 @@
         <v>44061</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30813,7 +30813,7 @@
         <v>44063</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30870,7 +30870,7 @@
         <v>44063</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30927,7 +30927,7 @@
         <v>44064</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30984,7 +30984,7 @@
         <v>44067</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31041,7 +31041,7 @@
         <v>44068</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31098,7 +31098,7 @@
         <v>44068</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31155,7 +31155,7 @@
         <v>44068</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31212,7 +31212,7 @@
         <v>44069</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31269,7 +31269,7 @@
         <v>44071</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31326,7 +31326,7 @@
         <v>44071</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>44075</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31440,7 +31440,7 @@
         <v>44075</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31497,7 +31497,7 @@
         <v>44076</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31559,7 +31559,7 @@
         <v>44076</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31621,7 +31621,7 @@
         <v>44081</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31678,7 +31678,7 @@
         <v>44083</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31735,7 +31735,7 @@
         <v>44084</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31792,7 +31792,7 @@
         <v>44084</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>44084</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         <v>44084</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31963,7 +31963,7 @@
         <v>44087</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>44087</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>44090</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>44090</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>44091</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>44092</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32305,7 +32305,7 @@
         <v>44097</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32362,7 +32362,7 @@
         <v>44097</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32424,7 +32424,7 @@
         <v>44099</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32481,7 +32481,7 @@
         <v>44106</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32543,7 +32543,7 @@
         <v>44110</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32605,7 +32605,7 @@
         <v>44110</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32662,7 +32662,7 @@
         <v>44113</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32724,7 +32724,7 @@
         <v>44118</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32781,7 +32781,7 @@
         <v>44124</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32838,7 +32838,7 @@
         <v>44126</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32895,7 +32895,7 @@
         <v>44126</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32952,7 +32952,7 @@
         <v>44134</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33009,7 +33009,7 @@
         <v>44137</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33071,7 +33071,7 @@
         <v>44146</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33128,7 +33128,7 @@
         <v>44146</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33185,7 +33185,7 @@
         <v>44151</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33242,7 +33242,7 @@
         <v>44151</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33299,7 +33299,7 @@
         <v>44151</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33356,7 +33356,7 @@
         <v>44154</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33413,7 +33413,7 @@
         <v>44159</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33470,7 +33470,7 @@
         <v>44162</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33527,7 +33527,7 @@
         <v>44162</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33584,7 +33584,7 @@
         <v>44172</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33641,7 +33641,7 @@
         <v>44179</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33698,7 +33698,7 @@
         <v>44182</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33755,7 +33755,7 @@
         <v>44186</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33812,7 +33812,7 @@
         <v>44186</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33869,7 +33869,7 @@
         <v>44186</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33926,7 +33926,7 @@
         <v>44186</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33983,7 +33983,7 @@
         <v>44188</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34040,7 +34040,7 @@
         <v>44193</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34097,7 +34097,7 @@
         <v>44193</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34154,7 +34154,7 @@
         <v>44193</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34216,7 +34216,7 @@
         <v>44193</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34273,7 +34273,7 @@
         <v>44195</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34330,7 +34330,7 @@
         <v>44201</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34387,7 +34387,7 @@
         <v>44203</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34444,7 +34444,7 @@
         <v>44215</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34501,7 +34501,7 @@
         <v>44216</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34558,7 +34558,7 @@
         <v>44218</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34615,7 +34615,7 @@
         <v>44223</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34672,7 +34672,7 @@
         <v>44223</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34729,7 +34729,7 @@
         <v>44223</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         <v>44229</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34843,7 +34843,7 @@
         <v>44236</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34905,7 +34905,7 @@
         <v>44243</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34962,7 +34962,7 @@
         <v>44250</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35019,7 +35019,7 @@
         <v>44250</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35076,7 +35076,7 @@
         <v>44252</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35138,7 +35138,7 @@
         <v>44252</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35200,7 +35200,7 @@
         <v>44258</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35257,7 +35257,7 @@
         <v>44259</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35314,7 +35314,7 @@
         <v>44260</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35376,7 +35376,7 @@
         <v>44263</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35433,7 +35433,7 @@
         <v>44274</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35490,7 +35490,7 @@
         <v>44274</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35547,7 +35547,7 @@
         <v>44278</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35604,7 +35604,7 @@
         <v>44295</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         <v>44300</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35723,7 +35723,7 @@
         <v>44308</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35780,7 +35780,7 @@
         <v>44314</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35837,7 +35837,7 @@
         <v>44319</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35894,7 +35894,7 @@
         <v>44320</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35951,7 +35951,7 @@
         <v>44326</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36008,7 +36008,7 @@
         <v>44334</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36065,7 +36065,7 @@
         <v>44337</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36122,7 +36122,7 @@
         <v>44349</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36184,7 +36184,7 @@
         <v>44353</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36241,7 +36241,7 @@
         <v>44354</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36303,7 +36303,7 @@
         <v>44373</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36360,7 +36360,7 @@
         <v>44375</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36417,7 +36417,7 @@
         <v>44375</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36474,7 +36474,7 @@
         <v>44375</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36531,7 +36531,7 @@
         <v>44375</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36588,7 +36588,7 @@
         <v>44375</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36645,7 +36645,7 @@
         <v>44382</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36702,7 +36702,7 @@
         <v>44386</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36759,7 +36759,7 @@
         <v>44411</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36816,7 +36816,7 @@
         <v>44419</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36873,7 +36873,7 @@
         <v>44420</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36930,7 +36930,7 @@
         <v>44420</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36987,7 +36987,7 @@
         <v>44420</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37044,7 +37044,7 @@
         <v>44426</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37101,7 +37101,7 @@
         <v>44432</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37158,7 +37158,7 @@
         <v>44433</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37220,7 +37220,7 @@
         <v>44434</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37277,7 +37277,7 @@
         <v>44438</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37334,7 +37334,7 @@
         <v>44438</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37391,7 +37391,7 @@
         <v>44439</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37448,7 +37448,7 @@
         <v>44441</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37505,7 +37505,7 @@
         <v>44447</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37562,7 +37562,7 @@
         <v>44447</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37624,7 +37624,7 @@
         <v>44449</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37681,7 +37681,7 @@
         <v>44456</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37738,7 +37738,7 @@
         <v>44468</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37800,7 +37800,7 @@
         <v>44468</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37862,7 +37862,7 @@
         <v>44470</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37919,7 +37919,7 @@
         <v>44473</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37976,7 +37976,7 @@
         <v>44473</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38033,7 +38033,7 @@
         <v>44473</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38090,7 +38090,7 @@
         <v>44477</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38147,7 +38147,7 @@
         <v>44480</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38204,7 +38204,7 @@
         <v>44482</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38261,7 +38261,7 @@
         <v>44484</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38323,7 +38323,7 @@
         <v>44484</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38380,7 +38380,7 @@
         <v>44488</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38437,7 +38437,7 @@
         <v>44490</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38494,7 +38494,7 @@
         <v>44496</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38551,7 +38551,7 @@
         <v>44502</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38608,7 +38608,7 @@
         <v>44511</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38665,7 +38665,7 @@
         <v>44516</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38722,7 +38722,7 @@
         <v>44526</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38779,7 +38779,7 @@
         <v>44526</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38836,7 +38836,7 @@
         <v>44529</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38893,7 +38893,7 @@
         <v>44530</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38950,7 +38950,7 @@
         <v>44532</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39007,7 +39007,7 @@
         <v>44532</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39064,7 +39064,7 @@
         <v>44536</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39121,7 +39121,7 @@
         <v>44549</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39178,7 +39178,7 @@
         <v>44552</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39235,7 +39235,7 @@
         <v>44564</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39292,7 +39292,7 @@
         <v>44564</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39349,7 +39349,7 @@
         <v>44565</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39406,7 +39406,7 @@
         <v>44582</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39463,7 +39463,7 @@
         <v>44582</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39525,7 +39525,7 @@
         <v>44587</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39582,7 +39582,7 @@
         <v>44592</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39639,7 +39639,7 @@
         <v>44593</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39696,7 +39696,7 @@
         <v>44593</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39753,7 +39753,7 @@
         <v>44594</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39810,7 +39810,7 @@
         <v>44594</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39867,7 +39867,7 @@
         <v>44599</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39924,7 +39924,7 @@
         <v>44608</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39981,7 +39981,7 @@
         <v>44610</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40043,7 +40043,7 @@
         <v>44612</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40105,7 +40105,7 @@
         <v>44614</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40162,7 +40162,7 @@
         <v>44623</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40219,7 +40219,7 @@
         <v>44624</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40276,7 +40276,7 @@
         <v>44624</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40333,7 +40333,7 @@
         <v>44643</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40390,7 +40390,7 @@
         <v>44645</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40447,7 +40447,7 @@
         <v>44651</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40504,7 +40504,7 @@
         <v>44651</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40566,7 +40566,7 @@
         <v>44655</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40623,7 +40623,7 @@
         <v>44673</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40680,7 +40680,7 @@
         <v>44676</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40737,7 +40737,7 @@
         <v>44683</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40794,7 +40794,7 @@
         <v>44686</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40856,7 +40856,7 @@
         <v>44694</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40913,7 +40913,7 @@
         <v>44705</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40970,7 +40970,7 @@
         <v>44712</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41027,7 +41027,7 @@
         <v>44713</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41084,7 +41084,7 @@
         <v>44714</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41141,7 +41141,7 @@
         <v>44719</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41198,7 +41198,7 @@
         <v>44725</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41255,7 +41255,7 @@
         <v>44725</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41312,7 +41312,7 @@
         <v>44741</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41369,7 +41369,7 @@
         <v>44749</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         <v>44755</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41483,7 +41483,7 @@
         <v>44794</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41540,7 +41540,7 @@
         <v>44794</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41597,7 +41597,7 @@
         <v>44811</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41654,7 +41654,7 @@
         <v>44811</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41711,7 +41711,7 @@
         <v>44819</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41768,7 +41768,7 @@
         <v>44824</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41825,7 +41825,7 @@
         <v>44826</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41882,7 +41882,7 @@
         <v>44827</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41939,7 +41939,7 @@
         <v>44827</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41996,7 +41996,7 @@
         <v>44827</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42053,7 +42053,7 @@
         <v>44827</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42110,7 +42110,7 @@
         <v>44827</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42167,7 +42167,7 @@
         <v>44827</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42224,7 +42224,7 @@
         <v>44831</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42281,7 +42281,7 @@
         <v>44831</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42338,7 +42338,7 @@
         <v>44831</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42395,7 +42395,7 @@
         <v>44833</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42452,7 +42452,7 @@
         <v>44833</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42509,7 +42509,7 @@
         <v>44834</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42566,7 +42566,7 @@
         <v>44846</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42623,7 +42623,7 @@
         <v>44862</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42685,7 +42685,7 @@
         <v>44875</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42742,7 +42742,7 @@
         <v>44876</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42799,7 +42799,7 @@
         <v>44880</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42856,7 +42856,7 @@
         <v>44882</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42913,7 +42913,7 @@
         <v>44893</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42975,7 +42975,7 @@
         <v>44894</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43032,7 +43032,7 @@
         <v>44895</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43094,7 +43094,7 @@
         <v>44901</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43156,7 +43156,7 @@
         <v>44910</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43213,7 +43213,7 @@
         <v>44917</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43270,7 +43270,7 @@
         <v>44928</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43332,7 +43332,7 @@
         <v>44928</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43389,7 +43389,7 @@
         <v>44935</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43446,7 +43446,7 @@
         <v>44938</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43503,7 +43503,7 @@
         <v>44939</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43560,7 +43560,7 @@
         <v>44939</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43617,7 +43617,7 @@
         <v>44942</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43674,7 +43674,7 @@
         <v>44942</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43731,7 +43731,7 @@
         <v>44943</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43788,7 +43788,7 @@
         <v>44952</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43845,7 +43845,7 @@
         <v>44960</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43907,7 +43907,7 @@
         <v>44963</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43964,7 +43964,7 @@
         <v>44966</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44021,7 +44021,7 @@
         <v>44970</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44078,7 +44078,7 @@
         <v>44971</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44135,7 +44135,7 @@
         <v>44971</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44192,7 +44192,7 @@
         <v>44977</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44249,7 +44249,7 @@
         <v>44988</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         <v>44988</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44363,7 +44363,7 @@
         <v>44991</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44420,7 +44420,7 @@
         <v>44994</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44477,7 +44477,7 @@
         <v>44995</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44534,7 +44534,7 @@
         <v>44999</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44591,7 +44591,7 @@
         <v>45007</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44648,7 +44648,7 @@
         <v>45013</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44705,7 +44705,7 @@
         <v>45013</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44762,7 +44762,7 @@
         <v>45016</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44819,7 +44819,7 @@
         <v>45016</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44876,7 +44876,7 @@
         <v>45016</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44933,7 +44933,7 @@
         <v>45026</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44990,7 +44990,7 @@
         <v>45028</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45047,7 +45047,7 @@
         <v>45030</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45109,7 +45109,7 @@
         <v>45030</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45171,7 +45171,7 @@
         <v>45033</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45228,7 +45228,7 @@
         <v>45047</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45285,7 +45285,7 @@
         <v>45048</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45342,7 +45342,7 @@
         <v>45049</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45399,7 +45399,7 @@
         <v>45054</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45456,7 +45456,7 @@
         <v>45054</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45513,7 +45513,7 @@
         <v>45054</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45570,7 +45570,7 @@
         <v>45054</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45627,7 +45627,7 @@
         <v>45055</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45684,7 +45684,7 @@
         <v>45061</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45746,7 +45746,7 @@
         <v>45061</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45803,7 +45803,7 @@
         <v>45063</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45860,7 +45860,7 @@
         <v>45070</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45917,7 +45917,7 @@
         <v>45071</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45974,7 +45974,7 @@
         <v>45071</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46031,7 +46031,7 @@
         <v>45071</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46088,7 +46088,7 @@
         <v>45077</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46145,7 +46145,7 @@
         <v>45079</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46202,7 +46202,7 @@
         <v>45079</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46259,7 +46259,7 @@
         <v>45079</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46316,7 +46316,7 @@
         <v>45081</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46373,7 +46373,7 @@
         <v>45085</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46430,7 +46430,7 @@
         <v>45092</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46487,7 +46487,7 @@
         <v>45093</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46534,23 +46534,23 @@
       </c>
       <c r="R763" s="2" t="inlineStr"/>
       <c r="U763">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/knärot/A 26687-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/knärot/A 26687-2023.png", "A 26687-2023")</f>
         <v/>
       </c>
       <c r="V763">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 26687-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomål/A 26687-2023.docx", "A 26687-2023")</f>
         <v/>
       </c>
       <c r="W763">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 26687-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/klagomålsmail/A 26687-2023.docx", "A 26687-2023")</f>
         <v/>
       </c>
       <c r="X763">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 26687-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsyn/A 26687-2023.docx", "A 26687-2023")</f>
         <v/>
       </c>
       <c r="Y763">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 26687-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HULTSFRED/tillsynsmail/A 26687-2023.docx", "A 26687-2023")</f>
         <v/>
       </c>
     </row>
@@ -46564,7 +46564,7 @@
         <v>45099</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46621,7 +46621,7 @@
         <v>45099</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46678,7 +46678,7 @@
         <v>45099</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46735,7 +46735,7 @@
         <v>45099</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46792,7 +46792,7 @@
         <v>45099</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46849,7 +46849,7 @@
         <v>45099</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46906,7 +46906,7 @@
         <v>45099</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46963,7 +46963,7 @@
         <v>45099</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47020,7 +47020,7 @@
         <v>45099</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47077,7 +47077,7 @@
         <v>45099</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47134,7 +47134,7 @@
         <v>45099</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47191,7 +47191,7 @@
         <v>45099</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47248,7 +47248,7 @@
         <v>45103</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47305,7 +47305,7 @@
         <v>45104</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47362,7 +47362,7 @@
         <v>45105</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47419,7 +47419,7 @@
         <v>45113</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47476,7 +47476,7 @@
         <v>45113</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47533,7 +47533,7 @@
         <v>45127</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47590,7 +47590,7 @@
         <v>45127</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47647,7 +47647,7 @@
         <v>45148</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47704,7 +47704,7 @@
         <v>45149</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47761,7 +47761,7 @@
         <v>45153</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47818,7 +47818,7 @@
         <v>45160</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47875,7 +47875,7 @@
         <v>45161</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47932,7 +47932,7 @@
         <v>45168</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47994,7 +47994,7 @@
         <v>45168</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48051,7 +48051,7 @@
         <v>45168</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48113,7 +48113,7 @@
         <v>45180</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>

--- a/Översikt HULTSFRED.xlsx
+++ b/Översikt HULTSFRED.xlsx
@@ -572,7 +572,7 @@
         <v>43874</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>44894</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>44468</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
         <v>44175</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>43753</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1080,7 +1080,7 @@
         <v>43921</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44069</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>43438</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>43507</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>43845</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43916</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>43986</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43426</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43447</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43874</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>44258</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>44474</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>44551</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>44224</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>44641</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
         <v>44809</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44822</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>45026</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43343</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>43405</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43418</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>43419</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>43489</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43682</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>44060</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>44083</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44098</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>44235</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>44235</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>44278</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>44280</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         <v>44468</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>44559</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>44565</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>44909</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>45053</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>43438</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43493</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>43545</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>43591</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>43702</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>43889</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43902</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4901,7 +4901,7 @@
         <v>43920</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
         <v>43962</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>44053</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         <v>44124</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>44159</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>44180</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>44295</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>44341</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>44375</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>44417</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>44455</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v>44526</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>44876</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         <v>44928</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6110,7 +6110,7 @@
         <v>44980</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         <v>45016</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>45093</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>43328</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>43329</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>43336</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>43340</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>43340</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>43342</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43357</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>43364</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43364</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43364</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43364</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>43370</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>43371</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>43375</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         <v>43377</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7220,7 +7220,7 @@
         <v>43385</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
         <v>43388</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7334,7 +7334,7 @@
         <v>43390</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7391,7 +7391,7 @@
         <v>43392</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7448,7 +7448,7 @@
         <v>43395</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>43395</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>43396</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>43402</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         <v>43403</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7733,7 +7733,7 @@
         <v>43403</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         <v>43403</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         <v>43404</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>43405</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>43410</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>43411</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>43411</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>43411</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>43413</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43415</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>43416</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>43416</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>43417</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>43417</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>43418</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>43418</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>43419</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>43419</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43419</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>43420</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>43423</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>43425</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43425</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>43426</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>43426</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>43426</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43427</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>43430</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>43430</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>43430</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43431</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>43431</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43432</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>43432</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>43433</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>43433</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>43437</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>43438</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>43438</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>43438</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>43439</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>43439</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>43444</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>43444</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>43445</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>43446</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>43446</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>43448</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>43448</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>43454</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>43455</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>43466</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43467</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>43468</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>43468</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43469</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43469</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>43472</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>43472</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11116,7 +11116,7 @@
         <v>43472</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11173,7 +11173,7 @@
         <v>43472</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11230,7 +11230,7 @@
         <v>43473</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11287,7 +11287,7 @@
         <v>43473</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11344,7 +11344,7 @@
         <v>43474</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
         <v>43475</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>43475</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>43475</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>43475</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43475</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>43475</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11763,7 +11763,7 @@
         <v>43478</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11820,7 +11820,7 @@
         <v>43479</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11877,7 +11877,7 @@
         <v>43479</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11934,7 +11934,7 @@
         <v>43480</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11991,7 +11991,7 @@
         <v>43481</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12048,7 +12048,7 @@
         <v>43484</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12105,7 +12105,7 @@
         <v>43486</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12162,7 +12162,7 @@
         <v>43488</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12219,7 +12219,7 @@
         <v>43488</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12276,7 +12276,7 @@
         <v>43489</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12333,7 +12333,7 @@
         <v>43489</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>43490</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>43493</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12514,7 +12514,7 @@
         <v>43494</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12571,7 +12571,7 @@
         <v>43494</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12628,7 +12628,7 @@
         <v>43494</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12685,7 +12685,7 @@
         <v>43496</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>43497</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>43497</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         <v>43497</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>43497</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12975,7 +12975,7 @@
         <v>43500</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13032,7 +13032,7 @@
         <v>43504</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13089,7 +13089,7 @@
         <v>43511</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>43516</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>43516</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>43520</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>43522</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>43523</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>43524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>43525</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>43526</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>43528</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>43528</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>43528</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>43528</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13835,7 +13835,7 @@
         <v>43530</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13892,7 +13892,7 @@
         <v>43532</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13949,7 +13949,7 @@
         <v>43539</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14006,7 +14006,7 @@
         <v>43542</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14063,7 +14063,7 @@
         <v>43550</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14120,7 +14120,7 @@
         <v>43551</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14177,7 +14177,7 @@
         <v>43551</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>43551</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>43551</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14348,7 +14348,7 @@
         <v>43556</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>43557</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14462,7 +14462,7 @@
         <v>43558</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>43565</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>43570</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14638,7 +14638,7 @@
         <v>43571</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14695,7 +14695,7 @@
         <v>43572</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>43578</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>43579</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>43584</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>43584</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>43584</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>43584</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>43584</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>43585</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>43587</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>43587</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         <v>43593</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>43595</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>43605</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>43605</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>43627</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>43628</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>43628</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>43628</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>43633</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>43634</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>43634</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>43634</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>43635</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>43635</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>43640</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>43640</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>43641</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>43642</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>43643</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>43643</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>43643</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16534,7 +16534,7 @@
         <v>43644</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16591,7 +16591,7 @@
         <v>43647</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16648,7 +16648,7 @@
         <v>43654</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>43656</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>43658</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16819,7 +16819,7 @@
         <v>43661</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>43665</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16933,7 +16933,7 @@
         <v>43665</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16990,7 +16990,7 @@
         <v>43667</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17047,7 +17047,7 @@
         <v>43668</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17104,7 +17104,7 @@
         <v>43669</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17161,7 +17161,7 @@
         <v>43670</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17218,7 +17218,7 @@
         <v>43675</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17275,7 +17275,7 @@
         <v>43677</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17332,7 +17332,7 @@
         <v>43682</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>43682</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>43682</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>43683</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>43683</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>43683</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>43689</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>43690</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>43691</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17845,7 +17845,7 @@
         <v>43692</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>43696</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17959,7 +17959,7 @@
         <v>43696</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18016,7 +18016,7 @@
         <v>43697</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18073,7 +18073,7 @@
         <v>43697</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18130,7 +18130,7 @@
         <v>43698</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18187,7 +18187,7 @@
         <v>43699</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18244,7 +18244,7 @@
         <v>43700</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18301,7 +18301,7 @@
         <v>43702</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18358,7 +18358,7 @@
         <v>43703</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18415,7 +18415,7 @@
         <v>43703</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18472,7 +18472,7 @@
         <v>43703</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18529,7 +18529,7 @@
         <v>43705</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18586,7 +18586,7 @@
         <v>43707</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18643,7 +18643,7 @@
         <v>43707</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>43710</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18757,7 +18757,7 @@
         <v>43712</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18814,7 +18814,7 @@
         <v>43712</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>43713</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>43713</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>43713</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>43714</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19114,7 +19114,7 @@
         <v>43718</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         <v>43719</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19228,7 +19228,7 @@
         <v>43719</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19285,7 +19285,7 @@
         <v>43722</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19342,7 +19342,7 @@
         <v>43724</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19399,7 +19399,7 @@
         <v>43724</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19456,7 +19456,7 @@
         <v>43724</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19513,7 +19513,7 @@
         <v>43726</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19570,7 +19570,7 @@
         <v>43726</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19627,7 +19627,7 @@
         <v>43728</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>43732</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>43733</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>43734</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>43740</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>43740</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>43740</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>43742</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>43742</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>43742</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>43742</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>43742</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>43742</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>43745</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>43746</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>43746</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>43746</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>43747</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>43748</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>43751</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>43754</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>43756</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>43756</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>43756</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>43756</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21057,7 +21057,7 @@
         <v>43756</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21114,7 +21114,7 @@
         <v>43760</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
         <v>43762</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>43762</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>43764</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>43767</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21399,7 +21399,7 @@
         <v>43767</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>43767</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>43769</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>43769</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>43769</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>43769</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>43772</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         <v>43774</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>43776</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21927,7 +21927,7 @@
         <v>43776</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         <v>43776</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22046,7 +22046,7 @@
         <v>43776</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22108,7 +22108,7 @@
         <v>43776</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22170,7 +22170,7 @@
         <v>43776</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22232,7 +22232,7 @@
         <v>43776</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>43776</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>43777</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>43780</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>43780</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22522,7 +22522,7 @@
         <v>43780</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22579,7 +22579,7 @@
         <v>43782</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>43783</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22698,7 +22698,7 @@
         <v>43783</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22760,7 +22760,7 @@
         <v>43783</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22822,7 +22822,7 @@
         <v>43794</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22879,7 +22879,7 @@
         <v>43794</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22936,7 +22936,7 @@
         <v>43795</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22993,7 +22993,7 @@
         <v>43797</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23050,7 +23050,7 @@
         <v>43800</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23107,7 +23107,7 @@
         <v>43803</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23164,7 +23164,7 @@
         <v>43803</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23221,7 +23221,7 @@
         <v>43803</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23278,7 +23278,7 @@
         <v>43807</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23335,7 +23335,7 @@
         <v>43808</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23392,7 +23392,7 @@
         <v>43808</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
         <v>43808</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         <v>43808</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         <v>43810</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>43810</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23687,7 +23687,7 @@
         <v>43810</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23749,7 +23749,7 @@
         <v>43810</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23811,7 +23811,7 @@
         <v>43810</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23873,7 +23873,7 @@
         <v>43811</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         <v>43811</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>43811</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24044,7 +24044,7 @@
         <v>43815</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>43816</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24158,7 +24158,7 @@
         <v>43816</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>43817</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>43833</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>43833</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
         <v>43838</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>43842</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>43843</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24567,7 +24567,7 @@
         <v>43847</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>43847</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>43847</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24738,7 +24738,7 @@
         <v>43847</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24795,7 +24795,7 @@
         <v>43850</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24852,7 +24852,7 @@
         <v>43850</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24909,7 +24909,7 @@
         <v>43850</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24966,7 +24966,7 @@
         <v>43858</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25023,7 +25023,7 @@
         <v>43858</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25080,7 +25080,7 @@
         <v>43859</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25142,7 +25142,7 @@
         <v>43864</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25199,7 +25199,7 @@
         <v>43865</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25256,7 +25256,7 @@
         <v>43865</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>43867</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>43872</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25427,7 +25427,7 @@
         <v>43872</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25484,7 +25484,7 @@
         <v>43873</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25541,7 +25541,7 @@
         <v>43873</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25598,7 +25598,7 @@
         <v>43878</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25655,7 +25655,7 @@
         <v>43878</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25712,7 +25712,7 @@
         <v>43879</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25769,7 +25769,7 @@
         <v>43879</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25831,7 +25831,7 @@
         <v>43879</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25888,7 +25888,7 @@
         <v>43880</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25945,7 +25945,7 @@
         <v>43882</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26002,7 +26002,7 @@
         <v>43885</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26059,7 +26059,7 @@
         <v>43885</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>43886</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>43887</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>43889</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26292,7 +26292,7 @@
         <v>43889</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>43892</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26411,7 +26411,7 @@
         <v>43899</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26468,7 +26468,7 @@
         <v>43900</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26525,7 +26525,7 @@
         <v>43900</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26582,7 +26582,7 @@
         <v>43902</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26639,7 +26639,7 @@
         <v>43906</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26696,7 +26696,7 @@
         <v>43907</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26753,7 +26753,7 @@
         <v>43910</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26810,7 +26810,7 @@
         <v>43910</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26867,7 +26867,7 @@
         <v>43913</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         <v>43913</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26981,7 +26981,7 @@
         <v>43913</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27043,7 +27043,7 @@
         <v>43913</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27100,7 +27100,7 @@
         <v>43916</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27157,7 +27157,7 @@
         <v>43921</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27214,7 +27214,7 @@
         <v>43921</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27271,7 +27271,7 @@
         <v>43921</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27328,7 +27328,7 @@
         <v>43922</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27390,7 +27390,7 @@
         <v>43924</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27452,7 +27452,7 @@
         <v>43924</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27514,7 +27514,7 @@
         <v>43924</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27576,7 +27576,7 @@
         <v>43924</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27638,7 +27638,7 @@
         <v>43924</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27700,7 +27700,7 @@
         <v>43929</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27757,7 +27757,7 @@
         <v>43936</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27814,7 +27814,7 @@
         <v>43943</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27871,7 +27871,7 @@
         <v>43951</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27928,7 +27928,7 @@
         <v>43951</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27985,7 +27985,7 @@
         <v>43955</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28042,7 +28042,7 @@
         <v>43958</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         <v>43960</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28156,7 +28156,7 @@
         <v>43960</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28213,7 +28213,7 @@
         <v>43964</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28270,7 +28270,7 @@
         <v>43964</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28327,7 +28327,7 @@
         <v>43965</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28389,7 +28389,7 @@
         <v>43965</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28451,7 +28451,7 @@
         <v>43969</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28508,7 +28508,7 @@
         <v>43969</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28565,7 +28565,7 @@
         <v>43970</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28622,7 +28622,7 @@
         <v>43970</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28679,7 +28679,7 @@
         <v>43971</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28736,7 +28736,7 @@
         <v>43971</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28793,7 +28793,7 @@
         <v>43977</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28855,7 +28855,7 @@
         <v>43977</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         <v>43977</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28979,7 +28979,7 @@
         <v>43986</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29036,7 +29036,7 @@
         <v>43986</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29093,7 +29093,7 @@
         <v>43994</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29155,7 +29155,7 @@
         <v>44004</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29212,7 +29212,7 @@
         <v>44012</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29269,7 +29269,7 @@
         <v>44014</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29326,7 +29326,7 @@
         <v>44018</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29383,7 +29383,7 @@
         <v>44018</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29440,7 +29440,7 @@
         <v>44021</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29497,7 +29497,7 @@
         <v>44022</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29554,7 +29554,7 @@
         <v>44022</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         <v>44026</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>44027</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29725,7 +29725,7 @@
         <v>44028</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29782,7 +29782,7 @@
         <v>44033</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29839,7 +29839,7 @@
         <v>44034</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29896,7 +29896,7 @@
         <v>44036</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29953,7 +29953,7 @@
         <v>44040</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30010,7 +30010,7 @@
         <v>44042</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30067,7 +30067,7 @@
         <v>44047</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30124,7 +30124,7 @@
         <v>44047</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30181,7 +30181,7 @@
         <v>44047</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30238,7 +30238,7 @@
         <v>44048</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30295,7 +30295,7 @@
         <v>44050</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30352,7 +30352,7 @@
         <v>44053</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>44053</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         <v>44053</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30523,7 +30523,7 @@
         <v>44060</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30580,7 +30580,7 @@
         <v>44061</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30642,7 +30642,7 @@
         <v>44061</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30699,7 +30699,7 @@
         <v>44061</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30756,7 +30756,7 @@
         <v>44061</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30813,7 +30813,7 @@
         <v>44063</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30870,7 +30870,7 @@
         <v>44063</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30927,7 +30927,7 @@
         <v>44064</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30984,7 +30984,7 @@
         <v>44067</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31041,7 +31041,7 @@
         <v>44068</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31098,7 +31098,7 @@
         <v>44068</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31155,7 +31155,7 @@
         <v>44068</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31212,7 +31212,7 @@
         <v>44069</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31269,7 +31269,7 @@
         <v>44071</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31326,7 +31326,7 @@
         <v>44071</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>44075</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31440,7 +31440,7 @@
         <v>44075</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31497,7 +31497,7 @@
         <v>44076</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31559,7 +31559,7 @@
         <v>44076</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31621,7 +31621,7 @@
         <v>44081</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31678,7 +31678,7 @@
         <v>44083</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31735,7 +31735,7 @@
         <v>44084</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31792,7 +31792,7 @@
         <v>44084</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>44084</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         <v>44084</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31963,7 +31963,7 @@
         <v>44087</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>44087</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>44090</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>44090</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>44091</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>44092</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32305,7 +32305,7 @@
         <v>44097</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32362,7 +32362,7 @@
         <v>44097</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32424,7 +32424,7 @@
         <v>44099</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32481,7 +32481,7 @@
         <v>44106</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32543,7 +32543,7 @@
         <v>44110</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32605,7 +32605,7 @@
         <v>44110</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32662,7 +32662,7 @@
         <v>44113</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32724,7 +32724,7 @@
         <v>44118</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32781,7 +32781,7 @@
         <v>44124</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32838,7 +32838,7 @@
         <v>44126</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32895,7 +32895,7 @@
         <v>44126</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32952,7 +32952,7 @@
         <v>44134</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33009,7 +33009,7 @@
         <v>44137</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33071,7 +33071,7 @@
         <v>44146</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33128,7 +33128,7 @@
         <v>44146</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33185,7 +33185,7 @@
         <v>44151</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33242,7 +33242,7 @@
         <v>44151</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33299,7 +33299,7 @@
         <v>44151</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33356,7 +33356,7 @@
         <v>44154</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33413,7 +33413,7 @@
         <v>44159</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33470,7 +33470,7 @@
         <v>44162</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33527,7 +33527,7 @@
         <v>44162</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33584,7 +33584,7 @@
         <v>44172</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33641,7 +33641,7 @@
         <v>44179</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33698,7 +33698,7 @@
         <v>44182</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33755,7 +33755,7 @@
         <v>44186</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33812,7 +33812,7 @@
         <v>44186</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33869,7 +33869,7 @@
         <v>44186</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33926,7 +33926,7 @@
         <v>44186</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33983,7 +33983,7 @@
         <v>44188</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34040,7 +34040,7 @@
         <v>44193</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34097,7 +34097,7 @@
         <v>44193</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34154,7 +34154,7 @@
         <v>44193</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34216,7 +34216,7 @@
         <v>44193</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34273,7 +34273,7 @@
         <v>44195</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34330,7 +34330,7 @@
         <v>44201</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34387,7 +34387,7 @@
         <v>44203</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34444,7 +34444,7 @@
         <v>44215</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34501,7 +34501,7 @@
         <v>44216</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34558,7 +34558,7 @@
         <v>44218</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34615,7 +34615,7 @@
         <v>44223</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34672,7 +34672,7 @@
         <v>44223</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34729,7 +34729,7 @@
         <v>44223</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         <v>44229</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34843,7 +34843,7 @@
         <v>44236</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34905,7 +34905,7 @@
         <v>44243</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34962,7 +34962,7 @@
         <v>44250</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35019,7 +35019,7 @@
         <v>44250</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35076,7 +35076,7 @@
         <v>44252</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35138,7 +35138,7 @@
         <v>44252</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35200,7 +35200,7 @@
         <v>44258</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35257,7 +35257,7 @@
         <v>44259</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35314,7 +35314,7 @@
         <v>44260</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35376,7 +35376,7 @@
         <v>44263</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35433,7 +35433,7 @@
         <v>44274</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35490,7 +35490,7 @@
         <v>44274</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35547,7 +35547,7 @@
         <v>44278</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35604,7 +35604,7 @@
         <v>44295</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         <v>44300</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35723,7 +35723,7 @@
         <v>44308</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35780,7 +35780,7 @@
         <v>44314</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35837,7 +35837,7 @@
         <v>44319</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35894,7 +35894,7 @@
         <v>44320</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35951,7 +35951,7 @@
         <v>44326</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36008,7 +36008,7 @@
         <v>44334</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36065,7 +36065,7 @@
         <v>44337</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36122,7 +36122,7 @@
         <v>44349</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36184,7 +36184,7 @@
         <v>44353</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36241,7 +36241,7 @@
         <v>44354</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36303,7 +36303,7 @@
         <v>44373</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36360,7 +36360,7 @@
         <v>44375</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36417,7 +36417,7 @@
         <v>44375</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36474,7 +36474,7 @@
         <v>44375</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36531,7 +36531,7 @@
         <v>44375</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36588,7 +36588,7 @@
         <v>44375</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36645,7 +36645,7 @@
         <v>44382</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36702,7 +36702,7 @@
         <v>44386</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36759,7 +36759,7 @@
         <v>44411</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36816,7 +36816,7 @@
         <v>44419</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36873,7 +36873,7 @@
         <v>44420</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36930,7 +36930,7 @@
         <v>44420</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36987,7 +36987,7 @@
         <v>44420</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37044,7 +37044,7 @@
         <v>44426</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37101,7 +37101,7 @@
         <v>44432</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37158,7 +37158,7 @@
         <v>44433</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37220,7 +37220,7 @@
         <v>44434</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37277,7 +37277,7 @@
         <v>44438</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37334,7 +37334,7 @@
         <v>44438</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37391,7 +37391,7 @@
         <v>44439</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37448,7 +37448,7 @@
         <v>44441</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37505,7 +37505,7 @@
         <v>44447</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37562,7 +37562,7 @@
         <v>44447</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37624,7 +37624,7 @@
         <v>44449</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37681,7 +37681,7 @@
         <v>44456</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37738,7 +37738,7 @@
         <v>44468</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37800,7 +37800,7 @@
         <v>44468</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37862,7 +37862,7 @@
         <v>44470</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37919,7 +37919,7 @@
         <v>44473</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37976,7 +37976,7 @@
         <v>44473</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38033,7 +38033,7 @@
         <v>44473</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38090,7 +38090,7 @@
         <v>44477</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38147,7 +38147,7 @@
         <v>44480</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38204,7 +38204,7 @@
         <v>44482</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38261,7 +38261,7 @@
         <v>44484</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38323,7 +38323,7 @@
         <v>44484</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38380,7 +38380,7 @@
         <v>44488</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38437,7 +38437,7 @@
         <v>44490</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38494,7 +38494,7 @@
         <v>44496</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38551,7 +38551,7 @@
         <v>44502</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38608,7 +38608,7 @@
         <v>44511</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38665,7 +38665,7 @@
         <v>44516</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38722,7 +38722,7 @@
         <v>44526</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38779,7 +38779,7 @@
         <v>44526</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38836,7 +38836,7 @@
         <v>44529</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38893,7 +38893,7 @@
         <v>44530</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38950,7 +38950,7 @@
         <v>44532</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39007,7 +39007,7 @@
         <v>44532</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39064,7 +39064,7 @@
         <v>44536</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39121,7 +39121,7 @@
         <v>44549</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39178,7 +39178,7 @@
         <v>44552</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39235,7 +39235,7 @@
         <v>44564</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39292,7 +39292,7 @@
         <v>44564</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39349,7 +39349,7 @@
         <v>44565</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39406,7 +39406,7 @@
         <v>44582</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39463,7 +39463,7 @@
         <v>44582</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39525,7 +39525,7 @@
         <v>44587</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39582,7 +39582,7 @@
         <v>44592</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39639,7 +39639,7 @@
         <v>44593</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39696,7 +39696,7 @@
         <v>44593</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39753,7 +39753,7 @@
         <v>44594</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39810,7 +39810,7 @@
         <v>44594</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39867,7 +39867,7 @@
         <v>44599</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39924,7 +39924,7 @@
         <v>44608</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39981,7 +39981,7 @@
         <v>44610</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40043,7 +40043,7 @@
         <v>44612</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40105,7 +40105,7 @@
         <v>44614</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40162,7 +40162,7 @@
         <v>44623</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40219,7 +40219,7 @@
         <v>44624</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40276,7 +40276,7 @@
         <v>44624</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40333,7 +40333,7 @@
         <v>44643</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40390,7 +40390,7 @@
         <v>44645</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40447,7 +40447,7 @@
         <v>44651</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40504,7 +40504,7 @@
         <v>44651</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40566,7 +40566,7 @@
         <v>44655</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40623,7 +40623,7 @@
         <v>44673</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40680,7 +40680,7 @@
         <v>44676</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40737,7 +40737,7 @@
         <v>44683</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40794,7 +40794,7 @@
         <v>44686</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40856,7 +40856,7 @@
         <v>44694</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40913,7 +40913,7 @@
         <v>44705</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40970,7 +40970,7 @@
         <v>44712</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41027,7 +41027,7 @@
         <v>44713</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41084,7 +41084,7 @@
         <v>44714</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41141,7 +41141,7 @@
         <v>44719</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41198,7 +41198,7 @@
         <v>44725</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41255,7 +41255,7 @@
         <v>44725</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41312,7 +41312,7 @@
         <v>44741</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41369,7 +41369,7 @@
         <v>44749</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         <v>44755</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41483,7 +41483,7 @@
         <v>44794</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41540,7 +41540,7 @@
         <v>44794</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41597,7 +41597,7 @@
         <v>44811</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41654,7 +41654,7 @@
         <v>44811</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41711,7 +41711,7 @@
         <v>44819</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41768,7 +41768,7 @@
         <v>44824</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41825,7 +41825,7 @@
         <v>44826</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41882,7 +41882,7 @@
         <v>44827</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41939,7 +41939,7 @@
         <v>44827</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41996,7 +41996,7 @@
         <v>44827</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42053,7 +42053,7 @@
         <v>44827</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42110,7 +42110,7 @@
         <v>44827</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42167,7 +42167,7 @@
         <v>44827</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42224,7 +42224,7 @@
         <v>44831</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42281,7 +42281,7 @@
         <v>44831</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42338,7 +42338,7 @@
         <v>44831</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42395,7 +42395,7 @@
         <v>44833</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42452,7 +42452,7 @@
         <v>44833</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42509,7 +42509,7 @@
         <v>44834</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42566,7 +42566,7 @@
         <v>44846</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42623,7 +42623,7 @@
         <v>44862</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42685,7 +42685,7 @@
         <v>44875</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42742,7 +42742,7 @@
         <v>44876</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42799,7 +42799,7 @@
         <v>44880</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42856,7 +42856,7 @@
         <v>44882</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42913,7 +42913,7 @@
         <v>44893</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42975,7 +42975,7 @@
         <v>44894</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43032,7 +43032,7 @@
         <v>44895</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43094,7 +43094,7 @@
         <v>44901</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43156,7 +43156,7 @@
         <v>44910</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43213,7 +43213,7 @@
         <v>44917</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43270,7 +43270,7 @@
         <v>44928</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43332,7 +43332,7 @@
         <v>44928</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43389,7 +43389,7 @@
         <v>44935</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43446,7 +43446,7 @@
         <v>44938</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43503,7 +43503,7 @@
         <v>44939</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43560,7 +43560,7 @@
         <v>44939</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43617,7 +43617,7 @@
         <v>44942</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43674,7 +43674,7 @@
         <v>44942</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43731,7 +43731,7 @@
         <v>44943</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43788,7 +43788,7 @@
         <v>44952</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43845,7 +43845,7 @@
         <v>44960</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43907,7 +43907,7 @@
         <v>44963</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43964,7 +43964,7 @@
         <v>44966</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44021,7 +44021,7 @@
         <v>44970</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44078,7 +44078,7 @@
         <v>44971</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44135,7 +44135,7 @@
         <v>44971</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44192,7 +44192,7 @@
         <v>44977</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44249,7 +44249,7 @@
         <v>44988</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         <v>44988</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44363,7 +44363,7 @@
         <v>44991</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44420,7 +44420,7 @@
         <v>44994</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44477,7 +44477,7 @@
         <v>44995</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44534,7 +44534,7 @@
         <v>44999</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44591,7 +44591,7 @@
         <v>45007</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44648,7 +44648,7 @@
         <v>45013</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44705,7 +44705,7 @@
         <v>45013</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44762,7 +44762,7 @@
         <v>45016</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44819,7 +44819,7 @@
         <v>45016</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44876,7 +44876,7 @@
         <v>45016</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44933,7 +44933,7 @@
         <v>45026</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44990,7 +44990,7 @@
         <v>45028</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45047,7 +45047,7 @@
         <v>45030</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45109,7 +45109,7 @@
         <v>45030</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45171,7 +45171,7 @@
         <v>45033</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45228,7 +45228,7 @@
         <v>45047</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45285,7 +45285,7 @@
         <v>45048</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45342,7 +45342,7 @@
         <v>45049</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45399,7 +45399,7 @@
         <v>45054</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45456,7 +45456,7 @@
         <v>45054</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45513,7 +45513,7 @@
         <v>45054</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45570,7 +45570,7 @@
         <v>45054</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45627,7 +45627,7 @@
         <v>45055</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45684,7 +45684,7 @@
         <v>45061</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45746,7 +45746,7 @@
         <v>45061</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45803,7 +45803,7 @@
         <v>45063</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45860,7 +45860,7 @@
         <v>45070</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45917,7 +45917,7 @@
         <v>45071</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45974,7 +45974,7 @@
         <v>45071</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46031,7 +46031,7 @@
         <v>45071</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46088,7 +46088,7 @@
         <v>45077</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46145,7 +46145,7 @@
         <v>45079</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46202,7 +46202,7 @@
         <v>45079</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46259,7 +46259,7 @@
         <v>45079</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46316,7 +46316,7 @@
         <v>45081</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46373,7 +46373,7 @@
         <v>45085</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46430,7 +46430,7 @@
         <v>45092</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46487,7 +46487,7 @@
         <v>45093</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46564,7 +46564,7 @@
         <v>45099</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46621,7 +46621,7 @@
         <v>45099</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46678,7 +46678,7 @@
         <v>45099</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46735,7 +46735,7 @@
         <v>45099</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46792,7 +46792,7 @@
         <v>45099</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46849,7 +46849,7 @@
         <v>45099</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46906,7 +46906,7 @@
         <v>45099</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46963,7 +46963,7 @@
         <v>45099</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47020,7 +47020,7 @@
         <v>45099</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47077,7 +47077,7 @@
         <v>45099</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47134,7 +47134,7 @@
         <v>45099</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47191,7 +47191,7 @@
         <v>45099</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47248,7 +47248,7 @@
         <v>45103</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47305,7 +47305,7 @@
         <v>45104</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47362,7 +47362,7 @@
         <v>45105</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47419,7 +47419,7 @@
         <v>45113</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47476,7 +47476,7 @@
         <v>45113</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47533,7 +47533,7 @@
         <v>45127</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47590,7 +47590,7 @@
         <v>45127</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47647,7 +47647,7 @@
         <v>45148</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47704,7 +47704,7 @@
         <v>45149</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47761,7 +47761,7 @@
         <v>45153</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47818,7 +47818,7 @@
         <v>45160</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47875,7 +47875,7 @@
         <v>45161</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47932,7 +47932,7 @@
         <v>45168</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47994,7 +47994,7 @@
         <v>45168</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48051,7 +48051,7 @@
         <v>45168</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48113,7 +48113,7 @@
         <v>45180</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>

--- a/Översikt HULTSFRED.xlsx
+++ b/Översikt HULTSFRED.xlsx
@@ -572,7 +572,7 @@
         <v>43874</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>44894</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>44468</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
         <v>44175</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>43753</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1080,7 +1080,7 @@
         <v>43921</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44069</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>43438</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>43507</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>43845</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43916</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>43986</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43426</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43447</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43874</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>44258</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>44474</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>44551</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>44224</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>44641</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
         <v>44809</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44822</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>45026</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43343</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>43405</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43418</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>43419</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>43489</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43682</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>44060</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>44083</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44098</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>44235</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>44235</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>44278</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>44280</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         <v>44468</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>44559</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>44565</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>44909</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>45053</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>43438</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43493</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>43545</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>43591</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>43702</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>43889</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43902</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4901,7 +4901,7 @@
         <v>43920</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
         <v>43962</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>44053</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         <v>44124</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>44159</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>44180</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>44295</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>44341</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>44375</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>44417</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>44455</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v>44526</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>44876</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         <v>44928</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6110,7 +6110,7 @@
         <v>44980</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         <v>45016</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>45093</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>43328</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>43329</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>43336</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>43340</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>43340</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>43342</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43357</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>43364</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43364</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43364</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43364</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>43370</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>43371</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>43375</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         <v>43377</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7220,7 +7220,7 @@
         <v>43385</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
         <v>43388</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7334,7 +7334,7 @@
         <v>43390</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7391,7 +7391,7 @@
         <v>43392</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7448,7 +7448,7 @@
         <v>43395</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>43395</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>43396</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>43402</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         <v>43403</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7733,7 +7733,7 @@
         <v>43403</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         <v>43403</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         <v>43404</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>43405</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>43410</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>43411</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>43411</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>43411</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>43413</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43415</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>43416</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>43416</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>43417</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>43417</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>43418</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>43418</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>43419</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>43419</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43419</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>43420</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>43423</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>43425</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43425</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>43426</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>43426</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>43426</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43427</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>43430</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>43430</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>43430</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43431</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>43431</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43432</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>43432</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>43433</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>43433</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>43437</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>43438</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>43438</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>43438</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>43439</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>43439</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>43444</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>43444</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>43445</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>43446</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>43446</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>43448</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>43448</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>43454</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>43455</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>43466</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43467</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>43468</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>43468</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43469</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43469</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>43472</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>43472</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11116,7 +11116,7 @@
         <v>43472</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11173,7 +11173,7 @@
         <v>43472</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11230,7 +11230,7 @@
         <v>43473</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11287,7 +11287,7 @@
         <v>43473</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11344,7 +11344,7 @@
         <v>43474</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
         <v>43475</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>43475</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>43475</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>43475</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43475</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>43475</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11763,7 +11763,7 @@
         <v>43478</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11820,7 +11820,7 @@
         <v>43479</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11877,7 +11877,7 @@
         <v>43479</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11934,7 +11934,7 @@
         <v>43480</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11991,7 +11991,7 @@
         <v>43481</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12048,7 +12048,7 @@
         <v>43484</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12105,7 +12105,7 @@
         <v>43486</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12162,7 +12162,7 @@
         <v>43488</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12219,7 +12219,7 @@
         <v>43488</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12276,7 +12276,7 @@
         <v>43489</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12333,7 +12333,7 @@
         <v>43489</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>43490</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>43493</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12514,7 +12514,7 @@
         <v>43494</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12571,7 +12571,7 @@
         <v>43494</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12628,7 +12628,7 @@
         <v>43494</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12685,7 +12685,7 @@
         <v>43496</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>43497</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>43497</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         <v>43497</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>43497</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12975,7 +12975,7 @@
         <v>43500</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13032,7 +13032,7 @@
         <v>43504</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13089,7 +13089,7 @@
         <v>43511</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>43516</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>43516</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>43520</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>43522</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>43523</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>43524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>43525</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>43526</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>43528</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>43528</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>43528</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>43528</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13835,7 +13835,7 @@
         <v>43530</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13892,7 +13892,7 @@
         <v>43532</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13949,7 +13949,7 @@
         <v>43539</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14006,7 +14006,7 @@
         <v>43542</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14063,7 +14063,7 @@
         <v>43550</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14120,7 +14120,7 @@
         <v>43551</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14177,7 +14177,7 @@
         <v>43551</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>43551</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>43551</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14348,7 +14348,7 @@
         <v>43556</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>43557</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14462,7 +14462,7 @@
         <v>43558</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>43565</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>43570</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14638,7 +14638,7 @@
         <v>43571</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14695,7 +14695,7 @@
         <v>43572</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>43578</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>43579</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>43584</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>43584</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>43584</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>43584</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>43584</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>43585</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>43587</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>43587</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         <v>43593</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>43595</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>43605</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>43605</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>43627</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>43628</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>43628</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>43628</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>43633</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>43634</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>43634</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>43634</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>43635</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>43635</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>43640</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>43640</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>43641</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>43642</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>43643</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>43643</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>43643</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16534,7 +16534,7 @@
         <v>43644</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16591,7 +16591,7 @@
         <v>43647</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16648,7 +16648,7 @@
         <v>43654</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>43656</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>43658</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16819,7 +16819,7 @@
         <v>43661</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>43665</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16933,7 +16933,7 @@
         <v>43665</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16990,7 +16990,7 @@
         <v>43667</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17047,7 +17047,7 @@
         <v>43668</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17104,7 +17104,7 @@
         <v>43669</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17161,7 +17161,7 @@
         <v>43670</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17218,7 +17218,7 @@
         <v>43675</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17275,7 +17275,7 @@
         <v>43677</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17332,7 +17332,7 @@
         <v>43682</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>43682</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>43682</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>43683</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>43683</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>43683</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>43689</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>43690</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>43691</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17845,7 +17845,7 @@
         <v>43692</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>43696</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17959,7 +17959,7 @@
         <v>43696</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18016,7 +18016,7 @@
         <v>43697</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18073,7 +18073,7 @@
         <v>43697</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18130,7 +18130,7 @@
         <v>43698</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18187,7 +18187,7 @@
         <v>43699</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18244,7 +18244,7 @@
         <v>43700</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18301,7 +18301,7 @@
         <v>43702</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18358,7 +18358,7 @@
         <v>43703</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18415,7 +18415,7 @@
         <v>43703</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18472,7 +18472,7 @@
         <v>43703</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18529,7 +18529,7 @@
         <v>43705</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18586,7 +18586,7 @@
         <v>43707</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18643,7 +18643,7 @@
         <v>43707</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>43710</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18757,7 +18757,7 @@
         <v>43712</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18814,7 +18814,7 @@
         <v>43712</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>43713</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>43713</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>43713</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>43714</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19114,7 +19114,7 @@
         <v>43718</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         <v>43719</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19228,7 +19228,7 @@
         <v>43719</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19285,7 +19285,7 @@
         <v>43722</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19342,7 +19342,7 @@
         <v>43724</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19399,7 +19399,7 @@
         <v>43724</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19456,7 +19456,7 @@
         <v>43724</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19513,7 +19513,7 @@
         <v>43726</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19570,7 +19570,7 @@
         <v>43726</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19627,7 +19627,7 @@
         <v>43728</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>43732</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>43733</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>43734</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>43740</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>43740</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>43740</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>43742</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>43742</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>43742</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>43742</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>43742</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>43742</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>43745</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>43746</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>43746</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>43746</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>43747</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>43748</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>43751</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>43754</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>43756</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>43756</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>43756</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>43756</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21057,7 +21057,7 @@
         <v>43756</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21114,7 +21114,7 @@
         <v>43760</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
         <v>43762</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>43762</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>43764</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>43767</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21399,7 +21399,7 @@
         <v>43767</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>43767</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>43769</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>43769</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>43769</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>43769</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>43772</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         <v>43774</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>43776</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21927,7 +21927,7 @@
         <v>43776</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         <v>43776</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22046,7 +22046,7 @@
         <v>43776</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22108,7 +22108,7 @@
         <v>43776</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22170,7 +22170,7 @@
         <v>43776</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22232,7 +22232,7 @@
         <v>43776</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>43776</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>43777</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>43780</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>43780</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22522,7 +22522,7 @@
         <v>43780</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22579,7 +22579,7 @@
         <v>43782</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>43783</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22698,7 +22698,7 @@
         <v>43783</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22760,7 +22760,7 @@
         <v>43783</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22822,7 +22822,7 @@
         <v>43794</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22879,7 +22879,7 @@
         <v>43794</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22936,7 +22936,7 @@
         <v>43795</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22993,7 +22993,7 @@
         <v>43797</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23050,7 +23050,7 @@
         <v>43800</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23107,7 +23107,7 @@
         <v>43803</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23164,7 +23164,7 @@
         <v>43803</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23221,7 +23221,7 @@
         <v>43803</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23278,7 +23278,7 @@
         <v>43807</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23335,7 +23335,7 @@
         <v>43808</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23392,7 +23392,7 @@
         <v>43808</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
         <v>43808</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         <v>43808</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         <v>43810</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>43810</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23687,7 +23687,7 @@
         <v>43810</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23749,7 +23749,7 @@
         <v>43810</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23811,7 +23811,7 @@
         <v>43810</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23873,7 +23873,7 @@
         <v>43811</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         <v>43811</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>43811</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24044,7 +24044,7 @@
         <v>43815</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24101,7 +24101,7 @@
         <v>43816</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24158,7 +24158,7 @@
         <v>43816</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>43817</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>43833</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>43833</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
         <v>43838</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>43842</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>43843</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24567,7 +24567,7 @@
         <v>43847</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>43847</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>43847</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24738,7 +24738,7 @@
         <v>43847</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24795,7 +24795,7 @@
         <v>43850</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24852,7 +24852,7 @@
         <v>43850</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24909,7 +24909,7 @@
         <v>43850</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24966,7 +24966,7 @@
         <v>43858</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25023,7 +25023,7 @@
         <v>43858</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25080,7 +25080,7 @@
         <v>43859</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25142,7 +25142,7 @@
         <v>43864</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25199,7 +25199,7 @@
         <v>43865</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25256,7 +25256,7 @@
         <v>43865</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>43867</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>43872</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25427,7 +25427,7 @@
         <v>43872</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25484,7 +25484,7 @@
         <v>43873</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25541,7 +25541,7 @@
         <v>43873</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25598,7 +25598,7 @@
         <v>43878</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25655,7 +25655,7 @@
         <v>43878</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25712,7 +25712,7 @@
         <v>43879</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25769,7 +25769,7 @@
         <v>43879</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25831,7 +25831,7 @@
         <v>43879</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25888,7 +25888,7 @@
         <v>43880</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25945,7 +25945,7 @@
         <v>43882</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26002,7 +26002,7 @@
         <v>43885</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26059,7 +26059,7 @@
         <v>43885</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>43886</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>43887</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26230,7 +26230,7 @@
         <v>43889</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26292,7 +26292,7 @@
         <v>43889</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>43892</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26411,7 +26411,7 @@
         <v>43899</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26468,7 +26468,7 @@
         <v>43900</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26525,7 +26525,7 @@
         <v>43900</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26582,7 +26582,7 @@
         <v>43902</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26639,7 +26639,7 @@
         <v>43906</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26696,7 +26696,7 @@
         <v>43907</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26753,7 +26753,7 @@
         <v>43910</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26810,7 +26810,7 @@
         <v>43910</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26867,7 +26867,7 @@
         <v>43913</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         <v>43913</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26981,7 +26981,7 @@
         <v>43913</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27043,7 +27043,7 @@
         <v>43913</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27100,7 +27100,7 @@
         <v>43916</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27157,7 +27157,7 @@
         <v>43921</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27214,7 +27214,7 @@
         <v>43921</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27271,7 +27271,7 @@
         <v>43921</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27328,7 +27328,7 @@
         <v>43922</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27390,7 +27390,7 @@
         <v>43924</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27452,7 +27452,7 @@
         <v>43924</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27514,7 +27514,7 @@
         <v>43924</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27576,7 +27576,7 @@
         <v>43924</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27638,7 +27638,7 @@
         <v>43924</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27700,7 +27700,7 @@
         <v>43929</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27757,7 +27757,7 @@
         <v>43936</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27814,7 +27814,7 @@
         <v>43943</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27871,7 +27871,7 @@
         <v>43951</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27928,7 +27928,7 @@
         <v>43951</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27985,7 +27985,7 @@
         <v>43955</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28042,7 +28042,7 @@
         <v>43958</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         <v>43960</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28156,7 +28156,7 @@
         <v>43960</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28213,7 +28213,7 @@
         <v>43964</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28270,7 +28270,7 @@
         <v>43964</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28327,7 +28327,7 @@
         <v>43965</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28389,7 +28389,7 @@
         <v>43965</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28451,7 +28451,7 @@
         <v>43969</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28508,7 +28508,7 @@
         <v>43969</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28565,7 +28565,7 @@
         <v>43970</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28622,7 +28622,7 @@
         <v>43970</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28679,7 +28679,7 @@
         <v>43971</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28736,7 +28736,7 @@
         <v>43971</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28793,7 +28793,7 @@
         <v>43977</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28855,7 +28855,7 @@
         <v>43977</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         <v>43977</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28979,7 +28979,7 @@
         <v>43986</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29036,7 +29036,7 @@
         <v>43986</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29093,7 +29093,7 @@
         <v>43994</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29155,7 +29155,7 @@
         <v>44004</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29212,7 +29212,7 @@
         <v>44012</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29269,7 +29269,7 @@
         <v>44014</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29326,7 +29326,7 @@
         <v>44018</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29383,7 +29383,7 @@
         <v>44018</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29440,7 +29440,7 @@
         <v>44021</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29497,7 +29497,7 @@
         <v>44022</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29554,7 +29554,7 @@
         <v>44022</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         <v>44026</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>44027</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29725,7 +29725,7 @@
         <v>44028</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29782,7 +29782,7 @@
         <v>44033</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29839,7 +29839,7 @@
         <v>44034</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29896,7 +29896,7 @@
         <v>44036</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29953,7 +29953,7 @@
         <v>44040</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30010,7 +30010,7 @@
         <v>44042</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30067,7 +30067,7 @@
         <v>44047</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30124,7 +30124,7 @@
         <v>44047</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30181,7 +30181,7 @@
         <v>44047</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30238,7 +30238,7 @@
         <v>44048</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30295,7 +30295,7 @@
         <v>44050</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30352,7 +30352,7 @@
         <v>44053</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>44053</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         <v>44053</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30523,7 +30523,7 @@
         <v>44060</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30580,7 +30580,7 @@
         <v>44061</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30642,7 +30642,7 @@
         <v>44061</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30699,7 +30699,7 @@
         <v>44061</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30756,7 +30756,7 @@
         <v>44061</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30813,7 +30813,7 @@
         <v>44063</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30870,7 +30870,7 @@
         <v>44063</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30927,7 +30927,7 @@
         <v>44064</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30984,7 +30984,7 @@
         <v>44067</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31041,7 +31041,7 @@
         <v>44068</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31098,7 +31098,7 @@
         <v>44068</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31155,7 +31155,7 @@
         <v>44068</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31212,7 +31212,7 @@
         <v>44069</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31269,7 +31269,7 @@
         <v>44071</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31326,7 +31326,7 @@
         <v>44071</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>44075</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31440,7 +31440,7 @@
         <v>44075</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31497,7 +31497,7 @@
         <v>44076</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31559,7 +31559,7 @@
         <v>44076</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31621,7 +31621,7 @@
         <v>44081</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31678,7 +31678,7 @@
         <v>44083</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31735,7 +31735,7 @@
         <v>44084</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31792,7 +31792,7 @@
         <v>44084</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>44084</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         <v>44084</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31963,7 +31963,7 @@
         <v>44087</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>44087</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>44090</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>44090</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>44091</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>44092</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32305,7 +32305,7 @@
         <v>44097</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32362,7 +32362,7 @@
         <v>44097</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32424,7 +32424,7 @@
         <v>44099</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32481,7 +32481,7 @@
         <v>44106</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32543,7 +32543,7 @@
         <v>44110</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32605,7 +32605,7 @@
         <v>44110</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32662,7 +32662,7 @@
         <v>44113</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32724,7 +32724,7 @@
         <v>44118</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32781,7 +32781,7 @@
         <v>44124</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32838,7 +32838,7 @@
         <v>44126</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32895,7 +32895,7 @@
         <v>44126</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32952,7 +32952,7 @@
         <v>44134</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33009,7 +33009,7 @@
         <v>44137</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33071,7 +33071,7 @@
         <v>44146</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33128,7 +33128,7 @@
         <v>44146</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33185,7 +33185,7 @@
         <v>44151</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33242,7 +33242,7 @@
         <v>44151</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33299,7 +33299,7 @@
         <v>44151</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33356,7 +33356,7 @@
         <v>44154</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33413,7 +33413,7 @@
         <v>44159</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33470,7 +33470,7 @@
         <v>44162</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33527,7 +33527,7 @@
         <v>44162</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33584,7 +33584,7 @@
         <v>44172</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33641,7 +33641,7 @@
         <v>44179</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33698,7 +33698,7 @@
         <v>44182</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33755,7 +33755,7 @@
         <v>44186</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33812,7 +33812,7 @@
         <v>44186</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33869,7 +33869,7 @@
         <v>44186</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33926,7 +33926,7 @@
         <v>44186</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33983,7 +33983,7 @@
         <v>44188</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34040,7 +34040,7 @@
         <v>44193</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34097,7 +34097,7 @@
         <v>44193</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34154,7 +34154,7 @@
         <v>44193</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34216,7 +34216,7 @@
         <v>44193</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34273,7 +34273,7 @@
         <v>44195</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34330,7 +34330,7 @@
         <v>44201</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34387,7 +34387,7 @@
         <v>44203</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34444,7 +34444,7 @@
         <v>44215</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34501,7 +34501,7 @@
         <v>44216</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34558,7 +34558,7 @@
         <v>44218</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34615,7 +34615,7 @@
         <v>44223</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34672,7 +34672,7 @@
         <v>44223</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34729,7 +34729,7 @@
         <v>44223</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         <v>44229</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34843,7 +34843,7 @@
         <v>44236</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34905,7 +34905,7 @@
         <v>44243</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34962,7 +34962,7 @@
         <v>44250</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35019,7 +35019,7 @@
         <v>44250</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35076,7 +35076,7 @@
         <v>44252</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35138,7 +35138,7 @@
         <v>44252</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35200,7 +35200,7 @@
         <v>44258</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35257,7 +35257,7 @@
         <v>44259</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35314,7 +35314,7 @@
         <v>44260</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35376,7 +35376,7 @@
         <v>44263</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35433,7 +35433,7 @@
         <v>44274</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35490,7 +35490,7 @@
         <v>44274</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35547,7 +35547,7 @@
         <v>44278</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35604,7 +35604,7 @@
         <v>44295</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         <v>44300</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35723,7 +35723,7 @@
         <v>44308</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35780,7 +35780,7 @@
         <v>44314</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35837,7 +35837,7 @@
         <v>44319</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35894,7 +35894,7 @@
         <v>44320</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35951,7 +35951,7 @@
         <v>44326</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36008,7 +36008,7 @@
         <v>44334</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36065,7 +36065,7 @@
         <v>44337</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36122,7 +36122,7 @@
         <v>44349</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36184,7 +36184,7 @@
         <v>44353</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36241,7 +36241,7 @@
         <v>44354</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36303,7 +36303,7 @@
         <v>44373</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36360,7 +36360,7 @@
         <v>44375</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36417,7 +36417,7 @@
         <v>44375</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36474,7 +36474,7 @@
         <v>44375</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36531,7 +36531,7 @@
         <v>44375</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36588,7 +36588,7 @@
         <v>44375</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36645,7 +36645,7 @@
         <v>44382</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36702,7 +36702,7 @@
         <v>44386</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36759,7 +36759,7 @@
         <v>44411</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36816,7 +36816,7 @@
         <v>44419</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36873,7 +36873,7 @@
         <v>44420</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36930,7 +36930,7 @@
         <v>44420</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36987,7 +36987,7 @@
         <v>44420</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37044,7 +37044,7 @@
         <v>44426</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37101,7 +37101,7 @@
         <v>44432</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37158,7 +37158,7 @@
         <v>44433</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37220,7 +37220,7 @@
         <v>44434</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37277,7 +37277,7 @@
         <v>44438</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37334,7 +37334,7 @@
         <v>44438</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37391,7 +37391,7 @@
         <v>44439</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37448,7 +37448,7 @@
         <v>44441</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37505,7 +37505,7 @@
         <v>44447</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37562,7 +37562,7 @@
         <v>44447</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37624,7 +37624,7 @@
         <v>44449</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37681,7 +37681,7 @@
         <v>44456</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37738,7 +37738,7 @@
         <v>44468</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37800,7 +37800,7 @@
         <v>44468</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37862,7 +37862,7 @@
         <v>44470</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37919,7 +37919,7 @@
         <v>44473</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37976,7 +37976,7 @@
         <v>44473</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38033,7 +38033,7 @@
         <v>44473</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38090,7 +38090,7 @@
         <v>44477</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38147,7 +38147,7 @@
         <v>44480</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38204,7 +38204,7 @@
         <v>44482</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38261,7 +38261,7 @@
         <v>44484</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38323,7 +38323,7 @@
         <v>44484</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38380,7 +38380,7 @@
         <v>44488</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38437,7 +38437,7 @@
         <v>44490</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38494,7 +38494,7 @@
         <v>44496</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38551,7 +38551,7 @@
         <v>44502</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38608,7 +38608,7 @@
         <v>44511</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38665,7 +38665,7 @@
         <v>44516</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38722,7 +38722,7 @@
         <v>44526</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38779,7 +38779,7 @@
         <v>44526</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38836,7 +38836,7 @@
         <v>44529</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38893,7 +38893,7 @@
         <v>44530</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38950,7 +38950,7 @@
         <v>44532</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39007,7 +39007,7 @@
         <v>44532</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39064,7 +39064,7 @@
         <v>44536</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39121,7 +39121,7 @@
         <v>44549</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39178,7 +39178,7 @@
         <v>44552</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39235,7 +39235,7 @@
         <v>44564</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39292,7 +39292,7 @@
         <v>44564</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39349,7 +39349,7 @@
         <v>44565</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39406,7 +39406,7 @@
         <v>44582</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39463,7 +39463,7 @@
         <v>44582</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39525,7 +39525,7 @@
         <v>44587</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39582,7 +39582,7 @@
         <v>44592</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39639,7 +39639,7 @@
         <v>44593</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39696,7 +39696,7 @@
         <v>44593</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39753,7 +39753,7 @@
         <v>44594</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39810,7 +39810,7 @@
         <v>44594</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39867,7 +39867,7 @@
         <v>44599</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39924,7 +39924,7 @@
         <v>44608</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39981,7 +39981,7 @@
         <v>44610</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40043,7 +40043,7 @@
         <v>44612</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40105,7 +40105,7 @@
         <v>44614</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40162,7 +40162,7 @@
         <v>44623</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40219,7 +40219,7 @@
         <v>44624</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40276,7 +40276,7 @@
         <v>44624</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40333,7 +40333,7 @@
         <v>44643</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40390,7 +40390,7 @@
         <v>44645</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40447,7 +40447,7 @@
         <v>44651</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40504,7 +40504,7 @@
         <v>44651</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40566,7 +40566,7 @@
         <v>44655</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40623,7 +40623,7 @@
         <v>44673</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40680,7 +40680,7 @@
         <v>44676</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40737,7 +40737,7 @@
         <v>44683</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40794,7 +40794,7 @@
         <v>44686</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40856,7 +40856,7 @@
         <v>44694</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40913,7 +40913,7 @@
         <v>44705</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40970,7 +40970,7 @@
         <v>44712</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41027,7 +41027,7 @@
         <v>44713</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41084,7 +41084,7 @@
         <v>44714</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41141,7 +41141,7 @@
         <v>44719</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41198,7 +41198,7 @@
         <v>44725</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41255,7 +41255,7 @@
         <v>44725</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41312,7 +41312,7 @@
         <v>44741</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41369,7 +41369,7 @@
         <v>44749</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         <v>44755</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41483,7 +41483,7 @@
         <v>44794</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41540,7 +41540,7 @@
         <v>44794</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41597,7 +41597,7 @@
         <v>44811</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41654,7 +41654,7 @@
         <v>44811</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41711,7 +41711,7 @@
         <v>44819</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41768,7 +41768,7 @@
         <v>44824</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41825,7 +41825,7 @@
         <v>44826</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41882,7 +41882,7 @@
         <v>44827</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41939,7 +41939,7 @@
         <v>44827</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41996,7 +41996,7 @@
         <v>44827</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42053,7 +42053,7 @@
         <v>44827</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42110,7 +42110,7 @@
         <v>44827</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42167,7 +42167,7 @@
         <v>44827</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42224,7 +42224,7 @@
         <v>44831</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42281,7 +42281,7 @@
         <v>44831</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42338,7 +42338,7 @@
         <v>44831</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42395,7 +42395,7 @@
         <v>44833</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42452,7 +42452,7 @@
         <v>44833</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42509,7 +42509,7 @@
         <v>44834</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42566,7 +42566,7 @@
         <v>44846</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42623,7 +42623,7 @@
         <v>44862</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42685,7 +42685,7 @@
         <v>44875</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42742,7 +42742,7 @@
         <v>44876</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42799,7 +42799,7 @@
         <v>44880</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42856,7 +42856,7 @@
         <v>44882</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42913,7 +42913,7 @@
         <v>44893</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42975,7 +42975,7 @@
         <v>44894</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43032,7 +43032,7 @@
         <v>44895</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43094,7 +43094,7 @@
         <v>44901</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43156,7 +43156,7 @@
         <v>44910</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43213,7 +43213,7 @@
         <v>44917</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43270,7 +43270,7 @@
         <v>44928</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43332,7 +43332,7 @@
         <v>44928</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43389,7 +43389,7 @@
         <v>44935</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43446,7 +43446,7 @@
         <v>44938</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43503,7 +43503,7 @@
         <v>44939</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43560,7 +43560,7 @@
         <v>44939</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43617,7 +43617,7 @@
         <v>44942</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43674,7 +43674,7 @@
         <v>44942</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43731,7 +43731,7 @@
         <v>44943</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43788,7 +43788,7 @@
         <v>44952</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43845,7 +43845,7 @@
         <v>44960</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43907,7 +43907,7 @@
         <v>44963</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43964,7 +43964,7 @@
         <v>44966</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44021,7 +44021,7 @@
         <v>44970</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44078,7 +44078,7 @@
         <v>44971</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44135,7 +44135,7 @@
         <v>44971</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44192,7 +44192,7 @@
         <v>44977</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44249,7 +44249,7 @@
         <v>44988</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         <v>44988</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44363,7 +44363,7 @@
         <v>44991</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44420,7 +44420,7 @@
         <v>44994</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44477,7 +44477,7 @@
         <v>44995</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44534,7 +44534,7 @@
         <v>44999</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44591,7 +44591,7 @@
         <v>45007</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44648,7 +44648,7 @@
         <v>45013</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44705,7 +44705,7 @@
         <v>45013</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44762,7 +44762,7 @@
         <v>45016</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44819,7 +44819,7 @@
         <v>45016</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44876,7 +44876,7 @@
         <v>45016</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44933,7 +44933,7 @@
         <v>45026</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44990,7 +44990,7 @@
         <v>45028</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45047,7 +45047,7 @@
         <v>45030</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45109,7 +45109,7 @@
         <v>45030</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45171,7 +45171,7 @@
         <v>45033</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45228,7 +45228,7 @@
         <v>45047</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45285,7 +45285,7 @@
         <v>45048</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45342,7 +45342,7 @@
         <v>45049</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45399,7 +45399,7 @@
         <v>45054</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45456,7 +45456,7 @@
         <v>45054</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45513,7 +45513,7 @@
         <v>45054</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45570,7 +45570,7 @@
         <v>45054</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45627,7 +45627,7 @@
         <v>45055</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45684,7 +45684,7 @@
         <v>45061</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45746,7 +45746,7 @@
         <v>45061</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45803,7 +45803,7 @@
         <v>45063</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45860,7 +45860,7 @@
         <v>45070</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45917,7 +45917,7 @@
         <v>45071</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45974,7 +45974,7 @@
         <v>45071</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46031,7 +46031,7 @@
         <v>45071</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46088,7 +46088,7 @@
         <v>45077</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46145,7 +46145,7 @@
         <v>45079</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46202,7 +46202,7 @@
         <v>45079</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46259,7 +46259,7 @@
         <v>45079</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46316,7 +46316,7 @@
         <v>45081</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46373,7 +46373,7 @@
         <v>45085</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46430,7 +46430,7 @@
         <v>45092</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46487,7 +46487,7 @@
         <v>45093</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46564,7 +46564,7 @@
         <v>45099</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46621,7 +46621,7 @@
         <v>45099</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46678,7 +46678,7 @@
         <v>45099</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46735,7 +46735,7 @@
         <v>45099</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46792,7 +46792,7 @@
         <v>45099</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46849,7 +46849,7 @@
         <v>45099</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46906,7 +46906,7 @@
         <v>45099</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46963,7 +46963,7 @@
         <v>45099</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47020,7 +47020,7 @@
         <v>45099</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47077,7 +47077,7 @@
         <v>45099</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47134,7 +47134,7 @@
         <v>45099</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47191,7 +47191,7 @@
         <v>45099</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47248,7 +47248,7 @@
         <v>45103</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47305,7 +47305,7 @@
         <v>45104</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47362,7 +47362,7 @@
         <v>45105</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47419,7 +47419,7 @@
         <v>45113</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47476,7 +47476,7 @@
         <v>45113</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47533,7 +47533,7 @@
         <v>45127</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47590,7 +47590,7 @@
         <v>45127</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47647,7 +47647,7 @@
         <v>45148</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47704,7 +47704,7 @@
         <v>45149</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47761,7 +47761,7 @@
         <v>45153</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47818,7 +47818,7 @@
         <v>45160</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47875,7 +47875,7 @@
         <v>45161</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47932,7 +47932,7 @@
         <v>45168</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47994,7 +47994,7 @@
         <v>45168</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48051,7 +48051,7 @@
         <v>45168</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48113,7 +48113,7 @@
         <v>45180</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>

--- a/Översikt HULTSFRED.xlsx
+++ b/Översikt HULTSFRED.xlsx
@@ -572,7 +572,7 @@
         <v>43874</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>44894</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>44468</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
         <v>44175</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>43753</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1080,7 +1080,7 @@
         <v>43921</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44069</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>43438</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>43507</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>43845</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>43916</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>43986</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>43426</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43447</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43874</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>44258</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>44474</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>44551</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>44224</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>44641</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
         <v>44809</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44822</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>45026</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43343</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>43405</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>43418</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>43419</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>43489</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43682</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>44060</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>44083</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44098</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>44235</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>44235</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>44278</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>44280</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         <v>44468</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>44559</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>44565</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>44909</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>45053</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>43438</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43493</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>43545</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>43591</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>43702</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>43889</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43902</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4901,7 +4901,7 @@
         <v>43920</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
         <v>43962</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>44053</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         <v>44124</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>44159</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>44180</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>44295</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>44341</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>44375</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>44417</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>44455</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v>44526</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>44876</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         <v>44928</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6110,7 +6110,7 @@
         <v>44980</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         <v>45016</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>45093</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>43328</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>43329</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>43336</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>43340</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>43340</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>43342</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43357</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>43364</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43364</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43364</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43364</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>43370</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>43371</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>43375</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         <v>43377</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7220,7 +7220,7 @@
         <v>43385</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
         <v>43388</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7334,7 +7334,7 @@
         <v>43390</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7391,7 +7391,7 @@
         <v>43392</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7448,7 +7448,7 @@
         <v>43395</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>43395</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>43396</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>43402</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         <v>43403</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7733,7 +7733,7 @@
         <v>43403</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         <v>43403</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         <v>43404</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>43405</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>43410</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>43411</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>43411</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>43411</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>43413</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43415</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>43416</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>43416</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>43417</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>43417</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>43418</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>43418</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>43419</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>43419</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43419</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>43420</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>43423</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>43425</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43425</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>43426</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>43426</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>43426</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43427</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>43430</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>43430</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>43430</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43431</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>43431</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43432</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>43432</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>43433</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>43433</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>43437</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>43438</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>43438</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>43438</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>43439</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>43439</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>43444</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>43444</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>43445</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>43446</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>43446</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>43448</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>43448</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>43454</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>43455</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>43466</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43467</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>43468</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>43468</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43469</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43469</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>43472</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>43472</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11116,7 +11116,7 @@
         <v>43472</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11173,7 +11173,7 @@
         <v>43472</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11230,7 +11230,7 @@
         <v>43473</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11287,7 +11287,7 @@
         <v>43473</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11344,7 +11344,7 @@
         <v>43474</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
         <v>43475</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>43475</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>43475</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>43475</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43475</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>43475</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11763,7 +11763,7 @@
         <v>43478</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11820,7 +11820,7 @@
         <v>43479</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11877,7 +11877,7 @@
         <v>43479</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11934,7 +11934,7 @@
         <v>43480</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11991,7 +11991,7 @@
         <v>43481</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12048,7 +12048,7 @@
         <v>43484</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12105,7 +12105,7 @@
         <v>43486</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12162,7 +12162,7 @@
         <v>43488</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12219,7 +12219,7 @@
         <v>43488</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12276,7 +12276,7 @@
         <v>43489</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12333,7 +12333,7 @@
         <v>43489</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12390,7 +12390,7 @@
         <v>43490</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>43493</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12514,7 +12514,7 @@
         <v>43494</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12571,7 +12571,7 @@
         <v>43494</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12628,7 +12628,7 @@
         <v>43494</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12685,7 +12685,7 @@
         <v>43496</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>43497</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>43497</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         <v>43497</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>43497</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12975,7 +12975,7 @@
         <v>43500</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13032,7 +13032,7 @@
         <v>43504</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13089,7 +13089,7 @@
         <v>43511</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>43516</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>43516</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>43520</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>43522</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>43523</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>43524</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>43525</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>43526</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>43528</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>43528</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>43528</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>43528</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13835,7 +13835,7 @@
         <v>43530</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13892,7 +13892,7 @@
         <v>43532</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13949,7 +13949,7 @@
         <v>43539</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14006,7 +14006,7 @@
         <v>43542</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14063,7 +14063,7 @@
         <v>43550</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14120,7 +14120,7 @@
         <v>43551</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14177,7 +14177,7 @@
         <v>43551</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>43551</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>43551</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14348,7 +14348,7 @@
         <v>43556</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>43557</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14462,7 +14462,7 @@
         <v>43558</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>43565</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>43570</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14638,7 +14638,7 @@
         <v>43571</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14695,7 +14695,7 @@
         <v>43572</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>43578</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>43579</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>43584</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>43584</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>43584</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>43584</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>43584</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>43585</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>43587</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>43587</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         <v>43593</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>43595</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>43605</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>43605</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>43627</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>43628</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>43628</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>43628</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>43633</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>43634</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>43634</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>43634</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>43635</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>43635</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>43640</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>43640</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>43641</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>43642</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>43643</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>43643</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>43643</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16534,7 +16534,7 @@
         <v>43644</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16591,7 +16591,7 @@
         <v>43647</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16648,7 +16648,7 @@
         <v>43654</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>43656</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>43658</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16819,7 +16819,7 @@
         <v>43661</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>43665</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16933,7 +16933,7 @@
         <v>43665</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16990,7 +16990,7 @@
         <v>43667</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17047,7 +17047,7 @@
         <v>43668</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17104,7 +17104,7 @@
         <v>43669</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17161,7 +17161,7 @@
         <v>43670</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17218,7 +17218,7 @@
         <v>43675</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17275,7 +17275,7 @@
         <v>43677</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17332,7 +17332,7 @@
         <v>43682</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>43682</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>43682</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>43683</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>43683</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>43683</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>43689</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>43690</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>43691</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17845,7 +17845,7 @@
         <v>43692</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>43696</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17959,7 +17959,7 @@
         <v>43696</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18016,7 +18016,7 @@
         <v>43697</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18073,7 +18073,7 @@
         <v>43697</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18130,7 +18130,7 @@
         <v>43698</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18187,7 +18187,7 @@
         <v>43699</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18244,7 +18244,7 @@
         <v>43700</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18301,7 +18301,7 @@
         <v>43702</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18358,7 +18358,7 @@
         <v>43703</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18415,7 +18415,7 @@
         <v>43703</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18472,7 +18472,7 @@
         <v>43703</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18529,7 +18529,7 @@
         <v>43705</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18586,7 +18586,7 @@
         <v>43707</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18643,7 +18643,7 @@
         <v>43707</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>43710</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18757,7 +18757,7 @@
         <v>43712</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18814,7 +18814,7 @@
         <v>43712</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>43713</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>43713</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>43713</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
  